--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.434176</v>
+        <v>0.421282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.622761</v>
+        <v>0.384835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.394344</v>
+        <v>0.396893</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.419743</v>
+        <v>0.437363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.619372</v>
+        <v>0.391302</v>
       </c>
       <c r="D3" t="n">
-        <v>0.389621</v>
+        <v>0.398088</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.410878</v>
+        <v>0.42394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.615546</v>
+        <v>0.382536</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39493</v>
+        <v>0.386011</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.421152</v>
+        <v>0.427786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6194229999999999</v>
+        <v>0.378138</v>
       </c>
       <c r="D5" t="n">
-        <v>0.404315</v>
+        <v>0.388097</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.424695</v>
+        <v>0.423733</v>
       </c>
       <c r="C6" t="n">
-        <v>0.60912</v>
+        <v>0.382404</v>
       </c>
       <c r="D6" t="n">
-        <v>0.396832</v>
+        <v>0.393105</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.414128</v>
+        <v>0.429899</v>
       </c>
       <c r="C7" t="n">
-        <v>0.621887</v>
+        <v>0.373347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.387934</v>
+        <v>0.383046</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.428744</v>
+        <v>0.431659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.630153</v>
+        <v>0.379213</v>
       </c>
       <c r="D8" t="n">
-        <v>0.391158</v>
+        <v>0.387945</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.429603</v>
+        <v>0.435854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.629311</v>
+        <v>0.377814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.397756</v>
+        <v>0.393183</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.428669</v>
+        <v>0.443502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.618783</v>
+        <v>0.374726</v>
       </c>
       <c r="D10" t="n">
-        <v>0.399582</v>
+        <v>0.396966</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.446831</v>
+        <v>0.443396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.638734</v>
+        <v>0.375273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.399159</v>
+        <v>0.395596</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.440739</v>
+        <v>0.451206</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6468739999999999</v>
+        <v>0.378247</v>
       </c>
       <c r="D12" t="n">
-        <v>0.409328</v>
+        <v>0.405123</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.41856</v>
+        <v>0.430754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.642198</v>
+        <v>0.38395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.408402</v>
+        <v>0.403522</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.424624</v>
+        <v>0.430336</v>
       </c>
       <c r="C14" t="n">
-        <v>0.637395</v>
+        <v>0.389337</v>
       </c>
       <c r="D14" t="n">
-        <v>0.412955</v>
+        <v>0.415736</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.429867</v>
+        <v>0.436008</v>
       </c>
       <c r="C15" t="n">
-        <v>0.640469</v>
+        <v>0.385604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.418167</v>
+        <v>0.41312</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.430914</v>
+        <v>0.442158</v>
       </c>
       <c r="C16" t="n">
-        <v>0.65195</v>
+        <v>0.389384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.428558</v>
+        <v>0.420037</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.441843</v>
+        <v>0.455146</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6343800000000001</v>
+        <v>0.391511</v>
       </c>
       <c r="D17" t="n">
-        <v>0.416243</v>
+        <v>0.421036</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.447915</v>
+        <v>0.455767</v>
       </c>
       <c r="C18" t="n">
-        <v>0.652022</v>
+        <v>0.396751</v>
       </c>
       <c r="D18" t="n">
-        <v>0.431414</v>
+        <v>0.424745</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.435597</v>
+        <v>0.451757</v>
       </c>
       <c r="C19" t="n">
-        <v>0.644983</v>
+        <v>0.398936</v>
       </c>
       <c r="D19" t="n">
-        <v>0.422699</v>
+        <v>0.430981</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.462119</v>
+        <v>0.455473</v>
       </c>
       <c r="C20" t="n">
-        <v>0.64275</v>
+        <v>0.404328</v>
       </c>
       <c r="D20" t="n">
-        <v>0.438354</v>
+        <v>0.434527</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.46727</v>
+        <v>0.467311</v>
       </c>
       <c r="C21" t="n">
-        <v>0.671543</v>
+        <v>0.396989</v>
       </c>
       <c r="D21" t="n">
-        <v>0.444711</v>
+        <v>0.416925</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.476132</v>
+        <v>0.467734</v>
       </c>
       <c r="C22" t="n">
-        <v>0.693715</v>
+        <v>0.394541</v>
       </c>
       <c r="D22" t="n">
-        <v>0.433415</v>
+        <v>0.41999</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.477166</v>
+        <v>0.475626</v>
       </c>
       <c r="C23" t="n">
-        <v>0.673893</v>
+        <v>0.395597</v>
       </c>
       <c r="D23" t="n">
-        <v>0.438066</v>
+        <v>0.435521</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.460873</v>
+        <v>0.477998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.680925</v>
+        <v>0.396047</v>
       </c>
       <c r="D24" t="n">
-        <v>0.445065</v>
+        <v>0.433793</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.464728</v>
+        <v>0.485379</v>
       </c>
       <c r="C25" t="n">
-        <v>0.672786</v>
+        <v>0.403091</v>
       </c>
       <c r="D25" t="n">
-        <v>0.443754</v>
+        <v>0.43902</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.529898</v>
+        <v>0.484734</v>
       </c>
       <c r="C26" t="n">
-        <v>0.688652</v>
+        <v>0.409312</v>
       </c>
       <c r="D26" t="n">
-        <v>0.465342</v>
+        <v>0.4463</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.540371</v>
+        <v>0.546637</v>
       </c>
       <c r="C27" t="n">
-        <v>0.692484</v>
+        <v>0.408524</v>
       </c>
       <c r="D27" t="n">
-        <v>0.463144</v>
+        <v>0.452637</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.562462</v>
+        <v>0.55522</v>
       </c>
       <c r="C28" t="n">
-        <v>0.696964</v>
+        <v>0.419152</v>
       </c>
       <c r="D28" t="n">
-        <v>0.485237</v>
+        <v>0.459487</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.571891</v>
+        <v>0.558755</v>
       </c>
       <c r="C29" t="n">
-        <v>0.714449</v>
+        <v>0.415624</v>
       </c>
       <c r="D29" t="n">
-        <v>0.504439</v>
+        <v>0.46187</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5726290000000001</v>
+        <v>0.565986</v>
       </c>
       <c r="C30" t="n">
-        <v>0.707138</v>
+        <v>0.423603</v>
       </c>
       <c r="D30" t="n">
-        <v>0.495945</v>
+        <v>0.471827</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.588414</v>
+        <v>0.5917790000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.72127</v>
+        <v>0.435092</v>
       </c>
       <c r="D31" t="n">
-        <v>0.528014</v>
+        <v>0.477044</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5938560000000001</v>
+        <v>0.595421</v>
       </c>
       <c r="C32" t="n">
-        <v>0.708649</v>
+        <v>0.439289</v>
       </c>
       <c r="D32" t="n">
-        <v>0.514303</v>
+        <v>0.486465</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.628952</v>
+        <v>0.611804</v>
       </c>
       <c r="C33" t="n">
-        <v>0.722781</v>
+        <v>0.445229</v>
       </c>
       <c r="D33" t="n">
-        <v>0.532907</v>
+        <v>0.498417</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.623708</v>
+        <v>0.624865</v>
       </c>
       <c r="C34" t="n">
-        <v>0.725864</v>
+        <v>0.465589</v>
       </c>
       <c r="D34" t="n">
-        <v>0.53649</v>
+        <v>0.51718</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.636303</v>
+        <v>0.651776</v>
       </c>
       <c r="C35" t="n">
-        <v>0.800751</v>
+        <v>0.5119899999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.633599</v>
+        <v>0.628654</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.658606</v>
+        <v>0.670569</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8062589999999999</v>
+        <v>0.508205</v>
       </c>
       <c r="D36" t="n">
-        <v>0.658382</v>
+        <v>0.634172</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.691389</v>
+        <v>0.686983</v>
       </c>
       <c r="C37" t="n">
-        <v>0.81455</v>
+        <v>0.525562</v>
       </c>
       <c r="D37" t="n">
-        <v>0.681686</v>
+        <v>0.648445</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.694789</v>
+        <v>0.689724</v>
       </c>
       <c r="C38" t="n">
-        <v>0.832553</v>
+        <v>0.537683</v>
       </c>
       <c r="D38" t="n">
-        <v>0.705168</v>
+        <v>0.676778</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.709223</v>
+        <v>0.728555</v>
       </c>
       <c r="C39" t="n">
-        <v>0.858047</v>
+        <v>0.544831</v>
       </c>
       <c r="D39" t="n">
-        <v>0.687708</v>
+        <v>0.68711</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.729725</v>
+        <v>0.750812</v>
       </c>
       <c r="C40" t="n">
-        <v>0.861629</v>
+        <v>0.558404</v>
       </c>
       <c r="D40" t="n">
-        <v>0.704619</v>
+        <v>0.708856</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.868637</v>
+        <v>0.885866</v>
       </c>
       <c r="C41" t="n">
-        <v>0.863012</v>
+        <v>0.58866</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7473</v>
+        <v>0.7373729999999999</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.878857</v>
+        <v>0.895743</v>
       </c>
       <c r="C42" t="n">
-        <v>0.883742</v>
+        <v>0.581929</v>
       </c>
       <c r="D42" t="n">
-        <v>0.767106</v>
+        <v>0.748212</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.896389</v>
+        <v>0.926494</v>
       </c>
       <c r="C43" t="n">
-        <v>0.883558</v>
+        <v>0.611108</v>
       </c>
       <c r="D43" t="n">
-        <v>0.783142</v>
+        <v>0.805966</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.932496</v>
+        <v>0.945217</v>
       </c>
       <c r="C44" t="n">
-        <v>0.921154</v>
+        <v>0.640567</v>
       </c>
       <c r="D44" t="n">
-        <v>0.806694</v>
+        <v>0.798563</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.935676</v>
+        <v>0.968812</v>
       </c>
       <c r="C45" t="n">
-        <v>0.938572</v>
+        <v>0.638833</v>
       </c>
       <c r="D45" t="n">
-        <v>0.820684</v>
+        <v>0.828129</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9632579999999999</v>
+        <v>1.02146</v>
       </c>
       <c r="C46" t="n">
-        <v>0.957039</v>
+        <v>0.670443</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8455859999999999</v>
+        <v>0.843606</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9910060000000001</v>
+        <v>1.03737</v>
       </c>
       <c r="C47" t="n">
-        <v>0.999728</v>
+        <v>0.685938</v>
       </c>
       <c r="D47" t="n">
-        <v>0.883501</v>
+        <v>0.907342</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.01532</v>
+        <v>1.0334</v>
       </c>
       <c r="C48" t="n">
-        <v>1.03781</v>
+        <v>0.717002</v>
       </c>
       <c r="D48" t="n">
-        <v>0.908338</v>
+        <v>0.903635</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02368</v>
+        <v>1.09434</v>
       </c>
       <c r="C49" t="n">
-        <v>1.05196</v>
+        <v>0.728834</v>
       </c>
       <c r="D49" t="n">
-        <v>0.92379</v>
+        <v>0.939767</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.07884</v>
+        <v>1.08869</v>
       </c>
       <c r="C50" t="n">
-        <v>1.25394</v>
+        <v>0.865627</v>
       </c>
       <c r="D50" t="n">
-        <v>1.14144</v>
+        <v>1.13107</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.10789</v>
+        <v>1.14231</v>
       </c>
       <c r="C51" t="n">
-        <v>1.27369</v>
+        <v>0.8791</v>
       </c>
       <c r="D51" t="n">
-        <v>1.13917</v>
+        <v>1.15892</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.10544</v>
+        <v>1.18671</v>
       </c>
       <c r="C52" t="n">
-        <v>1.29441</v>
+        <v>0.936281</v>
       </c>
       <c r="D52" t="n">
-        <v>1.19062</v>
+        <v>1.16278</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.16292</v>
+        <v>1.19223</v>
       </c>
       <c r="C53" t="n">
-        <v>1.31869</v>
+        <v>0.9491270000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>1.19644</v>
+        <v>1.20265</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.20813</v>
+        <v>1.24313</v>
       </c>
       <c r="C54" t="n">
-        <v>1.37374</v>
+        <v>0.965793</v>
       </c>
       <c r="D54" t="n">
-        <v>1.25843</v>
+        <v>1.24921</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2477</v>
+        <v>1.27661</v>
       </c>
       <c r="C55" t="n">
-        <v>1.39926</v>
+        <v>0.993449</v>
       </c>
       <c r="D55" t="n">
-        <v>1.26912</v>
+        <v>1.28569</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.41811</v>
+        <v>1.48596</v>
       </c>
       <c r="C56" t="n">
-        <v>1.42605</v>
+        <v>1.00679</v>
       </c>
       <c r="D56" t="n">
-        <v>1.32369</v>
+        <v>1.33339</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.48183</v>
+        <v>1.57939</v>
       </c>
       <c r="C57" t="n">
-        <v>1.47284</v>
+        <v>1.08178</v>
       </c>
       <c r="D57" t="n">
-        <v>1.33579</v>
+        <v>1.35139</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.5325</v>
+        <v>1.61019</v>
       </c>
       <c r="C58" t="n">
-        <v>1.5248</v>
+        <v>1.12719</v>
       </c>
       <c r="D58" t="n">
-        <v>1.40545</v>
+        <v>1.45582</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.5615</v>
+        <v>1.66771</v>
       </c>
       <c r="C59" t="n">
-        <v>1.53898</v>
+        <v>1.15259</v>
       </c>
       <c r="D59" t="n">
-        <v>1.44363</v>
+        <v>1.5124</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.60079</v>
+        <v>1.69593</v>
       </c>
       <c r="C60" t="n">
-        <v>1.61265</v>
+        <v>1.11789</v>
       </c>
       <c r="D60" t="n">
-        <v>1.48855</v>
+        <v>1.44972</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.66752</v>
+        <v>1.68877</v>
       </c>
       <c r="C61" t="n">
-        <v>1.63937</v>
+        <v>1.11833</v>
       </c>
       <c r="D61" t="n">
-        <v>1.53414</v>
+        <v>1.52783</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.70052</v>
+        <v>1.71463</v>
       </c>
       <c r="C62" t="n">
-        <v>1.60123</v>
+        <v>1.16897</v>
       </c>
       <c r="D62" t="n">
-        <v>1.64217</v>
+        <v>1.57527</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.75102</v>
+        <v>1.73738</v>
       </c>
       <c r="C63" t="n">
-        <v>1.77663</v>
+        <v>1.18418</v>
       </c>
       <c r="D63" t="n">
-        <v>1.67936</v>
+        <v>1.64663</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.72986</v>
+        <v>1.77317</v>
       </c>
       <c r="C64" t="n">
-        <v>1.88827</v>
+        <v>1.31854</v>
       </c>
       <c r="D64" t="n">
-        <v>1.92975</v>
+        <v>1.87817</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.7778</v>
+        <v>1.85277</v>
       </c>
       <c r="C65" t="n">
-        <v>1.82251</v>
+        <v>1.33881</v>
       </c>
       <c r="D65" t="n">
-        <v>1.97999</v>
+        <v>1.94322</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78155</v>
+        <v>1.91087</v>
       </c>
       <c r="C66" t="n">
-        <v>1.9379</v>
+        <v>1.35541</v>
       </c>
       <c r="D66" t="n">
-        <v>1.99479</v>
+        <v>1.95323</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.85189</v>
+        <v>1.85516</v>
       </c>
       <c r="C67" t="n">
-        <v>1.8999</v>
+        <v>1.36828</v>
       </c>
       <c r="D67" t="n">
-        <v>2.03631</v>
+        <v>2.02093</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.96404</v>
+        <v>1.94931</v>
       </c>
       <c r="C68" t="n">
-        <v>1.89267</v>
+        <v>1.41942</v>
       </c>
       <c r="D68" t="n">
-        <v>2.09413</v>
+        <v>2.07926</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.99828</v>
+        <v>1.92724</v>
       </c>
       <c r="C69" t="n">
-        <v>2.06073</v>
+        <v>1.38359</v>
       </c>
       <c r="D69" t="n">
-        <v>2.24091</v>
+        <v>2.09864</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.08569</v>
+        <v>2.10633</v>
       </c>
       <c r="C70" t="n">
-        <v>2.05662</v>
+        <v>1.49245</v>
       </c>
       <c r="D70" t="n">
-        <v>2.15471</v>
+        <v>2.15865</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.06142</v>
+        <v>2.07284</v>
       </c>
       <c r="C71" t="n">
-        <v>1.93417</v>
+        <v>1.44673</v>
       </c>
       <c r="D71" t="n">
-        <v>2.16357</v>
+        <v>2.16996</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.05189</v>
+        <v>2.10126</v>
       </c>
       <c r="C72" t="n">
-        <v>1.97476</v>
+        <v>1.46765</v>
       </c>
       <c r="D72" t="n">
-        <v>2.22542</v>
+        <v>2.16127</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.09419</v>
+        <v>2.14976</v>
       </c>
       <c r="C73" t="n">
-        <v>1.98103</v>
+        <v>1.44574</v>
       </c>
       <c r="D73" t="n">
-        <v>2.31347</v>
+        <v>2.23852</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.16686</v>
+        <v>2.1513</v>
       </c>
       <c r="C74" t="n">
-        <v>2.10675</v>
+        <v>1.50206</v>
       </c>
       <c r="D74" t="n">
-        <v>2.33183</v>
+        <v>2.27672</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.14825</v>
+        <v>2.1999</v>
       </c>
       <c r="C75" t="n">
-        <v>2.07492</v>
+        <v>1.50871</v>
       </c>
       <c r="D75" t="n">
-        <v>2.31075</v>
+        <v>2.28929</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.17041</v>
+        <v>2.20814</v>
       </c>
       <c r="C76" t="n">
-        <v>2.06022</v>
+        <v>1.53683</v>
       </c>
       <c r="D76" t="n">
-        <v>2.38274</v>
+        <v>2.3356</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.28528</v>
+        <v>2.24785</v>
       </c>
       <c r="C77" t="n">
-        <v>2.15016</v>
+        <v>1.54668</v>
       </c>
       <c r="D77" t="n">
-        <v>2.4346</v>
+        <v>2.3971</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.28923</v>
+        <v>2.25259</v>
       </c>
       <c r="C78" t="n">
-        <v>2.38167</v>
+        <v>1.63159</v>
       </c>
       <c r="D78" t="n">
-        <v>2.71468</v>
+        <v>2.6501</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.34696</v>
+        <v>2.26175</v>
       </c>
       <c r="C79" t="n">
-        <v>2.40252</v>
+        <v>1.67003</v>
       </c>
       <c r="D79" t="n">
-        <v>2.59762</v>
+        <v>2.72873</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.26594</v>
+        <v>2.30764</v>
       </c>
       <c r="C80" t="n">
-        <v>2.34285</v>
+        <v>1.63552</v>
       </c>
       <c r="D80" t="n">
-        <v>2.70631</v>
+        <v>2.72381</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.30924</v>
+        <v>2.30321</v>
       </c>
       <c r="C81" t="n">
-        <v>2.35215</v>
+        <v>1.69174</v>
       </c>
       <c r="D81" t="n">
-        <v>2.72509</v>
+        <v>2.76649</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.28461</v>
+        <v>2.37722</v>
       </c>
       <c r="C82" t="n">
-        <v>2.31138</v>
+        <v>1.70522</v>
       </c>
       <c r="D82" t="n">
-        <v>2.81613</v>
+        <v>2.72992</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.3575</v>
+        <v>2.34182</v>
       </c>
       <c r="C83" t="n">
-        <v>2.32336</v>
+        <v>1.70436</v>
       </c>
       <c r="D83" t="n">
-        <v>2.83808</v>
+        <v>2.85832</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.41651</v>
+        <v>2.46042</v>
       </c>
       <c r="C84" t="n">
-        <v>2.39456</v>
+        <v>1.73428</v>
       </c>
       <c r="D84" t="n">
-        <v>2.84231</v>
+        <v>2.77889</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.47713</v>
+        <v>2.44066</v>
       </c>
       <c r="C85" t="n">
-        <v>2.35052</v>
+        <v>1.71683</v>
       </c>
       <c r="D85" t="n">
-        <v>2.86423</v>
+        <v>2.85025</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.5021</v>
+        <v>2.48244</v>
       </c>
       <c r="C86" t="n">
-        <v>2.40408</v>
+        <v>1.7775</v>
       </c>
       <c r="D86" t="n">
-        <v>2.94032</v>
+        <v>2.86184</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.4591</v>
+        <v>2.5153</v>
       </c>
       <c r="C87" t="n">
-        <v>2.40921</v>
+        <v>1.76932</v>
       </c>
       <c r="D87" t="n">
-        <v>2.92555</v>
+        <v>2.8987</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.4899</v>
+        <v>2.49826</v>
       </c>
       <c r="C88" t="n">
-        <v>2.51802</v>
+        <v>1.79346</v>
       </c>
       <c r="D88" t="n">
-        <v>2.89336</v>
+        <v>2.90999</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.4877</v>
+        <v>2.5383</v>
       </c>
       <c r="C89" t="n">
-        <v>2.50311</v>
+        <v>1.8037</v>
       </c>
       <c r="D89" t="n">
-        <v>3.01146</v>
+        <v>2.9701</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.47637</v>
+        <v>2.57797</v>
       </c>
       <c r="C90" t="n">
-        <v>2.46896</v>
+        <v>1.81313</v>
       </c>
       <c r="D90" t="n">
-        <v>2.95838</v>
+        <v>2.94246</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.59</v>
+        <v>2.55979</v>
       </c>
       <c r="C91" t="n">
-        <v>2.51125</v>
+        <v>1.84378</v>
       </c>
       <c r="D91" t="n">
-        <v>2.92689</v>
+        <v>2.96686</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.53636</v>
+        <v>2.57486</v>
       </c>
       <c r="C92" t="n">
-        <v>2.71613</v>
+        <v>1.88174</v>
       </c>
       <c r="D92" t="n">
-        <v>3.17169</v>
+        <v>3.13582</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.53098</v>
+        <v>2.61779</v>
       </c>
       <c r="C93" t="n">
-        <v>2.73077</v>
+        <v>1.90367</v>
       </c>
       <c r="D93" t="n">
-        <v>3.20437</v>
+        <v>3.17862</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.57086</v>
+        <v>2.57703</v>
       </c>
       <c r="C94" t="n">
-        <v>2.75316</v>
+        <v>1.91209</v>
       </c>
       <c r="D94" t="n">
-        <v>3.32704</v>
+        <v>3.25914</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.58192</v>
+        <v>2.71038</v>
       </c>
       <c r="C95" t="n">
-        <v>2.7782</v>
+        <v>1.94514</v>
       </c>
       <c r="D95" t="n">
-        <v>3.29204</v>
+        <v>3.24795</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.61307</v>
+        <v>2.6999</v>
       </c>
       <c r="C96" t="n">
-        <v>2.88227</v>
+        <v>2.01191</v>
       </c>
       <c r="D96" t="n">
-        <v>3.29868</v>
+        <v>3.27482</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.63724</v>
+        <v>2.77163</v>
       </c>
       <c r="C97" t="n">
-        <v>2.7729</v>
+        <v>1.96117</v>
       </c>
       <c r="D97" t="n">
-        <v>3.33517</v>
+        <v>3.37302</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.72366</v>
+        <v>2.85185</v>
       </c>
       <c r="C98" t="n">
-        <v>2.88026</v>
+        <v>2.0097</v>
       </c>
       <c r="D98" t="n">
-        <v>3.25278</v>
+        <v>3.27442</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.80823</v>
+        <v>2.92748</v>
       </c>
       <c r="C99" t="n">
-        <v>2.85799</v>
+        <v>2.0523</v>
       </c>
       <c r="D99" t="n">
-        <v>3.28716</v>
+        <v>3.31681</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.80931</v>
+        <v>2.89044</v>
       </c>
       <c r="C100" t="n">
-        <v>2.92617</v>
+        <v>2.07906</v>
       </c>
       <c r="D100" t="n">
-        <v>3.32445</v>
+        <v>3.39201</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.8213</v>
+        <v>2.98749</v>
       </c>
       <c r="C101" t="n">
-        <v>2.8808</v>
+        <v>2.09145</v>
       </c>
       <c r="D101" t="n">
-        <v>3.32262</v>
+        <v>3.33889</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.89747</v>
+        <v>2.96025</v>
       </c>
       <c r="C102" t="n">
-        <v>2.97461</v>
+        <v>2.11992</v>
       </c>
       <c r="D102" t="n">
-        <v>3.37499</v>
+        <v>3.46963</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.84736</v>
+        <v>2.9576</v>
       </c>
       <c r="C103" t="n">
-        <v>2.96577</v>
+        <v>2.08511</v>
       </c>
       <c r="D103" t="n">
-        <v>3.37922</v>
+        <v>3.45169</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.83246</v>
+        <v>3.03944</v>
       </c>
       <c r="C104" t="n">
-        <v>2.96616</v>
+        <v>2.078</v>
       </c>
       <c r="D104" t="n">
-        <v>3.47735</v>
+        <v>3.54376</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.89298</v>
+        <v>3.01891</v>
       </c>
       <c r="C105" t="n">
-        <v>3.05613</v>
+        <v>2.1374</v>
       </c>
       <c r="D105" t="n">
-        <v>3.47027</v>
+        <v>3.51495</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.94324</v>
+        <v>3.03405</v>
       </c>
       <c r="C106" t="n">
-        <v>3.07765</v>
+        <v>2.20704</v>
       </c>
       <c r="D106" t="n">
-        <v>3.46932</v>
+        <v>3.57419</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.93299</v>
+        <v>3.06492</v>
       </c>
       <c r="C107" t="n">
-        <v>3.32963</v>
+        <v>2.30867</v>
       </c>
       <c r="D107" t="n">
-        <v>3.73979</v>
+        <v>3.74272</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.96427</v>
+        <v>3.08554</v>
       </c>
       <c r="C108" t="n">
-        <v>3.31148</v>
+        <v>2.32626</v>
       </c>
       <c r="D108" t="n">
-        <v>3.75238</v>
+        <v>3.77539</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.9673</v>
+        <v>3.07433</v>
       </c>
       <c r="C109" t="n">
-        <v>3.37426</v>
+        <v>2.3455</v>
       </c>
       <c r="D109" t="n">
-        <v>3.75639</v>
+        <v>3.83028</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.06938</v>
+        <v>3.10823</v>
       </c>
       <c r="C110" t="n">
-        <v>3.43789</v>
+        <v>2.36614</v>
       </c>
       <c r="D110" t="n">
-        <v>3.86862</v>
+        <v>3.79826</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.04175</v>
+        <v>3.1721</v>
       </c>
       <c r="C111" t="n">
-        <v>3.42664</v>
+        <v>2.36915</v>
       </c>
       <c r="D111" t="n">
-        <v>3.76318</v>
+        <v>3.84752</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.21652</v>
+        <v>3.35567</v>
       </c>
       <c r="C112" t="n">
-        <v>3.4047</v>
+        <v>2.37582</v>
       </c>
       <c r="D112" t="n">
-        <v>3.84919</v>
+        <v>3.86689</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.22358</v>
+        <v>3.32009</v>
       </c>
       <c r="C113" t="n">
-        <v>3.4446</v>
+        <v>2.39243</v>
       </c>
       <c r="D113" t="n">
-        <v>3.83835</v>
+        <v>3.87751</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.24684</v>
+        <v>3.33357</v>
       </c>
       <c r="C114" t="n">
-        <v>3.46097</v>
+        <v>2.44579</v>
       </c>
       <c r="D114" t="n">
-        <v>3.88184</v>
+        <v>3.91205</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.34867</v>
+        <v>3.3625</v>
       </c>
       <c r="C115" t="n">
-        <v>3.52865</v>
+        <v>2.42869</v>
       </c>
       <c r="D115" t="n">
-        <v>3.89721</v>
+        <v>3.95933</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.26992</v>
+        <v>3.45534</v>
       </c>
       <c r="C116" t="n">
-        <v>3.55165</v>
+        <v>2.52794</v>
       </c>
       <c r="D116" t="n">
-        <v>3.92775</v>
+        <v>4.00862</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.32751</v>
+        <v>3.44814</v>
       </c>
       <c r="C117" t="n">
-        <v>3.60219</v>
+        <v>2.5301</v>
       </c>
       <c r="D117" t="n">
-        <v>3.94765</v>
+        <v>4.08739</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.3744</v>
+        <v>3.49247</v>
       </c>
       <c r="C118" t="n">
-        <v>3.6136</v>
+        <v>2.5765</v>
       </c>
       <c r="D118" t="n">
-        <v>4.09054</v>
+        <v>4.11498</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.463</v>
+        <v>3.53533</v>
       </c>
       <c r="C119" t="n">
-        <v>3.68891</v>
+        <v>2.61386</v>
       </c>
       <c r="D119" t="n">
-        <v>4.18297</v>
+        <v>4.19423</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.456717</v>
+        <v>0.472163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7806999999999999</v>
+        <v>0.5291709999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5525409999999999</v>
+        <v>0.5358889999999999</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.472582</v>
+        <v>0.474456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.810267</v>
+        <v>0.532102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.547353</v>
+        <v>0.540081</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.468436</v>
+        <v>0.463469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.821258</v>
+        <v>0.535135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.529851</v>
+        <v>0.541994</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.466353</v>
+        <v>0.467453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.83192</v>
+        <v>0.541559</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541988</v>
+        <v>0.541188</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.459106</v>
+        <v>0.464125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.806362</v>
+        <v>0.538025</v>
       </c>
       <c r="D6" t="n">
-        <v>0.535093</v>
+        <v>0.5429850000000001</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.460258</v>
+        <v>0.464078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8097259999999999</v>
+        <v>0.543616</v>
       </c>
       <c r="D7" t="n">
-        <v>0.543261</v>
+        <v>0.546851</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.457702</v>
+        <v>0.465884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.829528</v>
+        <v>0.540449</v>
       </c>
       <c r="D8" t="n">
-        <v>0.549501</v>
+        <v>0.549639</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.463931</v>
+        <v>0.471002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.821735</v>
+        <v>0.559827</v>
       </c>
       <c r="D9" t="n">
-        <v>0.549749</v>
+        <v>0.566879</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.457164</v>
+        <v>0.467237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.828449</v>
+        <v>0.559022</v>
       </c>
       <c r="D10" t="n">
-        <v>0.554002</v>
+        <v>0.561972</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.467824</v>
+        <v>0.481115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.821368</v>
+        <v>0.558996</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5633899999999999</v>
+        <v>0.5712699999999999</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.466808</v>
+        <v>0.477834</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8450260000000001</v>
+        <v>0.5694709999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.560635</v>
+        <v>0.577081</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.474023</v>
+        <v>0.489565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.816952</v>
+        <v>0.556978</v>
       </c>
       <c r="D13" t="n">
-        <v>0.567684</v>
+        <v>0.5739340000000001</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.481358</v>
+        <v>0.488506</v>
       </c>
       <c r="C14" t="n">
-        <v>0.844951</v>
+        <v>0.567918</v>
       </c>
       <c r="D14" t="n">
-        <v>0.580292</v>
+        <v>0.572567</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.48056</v>
+        <v>0.490333</v>
       </c>
       <c r="C15" t="n">
-        <v>0.827045</v>
+        <v>0.5615</v>
       </c>
       <c r="D15" t="n">
-        <v>0.562658</v>
+        <v>0.573255</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.482752</v>
+        <v>0.501358</v>
       </c>
       <c r="C16" t="n">
-        <v>0.837358</v>
+        <v>0.56718</v>
       </c>
       <c r="D16" t="n">
-        <v>0.565134</v>
+        <v>0.577723</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.48369</v>
+        <v>0.501476</v>
       </c>
       <c r="C17" t="n">
-        <v>0.852609</v>
+        <v>0.570666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.580382</v>
+        <v>0.586223</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.482563</v>
+        <v>0.50073</v>
       </c>
       <c r="C18" t="n">
-        <v>0.841294</v>
+        <v>0.579751</v>
       </c>
       <c r="D18" t="n">
-        <v>0.584132</v>
+        <v>0.594653</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.482585</v>
+        <v>0.507092</v>
       </c>
       <c r="C19" t="n">
-        <v>0.848475</v>
+        <v>0.5808680000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.56957</v>
+        <v>0.602195</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.466281</v>
+        <v>0.508831</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8284319999999999</v>
+        <v>0.587724</v>
       </c>
       <c r="D20" t="n">
-        <v>0.585116</v>
+        <v>0.591935</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.487136</v>
+        <v>0.500922</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8810210000000001</v>
+        <v>0.590133</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6028019999999999</v>
+        <v>0.603086</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.492441</v>
+        <v>0.505401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.892943</v>
+        <v>0.599645</v>
       </c>
       <c r="D22" t="n">
-        <v>0.606579</v>
+        <v>0.598714</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.495458</v>
+        <v>0.510117</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8714730000000001</v>
+        <v>0.592166</v>
       </c>
       <c r="D23" t="n">
-        <v>0.601624</v>
+        <v>0.6263570000000001</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.491356</v>
+        <v>0.529577</v>
       </c>
       <c r="C24" t="n">
-        <v>0.902708</v>
+        <v>0.6009330000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.605324</v>
+        <v>0.623686</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.503294</v>
+        <v>0.514554</v>
       </c>
       <c r="C25" t="n">
-        <v>0.908842</v>
+        <v>0.6080719999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.611557</v>
+        <v>0.609723</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5122640000000001</v>
+        <v>0.513355</v>
       </c>
       <c r="C26" t="n">
-        <v>0.873341</v>
+        <v>0.610216</v>
       </c>
       <c r="D26" t="n">
-        <v>0.619974</v>
+        <v>0.626301</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.559483</v>
+        <v>0.5994699999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.907618</v>
+        <v>0.605851</v>
       </c>
       <c r="D27" t="n">
-        <v>0.626857</v>
+        <v>0.640281</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.57584</v>
+        <v>0.577639</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9068929999999999</v>
+        <v>0.629965</v>
       </c>
       <c r="D28" t="n">
-        <v>0.645429</v>
+        <v>0.641498</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.577383</v>
+        <v>0.609955</v>
       </c>
       <c r="C29" t="n">
-        <v>0.928044</v>
+        <v>0.639198</v>
       </c>
       <c r="D29" t="n">
-        <v>0.660054</v>
+        <v>0.664075</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.605897</v>
+        <v>0.630165</v>
       </c>
       <c r="C30" t="n">
-        <v>0.93938</v>
+        <v>0.662934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.681787</v>
+        <v>0.669266</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.602104</v>
+        <v>0.6475379999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.94882</v>
+        <v>0.647396</v>
       </c>
       <c r="D31" t="n">
-        <v>0.67209</v>
+        <v>0.67657</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.623135</v>
+        <v>0.650953</v>
       </c>
       <c r="C32" t="n">
-        <v>0.954145</v>
+        <v>0.656199</v>
       </c>
       <c r="D32" t="n">
-        <v>0.679264</v>
+        <v>0.68869</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.630491</v>
+        <v>0.663655</v>
       </c>
       <c r="C33" t="n">
-        <v>0.950474</v>
+        <v>0.679224</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6952430000000001</v>
+        <v>0.690158</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.663586</v>
+        <v>0.669555</v>
       </c>
       <c r="C34" t="n">
-        <v>0.970947</v>
+        <v>0.687549</v>
       </c>
       <c r="D34" t="n">
-        <v>0.715541</v>
+        <v>0.715888</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.666272</v>
+        <v>0.688676</v>
       </c>
       <c r="C35" t="n">
-        <v>1.07538</v>
+        <v>0.75325</v>
       </c>
       <c r="D35" t="n">
-        <v>0.812569</v>
+        <v>0.815118</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.683118</v>
+        <v>0.706683</v>
       </c>
       <c r="C36" t="n">
-        <v>1.07967</v>
+        <v>0.782003</v>
       </c>
       <c r="D36" t="n">
-        <v>0.829949</v>
+        <v>0.829321</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.698722</v>
+        <v>0.706019</v>
       </c>
       <c r="C37" t="n">
-        <v>1.11054</v>
+        <v>0.804472</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8489719999999999</v>
+        <v>0.866536</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.714921</v>
+        <v>0.732771</v>
       </c>
       <c r="C38" t="n">
-        <v>1.12978</v>
+        <v>0.815268</v>
       </c>
       <c r="D38" t="n">
-        <v>0.880484</v>
+        <v>0.874733</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.732231</v>
+        <v>0.760649</v>
       </c>
       <c r="C39" t="n">
-        <v>1.13805</v>
+        <v>0.8249919999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.885527</v>
+        <v>0.899578</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.755403</v>
+        <v>0.776806</v>
       </c>
       <c r="C40" t="n">
-        <v>1.17244</v>
+        <v>0.838036</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9327299999999999</v>
+        <v>0.927606</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.863778</v>
+        <v>0.894555</v>
       </c>
       <c r="C41" t="n">
-        <v>1.20019</v>
+        <v>0.850932</v>
       </c>
       <c r="D41" t="n">
-        <v>0.949512</v>
+        <v>0.939714</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.900236</v>
+        <v>0.905465</v>
       </c>
       <c r="C42" t="n">
-        <v>1.22177</v>
+        <v>0.879818</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9820759999999999</v>
+        <v>0.961739</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.89489</v>
+        <v>0.9318610000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.23695</v>
+        <v>0.916758</v>
       </c>
       <c r="D43" t="n">
-        <v>0.988973</v>
+        <v>0.99599</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.919386</v>
+        <v>0.947186</v>
       </c>
       <c r="C44" t="n">
-        <v>1.25417</v>
+        <v>0.936103</v>
       </c>
       <c r="D44" t="n">
-        <v>1.00724</v>
+        <v>1.0096</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.927539</v>
+        <v>0.956976</v>
       </c>
       <c r="C45" t="n">
-        <v>1.31014</v>
+        <v>0.943411</v>
       </c>
       <c r="D45" t="n">
-        <v>1.03991</v>
+        <v>1.05125</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.956026</v>
+        <v>0.983925</v>
       </c>
       <c r="C46" t="n">
-        <v>1.31443</v>
+        <v>0.986715</v>
       </c>
       <c r="D46" t="n">
-        <v>1.07159</v>
+        <v>1.07605</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.994103</v>
+        <v>1.02347</v>
       </c>
       <c r="C47" t="n">
-        <v>1.35018</v>
+        <v>0.99451</v>
       </c>
       <c r="D47" t="n">
-        <v>1.12331</v>
+        <v>1.14177</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.01207</v>
+        <v>1.04697</v>
       </c>
       <c r="C48" t="n">
-        <v>1.38681</v>
+        <v>1.06167</v>
       </c>
       <c r="D48" t="n">
-        <v>1.12545</v>
+        <v>1.15188</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.02935</v>
+        <v>1.06259</v>
       </c>
       <c r="C49" t="n">
-        <v>1.4548</v>
+        <v>1.07637</v>
       </c>
       <c r="D49" t="n">
-        <v>1.16954</v>
+        <v>1.16989</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0571</v>
+        <v>1.08144</v>
       </c>
       <c r="C50" t="n">
-        <v>1.64983</v>
+        <v>1.20947</v>
       </c>
       <c r="D50" t="n">
-        <v>1.29646</v>
+        <v>1.31736</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.07288</v>
+        <v>1.11311</v>
       </c>
       <c r="C51" t="n">
-        <v>1.69752</v>
+        <v>1.25688</v>
       </c>
       <c r="D51" t="n">
-        <v>1.3481</v>
+        <v>1.3465</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.09438</v>
+        <v>1.10815</v>
       </c>
       <c r="C52" t="n">
-        <v>1.80974</v>
+        <v>1.32107</v>
       </c>
       <c r="D52" t="n">
-        <v>1.46239</v>
+        <v>1.38118</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.12484</v>
+        <v>1.15362</v>
       </c>
       <c r="C53" t="n">
-        <v>1.92774</v>
+        <v>1.34963</v>
       </c>
       <c r="D53" t="n">
-        <v>1.41061</v>
+        <v>1.42343</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.15941</v>
+        <v>1.2029</v>
       </c>
       <c r="C54" t="n">
-        <v>1.87168</v>
+        <v>1.39158</v>
       </c>
       <c r="D54" t="n">
-        <v>1.49409</v>
+        <v>1.4905</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.20632</v>
+        <v>1.25792</v>
       </c>
       <c r="C55" t="n">
-        <v>1.93498</v>
+        <v>1.41969</v>
       </c>
       <c r="D55" t="n">
-        <v>1.50498</v>
+        <v>1.53929</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.35034</v>
+        <v>1.32922</v>
       </c>
       <c r="C56" t="n">
-        <v>2.13263</v>
+        <v>1.46449</v>
       </c>
       <c r="D56" t="n">
-        <v>1.63729</v>
+        <v>1.56687</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.4359</v>
+        <v>1.40778</v>
       </c>
       <c r="C57" t="n">
-        <v>2.16968</v>
+        <v>1.46846</v>
       </c>
       <c r="D57" t="n">
-        <v>1.65755</v>
+        <v>1.61489</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.4662</v>
+        <v>1.49462</v>
       </c>
       <c r="C58" t="n">
-        <v>2.29976</v>
+        <v>1.56299</v>
       </c>
       <c r="D58" t="n">
-        <v>1.6888</v>
+        <v>1.67214</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.45303</v>
+        <v>1.46437</v>
       </c>
       <c r="C59" t="n">
-        <v>2.11375</v>
+        <v>1.55639</v>
       </c>
       <c r="D59" t="n">
-        <v>1.71391</v>
+        <v>1.70972</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.48079</v>
+        <v>1.51208</v>
       </c>
       <c r="C60" t="n">
-        <v>2.22568</v>
+        <v>1.62284</v>
       </c>
       <c r="D60" t="n">
-        <v>1.79196</v>
+        <v>1.76178</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.49613</v>
+        <v>1.60198</v>
       </c>
       <c r="C61" t="n">
-        <v>2.26186</v>
+        <v>1.64002</v>
       </c>
       <c r="D61" t="n">
-        <v>1.79341</v>
+        <v>1.82148</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.54976</v>
+        <v>1.64217</v>
       </c>
       <c r="C62" t="n">
-        <v>2.49258</v>
+        <v>1.74185</v>
       </c>
       <c r="D62" t="n">
-        <v>1.94415</v>
+        <v>1.88373</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.62278</v>
+        <v>1.62793</v>
       </c>
       <c r="C63" t="n">
-        <v>2.36991</v>
+        <v>1.77175</v>
       </c>
       <c r="D63" t="n">
-        <v>1.98731</v>
+        <v>1.96578</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.6133</v>
+        <v>1.68897</v>
       </c>
       <c r="C64" t="n">
-        <v>2.81814</v>
+        <v>2.02981</v>
       </c>
       <c r="D64" t="n">
-        <v>2.17782</v>
+        <v>2.16176</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.69213</v>
+        <v>1.68264</v>
       </c>
       <c r="C65" t="n">
-        <v>2.68669</v>
+        <v>1.97911</v>
       </c>
       <c r="D65" t="n">
-        <v>2.19737</v>
+        <v>2.21786</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.67649</v>
+        <v>1.71197</v>
       </c>
       <c r="C66" t="n">
-        <v>2.68159</v>
+        <v>1.9836</v>
       </c>
       <c r="D66" t="n">
-        <v>2.2836</v>
+        <v>2.29301</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.86768</v>
+        <v>1.78123</v>
       </c>
       <c r="C67" t="n">
-        <v>3.03776</v>
+        <v>2.03274</v>
       </c>
       <c r="D67" t="n">
-        <v>2.30484</v>
+        <v>2.26667</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.86211</v>
+        <v>1.83755</v>
       </c>
       <c r="C68" t="n">
-        <v>3.1633</v>
+        <v>2.09692</v>
       </c>
       <c r="D68" t="n">
-        <v>2.5067</v>
+        <v>2.3784</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.93104</v>
+        <v>1.87643</v>
       </c>
       <c r="C69" t="n">
-        <v>3.28607</v>
+        <v>2.12505</v>
       </c>
       <c r="D69" t="n">
-        <v>2.59066</v>
+        <v>2.42045</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.9456</v>
+        <v>1.97509</v>
       </c>
       <c r="C70" t="n">
-        <v>3.23787</v>
+        <v>2.15808</v>
       </c>
       <c r="D70" t="n">
-        <v>2.54893</v>
+        <v>2.55815</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.95285</v>
+        <v>2.04701</v>
       </c>
       <c r="C71" t="n">
-        <v>3.32103</v>
+        <v>2.18496</v>
       </c>
       <c r="D71" t="n">
-        <v>2.70039</v>
+        <v>2.74876</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.02733</v>
+        <v>2.15909</v>
       </c>
       <c r="C72" t="n">
-        <v>3.33853</v>
+        <v>2.37781</v>
       </c>
       <c r="D72" t="n">
-        <v>2.7549</v>
+        <v>2.77747</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.09573</v>
+        <v>2.08838</v>
       </c>
       <c r="C73" t="n">
-        <v>3.41892</v>
+        <v>2.27677</v>
       </c>
       <c r="D73" t="n">
-        <v>2.8233</v>
+        <v>2.69895</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.13236</v>
+        <v>2.11162</v>
       </c>
       <c r="C74" t="n">
-        <v>3.35604</v>
+        <v>2.48103</v>
       </c>
       <c r="D74" t="n">
-        <v>2.95896</v>
+        <v>2.91913</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.17817</v>
+        <v>2.16153</v>
       </c>
       <c r="C75" t="n">
-        <v>3.39675</v>
+        <v>2.39735</v>
       </c>
       <c r="D75" t="n">
-        <v>2.91903</v>
+        <v>2.80345</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.15385</v>
+        <v>2.15374</v>
       </c>
       <c r="C76" t="n">
-        <v>3.16848</v>
+        <v>2.3945</v>
       </c>
       <c r="D76" t="n">
-        <v>2.81557</v>
+        <v>2.86677</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.1107</v>
+        <v>2.19516</v>
       </c>
       <c r="C77" t="n">
-        <v>3.16126</v>
+        <v>2.47099</v>
       </c>
       <c r="D77" t="n">
-        <v>2.85246</v>
+        <v>2.92215</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.1409</v>
+        <v>2.21859</v>
       </c>
       <c r="C78" t="n">
-        <v>3.43647</v>
+        <v>2.71414</v>
       </c>
       <c r="D78" t="n">
-        <v>2.99432</v>
+        <v>3.22042</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.18085</v>
+        <v>2.37456</v>
       </c>
       <c r="C79" t="n">
-        <v>3.55887</v>
+        <v>2.67264</v>
       </c>
       <c r="D79" t="n">
-        <v>3.0777</v>
+        <v>3.1729</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.23572</v>
+        <v>2.26304</v>
       </c>
       <c r="C80" t="n">
-        <v>3.5512</v>
+        <v>2.65051</v>
       </c>
       <c r="D80" t="n">
-        <v>3.10317</v>
+        <v>3.2268</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.23459</v>
+        <v>2.2973</v>
       </c>
       <c r="C81" t="n">
-        <v>3.62015</v>
+        <v>2.72257</v>
       </c>
       <c r="D81" t="n">
-        <v>3.15782</v>
+        <v>3.25416</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.23269</v>
+        <v>2.34938</v>
       </c>
       <c r="C82" t="n">
-        <v>3.66376</v>
+        <v>2.79571</v>
       </c>
       <c r="D82" t="n">
-        <v>3.24951</v>
+        <v>3.41005</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.3203</v>
+        <v>2.47926</v>
       </c>
       <c r="C83" t="n">
-        <v>3.68793</v>
+        <v>2.82104</v>
       </c>
       <c r="D83" t="n">
-        <v>3.32058</v>
+        <v>3.45909</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.35871</v>
+        <v>2.55355</v>
       </c>
       <c r="C84" t="n">
-        <v>3.76454</v>
+        <v>2.89435</v>
       </c>
       <c r="D84" t="n">
-        <v>3.2944</v>
+        <v>3.53895</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.40402</v>
+        <v>2.52805</v>
       </c>
       <c r="C85" t="n">
-        <v>3.66838</v>
+        <v>2.92416</v>
       </c>
       <c r="D85" t="n">
-        <v>3.41506</v>
+        <v>3.60021</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.52295</v>
+        <v>2.58915</v>
       </c>
       <c r="C86" t="n">
-        <v>3.79287</v>
+        <v>2.9002</v>
       </c>
       <c r="D86" t="n">
-        <v>3.41817</v>
+        <v>3.54787</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.45491</v>
+        <v>2.57416</v>
       </c>
       <c r="C87" t="n">
-        <v>3.78698</v>
+        <v>2.9502</v>
       </c>
       <c r="D87" t="n">
-        <v>3.63962</v>
+        <v>3.469</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.49629</v>
+        <v>2.5795</v>
       </c>
       <c r="C88" t="n">
-        <v>3.89038</v>
+        <v>2.91564</v>
       </c>
       <c r="D88" t="n">
-        <v>3.55707</v>
+        <v>3.58894</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.4491</v>
+        <v>2.60326</v>
       </c>
       <c r="C89" t="n">
-        <v>3.85734</v>
+        <v>2.92653</v>
       </c>
       <c r="D89" t="n">
-        <v>3.6113</v>
+        <v>3.58211</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.46569</v>
+        <v>2.62653</v>
       </c>
       <c r="C90" t="n">
-        <v>3.88489</v>
+        <v>3.03733</v>
       </c>
       <c r="D90" t="n">
-        <v>3.67097</v>
+        <v>3.66826</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.52565</v>
+        <v>2.65413</v>
       </c>
       <c r="C91" t="n">
-        <v>3.93756</v>
+        <v>3.0506</v>
       </c>
       <c r="D91" t="n">
-        <v>3.62012</v>
+        <v>3.79101</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.532</v>
+        <v>2.61064</v>
       </c>
       <c r="C92" t="n">
-        <v>4.1752</v>
+        <v>3.03902</v>
       </c>
       <c r="D92" t="n">
-        <v>3.79494</v>
+        <v>3.84531</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.53705</v>
+        <v>2.68263</v>
       </c>
       <c r="C93" t="n">
-        <v>4.20008</v>
+        <v>3.13333</v>
       </c>
       <c r="D93" t="n">
-        <v>3.79265</v>
+        <v>3.92884</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.63884</v>
+        <v>2.82997</v>
       </c>
       <c r="C94" t="n">
-        <v>4.19746</v>
+        <v>3.20928</v>
       </c>
       <c r="D94" t="n">
-        <v>3.80009</v>
+        <v>3.91482</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.59332</v>
+        <v>2.69646</v>
       </c>
       <c r="C95" t="n">
-        <v>4.37446</v>
+        <v>3.18024</v>
       </c>
       <c r="D95" t="n">
-        <v>3.82446</v>
+        <v>3.9876</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.69002</v>
+        <v>2.70317</v>
       </c>
       <c r="C96" t="n">
-        <v>4.23495</v>
+        <v>3.23229</v>
       </c>
       <c r="D96" t="n">
-        <v>3.97398</v>
+        <v>4.05303</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.65658</v>
+        <v>2.7697</v>
       </c>
       <c r="C97" t="n">
-        <v>4.2483</v>
+        <v>3.25603</v>
       </c>
       <c r="D97" t="n">
-        <v>3.98684</v>
+        <v>3.95699</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.86952</v>
+        <v>2.91846</v>
       </c>
       <c r="C98" t="n">
-        <v>4.40235</v>
+        <v>3.34187</v>
       </c>
       <c r="D98" t="n">
-        <v>3.97571</v>
+        <v>4.00443</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.90038</v>
+        <v>2.93471</v>
       </c>
       <c r="C99" t="n">
-        <v>4.4924</v>
+        <v>3.30053</v>
       </c>
       <c r="D99" t="n">
-        <v>4.12006</v>
+        <v>4.13118</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.88625</v>
+        <v>2.98001</v>
       </c>
       <c r="C100" t="n">
-        <v>4.44907</v>
+        <v>3.42805</v>
       </c>
       <c r="D100" t="n">
-        <v>4.0786</v>
+        <v>4.14855</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.90821</v>
+        <v>2.96781</v>
       </c>
       <c r="C101" t="n">
-        <v>4.47859</v>
+        <v>3.39931</v>
       </c>
       <c r="D101" t="n">
-        <v>4.12691</v>
+        <v>4.07169</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.94276</v>
+        <v>3.01716</v>
       </c>
       <c r="C102" t="n">
-        <v>4.52982</v>
+        <v>3.41551</v>
       </c>
       <c r="D102" t="n">
-        <v>4.19404</v>
+        <v>4.14885</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.00665</v>
+        <v>3.03758</v>
       </c>
       <c r="C103" t="n">
-        <v>4.60893</v>
+        <v>3.45932</v>
       </c>
       <c r="D103" t="n">
-        <v>4.19417</v>
+        <v>4.24272</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.99657</v>
+        <v>3.0335</v>
       </c>
       <c r="C104" t="n">
-        <v>4.57287</v>
+        <v>3.57965</v>
       </c>
       <c r="D104" t="n">
-        <v>4.23848</v>
+        <v>4.32611</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.0208</v>
+        <v>3.08789</v>
       </c>
       <c r="C105" t="n">
-        <v>4.65723</v>
+        <v>3.63177</v>
       </c>
       <c r="D105" t="n">
-        <v>4.27655</v>
+        <v>4.3013</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.01674</v>
+        <v>3.06711</v>
       </c>
       <c r="C106" t="n">
-        <v>4.73883</v>
+        <v>3.60869</v>
       </c>
       <c r="D106" t="n">
-        <v>4.30323</v>
+        <v>4.31067</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.03852</v>
+        <v>3.10909</v>
       </c>
       <c r="C107" t="n">
-        <v>4.90507</v>
+        <v>3.67746</v>
       </c>
       <c r="D107" t="n">
-        <v>4.44234</v>
+        <v>4.44045</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.06201</v>
+        <v>3.13569</v>
       </c>
       <c r="C108" t="n">
-        <v>4.85157</v>
+        <v>3.71182</v>
       </c>
       <c r="D108" t="n">
-        <v>4.48432</v>
+        <v>4.4956</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.06963</v>
+        <v>3.16633</v>
       </c>
       <c r="C109" t="n">
-        <v>4.96949</v>
+        <v>3.70489</v>
       </c>
       <c r="D109" t="n">
-        <v>4.48077</v>
+        <v>4.58651</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.06257</v>
+        <v>3.19848</v>
       </c>
       <c r="C110" t="n">
-        <v>5.0288</v>
+        <v>3.73896</v>
       </c>
       <c r="D110" t="n">
-        <v>4.56099</v>
+        <v>4.63681</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.16834</v>
+        <v>3.23017</v>
       </c>
       <c r="C111" t="n">
-        <v>5.10658</v>
+        <v>3.79872</v>
       </c>
       <c r="D111" t="n">
-        <v>4.58104</v>
+        <v>4.66913</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.28153</v>
+        <v>3.43713</v>
       </c>
       <c r="C112" t="n">
-        <v>5.06564</v>
+        <v>3.83856</v>
       </c>
       <c r="D112" t="n">
-        <v>4.64256</v>
+        <v>4.67036</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.33937</v>
+        <v>3.41501</v>
       </c>
       <c r="C113" t="n">
-        <v>5.18482</v>
+        <v>3.88669</v>
       </c>
       <c r="D113" t="n">
-        <v>4.67744</v>
+        <v>4.77198</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.34566</v>
+        <v>3.52554</v>
       </c>
       <c r="C114" t="n">
-        <v>5.16572</v>
+        <v>3.98225</v>
       </c>
       <c r="D114" t="n">
-        <v>4.77344</v>
+        <v>4.89177</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.46245</v>
+        <v>3.59605</v>
       </c>
       <c r="C115" t="n">
-        <v>5.27289</v>
+        <v>4.00959</v>
       </c>
       <c r="D115" t="n">
-        <v>4.79567</v>
+        <v>4.9071</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.45438</v>
+        <v>3.60327</v>
       </c>
       <c r="C116" t="n">
-        <v>5.26748</v>
+        <v>4.00489</v>
       </c>
       <c r="D116" t="n">
-        <v>4.8172</v>
+        <v>4.92828</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.4961</v>
+        <v>3.60458</v>
       </c>
       <c r="C117" t="n">
-        <v>5.36472</v>
+        <v>4.07961</v>
       </c>
       <c r="D117" t="n">
-        <v>4.98868</v>
+        <v>5.18876</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.57252</v>
+        <v>3.82046</v>
       </c>
       <c r="C118" t="n">
-        <v>5.38508</v>
+        <v>4.29838</v>
       </c>
       <c r="D118" t="n">
-        <v>4.97431</v>
+        <v>5.3497</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.56777</v>
+        <v>3.90855</v>
       </c>
       <c r="C119" t="n">
-        <v>5.52301</v>
+        <v>4.24348</v>
       </c>
       <c r="D119" t="n">
-        <v>5.00368</v>
+        <v>5.13255</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.390979</v>
+        <v>0.401065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.802901</v>
+        <v>0.545473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.510344</v>
+        <v>0.52166</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.414755</v>
+        <v>0.424512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.78604</v>
+        <v>0.557188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.528401</v>
+        <v>0.520525</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.420019</v>
+        <v>0.423154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.799061</v>
+        <v>0.550802</v>
       </c>
       <c r="D4" t="n">
-        <v>0.520649</v>
+        <v>0.529748</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.417687</v>
+        <v>0.433554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.814034</v>
+        <v>0.559658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.540412</v>
+        <v>0.53574</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.42071</v>
+        <v>0.434719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.825762</v>
+        <v>0.559082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5334179999999999</v>
+        <v>0.540226</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.414508</v>
+        <v>0.434225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8104789999999999</v>
+        <v>0.5729919999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.529539</v>
+        <v>0.540816</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.420691</v>
+        <v>0.433857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.816882</v>
+        <v>0.576306</v>
       </c>
       <c r="D8" t="n">
-        <v>0.528278</v>
+        <v>0.547724</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.43151</v>
+        <v>0.436185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.831287</v>
+        <v>0.589517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.541714</v>
+        <v>0.5509540000000001</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.428394</v>
+        <v>0.439948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.838758</v>
+        <v>0.588596</v>
       </c>
       <c r="D10" t="n">
-        <v>0.550602</v>
+        <v>0.55241</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.434858</v>
+        <v>0.442547</v>
       </c>
       <c r="C11" t="n">
-        <v>0.826503</v>
+        <v>0.5803970000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.558514</v>
+        <v>0.562819</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.434744</v>
+        <v>0.448218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.820473</v>
+        <v>0.57626</v>
       </c>
       <c r="D12" t="n">
-        <v>0.570699</v>
+        <v>0.565763</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.438933</v>
+        <v>0.441966</v>
       </c>
       <c r="C13" t="n">
-        <v>0.848575</v>
+        <v>0.587804</v>
       </c>
       <c r="D13" t="n">
-        <v>0.568782</v>
+        <v>0.565945</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.43567</v>
+        <v>0.446652</v>
       </c>
       <c r="C14" t="n">
-        <v>0.859393</v>
+        <v>0.601657</v>
       </c>
       <c r="D14" t="n">
-        <v>0.585194</v>
+        <v>0.579481</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.442194</v>
+        <v>0.449066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.850579</v>
+        <v>0.619233</v>
       </c>
       <c r="D15" t="n">
-        <v>0.575908</v>
+        <v>0.579867</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.432507</v>
+        <v>0.446575</v>
       </c>
       <c r="C16" t="n">
-        <v>0.886346</v>
+        <v>0.621632</v>
       </c>
       <c r="D16" t="n">
-        <v>0.58078</v>
+        <v>0.575725</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.464267</v>
+        <v>0.474315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8858740000000001</v>
+        <v>0.622902</v>
       </c>
       <c r="D17" t="n">
-        <v>0.592596</v>
+        <v>0.592937</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.465131</v>
+        <v>0.473386</v>
       </c>
       <c r="C18" t="n">
-        <v>0.884263</v>
+        <v>0.625452</v>
       </c>
       <c r="D18" t="n">
-        <v>0.585794</v>
+        <v>0.5923850000000001</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.468526</v>
+        <v>0.473709</v>
       </c>
       <c r="C19" t="n">
-        <v>0.901332</v>
+        <v>0.6355189999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.597392</v>
+        <v>0.594392</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.473941</v>
+        <v>0.476262</v>
       </c>
       <c r="C20" t="n">
-        <v>0.904408</v>
+        <v>0.639567</v>
       </c>
       <c r="D20" t="n">
-        <v>0.599944</v>
+        <v>0.608347</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.477706</v>
+        <v>0.476622</v>
       </c>
       <c r="C21" t="n">
-        <v>0.907545</v>
+        <v>0.655716</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5948600000000001</v>
+        <v>0.599722</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.481512</v>
+        <v>0.477406</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9356449999999999</v>
+        <v>0.655613</v>
       </c>
       <c r="D22" t="n">
-        <v>0.611702</v>
+        <v>0.6103690000000001</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.489338</v>
+        <v>0.475407</v>
       </c>
       <c r="C23" t="n">
-        <v>0.935476</v>
+        <v>0.669872</v>
       </c>
       <c r="D23" t="n">
-        <v>0.609891</v>
+        <v>0.609665</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.487127</v>
+        <v>0.485523</v>
       </c>
       <c r="C24" t="n">
-        <v>0.997213</v>
+        <v>0.687863</v>
       </c>
       <c r="D24" t="n">
-        <v>0.654647</v>
+        <v>0.6350479999999999</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.48148</v>
+        <v>0.496624</v>
       </c>
       <c r="C25" t="n">
-        <v>0.949669</v>
+        <v>0.702136</v>
       </c>
       <c r="D25" t="n">
-        <v>0.630622</v>
+        <v>0.634812</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.476639</v>
+        <v>0.504861</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9279849999999999</v>
+        <v>0.654432</v>
       </c>
       <c r="D26" t="n">
-        <v>0.636771</v>
+        <v>0.655678</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.49548</v>
+        <v>0.491513</v>
       </c>
       <c r="C27" t="n">
-        <v>0.919547</v>
+        <v>0.641423</v>
       </c>
       <c r="D27" t="n">
-        <v>0.635576</v>
+        <v>0.671337</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.490554</v>
+        <v>0.506077</v>
       </c>
       <c r="C28" t="n">
-        <v>0.922579</v>
+        <v>0.666663</v>
       </c>
       <c r="D28" t="n">
-        <v>0.640796</v>
+        <v>0.663531</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.491018</v>
+        <v>0.512469</v>
       </c>
       <c r="C29" t="n">
-        <v>0.941302</v>
+        <v>0.676891</v>
       </c>
       <c r="D29" t="n">
-        <v>0.667957</v>
+        <v>0.689766</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.523792</v>
+        <v>0.528235</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9630030000000001</v>
+        <v>0.692493</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6833</v>
+        <v>0.699081</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.486734</v>
+        <v>0.521726</v>
       </c>
       <c r="C31" t="n">
-        <v>0.964054</v>
+        <v>0.6868030000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.691566</v>
+        <v>0.68429</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.546373</v>
+        <v>0.572407</v>
       </c>
       <c r="C32" t="n">
-        <v>0.975399</v>
+        <v>0.728075</v>
       </c>
       <c r="D32" t="n">
-        <v>0.698317</v>
+        <v>0.700542</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.566442</v>
+        <v>0.558833</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0102</v>
+        <v>0.739267</v>
       </c>
       <c r="D33" t="n">
-        <v>0.695635</v>
+        <v>0.730098</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.552198</v>
+        <v>0.572004</v>
       </c>
       <c r="C34" t="n">
-        <v>1.01439</v>
+        <v>0.7421410000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7242769999999999</v>
+        <v>0.750979</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.590732</v>
+        <v>0.602052</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0348</v>
+        <v>0.770743</v>
       </c>
       <c r="D35" t="n">
-        <v>0.754031</v>
+        <v>0.764744</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.592387</v>
+        <v>0.609733</v>
       </c>
       <c r="C36" t="n">
-        <v>1.06339</v>
+        <v>0.800138</v>
       </c>
       <c r="D36" t="n">
-        <v>0.767603</v>
+        <v>0.794628</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.613049</v>
+        <v>0.606019</v>
       </c>
       <c r="C37" t="n">
-        <v>1.12079</v>
+        <v>0.811214</v>
       </c>
       <c r="D37" t="n">
-        <v>0.798335</v>
+        <v>0.7910700000000001</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6312410000000001</v>
+        <v>0.614517</v>
       </c>
       <c r="C38" t="n">
-        <v>1.11393</v>
+        <v>0.8315900000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.789732</v>
+        <v>0.84465</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.624657</v>
+        <v>0.622399</v>
       </c>
       <c r="C39" t="n">
-        <v>1.14852</v>
+        <v>0.872492</v>
       </c>
       <c r="D39" t="n">
-        <v>0.82701</v>
+        <v>0.848182</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.645629</v>
+        <v>0.650541</v>
       </c>
       <c r="C40" t="n">
-        <v>1.13701</v>
+        <v>0.817518</v>
       </c>
       <c r="D40" t="n">
-        <v>0.872417</v>
+        <v>0.862842</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.650262</v>
+        <v>0.666756</v>
       </c>
       <c r="C41" t="n">
-        <v>1.14509</v>
+        <v>0.84271</v>
       </c>
       <c r="D41" t="n">
-        <v>0.903456</v>
+        <v>0.9201</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.666563</v>
+        <v>0.676849</v>
       </c>
       <c r="C42" t="n">
-        <v>1.19809</v>
+        <v>0.868864</v>
       </c>
       <c r="D42" t="n">
-        <v>0.928736</v>
+        <v>0.911779</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.686128</v>
+        <v>0.678252</v>
       </c>
       <c r="C43" t="n">
-        <v>1.26369</v>
+        <v>0.8858740000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.977955</v>
+        <v>0.963364</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.724485</v>
+        <v>0.721054</v>
       </c>
       <c r="C44" t="n">
-        <v>1.30083</v>
+        <v>0.919735</v>
       </c>
       <c r="D44" t="n">
-        <v>1.01545</v>
+        <v>0.963303</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.725375</v>
+        <v>0.724597</v>
       </c>
       <c r="C45" t="n">
-        <v>1.2969</v>
+        <v>0.960668</v>
       </c>
       <c r="D45" t="n">
-        <v>1.02882</v>
+        <v>0.999731</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.823138</v>
+        <v>0.817226</v>
       </c>
       <c r="C46" t="n">
-        <v>1.3677</v>
+        <v>1.01747</v>
       </c>
       <c r="D46" t="n">
-        <v>1.06924</v>
+        <v>1.03709</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.843584</v>
+        <v>0.851189</v>
       </c>
       <c r="C47" t="n">
-        <v>1.4087</v>
+        <v>1.03499</v>
       </c>
       <c r="D47" t="n">
-        <v>1.09968</v>
+        <v>1.06654</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.868536</v>
+        <v>0.865926</v>
       </c>
       <c r="C48" t="n">
-        <v>1.47076</v>
+        <v>1.09229</v>
       </c>
       <c r="D48" t="n">
-        <v>1.13071</v>
+        <v>1.10022</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.889563</v>
+        <v>0.9063909999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>1.51258</v>
+        <v>1.13899</v>
       </c>
       <c r="D49" t="n">
-        <v>1.16749</v>
+        <v>1.12469</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.913924</v>
+        <v>0.923923</v>
       </c>
       <c r="C50" t="n">
-        <v>1.59987</v>
+        <v>1.16291</v>
       </c>
       <c r="D50" t="n">
-        <v>1.19808</v>
+        <v>1.15343</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.937757</v>
+        <v>0.939103</v>
       </c>
       <c r="C51" t="n">
-        <v>1.62054</v>
+        <v>1.24973</v>
       </c>
       <c r="D51" t="n">
-        <v>1.25026</v>
+        <v>1.19702</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.966717</v>
+        <v>0.955998</v>
       </c>
       <c r="C52" t="n">
-        <v>1.71167</v>
+        <v>1.2887</v>
       </c>
       <c r="D52" t="n">
-        <v>1.26339</v>
+        <v>1.26222</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.968608</v>
+        <v>0.977926</v>
       </c>
       <c r="C53" t="n">
-        <v>1.83672</v>
+        <v>1.33498</v>
       </c>
       <c r="D53" t="n">
-        <v>1.28128</v>
+        <v>1.28087</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.02464</v>
+        <v>1.02246</v>
       </c>
       <c r="C54" t="n">
-        <v>1.7455</v>
+        <v>1.40049</v>
       </c>
       <c r="D54" t="n">
-        <v>1.38385</v>
+        <v>1.38058</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.03284</v>
+        <v>1.06742</v>
       </c>
       <c r="C55" t="n">
-        <v>1.82826</v>
+        <v>1.3852</v>
       </c>
       <c r="D55" t="n">
-        <v>1.46456</v>
+        <v>1.41847</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.05789</v>
+        <v>1.08885</v>
       </c>
       <c r="C56" t="n">
-        <v>1.90622</v>
+        <v>1.43706</v>
       </c>
       <c r="D56" t="n">
-        <v>1.46944</v>
+        <v>1.46132</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.08992</v>
+        <v>1.14798</v>
       </c>
       <c r="C57" t="n">
-        <v>1.94632</v>
+        <v>1.49165</v>
       </c>
       <c r="D57" t="n">
-        <v>1.51293</v>
+        <v>1.5797</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.1207</v>
+        <v>1.15479</v>
       </c>
       <c r="C58" t="n">
-        <v>2.00115</v>
+        <v>1.56452</v>
       </c>
       <c r="D58" t="n">
-        <v>1.54539</v>
+        <v>1.58661</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.15745</v>
+        <v>1.17963</v>
       </c>
       <c r="C59" t="n">
-        <v>2.09435</v>
+        <v>1.60026</v>
       </c>
       <c r="D59" t="n">
-        <v>1.62676</v>
+        <v>1.63561</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.32786</v>
+        <v>1.35164</v>
       </c>
       <c r="C60" t="n">
-        <v>2.17446</v>
+        <v>1.65679</v>
       </c>
       <c r="D60" t="n">
-        <v>1.64424</v>
+        <v>1.70597</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.38592</v>
+        <v>1.41124</v>
       </c>
       <c r="C61" t="n">
-        <v>2.23032</v>
+        <v>1.74756</v>
       </c>
       <c r="D61" t="n">
-        <v>1.83123</v>
+        <v>1.78186</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.41853</v>
+        <v>1.43591</v>
       </c>
       <c r="C62" t="n">
-        <v>2.53756</v>
+        <v>1.80779</v>
       </c>
       <c r="D62" t="n">
-        <v>1.85722</v>
+        <v>1.81694</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.45982</v>
+        <v>1.4777</v>
       </c>
       <c r="C63" t="n">
-        <v>2.38022</v>
+        <v>1.93492</v>
       </c>
       <c r="D63" t="n">
-        <v>1.83705</v>
+        <v>1.87843</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.45799</v>
+        <v>1.53107</v>
       </c>
       <c r="C64" t="n">
-        <v>2.4646</v>
+        <v>1.90868</v>
       </c>
       <c r="D64" t="n">
-        <v>2.05108</v>
+        <v>1.93978</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.53125</v>
+        <v>1.53029</v>
       </c>
       <c r="C65" t="n">
-        <v>2.58791</v>
+        <v>1.98572</v>
       </c>
       <c r="D65" t="n">
-        <v>2.04499</v>
+        <v>2.02834</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.55032</v>
+        <v>1.58038</v>
       </c>
       <c r="C66" t="n">
-        <v>2.81656</v>
+        <v>2.0873</v>
       </c>
       <c r="D66" t="n">
-        <v>2.16057</v>
+        <v>2.15286</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.55526</v>
+        <v>1.64691</v>
       </c>
       <c r="C67" t="n">
-        <v>3.04144</v>
+        <v>2.15977</v>
       </c>
       <c r="D67" t="n">
-        <v>2.20972</v>
+        <v>2.1641</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.69917</v>
+        <v>1.67425</v>
       </c>
       <c r="C68" t="n">
-        <v>3.06371</v>
+        <v>2.13655</v>
       </c>
       <c r="D68" t="n">
-        <v>2.45852</v>
+        <v>2.37131</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.71955</v>
+        <v>1.71029</v>
       </c>
       <c r="C69" t="n">
-        <v>3.16146</v>
+        <v>2.09916</v>
       </c>
       <c r="D69" t="n">
-        <v>2.38558</v>
+        <v>2.36722</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.67316</v>
+        <v>1.73598</v>
       </c>
       <c r="C70" t="n">
-        <v>2.81123</v>
+        <v>2.17673</v>
       </c>
       <c r="D70" t="n">
-        <v>2.40161</v>
+        <v>2.44207</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.69225</v>
+        <v>1.7927</v>
       </c>
       <c r="C71" t="n">
-        <v>2.88046</v>
+        <v>2.32261</v>
       </c>
       <c r="D71" t="n">
-        <v>2.47029</v>
+        <v>2.54668</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.74181</v>
+        <v>1.79454</v>
       </c>
       <c r="C72" t="n">
-        <v>2.92973</v>
+        <v>2.35399</v>
       </c>
       <c r="D72" t="n">
-        <v>2.55327</v>
+        <v>2.55464</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.79246</v>
+        <v>1.83418</v>
       </c>
       <c r="C73" t="n">
-        <v>3.0523</v>
+        <v>2.40969</v>
       </c>
       <c r="D73" t="n">
-        <v>2.60701</v>
+        <v>2.66138</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.95892</v>
+        <v>2.03874</v>
       </c>
       <c r="C74" t="n">
-        <v>3.1261</v>
+        <v>2.47172</v>
       </c>
       <c r="D74" t="n">
-        <v>2.67819</v>
+        <v>2.7364</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.99981</v>
+        <v>2.07312</v>
       </c>
       <c r="C75" t="n">
-        <v>3.08855</v>
+        <v>2.52682</v>
       </c>
       <c r="D75" t="n">
-        <v>2.78129</v>
+        <v>2.7534</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.05531</v>
+        <v>2.0897</v>
       </c>
       <c r="C76" t="n">
-        <v>3.2815</v>
+        <v>2.64431</v>
       </c>
       <c r="D76" t="n">
-        <v>2.81886</v>
+        <v>2.97192</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.05462</v>
+        <v>2.16298</v>
       </c>
       <c r="C77" t="n">
-        <v>3.38849</v>
+        <v>2.6961</v>
       </c>
       <c r="D77" t="n">
-        <v>2.85231</v>
+        <v>3.04374</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.10721</v>
+        <v>2.18227</v>
       </c>
       <c r="C78" t="n">
-        <v>3.66135</v>
+        <v>2.8033</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0638</v>
+        <v>3.06958</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.2156</v>
+        <v>2.18203</v>
       </c>
       <c r="C79" t="n">
-        <v>3.61199</v>
+        <v>2.97073</v>
       </c>
       <c r="D79" t="n">
-        <v>3.11627</v>
+        <v>3.08606</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.15147</v>
+        <v>2.25241</v>
       </c>
       <c r="C80" t="n">
-        <v>3.75968</v>
+        <v>2.99156</v>
       </c>
       <c r="D80" t="n">
-        <v>3.18438</v>
+        <v>3.14847</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.25455</v>
+        <v>2.23997</v>
       </c>
       <c r="C81" t="n">
-        <v>3.98089</v>
+        <v>3.04133</v>
       </c>
       <c r="D81" t="n">
-        <v>3.23294</v>
+        <v>3.21409</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.16098</v>
+        <v>2.24762</v>
       </c>
       <c r="C82" t="n">
-        <v>4.11631</v>
+        <v>3.07286</v>
       </c>
       <c r="D82" t="n">
-        <v>3.24504</v>
+        <v>3.14477</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.30549</v>
+        <v>2.29116</v>
       </c>
       <c r="C83" t="n">
-        <v>3.93248</v>
+        <v>3.01329</v>
       </c>
       <c r="D83" t="n">
-        <v>3.44585</v>
+        <v>3.3527</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.27132</v>
+        <v>2.33486</v>
       </c>
       <c r="C84" t="n">
-        <v>3.81736</v>
+        <v>3.06939</v>
       </c>
       <c r="D84" t="n">
-        <v>3.35079</v>
+        <v>3.30397</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.32646</v>
+        <v>2.37404</v>
       </c>
       <c r="C85" t="n">
-        <v>3.99834</v>
+        <v>3.14866</v>
       </c>
       <c r="D85" t="n">
-        <v>3.60089</v>
+        <v>3.44277</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.34859</v>
+        <v>2.40028</v>
       </c>
       <c r="C86" t="n">
-        <v>4.05245</v>
+        <v>3.17989</v>
       </c>
       <c r="D86" t="n">
-        <v>3.59248</v>
+        <v>3.60584</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.34996</v>
+        <v>2.45326</v>
       </c>
       <c r="C87" t="n">
-        <v>4.16493</v>
+        <v>3.24855</v>
       </c>
       <c r="D87" t="n">
-        <v>3.55585</v>
+        <v>3.72839</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.38802</v>
+        <v>2.46665</v>
       </c>
       <c r="C88" t="n">
-        <v>4.25039</v>
+        <v>3.45105</v>
       </c>
       <c r="D88" t="n">
-        <v>3.62199</v>
+        <v>3.7367</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.55419</v>
+        <v>2.59022</v>
       </c>
       <c r="C89" t="n">
-        <v>4.212</v>
+        <v>3.40722</v>
       </c>
       <c r="D89" t="n">
-        <v>3.65221</v>
+        <v>3.62235</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.53893</v>
+        <v>2.60623</v>
       </c>
       <c r="C90" t="n">
-        <v>4.50919</v>
+        <v>3.51528</v>
       </c>
       <c r="D90" t="n">
-        <v>3.80548</v>
+        <v>3.66883</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.61191</v>
+        <v>2.65956</v>
       </c>
       <c r="C91" t="n">
-        <v>4.49175</v>
+        <v>3.54038</v>
       </c>
       <c r="D91" t="n">
-        <v>3.79461</v>
+        <v>3.69426</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.65313</v>
+        <v>2.61509</v>
       </c>
       <c r="C92" t="n">
-        <v>4.43631</v>
+        <v>3.59829</v>
       </c>
       <c r="D92" t="n">
-        <v>3.81701</v>
+        <v>3.77201</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.5892</v>
+        <v>2.65458</v>
       </c>
       <c r="C93" t="n">
-        <v>4.51756</v>
+        <v>3.67392</v>
       </c>
       <c r="D93" t="n">
-        <v>3.86287</v>
+        <v>3.78423</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.66827</v>
+        <v>2.73478</v>
       </c>
       <c r="C94" t="n">
-        <v>4.64792</v>
+        <v>3.84551</v>
       </c>
       <c r="D94" t="n">
-        <v>3.84912</v>
+        <v>3.91636</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.67628</v>
+        <v>2.70534</v>
       </c>
       <c r="C95" t="n">
-        <v>4.76777</v>
+        <v>3.91739</v>
       </c>
       <c r="D95" t="n">
-        <v>3.88105</v>
+        <v>3.94231</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.66261</v>
+        <v>2.76604</v>
       </c>
       <c r="C96" t="n">
-        <v>4.88345</v>
+        <v>3.95829</v>
       </c>
       <c r="D96" t="n">
-        <v>3.89541</v>
+        <v>3.98764</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.69665</v>
+        <v>2.83011</v>
       </c>
       <c r="C97" t="n">
-        <v>4.51535</v>
+        <v>3.64099</v>
       </c>
       <c r="D97" t="n">
-        <v>4.07594</v>
+        <v>4.09262</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.70865</v>
+        <v>2.80285</v>
       </c>
       <c r="C98" t="n">
-        <v>4.53049</v>
+        <v>3.72421</v>
       </c>
       <c r="D98" t="n">
-        <v>4.05699</v>
+        <v>4.07286</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.73099</v>
+        <v>2.80155</v>
       </c>
       <c r="C99" t="n">
-        <v>4.72552</v>
+        <v>3.79462</v>
       </c>
       <c r="D99" t="n">
-        <v>3.97937</v>
+        <v>4.12066</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.68379</v>
+        <v>2.84949</v>
       </c>
       <c r="C100" t="n">
-        <v>4.62285</v>
+        <v>3.82851</v>
       </c>
       <c r="D100" t="n">
-        <v>4.12537</v>
+        <v>4.14063</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.69571</v>
+        <v>2.85933</v>
       </c>
       <c r="C101" t="n">
-        <v>4.73763</v>
+        <v>3.83206</v>
       </c>
       <c r="D101" t="n">
-        <v>4.15244</v>
+        <v>4.20956</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.82258</v>
+        <v>2.83657</v>
       </c>
       <c r="C102" t="n">
-        <v>4.72475</v>
+        <v>3.93013</v>
       </c>
       <c r="D102" t="n">
-        <v>4.21218</v>
+        <v>4.20676</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.85381</v>
+        <v>2.99138</v>
       </c>
       <c r="C103" t="n">
-        <v>4.84747</v>
+        <v>3.96725</v>
       </c>
       <c r="D103" t="n">
-        <v>4.13846</v>
+        <v>4.26012</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.87717</v>
+        <v>3.02092</v>
       </c>
       <c r="C104" t="n">
-        <v>4.91999</v>
+        <v>4.07797</v>
       </c>
       <c r="D104" t="n">
-        <v>4.1843</v>
+        <v>4.23546</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.90334</v>
+        <v>3.00049</v>
       </c>
       <c r="C105" t="n">
-        <v>4.99071</v>
+        <v>4.13696</v>
       </c>
       <c r="D105" t="n">
-        <v>4.13014</v>
+        <v>4.31076</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.93473</v>
+        <v>3.03303</v>
       </c>
       <c r="C106" t="n">
-        <v>5.17192</v>
+        <v>4.22521</v>
       </c>
       <c r="D106" t="n">
-        <v>4.25382</v>
+        <v>4.3244</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.9169</v>
+        <v>3.07054</v>
       </c>
       <c r="C107" t="n">
-        <v>5.15527</v>
+        <v>4.28519</v>
       </c>
       <c r="D107" t="n">
-        <v>4.26533</v>
+        <v>4.34019</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.95659</v>
+        <v>3.08351</v>
       </c>
       <c r="C108" t="n">
-        <v>5.23038</v>
+        <v>4.40039</v>
       </c>
       <c r="D108" t="n">
-        <v>4.3401</v>
+        <v>4.33808</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.98734</v>
+        <v>3.14067</v>
       </c>
       <c r="C109" t="n">
-        <v>5.36027</v>
+        <v>4.44899</v>
       </c>
       <c r="D109" t="n">
-        <v>4.32873</v>
+        <v>4.38823</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.07746</v>
+        <v>3.13479</v>
       </c>
       <c r="C110" t="n">
-        <v>5.38839</v>
+        <v>4.53367</v>
       </c>
       <c r="D110" t="n">
-        <v>4.3408</v>
+        <v>4.44221</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.00503</v>
+        <v>3.14877</v>
       </c>
       <c r="C111" t="n">
-        <v>4.99893</v>
+        <v>4.1514</v>
       </c>
       <c r="D111" t="n">
-        <v>4.45402</v>
+        <v>4.63507</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.04874</v>
+        <v>3.15757</v>
       </c>
       <c r="C112" t="n">
-        <v>5.17144</v>
+        <v>4.20248</v>
       </c>
       <c r="D112" t="n">
-        <v>4.53657</v>
+        <v>4.61807</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.09117</v>
+        <v>3.21052</v>
       </c>
       <c r="C113" t="n">
-        <v>5.16547</v>
+        <v>4.25497</v>
       </c>
       <c r="D113" t="n">
-        <v>4.56825</v>
+        <v>4.63732</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.06954</v>
+        <v>3.19666</v>
       </c>
       <c r="C114" t="n">
-        <v>5.26671</v>
+        <v>4.29413</v>
       </c>
       <c r="D114" t="n">
-        <v>4.58791</v>
+        <v>4.75335</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.13522</v>
+        <v>3.25439</v>
       </c>
       <c r="C115" t="n">
-        <v>5.34099</v>
+        <v>4.37519</v>
       </c>
       <c r="D115" t="n">
-        <v>4.6731</v>
+        <v>4.72686</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.10477</v>
+        <v>3.2526</v>
       </c>
       <c r="C116" t="n">
-        <v>5.42881</v>
+        <v>4.48416</v>
       </c>
       <c r="D116" t="n">
-        <v>4.68029</v>
+        <v>4.79911</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.26618</v>
+        <v>3.3353</v>
       </c>
       <c r="C117" t="n">
-        <v>5.53266</v>
+        <v>4.50535</v>
       </c>
       <c r="D117" t="n">
-        <v>4.68744</v>
+        <v>4.81729</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.29997</v>
+        <v>3.42345</v>
       </c>
       <c r="C118" t="n">
-        <v>5.61872</v>
+        <v>4.65165</v>
       </c>
       <c r="D118" t="n">
-        <v>4.77144</v>
+        <v>4.89107</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.31834</v>
+        <v>3.46419</v>
       </c>
       <c r="C119" t="n">
-        <v>5.70137</v>
+        <v>4.79429</v>
       </c>
       <c r="D119" t="n">
-        <v>4.79757</v>
+        <v>4.96033</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.421282</v>
+        <v>0.400551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.384835</v>
+        <v>0.360856</v>
       </c>
       <c r="D2" t="n">
-        <v>0.396893</v>
+        <v>0.364776</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.437363</v>
+        <v>0.415627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.391302</v>
+        <v>0.358675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.398088</v>
+        <v>0.366756</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.42394</v>
+        <v>0.40631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.382536</v>
+        <v>0.363199</v>
       </c>
       <c r="D4" t="n">
-        <v>0.386011</v>
+        <v>0.373001</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.427786</v>
+        <v>0.402906</v>
       </c>
       <c r="C5" t="n">
-        <v>0.378138</v>
+        <v>0.364464</v>
       </c>
       <c r="D5" t="n">
-        <v>0.388097</v>
+        <v>0.383079</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.423733</v>
+        <v>0.410439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.382404</v>
+        <v>0.365826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.393105</v>
+        <v>0.386323</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.429899</v>
+        <v>0.415046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.373347</v>
+        <v>0.351688</v>
       </c>
       <c r="D7" t="n">
-        <v>0.383046</v>
+        <v>0.373457</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.431659</v>
+        <v>0.417089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.379213</v>
+        <v>0.363284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.387945</v>
+        <v>0.378445</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.435854</v>
+        <v>0.424097</v>
       </c>
       <c r="C9" t="n">
-        <v>0.377814</v>
+        <v>0.359047</v>
       </c>
       <c r="D9" t="n">
-        <v>0.393183</v>
+        <v>0.383304</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.443502</v>
+        <v>0.43051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.374726</v>
+        <v>0.374285</v>
       </c>
       <c r="D10" t="n">
-        <v>0.396966</v>
+        <v>0.388742</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.443396</v>
+        <v>0.433323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.375273</v>
+        <v>0.362049</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395596</v>
+        <v>0.380438</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.451206</v>
+        <v>0.436377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.378247</v>
+        <v>0.361802</v>
       </c>
       <c r="D12" t="n">
-        <v>0.405123</v>
+        <v>0.38344</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.430754</v>
+        <v>0.409529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.38395</v>
+        <v>0.364699</v>
       </c>
       <c r="D13" t="n">
-        <v>0.403522</v>
+        <v>0.398063</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.430336</v>
+        <v>0.416299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.389337</v>
+        <v>0.366971</v>
       </c>
       <c r="D14" t="n">
-        <v>0.415736</v>
+        <v>0.399936</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.436008</v>
+        <v>0.427628</v>
       </c>
       <c r="C15" t="n">
-        <v>0.385604</v>
+        <v>0.372748</v>
       </c>
       <c r="D15" t="n">
-        <v>0.41312</v>
+        <v>0.404931</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.442158</v>
+        <v>0.444225</v>
       </c>
       <c r="C16" t="n">
-        <v>0.389384</v>
+        <v>0.375684</v>
       </c>
       <c r="D16" t="n">
-        <v>0.420037</v>
+        <v>0.409198</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455146</v>
+        <v>0.426393</v>
       </c>
       <c r="C17" t="n">
-        <v>0.391511</v>
+        <v>0.378397</v>
       </c>
       <c r="D17" t="n">
-        <v>0.421036</v>
+        <v>0.417202</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.455767</v>
+        <v>0.439226</v>
       </c>
       <c r="C18" t="n">
-        <v>0.396751</v>
+        <v>0.378326</v>
       </c>
       <c r="D18" t="n">
-        <v>0.424745</v>
+        <v>0.421111</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.451757</v>
+        <v>0.447676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.398936</v>
+        <v>0.380163</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430981</v>
+        <v>0.417276</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.455473</v>
+        <v>0.459447</v>
       </c>
       <c r="C20" t="n">
-        <v>0.404328</v>
+        <v>0.389028</v>
       </c>
       <c r="D20" t="n">
-        <v>0.434527</v>
+        <v>0.423605</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.467311</v>
+        <v>0.453911</v>
       </c>
       <c r="C21" t="n">
-        <v>0.396989</v>
+        <v>0.378116</v>
       </c>
       <c r="D21" t="n">
-        <v>0.416925</v>
+        <v>0.408429</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.467734</v>
+        <v>0.460564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.394541</v>
+        <v>0.382427</v>
       </c>
       <c r="D22" t="n">
-        <v>0.41999</v>
+        <v>0.420432</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.475626</v>
+        <v>0.456248</v>
       </c>
       <c r="C23" t="n">
-        <v>0.395597</v>
+        <v>0.386281</v>
       </c>
       <c r="D23" t="n">
-        <v>0.435521</v>
+        <v>0.41675</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.477998</v>
+        <v>0.469864</v>
       </c>
       <c r="C24" t="n">
-        <v>0.396047</v>
+        <v>0.38168</v>
       </c>
       <c r="D24" t="n">
-        <v>0.433793</v>
+        <v>0.416462</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.485379</v>
+        <v>0.460105</v>
       </c>
       <c r="C25" t="n">
-        <v>0.403091</v>
+        <v>0.391311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.43902</v>
+        <v>0.428359</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.484734</v>
+        <v>0.475998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.409312</v>
+        <v>0.392356</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4463</v>
+        <v>0.440415</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.546637</v>
+        <v>0.529502</v>
       </c>
       <c r="C27" t="n">
-        <v>0.408524</v>
+        <v>0.404333</v>
       </c>
       <c r="D27" t="n">
-        <v>0.452637</v>
+        <v>0.45263</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.55522</v>
+        <v>0.53426</v>
       </c>
       <c r="C28" t="n">
-        <v>0.419152</v>
+        <v>0.399339</v>
       </c>
       <c r="D28" t="n">
-        <v>0.459487</v>
+        <v>0.444549</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.558755</v>
+        <v>0.526024</v>
       </c>
       <c r="C29" t="n">
-        <v>0.415624</v>
+        <v>0.411916</v>
       </c>
       <c r="D29" t="n">
-        <v>0.46187</v>
+        <v>0.444996</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.565986</v>
+        <v>0.548994</v>
       </c>
       <c r="C30" t="n">
-        <v>0.423603</v>
+        <v>0.403012</v>
       </c>
       <c r="D30" t="n">
-        <v>0.471827</v>
+        <v>0.465977</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5917790000000001</v>
+        <v>0.57128</v>
       </c>
       <c r="C31" t="n">
-        <v>0.435092</v>
+        <v>0.42363</v>
       </c>
       <c r="D31" t="n">
-        <v>0.477044</v>
+        <v>0.460905</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.595421</v>
+        <v>0.567435</v>
       </c>
       <c r="C32" t="n">
-        <v>0.439289</v>
+        <v>0.418002</v>
       </c>
       <c r="D32" t="n">
-        <v>0.486465</v>
+        <v>0.474685</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.611804</v>
+        <v>0.58963</v>
       </c>
       <c r="C33" t="n">
-        <v>0.445229</v>
+        <v>0.431733</v>
       </c>
       <c r="D33" t="n">
-        <v>0.498417</v>
+        <v>0.491419</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.624865</v>
+        <v>0.629391</v>
       </c>
       <c r="C34" t="n">
-        <v>0.465589</v>
+        <v>0.429163</v>
       </c>
       <c r="D34" t="n">
-        <v>0.51718</v>
+        <v>0.499892</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.651776</v>
+        <v>0.632035</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5119899999999999</v>
+        <v>0.479768</v>
       </c>
       <c r="D35" t="n">
-        <v>0.628654</v>
+        <v>0.599451</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.670569</v>
+        <v>0.635381</v>
       </c>
       <c r="C36" t="n">
-        <v>0.508205</v>
+        <v>0.492643</v>
       </c>
       <c r="D36" t="n">
-        <v>0.634172</v>
+        <v>0.6248359999999999</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.686983</v>
+        <v>0.660674</v>
       </c>
       <c r="C37" t="n">
-        <v>0.525562</v>
+        <v>0.497199</v>
       </c>
       <c r="D37" t="n">
-        <v>0.648445</v>
+        <v>0.635533</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.689724</v>
+        <v>0.669246</v>
       </c>
       <c r="C38" t="n">
-        <v>0.537683</v>
+        <v>0.5094070000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.676778</v>
+        <v>0.66309</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.728555</v>
+        <v>0.691655</v>
       </c>
       <c r="C39" t="n">
-        <v>0.544831</v>
+        <v>0.518003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.68711</v>
+        <v>0.684268</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.750812</v>
+        <v>0.715446</v>
       </c>
       <c r="C40" t="n">
-        <v>0.558404</v>
+        <v>0.5447610000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.708856</v>
+        <v>0.6985789999999999</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.885866</v>
+        <v>0.820728</v>
       </c>
       <c r="C41" t="n">
-        <v>0.58866</v>
+        <v>0.549378</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7373729999999999</v>
+        <v>0.719063</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.895743</v>
+        <v>0.85586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.581929</v>
+        <v>0.572685</v>
       </c>
       <c r="D42" t="n">
-        <v>0.748212</v>
+        <v>0.7410870000000001</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.926494</v>
+        <v>0.872287</v>
       </c>
       <c r="C43" t="n">
-        <v>0.611108</v>
+        <v>0.5815399999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.805966</v>
+        <v>0.7460830000000001</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.945217</v>
+        <v>0.886601</v>
       </c>
       <c r="C44" t="n">
-        <v>0.640567</v>
+        <v>0.590894</v>
       </c>
       <c r="D44" t="n">
-        <v>0.798563</v>
+        <v>0.777546</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.968812</v>
+        <v>0.928951</v>
       </c>
       <c r="C45" t="n">
-        <v>0.638833</v>
+        <v>0.610718</v>
       </c>
       <c r="D45" t="n">
-        <v>0.828129</v>
+        <v>0.786411</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>1.02146</v>
+        <v>0.917265</v>
       </c>
       <c r="C46" t="n">
-        <v>0.670443</v>
+        <v>0.636389</v>
       </c>
       <c r="D46" t="n">
-        <v>0.843606</v>
+        <v>0.819036</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>1.03737</v>
+        <v>0.966959</v>
       </c>
       <c r="C47" t="n">
-        <v>0.685938</v>
+        <v>0.649807</v>
       </c>
       <c r="D47" t="n">
-        <v>0.907342</v>
+        <v>0.837028</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>1.0334</v>
+        <v>0.98999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.717002</v>
+        <v>0.688805</v>
       </c>
       <c r="D48" t="n">
-        <v>0.903635</v>
+        <v>0.872603</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.09434</v>
+        <v>1.01194</v>
       </c>
       <c r="C49" t="n">
-        <v>0.728834</v>
+        <v>0.694327</v>
       </c>
       <c r="D49" t="n">
-        <v>0.939767</v>
+        <v>0.896156</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.08869</v>
+        <v>1.04914</v>
       </c>
       <c r="C50" t="n">
-        <v>0.865627</v>
+        <v>0.826344</v>
       </c>
       <c r="D50" t="n">
-        <v>1.13107</v>
+        <v>1.08687</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.14231</v>
+        <v>1.07829</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8791</v>
+        <v>0.863109</v>
       </c>
       <c r="D51" t="n">
-        <v>1.15892</v>
+        <v>1.12006</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.18671</v>
+        <v>1.10072</v>
       </c>
       <c r="C52" t="n">
-        <v>0.936281</v>
+        <v>0.882541</v>
       </c>
       <c r="D52" t="n">
-        <v>1.16278</v>
+        <v>1.11995</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.19223</v>
+        <v>1.1539</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9491270000000001</v>
+        <v>0.920276</v>
       </c>
       <c r="D53" t="n">
-        <v>1.20265</v>
+        <v>1.17707</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.24313</v>
+        <v>1.20809</v>
       </c>
       <c r="C54" t="n">
-        <v>0.965793</v>
+        <v>0.947913</v>
       </c>
       <c r="D54" t="n">
-        <v>1.24921</v>
+        <v>1.19685</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.27661</v>
+        <v>1.2436</v>
       </c>
       <c r="C55" t="n">
-        <v>0.993449</v>
+        <v>0.938985</v>
       </c>
       <c r="D55" t="n">
-        <v>1.28569</v>
+        <v>1.22864</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.48596</v>
+        <v>1.46311</v>
       </c>
       <c r="C56" t="n">
-        <v>1.00679</v>
+        <v>0.9611769999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>1.33339</v>
+        <v>1.25529</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.57939</v>
+        <v>1.4821</v>
       </c>
       <c r="C57" t="n">
-        <v>1.08178</v>
+        <v>0.99478</v>
       </c>
       <c r="D57" t="n">
-        <v>1.35139</v>
+        <v>1.32555</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.61019</v>
+        <v>1.51507</v>
       </c>
       <c r="C58" t="n">
-        <v>1.12719</v>
+        <v>1.01066</v>
       </c>
       <c r="D58" t="n">
-        <v>1.45582</v>
+        <v>1.3437</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.66771</v>
+        <v>1.57914</v>
       </c>
       <c r="C59" t="n">
-        <v>1.15259</v>
+        <v>1.07456</v>
       </c>
       <c r="D59" t="n">
-        <v>1.5124</v>
+        <v>1.35714</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.69593</v>
+        <v>1.63183</v>
       </c>
       <c r="C60" t="n">
-        <v>1.11789</v>
+        <v>1.13383</v>
       </c>
       <c r="D60" t="n">
-        <v>1.44972</v>
+        <v>1.43338</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.68877</v>
+        <v>1.68197</v>
       </c>
       <c r="C61" t="n">
-        <v>1.11833</v>
+        <v>1.18122</v>
       </c>
       <c r="D61" t="n">
-        <v>1.52783</v>
+        <v>1.50901</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.71463</v>
+        <v>1.71537</v>
       </c>
       <c r="C62" t="n">
-        <v>1.16897</v>
+        <v>1.18393</v>
       </c>
       <c r="D62" t="n">
-        <v>1.57527</v>
+        <v>1.51201</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.73738</v>
+        <v>1.70318</v>
       </c>
       <c r="C63" t="n">
-        <v>1.18418</v>
+        <v>1.14522</v>
       </c>
       <c r="D63" t="n">
-        <v>1.64663</v>
+        <v>1.51166</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.77317</v>
+        <v>1.71932</v>
       </c>
       <c r="C64" t="n">
-        <v>1.31854</v>
+        <v>1.27417</v>
       </c>
       <c r="D64" t="n">
-        <v>1.87817</v>
+        <v>1.85603</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.85277</v>
+        <v>1.74369</v>
       </c>
       <c r="C65" t="n">
-        <v>1.33881</v>
+        <v>1.27193</v>
       </c>
       <c r="D65" t="n">
-        <v>1.94322</v>
+        <v>1.85608</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.91087</v>
+        <v>1.78158</v>
       </c>
       <c r="C66" t="n">
-        <v>1.35541</v>
+        <v>1.3862</v>
       </c>
       <c r="D66" t="n">
-        <v>1.95323</v>
+        <v>1.97761</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.85516</v>
+        <v>1.87682</v>
       </c>
       <c r="C67" t="n">
-        <v>1.36828</v>
+        <v>1.41444</v>
       </c>
       <c r="D67" t="n">
-        <v>2.02093</v>
+        <v>2.0466</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.94931</v>
+        <v>1.95376</v>
       </c>
       <c r="C68" t="n">
-        <v>1.41942</v>
+        <v>1.33326</v>
       </c>
       <c r="D68" t="n">
-        <v>2.07926</v>
+        <v>2.00231</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.92724</v>
+        <v>1.98847</v>
       </c>
       <c r="C69" t="n">
-        <v>1.38359</v>
+        <v>1.34369</v>
       </c>
       <c r="D69" t="n">
-        <v>2.09864</v>
+        <v>1.98242</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.10633</v>
+        <v>2.00395</v>
       </c>
       <c r="C70" t="n">
-        <v>1.49245</v>
+        <v>1.37024</v>
       </c>
       <c r="D70" t="n">
-        <v>2.15865</v>
+        <v>2.0516</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.07284</v>
+        <v>2.04979</v>
       </c>
       <c r="C71" t="n">
-        <v>1.44673</v>
+        <v>1.38995</v>
       </c>
       <c r="D71" t="n">
-        <v>2.16996</v>
+        <v>2.12953</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.10126</v>
+        <v>2.08659</v>
       </c>
       <c r="C72" t="n">
-        <v>1.46765</v>
+        <v>1.42659</v>
       </c>
       <c r="D72" t="n">
-        <v>2.16127</v>
+        <v>2.22972</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.14976</v>
+        <v>2.08045</v>
       </c>
       <c r="C73" t="n">
-        <v>1.44574</v>
+        <v>1.42196</v>
       </c>
       <c r="D73" t="n">
-        <v>2.23852</v>
+        <v>2.13966</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.1513</v>
+        <v>2.12717</v>
       </c>
       <c r="C74" t="n">
-        <v>1.50206</v>
+        <v>1.48361</v>
       </c>
       <c r="D74" t="n">
-        <v>2.27672</v>
+        <v>2.23714</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.1999</v>
+        <v>2.14525</v>
       </c>
       <c r="C75" t="n">
-        <v>1.50871</v>
+        <v>1.46755</v>
       </c>
       <c r="D75" t="n">
-        <v>2.28929</v>
+        <v>2.2924</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.20814</v>
+        <v>2.15367</v>
       </c>
       <c r="C76" t="n">
-        <v>1.53683</v>
+        <v>1.50011</v>
       </c>
       <c r="D76" t="n">
-        <v>2.3356</v>
+        <v>2.29411</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.24785</v>
+        <v>2.17672</v>
       </c>
       <c r="C77" t="n">
-        <v>1.54668</v>
+        <v>1.56849</v>
       </c>
       <c r="D77" t="n">
-        <v>2.3971</v>
+        <v>2.29853</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.25259</v>
+        <v>2.23211</v>
       </c>
       <c r="C78" t="n">
-        <v>1.63159</v>
+        <v>1.64856</v>
       </c>
       <c r="D78" t="n">
-        <v>2.6501</v>
+        <v>2.5869</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.26175</v>
+        <v>2.27762</v>
       </c>
       <c r="C79" t="n">
-        <v>1.67003</v>
+        <v>1.64162</v>
       </c>
       <c r="D79" t="n">
-        <v>2.72873</v>
+        <v>2.5957</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.30764</v>
+        <v>2.28377</v>
       </c>
       <c r="C80" t="n">
-        <v>1.63552</v>
+        <v>1.63061</v>
       </c>
       <c r="D80" t="n">
-        <v>2.72381</v>
+        <v>2.66189</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.30321</v>
+        <v>2.28415</v>
       </c>
       <c r="C81" t="n">
-        <v>1.69174</v>
+        <v>1.62696</v>
       </c>
       <c r="D81" t="n">
-        <v>2.76649</v>
+        <v>2.75429</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.37722</v>
+        <v>2.29517</v>
       </c>
       <c r="C82" t="n">
-        <v>1.70522</v>
+        <v>1.65853</v>
       </c>
       <c r="D82" t="n">
-        <v>2.72992</v>
+        <v>2.8299</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.34182</v>
+        <v>2.39319</v>
       </c>
       <c r="C83" t="n">
-        <v>1.70436</v>
+        <v>1.70623</v>
       </c>
       <c r="D83" t="n">
-        <v>2.85832</v>
+        <v>2.78981</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.46042</v>
+        <v>2.46191</v>
       </c>
       <c r="C84" t="n">
-        <v>1.73428</v>
+        <v>1.69872</v>
       </c>
       <c r="D84" t="n">
-        <v>2.77889</v>
+        <v>2.73617</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.44066</v>
+        <v>2.38879</v>
       </c>
       <c r="C85" t="n">
-        <v>1.71683</v>
+        <v>1.7121</v>
       </c>
       <c r="D85" t="n">
-        <v>2.85025</v>
+        <v>2.83478</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.48244</v>
+        <v>2.43414</v>
       </c>
       <c r="C86" t="n">
-        <v>1.7775</v>
+        <v>1.72374</v>
       </c>
       <c r="D86" t="n">
-        <v>2.86184</v>
+        <v>2.83007</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.5153</v>
+        <v>2.47391</v>
       </c>
       <c r="C87" t="n">
-        <v>1.76932</v>
+        <v>1.70591</v>
       </c>
       <c r="D87" t="n">
-        <v>2.8987</v>
+        <v>2.84952</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.49826</v>
+        <v>2.46747</v>
       </c>
       <c r="C88" t="n">
-        <v>1.79346</v>
+        <v>1.75143</v>
       </c>
       <c r="D88" t="n">
-        <v>2.90999</v>
+        <v>2.88813</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.5383</v>
+        <v>2.50196</v>
       </c>
       <c r="C89" t="n">
-        <v>1.8037</v>
+        <v>1.763</v>
       </c>
       <c r="D89" t="n">
-        <v>2.9701</v>
+        <v>2.89525</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.57797</v>
+        <v>2.51002</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81313</v>
+        <v>1.79449</v>
       </c>
       <c r="D90" t="n">
-        <v>2.94246</v>
+        <v>2.87942</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.55979</v>
+        <v>2.52967</v>
       </c>
       <c r="C91" t="n">
-        <v>1.84378</v>
+        <v>1.81354</v>
       </c>
       <c r="D91" t="n">
-        <v>2.96686</v>
+        <v>2.93327</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.57486</v>
+        <v>2.54216</v>
       </c>
       <c r="C92" t="n">
-        <v>1.88174</v>
+        <v>1.84797</v>
       </c>
       <c r="D92" t="n">
-        <v>3.13582</v>
+        <v>3.185</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.61779</v>
+        <v>2.5506</v>
       </c>
       <c r="C93" t="n">
-        <v>1.90367</v>
+        <v>1.88435</v>
       </c>
       <c r="D93" t="n">
-        <v>3.17862</v>
+        <v>3.20639</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.57703</v>
+        <v>2.55256</v>
       </c>
       <c r="C94" t="n">
-        <v>1.91209</v>
+        <v>1.86589</v>
       </c>
       <c r="D94" t="n">
-        <v>3.25914</v>
+        <v>3.24836</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.71038</v>
+        <v>2.63057</v>
       </c>
       <c r="C95" t="n">
-        <v>1.94514</v>
+        <v>1.90513</v>
       </c>
       <c r="D95" t="n">
-        <v>3.24795</v>
+        <v>3.20379</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.6999</v>
+        <v>2.61516</v>
       </c>
       <c r="C96" t="n">
-        <v>2.01191</v>
+        <v>1.92086</v>
       </c>
       <c r="D96" t="n">
-        <v>3.27482</v>
+        <v>3.24181</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.77163</v>
+        <v>2.68103</v>
       </c>
       <c r="C97" t="n">
-        <v>1.96117</v>
+        <v>1.96748</v>
       </c>
       <c r="D97" t="n">
-        <v>3.37302</v>
+        <v>3.27354</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.85185</v>
+        <v>2.80557</v>
       </c>
       <c r="C98" t="n">
-        <v>2.0097</v>
+        <v>1.94683</v>
       </c>
       <c r="D98" t="n">
-        <v>3.27442</v>
+        <v>3.28243</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.92748</v>
+        <v>2.74033</v>
       </c>
       <c r="C99" t="n">
-        <v>2.0523</v>
+        <v>1.98763</v>
       </c>
       <c r="D99" t="n">
-        <v>3.31681</v>
+        <v>3.31786</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.89044</v>
+        <v>2.80226</v>
       </c>
       <c r="C100" t="n">
-        <v>2.07906</v>
+        <v>1.97888</v>
       </c>
       <c r="D100" t="n">
-        <v>3.39201</v>
+        <v>3.22053</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.98749</v>
+        <v>2.82037</v>
       </c>
       <c r="C101" t="n">
-        <v>2.09145</v>
+        <v>2.00942</v>
       </c>
       <c r="D101" t="n">
-        <v>3.33889</v>
+        <v>3.30654</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.96025</v>
+        <v>2.81988</v>
       </c>
       <c r="C102" t="n">
-        <v>2.11992</v>
+        <v>2.02706</v>
       </c>
       <c r="D102" t="n">
-        <v>3.46963</v>
+        <v>3.26556</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.9576</v>
+        <v>2.84389</v>
       </c>
       <c r="C103" t="n">
-        <v>2.08511</v>
+        <v>2.03129</v>
       </c>
       <c r="D103" t="n">
-        <v>3.45169</v>
+        <v>3.39574</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>3.03944</v>
+        <v>2.86229</v>
       </c>
       <c r="C104" t="n">
-        <v>2.078</v>
+        <v>2.07006</v>
       </c>
       <c r="D104" t="n">
-        <v>3.54376</v>
+        <v>3.34708</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>3.01891</v>
+        <v>2.85291</v>
       </c>
       <c r="C105" t="n">
-        <v>2.1374</v>
+        <v>2.07221</v>
       </c>
       <c r="D105" t="n">
-        <v>3.51495</v>
+        <v>3.36709</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>3.03405</v>
+        <v>2.91327</v>
       </c>
       <c r="C106" t="n">
-        <v>2.20704</v>
+        <v>2.08122</v>
       </c>
       <c r="D106" t="n">
-        <v>3.57419</v>
+        <v>3.47757</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>3.06492</v>
+        <v>2.88681</v>
       </c>
       <c r="C107" t="n">
-        <v>2.30867</v>
+        <v>2.16141</v>
       </c>
       <c r="D107" t="n">
-        <v>3.74272</v>
+        <v>3.66237</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>3.08554</v>
+        <v>2.93838</v>
       </c>
       <c r="C108" t="n">
-        <v>2.32626</v>
+        <v>2.15484</v>
       </c>
       <c r="D108" t="n">
-        <v>3.77539</v>
+        <v>3.65946</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>3.07433</v>
+        <v>2.92052</v>
       </c>
       <c r="C109" t="n">
-        <v>2.3455</v>
+        <v>2.18509</v>
       </c>
       <c r="D109" t="n">
-        <v>3.83028</v>
+        <v>3.69538</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>3.10823</v>
+        <v>2.96486</v>
       </c>
       <c r="C110" t="n">
-        <v>2.36614</v>
+        <v>2.19793</v>
       </c>
       <c r="D110" t="n">
-        <v>3.79826</v>
+        <v>3.7556</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.1721</v>
+        <v>3.08387</v>
       </c>
       <c r="C111" t="n">
-        <v>2.36915</v>
+        <v>2.21935</v>
       </c>
       <c r="D111" t="n">
-        <v>3.84752</v>
+        <v>3.71987</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.35567</v>
+        <v>3.22049</v>
       </c>
       <c r="C112" t="n">
-        <v>2.37582</v>
+        <v>2.24008</v>
       </c>
       <c r="D112" t="n">
-        <v>3.86689</v>
+        <v>3.80983</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.32009</v>
+        <v>3.17654</v>
       </c>
       <c r="C113" t="n">
-        <v>2.39243</v>
+        <v>2.27485</v>
       </c>
       <c r="D113" t="n">
-        <v>3.87751</v>
+        <v>3.80172</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.33357</v>
+        <v>3.22184</v>
       </c>
       <c r="C114" t="n">
-        <v>2.44579</v>
+        <v>2.28807</v>
       </c>
       <c r="D114" t="n">
-        <v>3.91205</v>
+        <v>3.78874</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.3625</v>
+        <v>3.21343</v>
       </c>
       <c r="C115" t="n">
-        <v>2.42869</v>
+        <v>2.3292</v>
       </c>
       <c r="D115" t="n">
-        <v>3.95933</v>
+        <v>3.86639</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.45534</v>
+        <v>3.19152</v>
       </c>
       <c r="C116" t="n">
-        <v>2.52794</v>
+        <v>2.3666</v>
       </c>
       <c r="D116" t="n">
-        <v>4.00862</v>
+        <v>3.98741</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.44814</v>
+        <v>3.22449</v>
       </c>
       <c r="C117" t="n">
-        <v>2.5301</v>
+        <v>2.41049</v>
       </c>
       <c r="D117" t="n">
-        <v>4.08739</v>
+        <v>4.09135</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.49247</v>
+        <v>3.35699</v>
       </c>
       <c r="C118" t="n">
-        <v>2.5765</v>
+        <v>2.48692</v>
       </c>
       <c r="D118" t="n">
-        <v>4.11498</v>
+        <v>4.04415</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.53533</v>
+        <v>3.3606</v>
       </c>
       <c r="C119" t="n">
-        <v>2.61386</v>
+        <v>2.47265</v>
       </c>
       <c r="D119" t="n">
-        <v>4.19423</v>
+        <v>4.02661</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.472163</v>
+        <v>0.441266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5291709999999999</v>
+        <v>0.489692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5358889999999999</v>
+        <v>0.494738</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.474456</v>
+        <v>0.455173</v>
       </c>
       <c r="C3" t="n">
-        <v>0.532102</v>
+        <v>0.495345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.540081</v>
+        <v>0.500306</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.463469</v>
+        <v>0.438761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.535135</v>
+        <v>0.5048589999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.541994</v>
+        <v>0.510131</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.467453</v>
+        <v>0.44881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.541559</v>
+        <v>0.511605</v>
       </c>
       <c r="D5" t="n">
-        <v>0.541188</v>
+        <v>0.512691</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.464125</v>
+        <v>0.449182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.538025</v>
+        <v>0.514204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5429850000000001</v>
+        <v>0.515377</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.464078</v>
+        <v>0.454782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.543616</v>
+        <v>0.528116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.546851</v>
+        <v>0.529309</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.465884</v>
+        <v>0.452363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.540449</v>
+        <v>0.52541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.549639</v>
+        <v>0.530339</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.471002</v>
+        <v>0.455434</v>
       </c>
       <c r="C9" t="n">
-        <v>0.559827</v>
+        <v>0.531322</v>
       </c>
       <c r="D9" t="n">
-        <v>0.566879</v>
+        <v>0.529657</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.467237</v>
+        <v>0.458053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.559022</v>
+        <v>0.536413</v>
       </c>
       <c r="D10" t="n">
-        <v>0.561972</v>
+        <v>0.541319</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.481115</v>
+        <v>0.45819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.558996</v>
+        <v>0.532558</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5712699999999999</v>
+        <v>0.553404</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.477834</v>
+        <v>0.459488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5694709999999999</v>
+        <v>0.538187</v>
       </c>
       <c r="D12" t="n">
-        <v>0.577081</v>
+        <v>0.553751</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.489565</v>
+        <v>0.480175</v>
       </c>
       <c r="C13" t="n">
-        <v>0.556978</v>
+        <v>0.538663</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5739340000000001</v>
+        <v>0.550953</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.488506</v>
+        <v>0.48227</v>
       </c>
       <c r="C14" t="n">
-        <v>0.567918</v>
+        <v>0.543469</v>
       </c>
       <c r="D14" t="n">
-        <v>0.572567</v>
+        <v>0.548482</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.490333</v>
+        <v>0.477559</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5615</v>
+        <v>0.542019</v>
       </c>
       <c r="D15" t="n">
-        <v>0.573255</v>
+        <v>0.554578</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.501358</v>
+        <v>0.475519</v>
       </c>
       <c r="C16" t="n">
-        <v>0.56718</v>
+        <v>0.537872</v>
       </c>
       <c r="D16" t="n">
-        <v>0.577723</v>
+        <v>0.562307</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.501476</v>
+        <v>0.471007</v>
       </c>
       <c r="C17" t="n">
-        <v>0.570666</v>
+        <v>0.547108</v>
       </c>
       <c r="D17" t="n">
-        <v>0.586223</v>
+        <v>0.562478</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.50073</v>
+        <v>0.485664</v>
       </c>
       <c r="C18" t="n">
-        <v>0.579751</v>
+        <v>0.549753</v>
       </c>
       <c r="D18" t="n">
-        <v>0.594653</v>
+        <v>0.568872</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.507092</v>
+        <v>0.483193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5808680000000001</v>
+        <v>0.5489039999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.602195</v>
+        <v>0.575852</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.508831</v>
+        <v>0.48412</v>
       </c>
       <c r="C20" t="n">
-        <v>0.587724</v>
+        <v>0.555547</v>
       </c>
       <c r="D20" t="n">
-        <v>0.591935</v>
+        <v>0.569623</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.500922</v>
+        <v>0.478304</v>
       </c>
       <c r="C21" t="n">
-        <v>0.590133</v>
+        <v>0.563295</v>
       </c>
       <c r="D21" t="n">
-        <v>0.603086</v>
+        <v>0.5826249999999999</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.505401</v>
+        <v>0.486076</v>
       </c>
       <c r="C22" t="n">
-        <v>0.599645</v>
+        <v>0.565519</v>
       </c>
       <c r="D22" t="n">
-        <v>0.598714</v>
+        <v>0.57507</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.510117</v>
+        <v>0.486825</v>
       </c>
       <c r="C23" t="n">
-        <v>0.592166</v>
+        <v>0.5650849999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6263570000000001</v>
+        <v>0.580966</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.529577</v>
+        <v>0.504294</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6009330000000001</v>
+        <v>0.568033</v>
       </c>
       <c r="D24" t="n">
-        <v>0.623686</v>
+        <v>0.599387</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.514554</v>
+        <v>0.516023</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6080719999999999</v>
+        <v>0.585969</v>
       </c>
       <c r="D25" t="n">
-        <v>0.609723</v>
+        <v>0.588666</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.513355</v>
+        <v>0.508884</v>
       </c>
       <c r="C26" t="n">
-        <v>0.610216</v>
+        <v>0.603247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.626301</v>
+        <v>0.610495</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5994699999999999</v>
+        <v>0.5733470000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.605851</v>
+        <v>0.581057</v>
       </c>
       <c r="D27" t="n">
-        <v>0.640281</v>
+        <v>0.600187</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.577639</v>
+        <v>0.564932</v>
       </c>
       <c r="C28" t="n">
-        <v>0.629965</v>
+        <v>0.583588</v>
       </c>
       <c r="D28" t="n">
-        <v>0.641498</v>
+        <v>0.5998830000000001</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.609955</v>
+        <v>0.574507</v>
       </c>
       <c r="C29" t="n">
-        <v>0.639198</v>
+        <v>0.593804</v>
       </c>
       <c r="D29" t="n">
-        <v>0.664075</v>
+        <v>0.6142879999999999</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.630165</v>
+        <v>0.580121</v>
       </c>
       <c r="C30" t="n">
-        <v>0.662934</v>
+        <v>0.601048</v>
       </c>
       <c r="D30" t="n">
-        <v>0.669266</v>
+        <v>0.625912</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6475379999999999</v>
+        <v>0.591637</v>
       </c>
       <c r="C31" t="n">
-        <v>0.647396</v>
+        <v>0.610125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.67657</v>
+        <v>0.6367660000000001</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.650953</v>
+        <v>0.619043</v>
       </c>
       <c r="C32" t="n">
-        <v>0.656199</v>
+        <v>0.638843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.68869</v>
+        <v>0.670086</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.663655</v>
+        <v>0.616542</v>
       </c>
       <c r="C33" t="n">
-        <v>0.679224</v>
+        <v>0.640329</v>
       </c>
       <c r="D33" t="n">
-        <v>0.690158</v>
+        <v>0.672327</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.669555</v>
+        <v>0.641304</v>
       </c>
       <c r="C34" t="n">
-        <v>0.687549</v>
+        <v>0.678659</v>
       </c>
       <c r="D34" t="n">
-        <v>0.715888</v>
+        <v>0.697689</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.688676</v>
+        <v>0.64651</v>
       </c>
       <c r="C35" t="n">
-        <v>0.75325</v>
+        <v>0.720599</v>
       </c>
       <c r="D35" t="n">
-        <v>0.815118</v>
+        <v>0.766409</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.706683</v>
+        <v>0.663561</v>
       </c>
       <c r="C36" t="n">
-        <v>0.782003</v>
+        <v>0.720319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.829321</v>
+        <v>0.784965</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.706019</v>
+        <v>0.686577</v>
       </c>
       <c r="C37" t="n">
-        <v>0.804472</v>
+        <v>0.756258</v>
       </c>
       <c r="D37" t="n">
-        <v>0.866536</v>
+        <v>0.790537</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.732771</v>
+        <v>0.6992080000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.815268</v>
+        <v>0.759964</v>
       </c>
       <c r="D38" t="n">
-        <v>0.874733</v>
+        <v>0.827209</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.760649</v>
+        <v>0.712121</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8249919999999999</v>
+        <v>0.776253</v>
       </c>
       <c r="D39" t="n">
-        <v>0.899578</v>
+        <v>0.845624</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.776806</v>
+        <v>0.734179</v>
       </c>
       <c r="C40" t="n">
-        <v>0.838036</v>
+        <v>0.783382</v>
       </c>
       <c r="D40" t="n">
-        <v>0.927606</v>
+        <v>0.876902</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.894555</v>
+        <v>0.853864</v>
       </c>
       <c r="C41" t="n">
-        <v>0.850932</v>
+        <v>0.810918</v>
       </c>
       <c r="D41" t="n">
-        <v>0.939714</v>
+        <v>0.907173</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.905465</v>
+        <v>0.870671</v>
       </c>
       <c r="C42" t="n">
-        <v>0.879818</v>
+        <v>0.836421</v>
       </c>
       <c r="D42" t="n">
-        <v>0.961739</v>
+        <v>0.916734</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9318610000000001</v>
+        <v>0.881122</v>
       </c>
       <c r="C43" t="n">
-        <v>0.916758</v>
+        <v>0.860747</v>
       </c>
       <c r="D43" t="n">
-        <v>0.99599</v>
+        <v>0.975915</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.947186</v>
+        <v>0.905184</v>
       </c>
       <c r="C44" t="n">
-        <v>0.936103</v>
+        <v>0.882852</v>
       </c>
       <c r="D44" t="n">
-        <v>1.0096</v>
+        <v>0.976786</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.956976</v>
+        <v>0.920885</v>
       </c>
       <c r="C45" t="n">
-        <v>0.943411</v>
+        <v>0.900298</v>
       </c>
       <c r="D45" t="n">
-        <v>1.05125</v>
+        <v>1.00884</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.983925</v>
+        <v>0.933361</v>
       </c>
       <c r="C46" t="n">
-        <v>0.986715</v>
+        <v>0.914903</v>
       </c>
       <c r="D46" t="n">
-        <v>1.07605</v>
+        <v>1.04211</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>1.02347</v>
+        <v>0.973932</v>
       </c>
       <c r="C47" t="n">
-        <v>0.99451</v>
+        <v>0.970523</v>
       </c>
       <c r="D47" t="n">
-        <v>1.14177</v>
+        <v>1.06445</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>1.04697</v>
+        <v>0.970922</v>
       </c>
       <c r="C48" t="n">
-        <v>1.06167</v>
+        <v>0.997315</v>
       </c>
       <c r="D48" t="n">
-        <v>1.15188</v>
+        <v>1.13642</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>1.06259</v>
+        <v>0.997602</v>
       </c>
       <c r="C49" t="n">
-        <v>1.07637</v>
+        <v>1.03186</v>
       </c>
       <c r="D49" t="n">
-        <v>1.16989</v>
+        <v>1.12612</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.08144</v>
+        <v>1.02253</v>
       </c>
       <c r="C50" t="n">
-        <v>1.20947</v>
+        <v>1.16322</v>
       </c>
       <c r="D50" t="n">
-        <v>1.31736</v>
+        <v>1.25325</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.11311</v>
+        <v>1.03529</v>
       </c>
       <c r="C51" t="n">
-        <v>1.25688</v>
+        <v>1.18422</v>
       </c>
       <c r="D51" t="n">
-        <v>1.3465</v>
+        <v>1.27625</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.10815</v>
+        <v>1.0801</v>
       </c>
       <c r="C52" t="n">
-        <v>1.32107</v>
+        <v>1.23233</v>
       </c>
       <c r="D52" t="n">
-        <v>1.38118</v>
+        <v>1.32993</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.15362</v>
+        <v>1.10759</v>
       </c>
       <c r="C53" t="n">
-        <v>1.34963</v>
+        <v>1.25402</v>
       </c>
       <c r="D53" t="n">
-        <v>1.42343</v>
+        <v>1.36336</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.2029</v>
+        <v>1.12967</v>
       </c>
       <c r="C54" t="n">
-        <v>1.39158</v>
+        <v>1.28737</v>
       </c>
       <c r="D54" t="n">
-        <v>1.4905</v>
+        <v>1.38364</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.25792</v>
+        <v>1.15996</v>
       </c>
       <c r="C55" t="n">
-        <v>1.41969</v>
+        <v>1.33106</v>
       </c>
       <c r="D55" t="n">
-        <v>1.53929</v>
+        <v>1.46117</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.32922</v>
+        <v>1.28689</v>
       </c>
       <c r="C56" t="n">
-        <v>1.46449</v>
+        <v>1.37816</v>
       </c>
       <c r="D56" t="n">
-        <v>1.56687</v>
+        <v>1.46962</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.40778</v>
+        <v>1.31294</v>
       </c>
       <c r="C57" t="n">
-        <v>1.46846</v>
+        <v>1.41648</v>
       </c>
       <c r="D57" t="n">
-        <v>1.61489</v>
+        <v>1.53159</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.49462</v>
+        <v>1.37342</v>
       </c>
       <c r="C58" t="n">
-        <v>1.56299</v>
+        <v>1.46332</v>
       </c>
       <c r="D58" t="n">
-        <v>1.67214</v>
+        <v>1.58544</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.46437</v>
+        <v>1.4064</v>
       </c>
       <c r="C59" t="n">
-        <v>1.55639</v>
+        <v>1.49603</v>
       </c>
       <c r="D59" t="n">
-        <v>1.70972</v>
+        <v>1.62207</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.51208</v>
+        <v>1.43241</v>
       </c>
       <c r="C60" t="n">
-        <v>1.62284</v>
+        <v>1.54427</v>
       </c>
       <c r="D60" t="n">
-        <v>1.76178</v>
+        <v>1.66546</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.60198</v>
+        <v>1.47694</v>
       </c>
       <c r="C61" t="n">
-        <v>1.64002</v>
+        <v>1.62095</v>
       </c>
       <c r="D61" t="n">
-        <v>1.82148</v>
+        <v>1.74979</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.64217</v>
+        <v>1.53595</v>
       </c>
       <c r="C62" t="n">
-        <v>1.74185</v>
+        <v>1.67255</v>
       </c>
       <c r="D62" t="n">
-        <v>1.88373</v>
+        <v>1.80105</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.62793</v>
+        <v>1.56584</v>
       </c>
       <c r="C63" t="n">
-        <v>1.77175</v>
+        <v>1.66154</v>
       </c>
       <c r="D63" t="n">
-        <v>1.96578</v>
+        <v>1.85041</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.68897</v>
+        <v>1.59638</v>
       </c>
       <c r="C64" t="n">
-        <v>2.02981</v>
+        <v>1.81698</v>
       </c>
       <c r="D64" t="n">
-        <v>2.16176</v>
+        <v>2.01936</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.68264</v>
+        <v>1.63776</v>
       </c>
       <c r="C65" t="n">
-        <v>1.97911</v>
+        <v>1.83676</v>
       </c>
       <c r="D65" t="n">
-        <v>2.21786</v>
+        <v>2.05479</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.71197</v>
+        <v>1.67804</v>
       </c>
       <c r="C66" t="n">
-        <v>1.9836</v>
+        <v>1.89512</v>
       </c>
       <c r="D66" t="n">
-        <v>2.29301</v>
+        <v>2.13922</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.78123</v>
+        <v>1.73515</v>
       </c>
       <c r="C67" t="n">
-        <v>2.03274</v>
+        <v>1.93183</v>
       </c>
       <c r="D67" t="n">
-        <v>2.26667</v>
+        <v>2.20815</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.83755</v>
+        <v>1.77105</v>
       </c>
       <c r="C68" t="n">
-        <v>2.09692</v>
+        <v>1.98054</v>
       </c>
       <c r="D68" t="n">
-        <v>2.3784</v>
+        <v>2.24273</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.87643</v>
+        <v>1.78444</v>
       </c>
       <c r="C69" t="n">
-        <v>2.12505</v>
+        <v>2.02035</v>
       </c>
       <c r="D69" t="n">
-        <v>2.42045</v>
+        <v>2.30924</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.97509</v>
+        <v>1.90127</v>
       </c>
       <c r="C70" t="n">
-        <v>2.15808</v>
+        <v>2.06841</v>
       </c>
       <c r="D70" t="n">
-        <v>2.55815</v>
+        <v>2.35683</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>2.04701</v>
+        <v>1.9252</v>
       </c>
       <c r="C71" t="n">
-        <v>2.18496</v>
+        <v>2.08435</v>
       </c>
       <c r="D71" t="n">
-        <v>2.74876</v>
+        <v>2.4099</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>2.15909</v>
+        <v>1.95004</v>
       </c>
       <c r="C72" t="n">
-        <v>2.37781</v>
+        <v>2.11567</v>
       </c>
       <c r="D72" t="n">
-        <v>2.77747</v>
+        <v>2.52349</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>2.08838</v>
+        <v>1.99093</v>
       </c>
       <c r="C73" t="n">
-        <v>2.27677</v>
+        <v>2.18458</v>
       </c>
       <c r="D73" t="n">
-        <v>2.69895</v>
+        <v>2.54483</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.11162</v>
+        <v>2.00586</v>
       </c>
       <c r="C74" t="n">
-        <v>2.48103</v>
+        <v>2.21752</v>
       </c>
       <c r="D74" t="n">
-        <v>2.91913</v>
+        <v>2.65488</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.16153</v>
+        <v>2.0502</v>
       </c>
       <c r="C75" t="n">
-        <v>2.39735</v>
+        <v>2.2138</v>
       </c>
       <c r="D75" t="n">
-        <v>2.80345</v>
+        <v>2.68305</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.15374</v>
+        <v>2.06054</v>
       </c>
       <c r="C76" t="n">
-        <v>2.3945</v>
+        <v>2.27238</v>
       </c>
       <c r="D76" t="n">
-        <v>2.86677</v>
+        <v>2.72466</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.19516</v>
+        <v>2.10784</v>
       </c>
       <c r="C77" t="n">
-        <v>2.47099</v>
+        <v>2.3408</v>
       </c>
       <c r="D77" t="n">
-        <v>2.92215</v>
+        <v>2.81849</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.21859</v>
+        <v>2.1633</v>
       </c>
       <c r="C78" t="n">
-        <v>2.71414</v>
+        <v>2.44014</v>
       </c>
       <c r="D78" t="n">
-        <v>3.22042</v>
+        <v>2.93206</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.37456</v>
+        <v>2.19052</v>
       </c>
       <c r="C79" t="n">
-        <v>2.67264</v>
+        <v>2.4705</v>
       </c>
       <c r="D79" t="n">
-        <v>3.1729</v>
+        <v>2.96073</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.26304</v>
+        <v>2.184</v>
       </c>
       <c r="C80" t="n">
-        <v>2.65051</v>
+        <v>2.51288</v>
       </c>
       <c r="D80" t="n">
-        <v>3.2268</v>
+        <v>3.01379</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.2973</v>
+        <v>2.21151</v>
       </c>
       <c r="C81" t="n">
-        <v>2.72257</v>
+        <v>2.53168</v>
       </c>
       <c r="D81" t="n">
-        <v>3.25416</v>
+        <v>3.06522</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.34938</v>
+        <v>2.26232</v>
       </c>
       <c r="C82" t="n">
-        <v>2.79571</v>
+        <v>2.6013</v>
       </c>
       <c r="D82" t="n">
-        <v>3.41005</v>
+        <v>3.1534</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.47926</v>
+        <v>2.24766</v>
       </c>
       <c r="C83" t="n">
-        <v>2.82104</v>
+        <v>2.59619</v>
       </c>
       <c r="D83" t="n">
-        <v>3.45909</v>
+        <v>3.17973</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.55355</v>
+        <v>2.3638</v>
       </c>
       <c r="C84" t="n">
-        <v>2.89435</v>
+        <v>2.63371</v>
       </c>
       <c r="D84" t="n">
-        <v>3.53895</v>
+        <v>3.21956</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.52805</v>
+        <v>2.39259</v>
       </c>
       <c r="C85" t="n">
-        <v>2.92416</v>
+        <v>2.64929</v>
       </c>
       <c r="D85" t="n">
-        <v>3.60021</v>
+        <v>3.29715</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.58915</v>
+        <v>2.44223</v>
       </c>
       <c r="C86" t="n">
-        <v>2.9002</v>
+        <v>2.72654</v>
       </c>
       <c r="D86" t="n">
-        <v>3.54787</v>
+        <v>3.3222</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.57416</v>
+        <v>2.42988</v>
       </c>
       <c r="C87" t="n">
-        <v>2.9502</v>
+        <v>2.72545</v>
       </c>
       <c r="D87" t="n">
-        <v>3.469</v>
+        <v>3.37115</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.5795</v>
+        <v>2.48979</v>
       </c>
       <c r="C88" t="n">
-        <v>2.91564</v>
+        <v>2.74451</v>
       </c>
       <c r="D88" t="n">
-        <v>3.58894</v>
+        <v>3.42232</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.60326</v>
+        <v>2.49631</v>
       </c>
       <c r="C89" t="n">
-        <v>2.92653</v>
+        <v>2.7682</v>
       </c>
       <c r="D89" t="n">
-        <v>3.58211</v>
+        <v>3.47607</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.62653</v>
+        <v>2.51966</v>
       </c>
       <c r="C90" t="n">
-        <v>3.03733</v>
+        <v>2.89641</v>
       </c>
       <c r="D90" t="n">
-        <v>3.66826</v>
+        <v>3.51109</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.65413</v>
+        <v>2.4982</v>
       </c>
       <c r="C91" t="n">
-        <v>3.0506</v>
+        <v>2.84654</v>
       </c>
       <c r="D91" t="n">
-        <v>3.79101</v>
+        <v>3.54195</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.61064</v>
+        <v>2.54699</v>
       </c>
       <c r="C92" t="n">
-        <v>3.03902</v>
+        <v>2.96371</v>
       </c>
       <c r="D92" t="n">
-        <v>3.84531</v>
+        <v>3.6542</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.68263</v>
+        <v>2.54633</v>
       </c>
       <c r="C93" t="n">
-        <v>3.13333</v>
+        <v>2.93761</v>
       </c>
       <c r="D93" t="n">
-        <v>3.92884</v>
+        <v>3.65786</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.82997</v>
+        <v>2.55696</v>
       </c>
       <c r="C94" t="n">
-        <v>3.20928</v>
+        <v>2.96324</v>
       </c>
       <c r="D94" t="n">
-        <v>3.91482</v>
+        <v>3.72861</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.69646</v>
+        <v>2.67692</v>
       </c>
       <c r="C95" t="n">
-        <v>3.18024</v>
+        <v>3.00354</v>
       </c>
       <c r="D95" t="n">
-        <v>3.9876</v>
+        <v>3.74304</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.70317</v>
+        <v>2.62492</v>
       </c>
       <c r="C96" t="n">
-        <v>3.23229</v>
+        <v>3.00665</v>
       </c>
       <c r="D96" t="n">
-        <v>4.05303</v>
+        <v>3.85726</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.7697</v>
+        <v>2.6629</v>
       </c>
       <c r="C97" t="n">
-        <v>3.25603</v>
+        <v>3.10799</v>
       </c>
       <c r="D97" t="n">
-        <v>3.95699</v>
+        <v>3.87676</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.91846</v>
+        <v>2.83061</v>
       </c>
       <c r="C98" t="n">
-        <v>3.34187</v>
+        <v>3.15454</v>
       </c>
       <c r="D98" t="n">
-        <v>4.00443</v>
+        <v>3.87166</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.93471</v>
+        <v>2.81724</v>
       </c>
       <c r="C99" t="n">
-        <v>3.30053</v>
+        <v>3.19475</v>
       </c>
       <c r="D99" t="n">
-        <v>4.13118</v>
+        <v>3.91759</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.98001</v>
+        <v>2.85806</v>
       </c>
       <c r="C100" t="n">
-        <v>3.42805</v>
+        <v>3.21999</v>
       </c>
       <c r="D100" t="n">
-        <v>4.14855</v>
+        <v>3.95677</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.96781</v>
+        <v>2.87818</v>
       </c>
       <c r="C101" t="n">
-        <v>3.39931</v>
+        <v>3.27131</v>
       </c>
       <c r="D101" t="n">
-        <v>4.07169</v>
+        <v>4.02822</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.01716</v>
+        <v>2.86013</v>
       </c>
       <c r="C102" t="n">
-        <v>3.41551</v>
+        <v>3.32328</v>
       </c>
       <c r="D102" t="n">
-        <v>4.14885</v>
+        <v>4.08556</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>3.03758</v>
+        <v>2.92468</v>
       </c>
       <c r="C103" t="n">
-        <v>3.45932</v>
+        <v>3.32007</v>
       </c>
       <c r="D103" t="n">
-        <v>4.24272</v>
+        <v>4.03782</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.0335</v>
+        <v>3.06345</v>
       </c>
       <c r="C104" t="n">
-        <v>3.57965</v>
+        <v>3.37234</v>
       </c>
       <c r="D104" t="n">
-        <v>4.32611</v>
+        <v>4.1117</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.08789</v>
+        <v>2.99771</v>
       </c>
       <c r="C105" t="n">
-        <v>3.63177</v>
+        <v>3.39207</v>
       </c>
       <c r="D105" t="n">
-        <v>4.3013</v>
+        <v>4.18811</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.06711</v>
+        <v>3.018</v>
       </c>
       <c r="C106" t="n">
-        <v>3.60869</v>
+        <v>3.474</v>
       </c>
       <c r="D106" t="n">
-        <v>4.31067</v>
+        <v>4.23175</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.10909</v>
+        <v>3.04906</v>
       </c>
       <c r="C107" t="n">
-        <v>3.67746</v>
+        <v>3.50608</v>
       </c>
       <c r="D107" t="n">
-        <v>4.44045</v>
+        <v>4.3299</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.13569</v>
+        <v>3.03607</v>
       </c>
       <c r="C108" t="n">
-        <v>3.71182</v>
+        <v>3.55406</v>
       </c>
       <c r="D108" t="n">
-        <v>4.4956</v>
+        <v>4.41552</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.16633</v>
+        <v>3.03057</v>
       </c>
       <c r="C109" t="n">
-        <v>3.70489</v>
+        <v>3.59038</v>
       </c>
       <c r="D109" t="n">
-        <v>4.58651</v>
+        <v>4.42116</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.19848</v>
+        <v>3.0818</v>
       </c>
       <c r="C110" t="n">
-        <v>3.73896</v>
+        <v>3.61231</v>
       </c>
       <c r="D110" t="n">
-        <v>4.63681</v>
+        <v>4.47751</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.23017</v>
+        <v>3.13985</v>
       </c>
       <c r="C111" t="n">
-        <v>3.79872</v>
+        <v>3.66572</v>
       </c>
       <c r="D111" t="n">
-        <v>4.66913</v>
+        <v>4.53395</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.43713</v>
+        <v>3.30388</v>
       </c>
       <c r="C112" t="n">
-        <v>3.83856</v>
+        <v>3.65274</v>
       </c>
       <c r="D112" t="n">
-        <v>4.67036</v>
+        <v>4.50419</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.41501</v>
+        <v>3.29193</v>
       </c>
       <c r="C113" t="n">
-        <v>3.88669</v>
+        <v>3.73241</v>
       </c>
       <c r="D113" t="n">
-        <v>4.77198</v>
+        <v>4.55414</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.52554</v>
+        <v>3.35007</v>
       </c>
       <c r="C114" t="n">
-        <v>3.98225</v>
+        <v>3.73712</v>
       </c>
       <c r="D114" t="n">
-        <v>4.89177</v>
+        <v>4.55353</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.59605</v>
+        <v>3.30828</v>
       </c>
       <c r="C115" t="n">
-        <v>4.00959</v>
+        <v>3.7801</v>
       </c>
       <c r="D115" t="n">
-        <v>4.9071</v>
+        <v>4.63432</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.60327</v>
+        <v>3.37156</v>
       </c>
       <c r="C116" t="n">
-        <v>4.00489</v>
+        <v>3.91632</v>
       </c>
       <c r="D116" t="n">
-        <v>4.92828</v>
+        <v>4.77197</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.60458</v>
+        <v>3.40678</v>
       </c>
       <c r="C117" t="n">
-        <v>4.07961</v>
+        <v>3.84653</v>
       </c>
       <c r="D117" t="n">
-        <v>5.18876</v>
+        <v>4.83099</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.82046</v>
+        <v>3.48133</v>
       </c>
       <c r="C118" t="n">
-        <v>4.29838</v>
+        <v>3.87412</v>
       </c>
       <c r="D118" t="n">
-        <v>5.3497</v>
+        <v>4.84955</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.90855</v>
+        <v>3.49688</v>
       </c>
       <c r="C119" t="n">
-        <v>4.24348</v>
+        <v>3.98843</v>
       </c>
       <c r="D119" t="n">
-        <v>5.13255</v>
+        <v>5.02837</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.401065</v>
+        <v>0.38533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.545473</v>
+        <v>0.527739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52166</v>
+        <v>0.496281</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.424512</v>
+        <v>0.407689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.557188</v>
+        <v>0.5202329999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.520525</v>
+        <v>0.499013</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.423154</v>
+        <v>0.414276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.550802</v>
+        <v>0.538577</v>
       </c>
       <c r="D4" t="n">
-        <v>0.529748</v>
+        <v>0.505309</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.433554</v>
+        <v>0.409787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.559658</v>
+        <v>0.531856</v>
       </c>
       <c r="D5" t="n">
-        <v>0.53574</v>
+        <v>0.50556</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.434719</v>
+        <v>0.41118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.559082</v>
+        <v>0.534162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.540226</v>
+        <v>0.504323</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.434225</v>
+        <v>0.414918</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5729919999999999</v>
+        <v>0.5410779999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.540816</v>
+        <v>0.511004</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.433857</v>
+        <v>0.416269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.576306</v>
+        <v>0.5541779999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.547724</v>
+        <v>0.514602</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.436185</v>
+        <v>0.415436</v>
       </c>
       <c r="C9" t="n">
-        <v>0.589517</v>
+        <v>0.554399</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5509540000000001</v>
+        <v>0.523418</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.439948</v>
+        <v>0.420098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.588596</v>
+        <v>0.57095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.55241</v>
+        <v>0.529782</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.442547</v>
+        <v>0.428032</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5803970000000001</v>
+        <v>0.552427</v>
       </c>
       <c r="D11" t="n">
-        <v>0.562819</v>
+        <v>0.531265</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.448218</v>
+        <v>0.419381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.57626</v>
+        <v>0.555749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.565763</v>
+        <v>0.544767</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.441966</v>
+        <v>0.420402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.587804</v>
+        <v>0.554658</v>
       </c>
       <c r="D13" t="n">
-        <v>0.565945</v>
+        <v>0.546404</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.446652</v>
+        <v>0.42794</v>
       </c>
       <c r="C14" t="n">
-        <v>0.601657</v>
+        <v>0.568344</v>
       </c>
       <c r="D14" t="n">
-        <v>0.579481</v>
+        <v>0.540234</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.449066</v>
+        <v>0.417904</v>
       </c>
       <c r="C15" t="n">
-        <v>0.619233</v>
+        <v>0.5756019999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.579867</v>
+        <v>0.5507030000000001</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.446575</v>
+        <v>0.427585</v>
       </c>
       <c r="C16" t="n">
-        <v>0.621632</v>
+        <v>0.579132</v>
       </c>
       <c r="D16" t="n">
-        <v>0.575725</v>
+        <v>0.554119</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.474315</v>
+        <v>0.455377</v>
       </c>
       <c r="C17" t="n">
-        <v>0.622902</v>
+        <v>0.58687</v>
       </c>
       <c r="D17" t="n">
-        <v>0.592937</v>
+        <v>0.5578</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.473386</v>
+        <v>0.447792</v>
       </c>
       <c r="C18" t="n">
-        <v>0.625452</v>
+        <v>0.58775</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5923850000000001</v>
+        <v>0.557288</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.473709</v>
+        <v>0.45385</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6355189999999999</v>
+        <v>0.611005</v>
       </c>
       <c r="D19" t="n">
-        <v>0.594392</v>
+        <v>0.579165</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.476262</v>
+        <v>0.459209</v>
       </c>
       <c r="C20" t="n">
-        <v>0.639567</v>
+        <v>0.615499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.608347</v>
+        <v>0.57597</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.476622</v>
+        <v>0.460433</v>
       </c>
       <c r="C21" t="n">
-        <v>0.655716</v>
+        <v>0.630054</v>
       </c>
       <c r="D21" t="n">
-        <v>0.599722</v>
+        <v>0.576321</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.477406</v>
+        <v>0.471269</v>
       </c>
       <c r="C22" t="n">
-        <v>0.655613</v>
+        <v>0.628587</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6103690000000001</v>
+        <v>0.584247</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.475407</v>
+        <v>0.466754</v>
       </c>
       <c r="C23" t="n">
-        <v>0.669872</v>
+        <v>0.6453140000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.609665</v>
+        <v>0.595465</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.485523</v>
+        <v>0.47351</v>
       </c>
       <c r="C24" t="n">
-        <v>0.687863</v>
+        <v>0.647973</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6350479999999999</v>
+        <v>0.594508</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.496624</v>
+        <v>0.471971</v>
       </c>
       <c r="C25" t="n">
-        <v>0.702136</v>
+        <v>0.653446</v>
       </c>
       <c r="D25" t="n">
-        <v>0.634812</v>
+        <v>0.610606</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.504861</v>
+        <v>0.510891</v>
       </c>
       <c r="C26" t="n">
-        <v>0.654432</v>
+        <v>0.604464</v>
       </c>
       <c r="D26" t="n">
-        <v>0.655678</v>
+        <v>0.615608</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.491513</v>
+        <v>0.503955</v>
       </c>
       <c r="C27" t="n">
-        <v>0.641423</v>
+        <v>0.625691</v>
       </c>
       <c r="D27" t="n">
-        <v>0.671337</v>
+        <v>0.636303</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.506077</v>
+        <v>0.53155</v>
       </c>
       <c r="C28" t="n">
-        <v>0.666663</v>
+        <v>0.640891</v>
       </c>
       <c r="D28" t="n">
-        <v>0.663531</v>
+        <v>0.615552</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.512469</v>
+        <v>0.484233</v>
       </c>
       <c r="C29" t="n">
-        <v>0.676891</v>
+        <v>0.630911</v>
       </c>
       <c r="D29" t="n">
-        <v>0.689766</v>
+        <v>0.636057</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.528235</v>
+        <v>0.485028</v>
       </c>
       <c r="C30" t="n">
-        <v>0.692493</v>
+        <v>0.6638770000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.699081</v>
+        <v>0.661729</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.521726</v>
+        <v>0.499219</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6868030000000001</v>
+        <v>0.668196</v>
       </c>
       <c r="D31" t="n">
-        <v>0.68429</v>
+        <v>0.653682</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.572407</v>
+        <v>0.55259</v>
       </c>
       <c r="C32" t="n">
-        <v>0.728075</v>
+        <v>0.681258</v>
       </c>
       <c r="D32" t="n">
-        <v>0.700542</v>
+        <v>0.6966639999999999</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.558833</v>
+        <v>0.57403</v>
       </c>
       <c r="C33" t="n">
-        <v>0.739267</v>
+        <v>0.713771</v>
       </c>
       <c r="D33" t="n">
-        <v>0.730098</v>
+        <v>0.708747</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.572004</v>
+        <v>0.565823</v>
       </c>
       <c r="C34" t="n">
-        <v>0.7421410000000001</v>
+        <v>0.729817</v>
       </c>
       <c r="D34" t="n">
-        <v>0.750979</v>
+        <v>0.729191</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.602052</v>
+        <v>0.576663</v>
       </c>
       <c r="C35" t="n">
-        <v>0.770743</v>
+        <v>0.722375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.764744</v>
+        <v>0.7495849999999999</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.609733</v>
+        <v>0.606919</v>
       </c>
       <c r="C36" t="n">
-        <v>0.800138</v>
+        <v>0.785453</v>
       </c>
       <c r="D36" t="n">
-        <v>0.794628</v>
+        <v>0.765435</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.606019</v>
+        <v>0.625042</v>
       </c>
       <c r="C37" t="n">
-        <v>0.811214</v>
+        <v>0.785944</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7910700000000001</v>
+        <v>0.778514</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.614517</v>
+        <v>0.623057</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8315900000000001</v>
+        <v>0.821475</v>
       </c>
       <c r="D38" t="n">
-        <v>0.84465</v>
+        <v>0.772683</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.622399</v>
+        <v>0.631791</v>
       </c>
       <c r="C39" t="n">
-        <v>0.872492</v>
+        <v>0.843024</v>
       </c>
       <c r="D39" t="n">
-        <v>0.848182</v>
+        <v>0.8237409999999999</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.650541</v>
+        <v>0.646945</v>
       </c>
       <c r="C40" t="n">
-        <v>0.817518</v>
+        <v>0.802385</v>
       </c>
       <c r="D40" t="n">
-        <v>0.862842</v>
+        <v>0.845309</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.666756</v>
+        <v>0.664613</v>
       </c>
       <c r="C41" t="n">
-        <v>0.84271</v>
+        <v>0.813172</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9201</v>
+        <v>0.853178</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.676849</v>
+        <v>0.667193</v>
       </c>
       <c r="C42" t="n">
-        <v>0.868864</v>
+        <v>0.835458</v>
       </c>
       <c r="D42" t="n">
-        <v>0.911779</v>
+        <v>0.882149</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.678252</v>
+        <v>0.676893</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8858740000000001</v>
+        <v>0.883471</v>
       </c>
       <c r="D43" t="n">
-        <v>0.963364</v>
+        <v>0.903407</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.721054</v>
+        <v>0.704719</v>
       </c>
       <c r="C44" t="n">
-        <v>0.919735</v>
+        <v>0.9023640000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.963303</v>
+        <v>0.921072</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.724597</v>
+        <v>0.696873</v>
       </c>
       <c r="C45" t="n">
-        <v>0.960668</v>
+        <v>0.924612</v>
       </c>
       <c r="D45" t="n">
-        <v>0.999731</v>
+        <v>0.96514</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.817226</v>
+        <v>0.821067</v>
       </c>
       <c r="C46" t="n">
-        <v>1.01747</v>
+        <v>0.987544</v>
       </c>
       <c r="D46" t="n">
-        <v>1.03709</v>
+        <v>0.994968</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.851189</v>
+        <v>0.807777</v>
       </c>
       <c r="C47" t="n">
-        <v>1.03499</v>
+        <v>0.996515</v>
       </c>
       <c r="D47" t="n">
-        <v>1.06654</v>
+        <v>1.02127</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.865926</v>
+        <v>0.856537</v>
       </c>
       <c r="C48" t="n">
-        <v>1.09229</v>
+        <v>1.07283</v>
       </c>
       <c r="D48" t="n">
-        <v>1.10022</v>
+        <v>1.05643</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9063909999999999</v>
+        <v>0.873331</v>
       </c>
       <c r="C49" t="n">
-        <v>1.13899</v>
+        <v>1.06209</v>
       </c>
       <c r="D49" t="n">
-        <v>1.12469</v>
+        <v>1.07233</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.923923</v>
+        <v>0.870054</v>
       </c>
       <c r="C50" t="n">
-        <v>1.16291</v>
+        <v>1.11073</v>
       </c>
       <c r="D50" t="n">
-        <v>1.15343</v>
+        <v>1.13433</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.939103</v>
+        <v>0.896794</v>
       </c>
       <c r="C51" t="n">
-        <v>1.24973</v>
+        <v>1.17436</v>
       </c>
       <c r="D51" t="n">
-        <v>1.19702</v>
+        <v>1.15681</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.955998</v>
+        <v>0.914959</v>
       </c>
       <c r="C52" t="n">
-        <v>1.2887</v>
+        <v>1.21175</v>
       </c>
       <c r="D52" t="n">
-        <v>1.26222</v>
+        <v>1.17005</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.977926</v>
+        <v>0.946418</v>
       </c>
       <c r="C53" t="n">
-        <v>1.33498</v>
+        <v>1.24821</v>
       </c>
       <c r="D53" t="n">
-        <v>1.28087</v>
+        <v>1.18523</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.02246</v>
+        <v>0.973012</v>
       </c>
       <c r="C54" t="n">
-        <v>1.40049</v>
+        <v>1.32936</v>
       </c>
       <c r="D54" t="n">
-        <v>1.38058</v>
+        <v>1.29951</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.06742</v>
+        <v>1.00801</v>
       </c>
       <c r="C55" t="n">
-        <v>1.3852</v>
+        <v>1.30833</v>
       </c>
       <c r="D55" t="n">
-        <v>1.41847</v>
+        <v>1.3328</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.08885</v>
+        <v>1.02427</v>
       </c>
       <c r="C56" t="n">
-        <v>1.43706</v>
+        <v>1.35751</v>
       </c>
       <c r="D56" t="n">
-        <v>1.46132</v>
+        <v>1.40104</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.14798</v>
+        <v>1.0771</v>
       </c>
       <c r="C57" t="n">
-        <v>1.49165</v>
+        <v>1.4512</v>
       </c>
       <c r="D57" t="n">
-        <v>1.5797</v>
+        <v>1.47194</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.15479</v>
+        <v>1.10961</v>
       </c>
       <c r="C58" t="n">
-        <v>1.56452</v>
+        <v>1.52567</v>
       </c>
       <c r="D58" t="n">
-        <v>1.58661</v>
+        <v>1.47409</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.17963</v>
+        <v>1.13962</v>
       </c>
       <c r="C59" t="n">
-        <v>1.60026</v>
+        <v>1.5517</v>
       </c>
       <c r="D59" t="n">
-        <v>1.63561</v>
+        <v>1.52152</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.35164</v>
+        <v>1.31223</v>
       </c>
       <c r="C60" t="n">
-        <v>1.65679</v>
+        <v>1.58588</v>
       </c>
       <c r="D60" t="n">
-        <v>1.70597</v>
+        <v>1.58732</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.41124</v>
+        <v>1.35185</v>
       </c>
       <c r="C61" t="n">
-        <v>1.74756</v>
+        <v>1.69958</v>
       </c>
       <c r="D61" t="n">
-        <v>1.78186</v>
+        <v>1.67098</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.43591</v>
+        <v>1.40073</v>
       </c>
       <c r="C62" t="n">
-        <v>1.80779</v>
+        <v>1.70467</v>
       </c>
       <c r="D62" t="n">
-        <v>1.81694</v>
+        <v>1.7474</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.4777</v>
+        <v>1.42679</v>
       </c>
       <c r="C63" t="n">
-        <v>1.93492</v>
+        <v>1.89489</v>
       </c>
       <c r="D63" t="n">
-        <v>1.87843</v>
+        <v>1.79633</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.53107</v>
+        <v>1.47691</v>
       </c>
       <c r="C64" t="n">
-        <v>1.90868</v>
+        <v>1.9756</v>
       </c>
       <c r="D64" t="n">
-        <v>1.93978</v>
+        <v>1.84925</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.53029</v>
+        <v>1.55144</v>
       </c>
       <c r="C65" t="n">
-        <v>1.98572</v>
+        <v>2.12839</v>
       </c>
       <c r="D65" t="n">
-        <v>2.02834</v>
+        <v>1.97545</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.58038</v>
+        <v>1.55382</v>
       </c>
       <c r="C66" t="n">
-        <v>2.0873</v>
+        <v>2.13049</v>
       </c>
       <c r="D66" t="n">
-        <v>2.15286</v>
+        <v>1.97204</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.64691</v>
+        <v>1.56378</v>
       </c>
       <c r="C67" t="n">
-        <v>2.15977</v>
+        <v>2.22084</v>
       </c>
       <c r="D67" t="n">
-        <v>2.1641</v>
+        <v>2.08922</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.67425</v>
+        <v>1.59818</v>
       </c>
       <c r="C68" t="n">
-        <v>2.13655</v>
+        <v>2.1531</v>
       </c>
       <c r="D68" t="n">
-        <v>2.37131</v>
+        <v>2.21813</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.71029</v>
+        <v>1.63102</v>
       </c>
       <c r="C69" t="n">
-        <v>2.09916</v>
+        <v>2.22586</v>
       </c>
       <c r="D69" t="n">
-        <v>2.36722</v>
+        <v>2.25991</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.73598</v>
+        <v>1.7177</v>
       </c>
       <c r="C70" t="n">
-        <v>2.17673</v>
+        <v>2.32891</v>
       </c>
       <c r="D70" t="n">
-        <v>2.44207</v>
+        <v>2.44213</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.7927</v>
+        <v>1.76971</v>
       </c>
       <c r="C71" t="n">
-        <v>2.32261</v>
+        <v>2.35527</v>
       </c>
       <c r="D71" t="n">
-        <v>2.54668</v>
+        <v>2.49207</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.79454</v>
+        <v>1.80466</v>
       </c>
       <c r="C72" t="n">
-        <v>2.35399</v>
+        <v>2.4476</v>
       </c>
       <c r="D72" t="n">
-        <v>2.55464</v>
+        <v>2.56198</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.83418</v>
+        <v>1.8283</v>
       </c>
       <c r="C73" t="n">
-        <v>2.40969</v>
+        <v>2.50327</v>
       </c>
       <c r="D73" t="n">
-        <v>2.66138</v>
+        <v>2.50686</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.03874</v>
+        <v>1.93232</v>
       </c>
       <c r="C74" t="n">
-        <v>2.47172</v>
+        <v>2.56208</v>
       </c>
       <c r="D74" t="n">
-        <v>2.7364</v>
+        <v>2.63216</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.07312</v>
+        <v>2.0516</v>
       </c>
       <c r="C75" t="n">
-        <v>2.52682</v>
+        <v>2.61377</v>
       </c>
       <c r="D75" t="n">
-        <v>2.7534</v>
+        <v>2.62226</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.0897</v>
+        <v>2.03044</v>
       </c>
       <c r="C76" t="n">
-        <v>2.64431</v>
+        <v>2.53044</v>
       </c>
       <c r="D76" t="n">
-        <v>2.97192</v>
+        <v>2.7061</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.16298</v>
+        <v>2.08691</v>
       </c>
       <c r="C77" t="n">
-        <v>2.6961</v>
+        <v>2.72275</v>
       </c>
       <c r="D77" t="n">
-        <v>3.04374</v>
+        <v>2.86017</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.18227</v>
+        <v>2.08766</v>
       </c>
       <c r="C78" t="n">
-        <v>2.8033</v>
+        <v>2.671</v>
       </c>
       <c r="D78" t="n">
-        <v>3.06958</v>
+        <v>2.94324</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.18203</v>
+        <v>2.10914</v>
       </c>
       <c r="C79" t="n">
-        <v>2.97073</v>
+        <v>2.75936</v>
       </c>
       <c r="D79" t="n">
-        <v>3.08606</v>
+        <v>2.96402</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.25241</v>
+        <v>2.13678</v>
       </c>
       <c r="C80" t="n">
-        <v>2.99156</v>
+        <v>2.81317</v>
       </c>
       <c r="D80" t="n">
-        <v>3.14847</v>
+        <v>3.01751</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.23997</v>
+        <v>2.16574</v>
       </c>
       <c r="C81" t="n">
-        <v>3.04133</v>
+        <v>2.89292</v>
       </c>
       <c r="D81" t="n">
-        <v>3.21409</v>
+        <v>3.10116</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.24762</v>
+        <v>2.2037</v>
       </c>
       <c r="C82" t="n">
-        <v>3.07286</v>
+        <v>2.96412</v>
       </c>
       <c r="D82" t="n">
-        <v>3.14477</v>
+        <v>3.04351</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.29116</v>
+        <v>2.30268</v>
       </c>
       <c r="C83" t="n">
-        <v>3.01329</v>
+        <v>2.9249</v>
       </c>
       <c r="D83" t="n">
-        <v>3.3527</v>
+        <v>3.33814</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.33486</v>
+        <v>2.28885</v>
       </c>
       <c r="C84" t="n">
-        <v>3.06939</v>
+        <v>2.9622</v>
       </c>
       <c r="D84" t="n">
-        <v>3.30397</v>
+        <v>3.27966</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.37404</v>
+        <v>2.28201</v>
       </c>
       <c r="C85" t="n">
-        <v>3.14866</v>
+        <v>3.05818</v>
       </c>
       <c r="D85" t="n">
-        <v>3.44277</v>
+        <v>3.45447</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.40028</v>
+        <v>2.36132</v>
       </c>
       <c r="C86" t="n">
-        <v>3.17989</v>
+        <v>3.08377</v>
       </c>
       <c r="D86" t="n">
-        <v>3.60584</v>
+        <v>3.43334</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.45326</v>
+        <v>2.35135</v>
       </c>
       <c r="C87" t="n">
-        <v>3.24855</v>
+        <v>3.12435</v>
       </c>
       <c r="D87" t="n">
-        <v>3.72839</v>
+        <v>3.41618</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.46665</v>
+        <v>2.35726</v>
       </c>
       <c r="C88" t="n">
-        <v>3.45105</v>
+        <v>3.27258</v>
       </c>
       <c r="D88" t="n">
-        <v>3.7367</v>
+        <v>3.46857</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.59022</v>
+        <v>2.56039</v>
       </c>
       <c r="C89" t="n">
-        <v>3.40722</v>
+        <v>3.26504</v>
       </c>
       <c r="D89" t="n">
-        <v>3.62235</v>
+        <v>3.48335</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.60623</v>
+        <v>2.5638</v>
       </c>
       <c r="C90" t="n">
-        <v>3.51528</v>
+        <v>3.3981</v>
       </c>
       <c r="D90" t="n">
-        <v>3.66883</v>
+        <v>3.53567</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.65956</v>
+        <v>2.53413</v>
       </c>
       <c r="C91" t="n">
-        <v>3.54038</v>
+        <v>3.47093</v>
       </c>
       <c r="D91" t="n">
-        <v>3.69426</v>
+        <v>3.54047</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.61509</v>
+        <v>2.54187</v>
       </c>
       <c r="C92" t="n">
-        <v>3.59829</v>
+        <v>3.5402</v>
       </c>
       <c r="D92" t="n">
-        <v>3.77201</v>
+        <v>3.60762</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.65458</v>
+        <v>2.61349</v>
       </c>
       <c r="C93" t="n">
-        <v>3.67392</v>
+        <v>3.53559</v>
       </c>
       <c r="D93" t="n">
-        <v>3.78423</v>
+        <v>3.68526</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.73478</v>
+        <v>2.6022</v>
       </c>
       <c r="C94" t="n">
-        <v>3.84551</v>
+        <v>3.62406</v>
       </c>
       <c r="D94" t="n">
-        <v>3.91636</v>
+        <v>3.67944</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.70534</v>
+        <v>2.58759</v>
       </c>
       <c r="C95" t="n">
-        <v>3.91739</v>
+        <v>3.70753</v>
       </c>
       <c r="D95" t="n">
-        <v>3.94231</v>
+        <v>3.71701</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.76604</v>
+        <v>2.59544</v>
       </c>
       <c r="C96" t="n">
-        <v>3.95829</v>
+        <v>3.83547</v>
       </c>
       <c r="D96" t="n">
-        <v>3.98764</v>
+        <v>3.84881</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.83011</v>
+        <v>2.64137</v>
       </c>
       <c r="C97" t="n">
-        <v>3.64099</v>
+        <v>3.37423</v>
       </c>
       <c r="D97" t="n">
-        <v>4.09262</v>
+        <v>3.89728</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.80285</v>
+        <v>2.63566</v>
       </c>
       <c r="C98" t="n">
-        <v>3.72421</v>
+        <v>3.47946</v>
       </c>
       <c r="D98" t="n">
-        <v>4.07286</v>
+        <v>3.86539</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.80155</v>
+        <v>2.64851</v>
       </c>
       <c r="C99" t="n">
-        <v>3.79462</v>
+        <v>3.54187</v>
       </c>
       <c r="D99" t="n">
-        <v>4.12066</v>
+        <v>3.87972</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.84949</v>
+        <v>2.6724</v>
       </c>
       <c r="C100" t="n">
-        <v>3.82851</v>
+        <v>3.57416</v>
       </c>
       <c r="D100" t="n">
-        <v>4.14063</v>
+        <v>3.89227</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.85933</v>
+        <v>2.69865</v>
       </c>
       <c r="C101" t="n">
-        <v>3.83206</v>
+        <v>3.67778</v>
       </c>
       <c r="D101" t="n">
-        <v>4.20956</v>
+        <v>3.98811</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.83657</v>
+        <v>2.71449</v>
       </c>
       <c r="C102" t="n">
-        <v>3.93013</v>
+        <v>3.70025</v>
       </c>
       <c r="D102" t="n">
-        <v>4.20676</v>
+        <v>3.94518</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.99138</v>
+        <v>2.8801</v>
       </c>
       <c r="C103" t="n">
-        <v>3.96725</v>
+        <v>3.75228</v>
       </c>
       <c r="D103" t="n">
-        <v>4.26012</v>
+        <v>3.98773</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.02092</v>
+        <v>2.86155</v>
       </c>
       <c r="C104" t="n">
-        <v>4.07797</v>
+        <v>3.79251</v>
       </c>
       <c r="D104" t="n">
-        <v>4.23546</v>
+        <v>4.01136</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>3.00049</v>
+        <v>2.82918</v>
       </c>
       <c r="C105" t="n">
-        <v>4.13696</v>
+        <v>3.86881</v>
       </c>
       <c r="D105" t="n">
-        <v>4.31076</v>
+        <v>4.08729</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.03303</v>
+        <v>2.91669</v>
       </c>
       <c r="C106" t="n">
-        <v>4.22521</v>
+        <v>3.97398</v>
       </c>
       <c r="D106" t="n">
-        <v>4.3244</v>
+        <v>4.09589</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.07054</v>
+        <v>2.86528</v>
       </c>
       <c r="C107" t="n">
-        <v>4.28519</v>
+        <v>4.07303</v>
       </c>
       <c r="D107" t="n">
-        <v>4.34019</v>
+        <v>4.11718</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.08351</v>
+        <v>2.90396</v>
       </c>
       <c r="C108" t="n">
-        <v>4.40039</v>
+        <v>4.11417</v>
       </c>
       <c r="D108" t="n">
-        <v>4.33808</v>
+        <v>4.13245</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.14067</v>
+        <v>2.92643</v>
       </c>
       <c r="C109" t="n">
-        <v>4.44899</v>
+        <v>4.21683</v>
       </c>
       <c r="D109" t="n">
-        <v>4.38823</v>
+        <v>4.15959</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.13479</v>
+        <v>2.91632</v>
       </c>
       <c r="C110" t="n">
-        <v>4.53367</v>
+        <v>4.30678</v>
       </c>
       <c r="D110" t="n">
-        <v>4.44221</v>
+        <v>4.21422</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.14877</v>
+        <v>2.92381</v>
       </c>
       <c r="C111" t="n">
-        <v>4.1514</v>
+        <v>3.83108</v>
       </c>
       <c r="D111" t="n">
-        <v>4.63507</v>
+        <v>4.3338</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.15757</v>
+        <v>3.00496</v>
       </c>
       <c r="C112" t="n">
-        <v>4.20248</v>
+        <v>3.97047</v>
       </c>
       <c r="D112" t="n">
-        <v>4.61807</v>
+        <v>4.36581</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.21052</v>
+        <v>2.981</v>
       </c>
       <c r="C113" t="n">
-        <v>4.25497</v>
+        <v>4.02187</v>
       </c>
       <c r="D113" t="n">
-        <v>4.63732</v>
+        <v>4.36648</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.19666</v>
+        <v>3.04141</v>
       </c>
       <c r="C114" t="n">
-        <v>4.29413</v>
+        <v>4.05954</v>
       </c>
       <c r="D114" t="n">
-        <v>4.75335</v>
+        <v>4.4622</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.25439</v>
+        <v>3.0342</v>
       </c>
       <c r="C115" t="n">
-        <v>4.37519</v>
+        <v>4.08056</v>
       </c>
       <c r="D115" t="n">
-        <v>4.72686</v>
+        <v>4.49191</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.2526</v>
+        <v>3.08433</v>
       </c>
       <c r="C116" t="n">
-        <v>4.48416</v>
+        <v>4.2842</v>
       </c>
       <c r="D116" t="n">
-        <v>4.79911</v>
+        <v>4.57738</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.3353</v>
+        <v>3.30796</v>
       </c>
       <c r="C117" t="n">
-        <v>4.50535</v>
+        <v>4.40415</v>
       </c>
       <c r="D117" t="n">
-        <v>4.81729</v>
+        <v>4.68644</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.42345</v>
+        <v>3.36073</v>
       </c>
       <c r="C118" t="n">
-        <v>4.65165</v>
+        <v>4.44814</v>
       </c>
       <c r="D118" t="n">
-        <v>4.89107</v>
+        <v>4.76774</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.46419</v>
+        <v>3.38723</v>
       </c>
       <c r="C119" t="n">
-        <v>4.79429</v>
+        <v>4.58295</v>
       </c>
       <c r="D119" t="n">
-        <v>4.96033</v>
+        <v>4.80038</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.400551</v>
+        <v>0.273565</v>
       </c>
       <c r="C2" t="n">
-        <v>0.360856</v>
+        <v>0.281309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.364776</v>
+        <v>0.249767</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.415627</v>
+        <v>0.278055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.358675</v>
+        <v>0.282199</v>
       </c>
       <c r="D3" t="n">
-        <v>0.366756</v>
+        <v>0.255094</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.40631</v>
+        <v>0.283812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.363199</v>
+        <v>0.285416</v>
       </c>
       <c r="D4" t="n">
-        <v>0.373001</v>
+        <v>0.260976</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.402906</v>
+        <v>0.287447</v>
       </c>
       <c r="C5" t="n">
-        <v>0.364464</v>
+        <v>0.286342</v>
       </c>
       <c r="D5" t="n">
-        <v>0.383079</v>
+        <v>0.265396</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.410439</v>
+        <v>0.292558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.365826</v>
+        <v>0.289427</v>
       </c>
       <c r="D6" t="n">
-        <v>0.386323</v>
+        <v>0.267675</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.415046</v>
+        <v>0.29699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.351688</v>
+        <v>0.28114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.373457</v>
+        <v>0.265716</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.417089</v>
+        <v>0.305817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.363284</v>
+        <v>0.283238</v>
       </c>
       <c r="D8" t="n">
-        <v>0.378445</v>
+        <v>0.270267</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.424097</v>
+        <v>0.307439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.359047</v>
+        <v>0.283742</v>
       </c>
       <c r="D9" t="n">
-        <v>0.383304</v>
+        <v>0.274441</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.43051</v>
+        <v>0.312921</v>
       </c>
       <c r="C10" t="n">
-        <v>0.374285</v>
+        <v>0.285326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.388742</v>
+        <v>0.27841</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.433323</v>
+        <v>0.317567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.362049</v>
+        <v>0.286981</v>
       </c>
       <c r="D11" t="n">
-        <v>0.380438</v>
+        <v>0.283915</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.436377</v>
+        <v>0.323271</v>
       </c>
       <c r="C12" t="n">
-        <v>0.361802</v>
+        <v>0.287573</v>
       </c>
       <c r="D12" t="n">
-        <v>0.38344</v>
+        <v>0.287418</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.409529</v>
+        <v>0.308487</v>
       </c>
       <c r="C13" t="n">
-        <v>0.364699</v>
+        <v>0.290234</v>
       </c>
       <c r="D13" t="n">
-        <v>0.398063</v>
+        <v>0.291603</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.416299</v>
+        <v>0.310468</v>
       </c>
       <c r="C14" t="n">
-        <v>0.366971</v>
+        <v>0.290347</v>
       </c>
       <c r="D14" t="n">
-        <v>0.399936</v>
+        <v>0.294261</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.427628</v>
+        <v>0.313903</v>
       </c>
       <c r="C15" t="n">
-        <v>0.372748</v>
+        <v>0.291756</v>
       </c>
       <c r="D15" t="n">
-        <v>0.404931</v>
+        <v>0.299622</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.444225</v>
+        <v>0.319122</v>
       </c>
       <c r="C16" t="n">
-        <v>0.375684</v>
+        <v>0.294364</v>
       </c>
       <c r="D16" t="n">
-        <v>0.409198</v>
+        <v>0.305577</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.426393</v>
+        <v>0.323137</v>
       </c>
       <c r="C17" t="n">
-        <v>0.378397</v>
+        <v>0.297692</v>
       </c>
       <c r="D17" t="n">
-        <v>0.417202</v>
+        <v>0.309502</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.439226</v>
+        <v>0.327722</v>
       </c>
       <c r="C18" t="n">
-        <v>0.378326</v>
+        <v>0.300761</v>
       </c>
       <c r="D18" t="n">
-        <v>0.421111</v>
+        <v>0.316226</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.447676</v>
+        <v>0.331413</v>
       </c>
       <c r="C19" t="n">
-        <v>0.380163</v>
+        <v>0.30277</v>
       </c>
       <c r="D19" t="n">
-        <v>0.417276</v>
+        <v>0.320801</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.459447</v>
+        <v>0.337202</v>
       </c>
       <c r="C20" t="n">
-        <v>0.389028</v>
+        <v>0.305883</v>
       </c>
       <c r="D20" t="n">
-        <v>0.423605</v>
+        <v>0.3252</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.453911</v>
+        <v>0.341323</v>
       </c>
       <c r="C21" t="n">
-        <v>0.378116</v>
+        <v>0.296467</v>
       </c>
       <c r="D21" t="n">
-        <v>0.408429</v>
+        <v>0.320491</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.460564</v>
+        <v>0.345069</v>
       </c>
       <c r="C22" t="n">
-        <v>0.382427</v>
+        <v>0.297746</v>
       </c>
       <c r="D22" t="n">
-        <v>0.420432</v>
+        <v>0.324925</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.456248</v>
+        <v>0.349412</v>
       </c>
       <c r="C23" t="n">
-        <v>0.386281</v>
+        <v>0.298107</v>
       </c>
       <c r="D23" t="n">
-        <v>0.41675</v>
+        <v>0.327046</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.469864</v>
+        <v>0.354169</v>
       </c>
       <c r="C24" t="n">
-        <v>0.38168</v>
+        <v>0.299617</v>
       </c>
       <c r="D24" t="n">
-        <v>0.416462</v>
+        <v>0.331343</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.460105</v>
+        <v>0.357897</v>
       </c>
       <c r="C25" t="n">
-        <v>0.391311</v>
+        <v>0.301788</v>
       </c>
       <c r="D25" t="n">
-        <v>0.428359</v>
+        <v>0.334514</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.475998</v>
+        <v>0.362152</v>
       </c>
       <c r="C26" t="n">
-        <v>0.392356</v>
+        <v>0.303198</v>
       </c>
       <c r="D26" t="n">
-        <v>0.440415</v>
+        <v>0.337622</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.529502</v>
+        <v>0.342087</v>
       </c>
       <c r="C27" t="n">
-        <v>0.404333</v>
+        <v>0.303935</v>
       </c>
       <c r="D27" t="n">
-        <v>0.45263</v>
+        <v>0.340604</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.53426</v>
+        <v>0.343489</v>
       </c>
       <c r="C28" t="n">
-        <v>0.399339</v>
+        <v>0.305926</v>
       </c>
       <c r="D28" t="n">
-        <v>0.444549</v>
+        <v>0.344125</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.526024</v>
+        <v>0.347876</v>
       </c>
       <c r="C29" t="n">
-        <v>0.411916</v>
+        <v>0.310054</v>
       </c>
       <c r="D29" t="n">
-        <v>0.444996</v>
+        <v>0.349046</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.548994</v>
+        <v>0.350467</v>
       </c>
       <c r="C30" t="n">
-        <v>0.403012</v>
+        <v>0.311081</v>
       </c>
       <c r="D30" t="n">
-        <v>0.465977</v>
+        <v>0.352088</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.57128</v>
+        <v>0.354412</v>
       </c>
       <c r="C31" t="n">
-        <v>0.42363</v>
+        <v>0.313757</v>
       </c>
       <c r="D31" t="n">
-        <v>0.460905</v>
+        <v>0.355666</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.567435</v>
+        <v>0.357297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.418002</v>
+        <v>0.315583</v>
       </c>
       <c r="D32" t="n">
-        <v>0.474685</v>
+        <v>0.359095</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.58963</v>
+        <v>0.36165</v>
       </c>
       <c r="C33" t="n">
-        <v>0.431733</v>
+        <v>0.319919</v>
       </c>
       <c r="D33" t="n">
-        <v>0.491419</v>
+        <v>0.362934</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.629391</v>
+        <v>0.365074</v>
       </c>
       <c r="C34" t="n">
-        <v>0.429163</v>
+        <v>0.321976</v>
       </c>
       <c r="D34" t="n">
-        <v>0.499892</v>
+        <v>0.365942</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.632035</v>
+        <v>0.367955</v>
       </c>
       <c r="C35" t="n">
-        <v>0.479768</v>
+        <v>0.311732</v>
       </c>
       <c r="D35" t="n">
-        <v>0.599451</v>
+        <v>0.354841</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.635381</v>
+        <v>0.370588</v>
       </c>
       <c r="C36" t="n">
-        <v>0.492643</v>
+        <v>0.312739</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6248359999999999</v>
+        <v>0.357101</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.660674</v>
+        <v>0.374296</v>
       </c>
       <c r="C37" t="n">
-        <v>0.497199</v>
+        <v>0.312578</v>
       </c>
       <c r="D37" t="n">
-        <v>0.635533</v>
+        <v>0.359525</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.669246</v>
+        <v>0.377161</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5094070000000001</v>
+        <v>0.314288</v>
       </c>
       <c r="D38" t="n">
-        <v>0.66309</v>
+        <v>0.362352</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.691655</v>
+        <v>0.380757</v>
       </c>
       <c r="C39" t="n">
-        <v>0.518003</v>
+        <v>0.315271</v>
       </c>
       <c r="D39" t="n">
-        <v>0.684268</v>
+        <v>0.364558</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.715446</v>
+        <v>0.386335</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5447610000000001</v>
+        <v>0.317447</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6985789999999999</v>
+        <v>0.367268</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.820728</v>
+        <v>0.362575</v>
       </c>
       <c r="C41" t="n">
-        <v>0.549378</v>
+        <v>0.32007</v>
       </c>
       <c r="D41" t="n">
-        <v>0.719063</v>
+        <v>0.369769</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.85586</v>
+        <v>0.362312</v>
       </c>
       <c r="C42" t="n">
-        <v>0.572685</v>
+        <v>0.322816</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7410870000000001</v>
+        <v>0.371427</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.872287</v>
+        <v>0.366717</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5815399999999999</v>
+        <v>0.324144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7460830000000001</v>
+        <v>0.373944</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.886601</v>
+        <v>0.368635</v>
       </c>
       <c r="C44" t="n">
-        <v>0.590894</v>
+        <v>0.32504</v>
       </c>
       <c r="D44" t="n">
-        <v>0.777546</v>
+        <v>0.376385</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.928951</v>
+        <v>0.37098</v>
       </c>
       <c r="C45" t="n">
-        <v>0.610718</v>
+        <v>0.327711</v>
       </c>
       <c r="D45" t="n">
-        <v>0.786411</v>
+        <v>0.37922</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.917265</v>
+        <v>0.372815</v>
       </c>
       <c r="C46" t="n">
-        <v>0.636389</v>
+        <v>0.328495</v>
       </c>
       <c r="D46" t="n">
-        <v>0.819036</v>
+        <v>0.381938</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.966959</v>
+        <v>0.375268</v>
       </c>
       <c r="C47" t="n">
-        <v>0.649807</v>
+        <v>0.332695</v>
       </c>
       <c r="D47" t="n">
-        <v>0.837028</v>
+        <v>0.385102</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.98999</v>
+        <v>0.383181</v>
       </c>
       <c r="C48" t="n">
-        <v>0.688805</v>
+        <v>0.335297</v>
       </c>
       <c r="D48" t="n">
-        <v>0.872603</v>
+        <v>0.388938</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>1.01194</v>
+        <v>0.382175</v>
       </c>
       <c r="C49" t="n">
-        <v>0.694327</v>
+        <v>0.336859</v>
       </c>
       <c r="D49" t="n">
-        <v>0.896156</v>
+        <v>0.390882</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>1.04914</v>
+        <v>0.38263</v>
       </c>
       <c r="C50" t="n">
-        <v>0.826344</v>
+        <v>0.32645</v>
       </c>
       <c r="D50" t="n">
-        <v>1.08687</v>
+        <v>0.378135</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>1.07829</v>
+        <v>0.391574</v>
       </c>
       <c r="C51" t="n">
-        <v>0.863109</v>
+        <v>0.330363</v>
       </c>
       <c r="D51" t="n">
-        <v>1.12006</v>
+        <v>0.378804</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>1.10072</v>
+        <v>0.390536</v>
       </c>
       <c r="C52" t="n">
-        <v>0.882541</v>
+        <v>0.330769</v>
       </c>
       <c r="D52" t="n">
-        <v>1.11995</v>
+        <v>0.382544</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>1.1539</v>
+        <v>0.392844</v>
       </c>
       <c r="C53" t="n">
-        <v>0.920276</v>
+        <v>0.333446</v>
       </c>
       <c r="D53" t="n">
-        <v>1.17707</v>
+        <v>0.382333</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>1.20809</v>
+        <v>0.395665</v>
       </c>
       <c r="C54" t="n">
-        <v>0.947913</v>
+        <v>0.33382</v>
       </c>
       <c r="D54" t="n">
-        <v>1.19685</v>
+        <v>0.38482</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>1.2436</v>
+        <v>0.399485</v>
       </c>
       <c r="C55" t="n">
-        <v>0.938985</v>
+        <v>0.337292</v>
       </c>
       <c r="D55" t="n">
-        <v>1.22864</v>
+        <v>0.387644</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>1.46311</v>
+        <v>0.376626</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9611769999999999</v>
+        <v>0.338202</v>
       </c>
       <c r="D56" t="n">
-        <v>1.25529</v>
+        <v>0.389142</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>1.4821</v>
+        <v>0.38265</v>
       </c>
       <c r="C57" t="n">
-        <v>0.99478</v>
+        <v>0.340121</v>
       </c>
       <c r="D57" t="n">
-        <v>1.32555</v>
+        <v>0.393577</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>1.51507</v>
+        <v>0.385932</v>
       </c>
       <c r="C58" t="n">
-        <v>1.01066</v>
+        <v>0.343102</v>
       </c>
       <c r="D58" t="n">
-        <v>1.3437</v>
+        <v>0.397606</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>1.57914</v>
+        <v>0.387344</v>
       </c>
       <c r="C59" t="n">
-        <v>1.07456</v>
+        <v>0.349219</v>
       </c>
       <c r="D59" t="n">
-        <v>1.35714</v>
+        <v>0.399709</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>1.63183</v>
+        <v>0.395294</v>
       </c>
       <c r="C60" t="n">
-        <v>1.13383</v>
+        <v>0.350044</v>
       </c>
       <c r="D60" t="n">
-        <v>1.43338</v>
+        <v>0.404211</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>1.68197</v>
+        <v>0.399831</v>
       </c>
       <c r="C61" t="n">
-        <v>1.18122</v>
+        <v>0.354535</v>
       </c>
       <c r="D61" t="n">
-        <v>1.50901</v>
+        <v>0.406941</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>1.71537</v>
+        <v>0.402007</v>
       </c>
       <c r="C62" t="n">
-        <v>1.18393</v>
+        <v>0.358615</v>
       </c>
       <c r="D62" t="n">
-        <v>1.51201</v>
+        <v>0.413191</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>1.70318</v>
+        <v>0.414521</v>
       </c>
       <c r="C63" t="n">
-        <v>1.14522</v>
+        <v>0.365922</v>
       </c>
       <c r="D63" t="n">
-        <v>1.51166</v>
+        <v>0.421411</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>1.71932</v>
+        <v>0.419987</v>
       </c>
       <c r="C64" t="n">
-        <v>1.27417</v>
+        <v>0.376626</v>
       </c>
       <c r="D64" t="n">
-        <v>1.85603</v>
+        <v>0.41883</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>1.74369</v>
+        <v>0.431811</v>
       </c>
       <c r="C65" t="n">
-        <v>1.27193</v>
+        <v>0.383463</v>
       </c>
       <c r="D65" t="n">
-        <v>1.85608</v>
+        <v>0.421152</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>1.78158</v>
+        <v>0.439132</v>
       </c>
       <c r="C66" t="n">
-        <v>1.3862</v>
+        <v>0.457269</v>
       </c>
       <c r="D66" t="n">
-        <v>1.97761</v>
+        <v>0.440498</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>1.87682</v>
+        <v>0.463526</v>
       </c>
       <c r="C67" t="n">
-        <v>1.41444</v>
+        <v>0.436102</v>
       </c>
       <c r="D67" t="n">
-        <v>2.0466</v>
+        <v>0.454541</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>1.95376</v>
+        <v>0.47511</v>
       </c>
       <c r="C68" t="n">
-        <v>1.33326</v>
+        <v>0.457327</v>
       </c>
       <c r="D68" t="n">
-        <v>2.00231</v>
+        <v>0.459293</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>1.98847</v>
+        <v>0.483422</v>
       </c>
       <c r="C69" t="n">
-        <v>1.34369</v>
+        <v>0.481851</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98242</v>
+        <v>0.479009</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>2.00395</v>
+        <v>0.67418</v>
       </c>
       <c r="C70" t="n">
-        <v>1.37024</v>
+        <v>0.5149899999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>2.0516</v>
+        <v>0.486272</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>2.04979</v>
+        <v>0.71635</v>
       </c>
       <c r="C71" t="n">
-        <v>1.38995</v>
+        <v>0.554432</v>
       </c>
       <c r="D71" t="n">
-        <v>2.12953</v>
+        <v>0.498512</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>2.08659</v>
+        <v>0.75049</v>
       </c>
       <c r="C72" t="n">
-        <v>1.42659</v>
+        <v>0.575614</v>
       </c>
       <c r="D72" t="n">
-        <v>2.22972</v>
+        <v>0.527855</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>2.08045</v>
+        <v>0.801175</v>
       </c>
       <c r="C73" t="n">
-        <v>1.42196</v>
+        <v>0.5933850000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>2.13966</v>
+        <v>0.558683</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>2.12717</v>
+        <v>0.84097</v>
       </c>
       <c r="C74" t="n">
-        <v>1.48361</v>
+        <v>0.635524</v>
       </c>
       <c r="D74" t="n">
-        <v>2.23714</v>
+        <v>0.599577</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>2.14525</v>
+        <v>0.882735</v>
       </c>
       <c r="C75" t="n">
-        <v>1.46755</v>
+        <v>0.658677</v>
       </c>
       <c r="D75" t="n">
-        <v>2.2924</v>
+        <v>0.610047</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>2.15367</v>
+        <v>0.933482</v>
       </c>
       <c r="C76" t="n">
-        <v>1.50011</v>
+        <v>0.683706</v>
       </c>
       <c r="D76" t="n">
-        <v>2.29411</v>
+        <v>0.632059</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>2.17672</v>
+        <v>0.973727</v>
       </c>
       <c r="C77" t="n">
-        <v>1.56849</v>
+        <v>0.715639</v>
       </c>
       <c r="D77" t="n">
-        <v>2.29853</v>
+        <v>0.679578</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>2.23211</v>
+        <v>1.01366</v>
       </c>
       <c r="C78" t="n">
-        <v>1.64856</v>
+        <v>0.870968</v>
       </c>
       <c r="D78" t="n">
-        <v>2.5869</v>
+        <v>0.958309</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>2.27762</v>
+        <v>1.05111</v>
       </c>
       <c r="C79" t="n">
-        <v>1.64162</v>
+        <v>0.899583</v>
       </c>
       <c r="D79" t="n">
-        <v>2.5957</v>
+        <v>1.0125</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>2.28377</v>
+        <v>1.10265</v>
       </c>
       <c r="C80" t="n">
-        <v>1.63061</v>
+        <v>0.915509</v>
       </c>
       <c r="D80" t="n">
-        <v>2.66189</v>
+        <v>1.06861</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>2.28415</v>
+        <v>1.13782</v>
       </c>
       <c r="C81" t="n">
-        <v>1.62696</v>
+        <v>0.94007</v>
       </c>
       <c r="D81" t="n">
-        <v>2.75429</v>
+        <v>1.12822</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>2.29517</v>
+        <v>1.1826</v>
       </c>
       <c r="C82" t="n">
-        <v>1.65853</v>
+        <v>0.958714</v>
       </c>
       <c r="D82" t="n">
-        <v>2.8299</v>
+        <v>1.17261</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>2.39319</v>
+        <v>1.22518</v>
       </c>
       <c r="C83" t="n">
-        <v>1.70623</v>
+        <v>0.980728</v>
       </c>
       <c r="D83" t="n">
-        <v>2.78981</v>
+        <v>1.23212</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>2.46191</v>
+        <v>1.42257</v>
       </c>
       <c r="C84" t="n">
-        <v>1.69872</v>
+        <v>0.998645</v>
       </c>
       <c r="D84" t="n">
-        <v>2.73617</v>
+        <v>1.26324</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>2.38879</v>
+        <v>1.44688</v>
       </c>
       <c r="C85" t="n">
-        <v>1.7121</v>
+        <v>1.01306</v>
       </c>
       <c r="D85" t="n">
-        <v>2.83478</v>
+        <v>1.30652</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>2.43414</v>
+        <v>1.47577</v>
       </c>
       <c r="C86" t="n">
-        <v>1.72374</v>
+        <v>1.03211</v>
       </c>
       <c r="D86" t="n">
-        <v>2.83007</v>
+        <v>1.35386</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>2.47391</v>
+        <v>1.50515</v>
       </c>
       <c r="C87" t="n">
-        <v>1.70591</v>
+        <v>1.04754</v>
       </c>
       <c r="D87" t="n">
-        <v>2.84952</v>
+        <v>1.38693</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>2.46747</v>
+        <v>1.539</v>
       </c>
       <c r="C88" t="n">
-        <v>1.75143</v>
+        <v>1.06154</v>
       </c>
       <c r="D88" t="n">
-        <v>2.88813</v>
+        <v>1.43216</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>2.50196</v>
+        <v>1.56619</v>
       </c>
       <c r="C89" t="n">
-        <v>1.763</v>
+        <v>1.08191</v>
       </c>
       <c r="D89" t="n">
-        <v>2.89525</v>
+        <v>1.4659</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>2.51002</v>
+        <v>1.58434</v>
       </c>
       <c r="C90" t="n">
-        <v>1.79449</v>
+        <v>1.09819</v>
       </c>
       <c r="D90" t="n">
-        <v>2.87942</v>
+        <v>1.51355</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>2.52967</v>
+        <v>1.61614</v>
       </c>
       <c r="C91" t="n">
-        <v>1.81354</v>
+        <v>1.1173</v>
       </c>
       <c r="D91" t="n">
-        <v>2.93327</v>
+        <v>1.55191</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>2.54216</v>
+        <v>1.64889</v>
       </c>
       <c r="C92" t="n">
-        <v>1.84797</v>
+        <v>1.20761</v>
       </c>
       <c r="D92" t="n">
-        <v>3.185</v>
+        <v>1.72991</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>2.5506</v>
+        <v>1.6688</v>
       </c>
       <c r="C93" t="n">
-        <v>1.88435</v>
+        <v>1.2086</v>
       </c>
       <c r="D93" t="n">
-        <v>3.20639</v>
+        <v>1.75386</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>2.55256</v>
+        <v>1.69885</v>
       </c>
       <c r="C94" t="n">
-        <v>1.86589</v>
+        <v>1.22023</v>
       </c>
       <c r="D94" t="n">
-        <v>3.24836</v>
+        <v>1.78252</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>2.63057</v>
+        <v>1.71377</v>
       </c>
       <c r="C95" t="n">
-        <v>1.90513</v>
+        <v>1.23078</v>
       </c>
       <c r="D95" t="n">
-        <v>3.20379</v>
+        <v>1.80619</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>2.61516</v>
+        <v>1.74884</v>
       </c>
       <c r="C96" t="n">
-        <v>1.92086</v>
+        <v>1.24175</v>
       </c>
       <c r="D96" t="n">
-        <v>3.24181</v>
+        <v>1.8327</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>2.68103</v>
+        <v>1.76646</v>
       </c>
       <c r="C97" t="n">
-        <v>1.96748</v>
+        <v>1.25963</v>
       </c>
       <c r="D97" t="n">
-        <v>3.27354</v>
+        <v>1.8562</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>2.80557</v>
+        <v>1.88041</v>
       </c>
       <c r="C98" t="n">
-        <v>1.94683</v>
+        <v>1.29703</v>
       </c>
       <c r="D98" t="n">
-        <v>3.28243</v>
+        <v>1.89861</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>2.74033</v>
+        <v>1.88846</v>
       </c>
       <c r="C99" t="n">
-        <v>1.98763</v>
+        <v>1.30379</v>
       </c>
       <c r="D99" t="n">
-        <v>3.31786</v>
+        <v>1.92019</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>2.80226</v>
+        <v>1.91691</v>
       </c>
       <c r="C100" t="n">
-        <v>1.97888</v>
+        <v>1.31799</v>
       </c>
       <c r="D100" t="n">
-        <v>3.22053</v>
+        <v>1.95139</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>2.82037</v>
+        <v>1.93402</v>
       </c>
       <c r="C101" t="n">
-        <v>2.00942</v>
+        <v>1.32693</v>
       </c>
       <c r="D101" t="n">
-        <v>3.30654</v>
+        <v>1.96396</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>2.81988</v>
+        <v>1.95643</v>
       </c>
       <c r="C102" t="n">
-        <v>2.02706</v>
+        <v>1.34172</v>
       </c>
       <c r="D102" t="n">
-        <v>3.26556</v>
+        <v>1.98897</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>2.84389</v>
+        <v>1.97126</v>
       </c>
       <c r="C103" t="n">
-        <v>2.03129</v>
+        <v>1.35438</v>
       </c>
       <c r="D103" t="n">
-        <v>3.39574</v>
+        <v>2.00857</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>2.86229</v>
+        <v>1.98972</v>
       </c>
       <c r="C104" t="n">
-        <v>2.07006</v>
+        <v>1.35937</v>
       </c>
       <c r="D104" t="n">
-        <v>3.34708</v>
+        <v>2.03014</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.85291</v>
+        <v>2.01024</v>
       </c>
       <c r="C105" t="n">
-        <v>2.07221</v>
+        <v>1.385</v>
       </c>
       <c r="D105" t="n">
-        <v>3.36709</v>
+        <v>2.0483</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.91327</v>
+        <v>2.02353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.08122</v>
+        <v>1.38889</v>
       </c>
       <c r="D106" t="n">
-        <v>3.47757</v>
+        <v>2.07133</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.88681</v>
+        <v>2.04542</v>
       </c>
       <c r="C107" t="n">
-        <v>2.16141</v>
+        <v>1.40117</v>
       </c>
       <c r="D107" t="n">
-        <v>3.66237</v>
+        <v>2.18796</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.93838</v>
+        <v>2.05602</v>
       </c>
       <c r="C108" t="n">
-        <v>2.15484</v>
+        <v>1.40319</v>
       </c>
       <c r="D108" t="n">
-        <v>3.65946</v>
+        <v>2.18613</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.92052</v>
+        <v>2.07697</v>
       </c>
       <c r="C109" t="n">
-        <v>2.18509</v>
+        <v>1.41318</v>
       </c>
       <c r="D109" t="n">
-        <v>3.69538</v>
+        <v>2.20445</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.96486</v>
+        <v>2.09348</v>
       </c>
       <c r="C110" t="n">
-        <v>2.19793</v>
+        <v>1.42912</v>
       </c>
       <c r="D110" t="n">
-        <v>3.7556</v>
+        <v>2.21187</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>3.08387</v>
+        <v>2.10072</v>
       </c>
       <c r="C111" t="n">
-        <v>2.21935</v>
+        <v>1.43188</v>
       </c>
       <c r="D111" t="n">
-        <v>3.71987</v>
+        <v>2.22567</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>3.22049</v>
+        <v>2.15063</v>
       </c>
       <c r="C112" t="n">
-        <v>2.24008</v>
+        <v>1.442</v>
       </c>
       <c r="D112" t="n">
-        <v>3.80983</v>
+        <v>2.23893</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>3.17654</v>
+        <v>2.16045</v>
       </c>
       <c r="C113" t="n">
-        <v>2.27485</v>
+        <v>1.45258</v>
       </c>
       <c r="D113" t="n">
-        <v>3.80172</v>
+        <v>2.25192</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>3.22184</v>
+        <v>2.17755</v>
       </c>
       <c r="C114" t="n">
-        <v>2.28807</v>
+        <v>1.46631</v>
       </c>
       <c r="D114" t="n">
-        <v>3.78874</v>
+        <v>2.26396</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>3.21343</v>
+        <v>2.18693</v>
       </c>
       <c r="C115" t="n">
-        <v>2.3292</v>
+        <v>1.47089</v>
       </c>
       <c r="D115" t="n">
-        <v>3.86639</v>
+        <v>2.27245</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>3.19152</v>
+        <v>2.19886</v>
       </c>
       <c r="C116" t="n">
-        <v>2.3666</v>
+        <v>1.49038</v>
       </c>
       <c r="D116" t="n">
-        <v>3.98741</v>
+        <v>2.28608</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>3.22449</v>
+        <v>2.20721</v>
       </c>
       <c r="C117" t="n">
-        <v>2.41049</v>
+        <v>1.49296</v>
       </c>
       <c r="D117" t="n">
-        <v>4.09135</v>
+        <v>2.29686</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>3.35699</v>
+        <v>2.22984</v>
       </c>
       <c r="C118" t="n">
-        <v>2.48692</v>
+        <v>1.50787</v>
       </c>
       <c r="D118" t="n">
-        <v>4.04415</v>
+        <v>2.30728</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>3.3606</v>
+        <v>2.2339</v>
       </c>
       <c r="C119" t="n">
-        <v>2.47265</v>
+        <v>1.51962</v>
       </c>
       <c r="D119" t="n">
-        <v>4.02661</v>
+        <v>2.32053</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.441266</v>
+        <v>0.312791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.489692</v>
+        <v>0.401934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.494738</v>
+        <v>0.362717</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455173</v>
+        <v>0.319389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.495345</v>
+        <v>0.406744</v>
       </c>
       <c r="D3" t="n">
-        <v>0.500306</v>
+        <v>0.366595</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.438761</v>
+        <v>0.32008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5048589999999999</v>
+        <v>0.410756</v>
       </c>
       <c r="D4" t="n">
-        <v>0.510131</v>
+        <v>0.366859</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.44881</v>
+        <v>0.321324</v>
       </c>
       <c r="C5" t="n">
-        <v>0.511605</v>
+        <v>0.418752</v>
       </c>
       <c r="D5" t="n">
-        <v>0.512691</v>
+        <v>0.372763</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.449182</v>
+        <v>0.32403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.514204</v>
+        <v>0.418575</v>
       </c>
       <c r="D6" t="n">
-        <v>0.515377</v>
+        <v>0.373542</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.454782</v>
+        <v>0.326664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.528116</v>
+        <v>0.432525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.529309</v>
+        <v>0.384155</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452363</v>
+        <v>0.329833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.52541</v>
+        <v>0.431264</v>
       </c>
       <c r="D8" t="n">
-        <v>0.530339</v>
+        <v>0.389507</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.455434</v>
+        <v>0.332385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.531322</v>
+        <v>0.437163</v>
       </c>
       <c r="D9" t="n">
-        <v>0.529657</v>
+        <v>0.393023</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.458053</v>
+        <v>0.334242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.536413</v>
+        <v>0.442203</v>
       </c>
       <c r="D10" t="n">
-        <v>0.541319</v>
+        <v>0.397328</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.45819</v>
+        <v>0.337667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.532558</v>
+        <v>0.43993</v>
       </c>
       <c r="D11" t="n">
-        <v>0.553404</v>
+        <v>0.403544</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.459488</v>
+        <v>0.34129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.538187</v>
+        <v>0.44606</v>
       </c>
       <c r="D12" t="n">
-        <v>0.553751</v>
+        <v>0.405513</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.480175</v>
+        <v>0.355122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.538663</v>
+        <v>0.443969</v>
       </c>
       <c r="D13" t="n">
-        <v>0.550953</v>
+        <v>0.410906</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.48227</v>
+        <v>0.356524</v>
       </c>
       <c r="C14" t="n">
-        <v>0.543469</v>
+        <v>0.449723</v>
       </c>
       <c r="D14" t="n">
-        <v>0.548482</v>
+        <v>0.415255</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.477559</v>
+        <v>0.359858</v>
       </c>
       <c r="C15" t="n">
-        <v>0.542019</v>
+        <v>0.450261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.554578</v>
+        <v>0.419809</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475519</v>
+        <v>0.363943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.537872</v>
+        <v>0.452623</v>
       </c>
       <c r="D16" t="n">
-        <v>0.562307</v>
+        <v>0.422628</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.471007</v>
+        <v>0.363862</v>
       </c>
       <c r="C17" t="n">
-        <v>0.547108</v>
+        <v>0.455649</v>
       </c>
       <c r="D17" t="n">
-        <v>0.562478</v>
+        <v>0.4253</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.485664</v>
+        <v>0.367296</v>
       </c>
       <c r="C18" t="n">
-        <v>0.549753</v>
+        <v>0.460179</v>
       </c>
       <c r="D18" t="n">
-        <v>0.568872</v>
+        <v>0.431167</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.483193</v>
+        <v>0.368571</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5489039999999999</v>
+        <v>0.46142</v>
       </c>
       <c r="D19" t="n">
-        <v>0.575852</v>
+        <v>0.437069</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.48412</v>
+        <v>0.371776</v>
       </c>
       <c r="C20" t="n">
-        <v>0.555547</v>
+        <v>0.466819</v>
       </c>
       <c r="D20" t="n">
-        <v>0.569623</v>
+        <v>0.440883</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.478304</v>
+        <v>0.373728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.563295</v>
+        <v>0.473555</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5826249999999999</v>
+        <v>0.448705</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.486076</v>
+        <v>0.378629</v>
       </c>
       <c r="C22" t="n">
-        <v>0.565519</v>
+        <v>0.478615</v>
       </c>
       <c r="D22" t="n">
-        <v>0.57507</v>
+        <v>0.45427</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.486825</v>
+        <v>0.378516</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5650849999999999</v>
+        <v>0.47866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.580966</v>
+        <v>0.456516</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.504294</v>
+        <v>0.380334</v>
       </c>
       <c r="C24" t="n">
-        <v>0.568033</v>
+        <v>0.483952</v>
       </c>
       <c r="D24" t="n">
-        <v>0.599387</v>
+        <v>0.462267</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.516023</v>
+        <v>0.384018</v>
       </c>
       <c r="C25" t="n">
-        <v>0.585969</v>
+        <v>0.490906</v>
       </c>
       <c r="D25" t="n">
-        <v>0.588666</v>
+        <v>0.4655</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.508884</v>
+        <v>0.384539</v>
       </c>
       <c r="C26" t="n">
-        <v>0.603247</v>
+        <v>0.486718</v>
       </c>
       <c r="D26" t="n">
-        <v>0.610495</v>
+        <v>0.468328</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5733470000000001</v>
+        <v>0.397648</v>
       </c>
       <c r="C27" t="n">
-        <v>0.581057</v>
+        <v>0.494014</v>
       </c>
       <c r="D27" t="n">
-        <v>0.600187</v>
+        <v>0.473404</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.564932</v>
+        <v>0.398357</v>
       </c>
       <c r="C28" t="n">
-        <v>0.583588</v>
+        <v>0.495355</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5998830000000001</v>
+        <v>0.475855</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.574507</v>
+        <v>0.398893</v>
       </c>
       <c r="C29" t="n">
-        <v>0.593804</v>
+        <v>0.496378</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6142879999999999</v>
+        <v>0.478846</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.580121</v>
+        <v>0.401412</v>
       </c>
       <c r="C30" t="n">
-        <v>0.601048</v>
+        <v>0.501934</v>
       </c>
       <c r="D30" t="n">
-        <v>0.625912</v>
+        <v>0.482897</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.591637</v>
+        <v>0.402149</v>
       </c>
       <c r="C31" t="n">
-        <v>0.610125</v>
+        <v>0.502471</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6367660000000001</v>
+        <v>0.485779</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.619043</v>
+        <v>0.402519</v>
       </c>
       <c r="C32" t="n">
-        <v>0.638843</v>
+        <v>0.505283</v>
       </c>
       <c r="D32" t="n">
-        <v>0.670086</v>
+        <v>0.48854</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.616542</v>
+        <v>0.403783</v>
       </c>
       <c r="C33" t="n">
-        <v>0.640329</v>
+        <v>0.511645</v>
       </c>
       <c r="D33" t="n">
-        <v>0.672327</v>
+        <v>0.491564</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.641304</v>
+        <v>0.404964</v>
       </c>
       <c r="C34" t="n">
-        <v>0.678659</v>
+        <v>0.510293</v>
       </c>
       <c r="D34" t="n">
-        <v>0.697689</v>
+        <v>0.494272</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.64651</v>
+        <v>0.406517</v>
       </c>
       <c r="C35" t="n">
-        <v>0.720599</v>
+        <v>0.503138</v>
       </c>
       <c r="D35" t="n">
-        <v>0.766409</v>
+        <v>0.498396</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.663561</v>
+        <v>0.409079</v>
       </c>
       <c r="C36" t="n">
-        <v>0.720319</v>
+        <v>0.505567</v>
       </c>
       <c r="D36" t="n">
-        <v>0.784965</v>
+        <v>0.500822</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.686577</v>
+        <v>0.409613</v>
       </c>
       <c r="C37" t="n">
-        <v>0.756258</v>
+        <v>0.511279</v>
       </c>
       <c r="D37" t="n">
-        <v>0.790537</v>
+        <v>0.503151</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6992080000000001</v>
+        <v>0.408974</v>
       </c>
       <c r="C38" t="n">
-        <v>0.759964</v>
+        <v>0.513776</v>
       </c>
       <c r="D38" t="n">
-        <v>0.827209</v>
+        <v>0.505645</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.712121</v>
+        <v>0.410075</v>
       </c>
       <c r="C39" t="n">
-        <v>0.776253</v>
+        <v>0.513141</v>
       </c>
       <c r="D39" t="n">
-        <v>0.845624</v>
+        <v>0.507671</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.734179</v>
+        <v>0.411145</v>
       </c>
       <c r="C40" t="n">
-        <v>0.783382</v>
+        <v>0.513828</v>
       </c>
       <c r="D40" t="n">
-        <v>0.876902</v>
+        <v>0.510373</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.853864</v>
+        <v>0.419238</v>
       </c>
       <c r="C41" t="n">
-        <v>0.810918</v>
+        <v>0.517651</v>
       </c>
       <c r="D41" t="n">
-        <v>0.907173</v>
+        <v>0.511647</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.870671</v>
+        <v>0.421943</v>
       </c>
       <c r="C42" t="n">
-        <v>0.836421</v>
+        <v>0.5188390000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.916734</v>
+        <v>0.514244</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.881122</v>
+        <v>0.423094</v>
       </c>
       <c r="C43" t="n">
-        <v>0.860747</v>
+        <v>0.519445</v>
       </c>
       <c r="D43" t="n">
-        <v>0.975915</v>
+        <v>0.514215</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.905184</v>
+        <v>0.419931</v>
       </c>
       <c r="C44" t="n">
-        <v>0.882852</v>
+        <v>0.519263</v>
       </c>
       <c r="D44" t="n">
-        <v>0.976786</v>
+        <v>0.516625</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.920885</v>
+        <v>0.423318</v>
       </c>
       <c r="C45" t="n">
-        <v>0.900298</v>
+        <v>0.521753</v>
       </c>
       <c r="D45" t="n">
-        <v>1.00884</v>
+        <v>0.51856</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.933361</v>
+        <v>0.422835</v>
       </c>
       <c r="C46" t="n">
-        <v>0.914903</v>
+        <v>0.521958</v>
       </c>
       <c r="D46" t="n">
-        <v>1.04211</v>
+        <v>0.521007</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.973932</v>
+        <v>0.422768</v>
       </c>
       <c r="C47" t="n">
-        <v>0.970523</v>
+        <v>0.524793</v>
       </c>
       <c r="D47" t="n">
-        <v>1.06445</v>
+        <v>0.522904</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.970922</v>
+        <v>0.422871</v>
       </c>
       <c r="C48" t="n">
-        <v>0.997315</v>
+        <v>0.527962</v>
       </c>
       <c r="D48" t="n">
-        <v>1.13642</v>
+        <v>0.524248</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.997602</v>
+        <v>0.429388</v>
       </c>
       <c r="C49" t="n">
-        <v>1.03186</v>
+        <v>0.532873</v>
       </c>
       <c r="D49" t="n">
-        <v>1.12612</v>
+        <v>0.5244490000000001</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.02253</v>
+        <v>0.425783</v>
       </c>
       <c r="C50" t="n">
-        <v>1.16322</v>
+        <v>0.532502</v>
       </c>
       <c r="D50" t="n">
-        <v>1.25325</v>
+        <v>0.5268119999999999</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>1.03529</v>
+        <v>0.424477</v>
       </c>
       <c r="C51" t="n">
-        <v>1.18422</v>
+        <v>0.530968</v>
       </c>
       <c r="D51" t="n">
-        <v>1.27625</v>
+        <v>0.52788</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>1.0801</v>
+        <v>0.428581</v>
       </c>
       <c r="C52" t="n">
-        <v>1.23233</v>
+        <v>0.53186</v>
       </c>
       <c r="D52" t="n">
-        <v>1.32993</v>
+        <v>0.530578</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>1.10759</v>
+        <v>0.432379</v>
       </c>
       <c r="C53" t="n">
-        <v>1.25402</v>
+        <v>0.536386</v>
       </c>
       <c r="D53" t="n">
-        <v>1.36336</v>
+        <v>0.535849</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>1.12967</v>
+        <v>0.429233</v>
       </c>
       <c r="C54" t="n">
-        <v>1.28737</v>
+        <v>0.538286</v>
       </c>
       <c r="D54" t="n">
-        <v>1.38364</v>
+        <v>0.538743</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.15996</v>
+        <v>0.428493</v>
       </c>
       <c r="C55" t="n">
-        <v>1.33106</v>
+        <v>0.544255</v>
       </c>
       <c r="D55" t="n">
-        <v>1.46117</v>
+        <v>0.539838</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.28689</v>
+        <v>0.439064</v>
       </c>
       <c r="C56" t="n">
-        <v>1.37816</v>
+        <v>0.5364370000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>1.46962</v>
+        <v>0.53507</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.31294</v>
+        <v>0.43318</v>
       </c>
       <c r="C57" t="n">
-        <v>1.41648</v>
+        <v>0.539503</v>
       </c>
       <c r="D57" t="n">
-        <v>1.53159</v>
+        <v>0.538399</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.37342</v>
+        <v>0.442258</v>
       </c>
       <c r="C58" t="n">
-        <v>1.46332</v>
+        <v>0.544324</v>
       </c>
       <c r="D58" t="n">
-        <v>1.58544</v>
+        <v>0.537812</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.4064</v>
+        <v>0.444688</v>
       </c>
       <c r="C59" t="n">
-        <v>1.49603</v>
+        <v>0.548629</v>
       </c>
       <c r="D59" t="n">
-        <v>1.62207</v>
+        <v>0.537956</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.43241</v>
+        <v>0.443068</v>
       </c>
       <c r="C60" t="n">
-        <v>1.54427</v>
+        <v>0.550427</v>
       </c>
       <c r="D60" t="n">
-        <v>1.66546</v>
+        <v>0.544862</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.47694</v>
+        <v>0.448832</v>
       </c>
       <c r="C61" t="n">
-        <v>1.62095</v>
+        <v>0.55894</v>
       </c>
       <c r="D61" t="n">
-        <v>1.74979</v>
+        <v>0.552669</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.53595</v>
+        <v>0.452343</v>
       </c>
       <c r="C62" t="n">
-        <v>1.67255</v>
+        <v>0.561978</v>
       </c>
       <c r="D62" t="n">
-        <v>1.80105</v>
+        <v>0.561514</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.56584</v>
+        <v>0.454006</v>
       </c>
       <c r="C63" t="n">
-        <v>1.66154</v>
+        <v>0.572453</v>
       </c>
       <c r="D63" t="n">
-        <v>1.85041</v>
+        <v>0.558567</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.59638</v>
+        <v>0.459843</v>
       </c>
       <c r="C64" t="n">
-        <v>1.81698</v>
+        <v>0.587117</v>
       </c>
       <c r="D64" t="n">
-        <v>2.01936</v>
+        <v>0.5711619999999999</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.63776</v>
+        <v>0.468601</v>
       </c>
       <c r="C65" t="n">
-        <v>1.83676</v>
+        <v>0.599193</v>
       </c>
       <c r="D65" t="n">
-        <v>2.05479</v>
+        <v>0.583183</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.67804</v>
+        <v>0.480015</v>
       </c>
       <c r="C66" t="n">
-        <v>1.89512</v>
+        <v>0.608034</v>
       </c>
       <c r="D66" t="n">
-        <v>2.13922</v>
+        <v>0.587647</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.73515</v>
+        <v>0.480792</v>
       </c>
       <c r="C67" t="n">
-        <v>1.93183</v>
+        <v>0.637624</v>
       </c>
       <c r="D67" t="n">
-        <v>2.20815</v>
+        <v>0.612552</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.77105</v>
+        <v>0.490838</v>
       </c>
       <c r="C68" t="n">
-        <v>1.98054</v>
+        <v>0.662343</v>
       </c>
       <c r="D68" t="n">
-        <v>2.24273</v>
+        <v>0.621063</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.78444</v>
+        <v>0.507971</v>
       </c>
       <c r="C69" t="n">
-        <v>2.02035</v>
+        <v>0.679951</v>
       </c>
       <c r="D69" t="n">
-        <v>2.30924</v>
+        <v>0.642636</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.90127</v>
+        <v>0.578395</v>
       </c>
       <c r="C70" t="n">
-        <v>2.06841</v>
+        <v>0.7053739999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>2.35683</v>
+        <v>0.648001</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.9252</v>
+        <v>0.611578</v>
       </c>
       <c r="C71" t="n">
-        <v>2.08435</v>
+        <v>0.75022</v>
       </c>
       <c r="D71" t="n">
-        <v>2.4099</v>
+        <v>0.660685</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.95004</v>
+        <v>0.620985</v>
       </c>
       <c r="C72" t="n">
-        <v>2.11567</v>
+        <v>0.765521</v>
       </c>
       <c r="D72" t="n">
-        <v>2.52349</v>
+        <v>0.691217</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.99093</v>
+        <v>0.6608309999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>2.18458</v>
+        <v>0.8095059999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>2.54483</v>
+        <v>0.7028990000000001</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>2.00586</v>
+        <v>0.702785</v>
       </c>
       <c r="C74" t="n">
-        <v>2.21752</v>
+        <v>0.84055</v>
       </c>
       <c r="D74" t="n">
-        <v>2.65488</v>
+        <v>0.736498</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.0502</v>
+        <v>0.752055</v>
       </c>
       <c r="C75" t="n">
-        <v>2.2138</v>
+        <v>0.860823</v>
       </c>
       <c r="D75" t="n">
-        <v>2.68305</v>
+        <v>0.750607</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.06054</v>
+        <v>0.7877690000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>2.27238</v>
+        <v>0.900047</v>
       </c>
       <c r="D76" t="n">
-        <v>2.72466</v>
+        <v>0.803473</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.10784</v>
+        <v>0.840818</v>
       </c>
       <c r="C77" t="n">
-        <v>2.3408</v>
+        <v>0.935439</v>
       </c>
       <c r="D77" t="n">
-        <v>2.81849</v>
+        <v>0.842214</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.1633</v>
+        <v>0.890228</v>
       </c>
       <c r="C78" t="n">
-        <v>2.44014</v>
+        <v>1.17186</v>
       </c>
       <c r="D78" t="n">
-        <v>2.93206</v>
+        <v>1.03424</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.19052</v>
+        <v>0.928342</v>
       </c>
       <c r="C79" t="n">
-        <v>2.4705</v>
+        <v>1.19112</v>
       </c>
       <c r="D79" t="n">
-        <v>2.96073</v>
+        <v>1.08883</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.184</v>
+        <v>0.974548</v>
       </c>
       <c r="C80" t="n">
-        <v>2.51288</v>
+        <v>1.24616</v>
       </c>
       <c r="D80" t="n">
-        <v>3.01379</v>
+        <v>1.16415</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.21151</v>
+        <v>1.02034</v>
       </c>
       <c r="C81" t="n">
-        <v>2.53168</v>
+        <v>1.28745</v>
       </c>
       <c r="D81" t="n">
-        <v>3.06522</v>
+        <v>1.23779</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.26232</v>
+        <v>1.06698</v>
       </c>
       <c r="C82" t="n">
-        <v>2.6013</v>
+        <v>1.32602</v>
       </c>
       <c r="D82" t="n">
-        <v>3.1534</v>
+        <v>1.30602</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.24766</v>
+        <v>1.10503</v>
       </c>
       <c r="C83" t="n">
-        <v>2.59619</v>
+        <v>1.37174</v>
       </c>
       <c r="D83" t="n">
-        <v>3.17973</v>
+        <v>1.39108</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.3638</v>
+        <v>1.30359</v>
       </c>
       <c r="C84" t="n">
-        <v>2.63371</v>
+        <v>1.42884</v>
       </c>
       <c r="D84" t="n">
-        <v>3.21956</v>
+        <v>1.46813</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.39259</v>
+        <v>1.34082</v>
       </c>
       <c r="C85" t="n">
-        <v>2.64929</v>
+        <v>1.46434</v>
       </c>
       <c r="D85" t="n">
-        <v>3.29715</v>
+        <v>1.53296</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.44223</v>
+        <v>1.38164</v>
       </c>
       <c r="C86" t="n">
-        <v>2.72654</v>
+        <v>1.50594</v>
       </c>
       <c r="D86" t="n">
-        <v>3.3222</v>
+        <v>1.6105</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.42988</v>
+        <v>1.41735</v>
       </c>
       <c r="C87" t="n">
-        <v>2.72545</v>
+        <v>1.53508</v>
       </c>
       <c r="D87" t="n">
-        <v>3.37115</v>
+        <v>1.69505</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48979</v>
+        <v>1.4597</v>
       </c>
       <c r="C88" t="n">
-        <v>2.74451</v>
+        <v>1.58804</v>
       </c>
       <c r="D88" t="n">
-        <v>3.42232</v>
+        <v>1.74611</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.49631</v>
+        <v>1.48873</v>
       </c>
       <c r="C89" t="n">
-        <v>2.7682</v>
+        <v>1.63578</v>
       </c>
       <c r="D89" t="n">
-        <v>3.47607</v>
+        <v>1.82834</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.51966</v>
+        <v>1.52307</v>
       </c>
       <c r="C90" t="n">
-        <v>2.89641</v>
+        <v>1.67028</v>
       </c>
       <c r="D90" t="n">
-        <v>3.51109</v>
+        <v>1.88591</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.4982</v>
+        <v>1.55548</v>
       </c>
       <c r="C91" t="n">
-        <v>2.84654</v>
+        <v>1.71668</v>
       </c>
       <c r="D91" t="n">
-        <v>3.54195</v>
+        <v>1.94992</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.54699</v>
+        <v>1.59048</v>
       </c>
       <c r="C92" t="n">
-        <v>2.96371</v>
+        <v>1.8906</v>
       </c>
       <c r="D92" t="n">
-        <v>3.6542</v>
+        <v>2.12258</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.54633</v>
+        <v>1.61398</v>
       </c>
       <c r="C93" t="n">
-        <v>2.93761</v>
+        <v>1.91555</v>
       </c>
       <c r="D93" t="n">
-        <v>3.65786</v>
+        <v>2.1775</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.55696</v>
+        <v>1.63677</v>
       </c>
       <c r="C94" t="n">
-        <v>2.96324</v>
+        <v>1.9442</v>
       </c>
       <c r="D94" t="n">
-        <v>3.72861</v>
+        <v>2.22209</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.67692</v>
+        <v>1.66455</v>
       </c>
       <c r="C95" t="n">
-        <v>3.00354</v>
+        <v>1.97565</v>
       </c>
       <c r="D95" t="n">
-        <v>3.74304</v>
+        <v>2.27584</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.62492</v>
+        <v>1.6986</v>
       </c>
       <c r="C96" t="n">
-        <v>3.00665</v>
+        <v>2.00537</v>
       </c>
       <c r="D96" t="n">
-        <v>3.85726</v>
+        <v>2.32233</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.6629</v>
+        <v>1.71364</v>
       </c>
       <c r="C97" t="n">
-        <v>3.10799</v>
+        <v>2.03312</v>
       </c>
       <c r="D97" t="n">
-        <v>3.87676</v>
+        <v>2.37469</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.83061</v>
+        <v>1.86705</v>
       </c>
       <c r="C98" t="n">
-        <v>3.15454</v>
+        <v>2.09973</v>
       </c>
       <c r="D98" t="n">
-        <v>3.87166</v>
+        <v>2.43599</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.81724</v>
+        <v>1.88609</v>
       </c>
       <c r="C99" t="n">
-        <v>3.19475</v>
+        <v>2.12613</v>
       </c>
       <c r="D99" t="n">
-        <v>3.91759</v>
+        <v>2.48263</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.85806</v>
+        <v>1.90813</v>
       </c>
       <c r="C100" t="n">
-        <v>3.21999</v>
+        <v>2.15962</v>
       </c>
       <c r="D100" t="n">
-        <v>3.95677</v>
+        <v>2.52167</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.87818</v>
+        <v>1.9343</v>
       </c>
       <c r="C101" t="n">
-        <v>3.27131</v>
+        <v>2.17642</v>
       </c>
       <c r="D101" t="n">
-        <v>4.02822</v>
+        <v>2.56968</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.86013</v>
+        <v>1.95243</v>
       </c>
       <c r="C102" t="n">
-        <v>3.32328</v>
+        <v>2.2121</v>
       </c>
       <c r="D102" t="n">
-        <v>4.08556</v>
+        <v>2.60907</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.92468</v>
+        <v>1.96967</v>
       </c>
       <c r="C103" t="n">
-        <v>3.32007</v>
+        <v>2.23046</v>
       </c>
       <c r="D103" t="n">
-        <v>4.03782</v>
+        <v>2.6339</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>3.06345</v>
+        <v>1.99153</v>
       </c>
       <c r="C104" t="n">
-        <v>3.37234</v>
+        <v>2.26372</v>
       </c>
       <c r="D104" t="n">
-        <v>4.1117</v>
+        <v>2.68128</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.99771</v>
+        <v>2.01079</v>
       </c>
       <c r="C105" t="n">
-        <v>3.39207</v>
+        <v>2.29267</v>
       </c>
       <c r="D105" t="n">
-        <v>4.18811</v>
+        <v>2.71174</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.018</v>
+        <v>2.03105</v>
       </c>
       <c r="C106" t="n">
-        <v>3.474</v>
+        <v>2.32121</v>
       </c>
       <c r="D106" t="n">
-        <v>4.23175</v>
+        <v>2.75501</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.04906</v>
+        <v>2.04653</v>
       </c>
       <c r="C107" t="n">
-        <v>3.50608</v>
+        <v>2.39549</v>
       </c>
       <c r="D107" t="n">
-        <v>4.3299</v>
+        <v>2.85617</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.03607</v>
+        <v>2.05866</v>
       </c>
       <c r="C108" t="n">
-        <v>3.55406</v>
+        <v>2.42866</v>
       </c>
       <c r="D108" t="n">
-        <v>4.41552</v>
+        <v>2.87997</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.03057</v>
+        <v>2.07888</v>
       </c>
       <c r="C109" t="n">
-        <v>3.59038</v>
+        <v>2.43976</v>
       </c>
       <c r="D109" t="n">
-        <v>4.42116</v>
+        <v>2.91753</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.0818</v>
+        <v>2.09815</v>
       </c>
       <c r="C110" t="n">
-        <v>3.61231</v>
+        <v>2.46104</v>
       </c>
       <c r="D110" t="n">
-        <v>4.47751</v>
+        <v>2.93355</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.13985</v>
+        <v>2.11249</v>
       </c>
       <c r="C111" t="n">
-        <v>3.66572</v>
+        <v>2.47458</v>
       </c>
       <c r="D111" t="n">
-        <v>4.53395</v>
+        <v>2.96856</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.30388</v>
+        <v>2.1911</v>
       </c>
       <c r="C112" t="n">
-        <v>3.65274</v>
+        <v>2.50357</v>
       </c>
       <c r="D112" t="n">
-        <v>4.50419</v>
+        <v>2.98618</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.29193</v>
+        <v>2.20046</v>
       </c>
       <c r="C113" t="n">
-        <v>3.73241</v>
+        <v>2.51807</v>
       </c>
       <c r="D113" t="n">
-        <v>4.55414</v>
+        <v>3.01486</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.35007</v>
+        <v>2.22152</v>
       </c>
       <c r="C114" t="n">
-        <v>3.73712</v>
+        <v>2.53925</v>
       </c>
       <c r="D114" t="n">
-        <v>4.55353</v>
+        <v>3.04027</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.30828</v>
+        <v>2.23444</v>
       </c>
       <c r="C115" t="n">
-        <v>3.7801</v>
+        <v>2.55392</v>
       </c>
       <c r="D115" t="n">
-        <v>4.63432</v>
+        <v>3.05895</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.37156</v>
+        <v>2.27043</v>
       </c>
       <c r="C116" t="n">
-        <v>3.91632</v>
+        <v>2.58752</v>
       </c>
       <c r="D116" t="n">
-        <v>4.77197</v>
+        <v>3.08627</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.40678</v>
+        <v>2.26261</v>
       </c>
       <c r="C117" t="n">
-        <v>3.84653</v>
+        <v>2.6027</v>
       </c>
       <c r="D117" t="n">
-        <v>4.83099</v>
+        <v>3.10119</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.48133</v>
+        <v>2.26783</v>
       </c>
       <c r="C118" t="n">
-        <v>3.87412</v>
+        <v>2.6344</v>
       </c>
       <c r="D118" t="n">
-        <v>4.84955</v>
+        <v>3.13338</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.49688</v>
+        <v>2.28459</v>
       </c>
       <c r="C119" t="n">
-        <v>3.98843</v>
+        <v>2.649</v>
       </c>
       <c r="D119" t="n">
-        <v>5.02837</v>
+        <v>3.15166</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.38533</v>
+        <v>0.274026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.527739</v>
+        <v>0.418902</v>
       </c>
       <c r="D2" t="n">
-        <v>0.496281</v>
+        <v>0.365509</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.407689</v>
+        <v>0.289986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5202329999999999</v>
+        <v>0.427139</v>
       </c>
       <c r="D3" t="n">
-        <v>0.499013</v>
+        <v>0.371202</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.414276</v>
+        <v>0.295415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.538577</v>
+        <v>0.428144</v>
       </c>
       <c r="D4" t="n">
-        <v>0.505309</v>
+        <v>0.371302</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.409787</v>
+        <v>0.294961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.531856</v>
+        <v>0.430715</v>
       </c>
       <c r="D5" t="n">
-        <v>0.50556</v>
+        <v>0.375542</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.41118</v>
+        <v>0.295018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.534162</v>
+        <v>0.431925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.504323</v>
+        <v>0.376473</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.414918</v>
+        <v>0.294495</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5410779999999999</v>
+        <v>0.436509</v>
       </c>
       <c r="D7" t="n">
-        <v>0.511004</v>
+        <v>0.379847</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.416269</v>
+        <v>0.298693</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5541779999999999</v>
+        <v>0.445855</v>
       </c>
       <c r="D8" t="n">
-        <v>0.514602</v>
+        <v>0.380174</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.415436</v>
+        <v>0.297356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.554399</v>
+        <v>0.449469</v>
       </c>
       <c r="D9" t="n">
-        <v>0.523418</v>
+        <v>0.386177</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.420098</v>
+        <v>0.298008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.57095</v>
+        <v>0.459304</v>
       </c>
       <c r="D10" t="n">
-        <v>0.529782</v>
+        <v>0.390138</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.428032</v>
+        <v>0.301364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.552427</v>
+        <v>0.449186</v>
       </c>
       <c r="D11" t="n">
-        <v>0.531265</v>
+        <v>0.395519</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.419381</v>
+        <v>0.304603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.555749</v>
+        <v>0.450433</v>
       </c>
       <c r="D12" t="n">
-        <v>0.544767</v>
+        <v>0.399093</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.420402</v>
+        <v>0.305302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.554658</v>
+        <v>0.455518</v>
       </c>
       <c r="D13" t="n">
-        <v>0.546404</v>
+        <v>0.401953</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.42794</v>
+        <v>0.305618</v>
       </c>
       <c r="C14" t="n">
-        <v>0.568344</v>
+        <v>0.465985</v>
       </c>
       <c r="D14" t="n">
-        <v>0.540234</v>
+        <v>0.408515</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.417904</v>
+        <v>0.305843</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5756019999999999</v>
+        <v>0.46764</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5507030000000001</v>
+        <v>0.412484</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.427585</v>
+        <v>0.310671</v>
       </c>
       <c r="C16" t="n">
-        <v>0.579132</v>
+        <v>0.473696</v>
       </c>
       <c r="D16" t="n">
-        <v>0.554119</v>
+        <v>0.418356</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.455377</v>
+        <v>0.337436</v>
       </c>
       <c r="C17" t="n">
-        <v>0.58687</v>
+        <v>0.47891</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5578</v>
+        <v>0.424362</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.447792</v>
+        <v>0.338772</v>
       </c>
       <c r="C18" t="n">
-        <v>0.58775</v>
+        <v>0.48458</v>
       </c>
       <c r="D18" t="n">
-        <v>0.557288</v>
+        <v>0.428313</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.45385</v>
+        <v>0.341627</v>
       </c>
       <c r="C19" t="n">
-        <v>0.611005</v>
+        <v>0.495422</v>
       </c>
       <c r="D19" t="n">
-        <v>0.579165</v>
+        <v>0.432923</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.459209</v>
+        <v>0.344786</v>
       </c>
       <c r="C20" t="n">
-        <v>0.615499</v>
+        <v>0.499556</v>
       </c>
       <c r="D20" t="n">
-        <v>0.57597</v>
+        <v>0.439196</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.460433</v>
+        <v>0.344676</v>
       </c>
       <c r="C21" t="n">
-        <v>0.630054</v>
+        <v>0.505526</v>
       </c>
       <c r="D21" t="n">
-        <v>0.576321</v>
+        <v>0.444622</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.471269</v>
+        <v>0.346799</v>
       </c>
       <c r="C22" t="n">
-        <v>0.628587</v>
+        <v>0.513209</v>
       </c>
       <c r="D22" t="n">
-        <v>0.584247</v>
+        <v>0.447858</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.466754</v>
+        <v>0.34761</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6453140000000001</v>
+        <v>0.520627</v>
       </c>
       <c r="D23" t="n">
-        <v>0.595465</v>
+        <v>0.451814</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.47351</v>
+        <v>0.348806</v>
       </c>
       <c r="C24" t="n">
-        <v>0.647973</v>
+        <v>0.5293909999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.594508</v>
+        <v>0.458457</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.471971</v>
+        <v>0.351856</v>
       </c>
       <c r="C25" t="n">
-        <v>0.653446</v>
+        <v>0.538613</v>
       </c>
       <c r="D25" t="n">
-        <v>0.610606</v>
+        <v>0.46054</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.510891</v>
+        <v>0.352512</v>
       </c>
       <c r="C26" t="n">
-        <v>0.604464</v>
+        <v>0.498958</v>
       </c>
       <c r="D26" t="n">
-        <v>0.615608</v>
+        <v>0.464835</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.503955</v>
+        <v>0.351543</v>
       </c>
       <c r="C27" t="n">
-        <v>0.625691</v>
+        <v>0.501483</v>
       </c>
       <c r="D27" t="n">
-        <v>0.636303</v>
+        <v>0.471057</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.53155</v>
+        <v>0.35455</v>
       </c>
       <c r="C28" t="n">
-        <v>0.640891</v>
+        <v>0.508655</v>
       </c>
       <c r="D28" t="n">
-        <v>0.615552</v>
+        <v>0.473496</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.484233</v>
+        <v>0.35401</v>
       </c>
       <c r="C29" t="n">
-        <v>0.630911</v>
+        <v>0.510883</v>
       </c>
       <c r="D29" t="n">
-        <v>0.636057</v>
+        <v>0.477725</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.485028</v>
+        <v>0.355396</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6638770000000001</v>
+        <v>0.516432</v>
       </c>
       <c r="D30" t="n">
-        <v>0.661729</v>
+        <v>0.481887</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.499219</v>
+        <v>0.355689</v>
       </c>
       <c r="C31" t="n">
-        <v>0.668196</v>
+        <v>0.521559</v>
       </c>
       <c r="D31" t="n">
-        <v>0.653682</v>
+        <v>0.485301</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.55259</v>
+        <v>0.382122</v>
       </c>
       <c r="C32" t="n">
-        <v>0.681258</v>
+        <v>0.528901</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6966639999999999</v>
+        <v>0.487436</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.57403</v>
+        <v>0.383728</v>
       </c>
       <c r="C33" t="n">
-        <v>0.713771</v>
+        <v>0.535154</v>
       </c>
       <c r="D33" t="n">
-        <v>0.708747</v>
+        <v>0.491219</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.565823</v>
+        <v>0.383952</v>
       </c>
       <c r="C34" t="n">
-        <v>0.729817</v>
+        <v>0.542821</v>
       </c>
       <c r="D34" t="n">
-        <v>0.729191</v>
+        <v>0.493629</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.576663</v>
+        <v>0.383852</v>
       </c>
       <c r="C35" t="n">
-        <v>0.722375</v>
+        <v>0.546925</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7495849999999999</v>
+        <v>0.498247</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.606919</v>
+        <v>0.386094</v>
       </c>
       <c r="C36" t="n">
-        <v>0.785453</v>
+        <v>0.558673</v>
       </c>
       <c r="D36" t="n">
-        <v>0.765435</v>
+        <v>0.500352</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.625042</v>
+        <v>0.386037</v>
       </c>
       <c r="C37" t="n">
-        <v>0.785944</v>
+        <v>0.565921</v>
       </c>
       <c r="D37" t="n">
-        <v>0.778514</v>
+        <v>0.503242</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.623057</v>
+        <v>0.386172</v>
       </c>
       <c r="C38" t="n">
-        <v>0.821475</v>
+        <v>0.571983</v>
       </c>
       <c r="D38" t="n">
-        <v>0.772683</v>
+        <v>0.505842</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.631791</v>
+        <v>0.386796</v>
       </c>
       <c r="C39" t="n">
-        <v>0.843024</v>
+        <v>0.580692</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8237409999999999</v>
+        <v>0.510972</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.646945</v>
+        <v>0.387448</v>
       </c>
       <c r="C40" t="n">
-        <v>0.802385</v>
+        <v>0.545502</v>
       </c>
       <c r="D40" t="n">
-        <v>0.845309</v>
+        <v>0.511795</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.664613</v>
+        <v>0.387954</v>
       </c>
       <c r="C41" t="n">
-        <v>0.813172</v>
+        <v>0.551262</v>
       </c>
       <c r="D41" t="n">
-        <v>0.853178</v>
+        <v>0.513441</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.667193</v>
+        <v>0.389564</v>
       </c>
       <c r="C42" t="n">
-        <v>0.835458</v>
+        <v>0.556411</v>
       </c>
       <c r="D42" t="n">
-        <v>0.882149</v>
+        <v>0.5152099999999999</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.676893</v>
+        <v>0.38951</v>
       </c>
       <c r="C43" t="n">
-        <v>0.883471</v>
+        <v>0.562114</v>
       </c>
       <c r="D43" t="n">
-        <v>0.903407</v>
+        <v>0.51751</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.704719</v>
+        <v>0.389571</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9023640000000001</v>
+        <v>0.566759</v>
       </c>
       <c r="D44" t="n">
-        <v>0.921072</v>
+        <v>0.521432</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.696873</v>
+        <v>0.388537</v>
       </c>
       <c r="C45" t="n">
-        <v>0.924612</v>
+        <v>0.572017</v>
       </c>
       <c r="D45" t="n">
-        <v>0.96514</v>
+        <v>0.521796</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.821067</v>
+        <v>0.40818</v>
       </c>
       <c r="C46" t="n">
-        <v>0.987544</v>
+        <v>0.578309</v>
       </c>
       <c r="D46" t="n">
-        <v>0.994968</v>
+        <v>0.525194</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.807777</v>
+        <v>0.408762</v>
       </c>
       <c r="C47" t="n">
-        <v>0.996515</v>
+        <v>0.5843739999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>1.02127</v>
+        <v>0.526397</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.856537</v>
+        <v>0.409549</v>
       </c>
       <c r="C48" t="n">
-        <v>1.07283</v>
+        <v>0.591442</v>
       </c>
       <c r="D48" t="n">
-        <v>1.05643</v>
+        <v>0.528694</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.873331</v>
+        <v>0.410776</v>
       </c>
       <c r="C49" t="n">
-        <v>1.06209</v>
+        <v>0.5987209999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>1.07233</v>
+        <v>0.5314680000000001</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.870054</v>
+        <v>0.410187</v>
       </c>
       <c r="C50" t="n">
-        <v>1.11073</v>
+        <v>0.605715</v>
       </c>
       <c r="D50" t="n">
-        <v>1.13433</v>
+        <v>0.5329739999999999</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.896794</v>
+        <v>0.410415</v>
       </c>
       <c r="C51" t="n">
-        <v>1.17436</v>
+        <v>0.61091</v>
       </c>
       <c r="D51" t="n">
-        <v>1.15681</v>
+        <v>0.5353560000000001</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.914959</v>
+        <v>0.411445</v>
       </c>
       <c r="C52" t="n">
-        <v>1.21175</v>
+        <v>0.61815</v>
       </c>
       <c r="D52" t="n">
-        <v>1.17005</v>
+        <v>0.53722</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.946418</v>
+        <v>0.410463</v>
       </c>
       <c r="C53" t="n">
-        <v>1.24821</v>
+        <v>0.626274</v>
       </c>
       <c r="D53" t="n">
-        <v>1.18523</v>
+        <v>0.538761</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.973012</v>
+        <v>0.411592</v>
       </c>
       <c r="C54" t="n">
-        <v>1.32936</v>
+        <v>0.584589</v>
       </c>
       <c r="D54" t="n">
-        <v>1.29951</v>
+        <v>0.539242</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.00801</v>
+        <v>0.411989</v>
       </c>
       <c r="C55" t="n">
-        <v>1.30833</v>
+        <v>0.5854470000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>1.3328</v>
+        <v>0.54087</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.02427</v>
+        <v>0.410506</v>
       </c>
       <c r="C56" t="n">
-        <v>1.35751</v>
+        <v>0.593821</v>
       </c>
       <c r="D56" t="n">
-        <v>1.40104</v>
+        <v>0.543392</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.0771</v>
+        <v>0.41218</v>
       </c>
       <c r="C57" t="n">
-        <v>1.4512</v>
+        <v>0.598128</v>
       </c>
       <c r="D57" t="n">
-        <v>1.47194</v>
+        <v>0.545696</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.10961</v>
+        <v>0.415081</v>
       </c>
       <c r="C58" t="n">
-        <v>1.52567</v>
+        <v>0.607132</v>
       </c>
       <c r="D58" t="n">
-        <v>1.47409</v>
+        <v>0.553135</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.13962</v>
+        <v>0.418014</v>
       </c>
       <c r="C59" t="n">
-        <v>1.5517</v>
+        <v>0.619039</v>
       </c>
       <c r="D59" t="n">
-        <v>1.52152</v>
+        <v>0.555858</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.31223</v>
+        <v>0.432463</v>
       </c>
       <c r="C60" t="n">
-        <v>1.58588</v>
+        <v>0.619834</v>
       </c>
       <c r="D60" t="n">
-        <v>1.58732</v>
+        <v>0.56057</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.35185</v>
+        <v>0.437773</v>
       </c>
       <c r="C61" t="n">
-        <v>1.69958</v>
+        <v>0.634269</v>
       </c>
       <c r="D61" t="n">
-        <v>1.67098</v>
+        <v>0.5652470000000001</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.40073</v>
+        <v>0.435679</v>
       </c>
       <c r="C62" t="n">
-        <v>1.70467</v>
+        <v>0.641692</v>
       </c>
       <c r="D62" t="n">
-        <v>1.7474</v>
+        <v>0.571554</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.42679</v>
+        <v>0.437704</v>
       </c>
       <c r="C63" t="n">
-        <v>1.89489</v>
+        <v>0.656191</v>
       </c>
       <c r="D63" t="n">
-        <v>1.79633</v>
+        <v>0.576608</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.47691</v>
+        <v>0.441968</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9756</v>
+        <v>0.662617</v>
       </c>
       <c r="D64" t="n">
-        <v>1.84925</v>
+        <v>0.581341</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.55144</v>
+        <v>0.443624</v>
       </c>
       <c r="C65" t="n">
-        <v>2.12839</v>
+        <v>0.679171</v>
       </c>
       <c r="D65" t="n">
-        <v>1.97545</v>
+        <v>0.594072</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.55382</v>
+        <v>0.4459</v>
       </c>
       <c r="C66" t="n">
-        <v>2.13049</v>
+        <v>0.696167</v>
       </c>
       <c r="D66" t="n">
-        <v>1.97204</v>
+        <v>0.596343</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.56378</v>
+        <v>0.450932</v>
       </c>
       <c r="C67" t="n">
-        <v>2.22084</v>
+        <v>0.712965</v>
       </c>
       <c r="D67" t="n">
-        <v>2.08922</v>
+        <v>0.606066</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.59818</v>
+        <v>0.455101</v>
       </c>
       <c r="C68" t="n">
-        <v>2.1531</v>
+        <v>0.659369</v>
       </c>
       <c r="D68" t="n">
-        <v>2.21813</v>
+        <v>0.6263339999999999</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.63102</v>
+        <v>0.462269</v>
       </c>
       <c r="C69" t="n">
-        <v>2.22586</v>
+        <v>0.67613</v>
       </c>
       <c r="D69" t="n">
-        <v>2.25991</v>
+        <v>0.639507</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.7177</v>
+        <v>0.46425</v>
       </c>
       <c r="C70" t="n">
-        <v>2.32891</v>
+        <v>0.704691</v>
       </c>
       <c r="D70" t="n">
-        <v>2.44213</v>
+        <v>0.651768</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.76971</v>
+        <v>0.47029</v>
       </c>
       <c r="C71" t="n">
-        <v>2.35527</v>
+        <v>0.743881</v>
       </c>
       <c r="D71" t="n">
-        <v>2.49207</v>
+        <v>0.666794</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.80466</v>
+        <v>0.478591</v>
       </c>
       <c r="C72" t="n">
-        <v>2.4476</v>
+        <v>0.772574</v>
       </c>
       <c r="D72" t="n">
-        <v>2.56198</v>
+        <v>0.675557</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.8283</v>
+        <v>0.483321</v>
       </c>
       <c r="C73" t="n">
-        <v>2.50327</v>
+        <v>0.812161</v>
       </c>
       <c r="D73" t="n">
-        <v>2.50686</v>
+        <v>0.690007</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.93232</v>
+        <v>0.524089</v>
       </c>
       <c r="C74" t="n">
-        <v>2.56208</v>
+        <v>0.848267</v>
       </c>
       <c r="D74" t="n">
-        <v>2.63216</v>
+        <v>0.704257</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>2.0516</v>
+        <v>0.543632</v>
       </c>
       <c r="C75" t="n">
-        <v>2.61377</v>
+        <v>0.883086</v>
       </c>
       <c r="D75" t="n">
-        <v>2.62226</v>
+        <v>0.71897</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.03044</v>
+        <v>0.558824</v>
       </c>
       <c r="C76" t="n">
-        <v>2.53044</v>
+        <v>0.911487</v>
       </c>
       <c r="D76" t="n">
-        <v>2.7061</v>
+        <v>0.731635</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.08691</v>
+        <v>0.574481</v>
       </c>
       <c r="C77" t="n">
-        <v>2.72275</v>
+        <v>0.9465980000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>2.86017</v>
+        <v>0.748505</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.08766</v>
+        <v>0.6093460000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>2.671</v>
+        <v>0.979653</v>
       </c>
       <c r="D78" t="n">
-        <v>2.94324</v>
+        <v>0.785337</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.10914</v>
+        <v>0.639314</v>
       </c>
       <c r="C79" t="n">
-        <v>2.75936</v>
+        <v>1.02536</v>
       </c>
       <c r="D79" t="n">
-        <v>2.96402</v>
+        <v>0.8123</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.13678</v>
+        <v>0.6707</v>
       </c>
       <c r="C80" t="n">
-        <v>2.81317</v>
+        <v>1.0749</v>
       </c>
       <c r="D80" t="n">
-        <v>3.01751</v>
+        <v>0.850481</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.16574</v>
+        <v>0.706314</v>
       </c>
       <c r="C81" t="n">
-        <v>2.89292</v>
+        <v>1.13014</v>
       </c>
       <c r="D81" t="n">
-        <v>3.10116</v>
+        <v>0.892198</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.2037</v>
+        <v>0.745941</v>
       </c>
       <c r="C82" t="n">
-        <v>2.96412</v>
+        <v>1.1865</v>
       </c>
       <c r="D82" t="n">
-        <v>3.04351</v>
+        <v>0.953416</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.30268</v>
+        <v>0.78651</v>
       </c>
       <c r="C83" t="n">
-        <v>2.9249</v>
+        <v>1.18038</v>
       </c>
       <c r="D83" t="n">
-        <v>3.33814</v>
+        <v>1.08563</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.28885</v>
+        <v>0.823726</v>
       </c>
       <c r="C84" t="n">
-        <v>2.9622</v>
+        <v>1.24416</v>
       </c>
       <c r="D84" t="n">
-        <v>3.27966</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.28201</v>
+        <v>0.861781</v>
       </c>
       <c r="C85" t="n">
-        <v>3.05818</v>
+        <v>1.29934</v>
       </c>
       <c r="D85" t="n">
-        <v>3.45447</v>
+        <v>1.24908</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.36132</v>
+        <v>0.900173</v>
       </c>
       <c r="C86" t="n">
-        <v>3.08377</v>
+        <v>1.35774</v>
       </c>
       <c r="D86" t="n">
-        <v>3.43334</v>
+        <v>1.33196</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.35135</v>
+        <v>0.933233</v>
       </c>
       <c r="C87" t="n">
-        <v>3.12435</v>
+        <v>1.42727</v>
       </c>
       <c r="D87" t="n">
-        <v>3.41618</v>
+        <v>1.40817</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.35726</v>
+        <v>0.966581</v>
       </c>
       <c r="C88" t="n">
-        <v>3.27258</v>
+        <v>1.50356</v>
       </c>
       <c r="D88" t="n">
-        <v>3.46857</v>
+        <v>1.48892</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.56039</v>
+        <v>1.16405</v>
       </c>
       <c r="C89" t="n">
-        <v>3.26504</v>
+        <v>1.57872</v>
       </c>
       <c r="D89" t="n">
-        <v>3.48335</v>
+        <v>1.55498</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.5638</v>
+        <v>1.18783</v>
       </c>
       <c r="C90" t="n">
-        <v>3.3981</v>
+        <v>1.64685</v>
       </c>
       <c r="D90" t="n">
-        <v>3.53567</v>
+        <v>1.63352</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.53413</v>
+        <v>1.21753</v>
       </c>
       <c r="C91" t="n">
-        <v>3.47093</v>
+        <v>1.71735</v>
       </c>
       <c r="D91" t="n">
-        <v>3.54047</v>
+        <v>1.69198</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.54187</v>
+        <v>1.24635</v>
       </c>
       <c r="C92" t="n">
-        <v>3.5402</v>
+        <v>1.78913</v>
       </c>
       <c r="D92" t="n">
-        <v>3.60762</v>
+        <v>1.76244</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.61349</v>
+        <v>1.27215</v>
       </c>
       <c r="C93" t="n">
-        <v>3.53559</v>
+        <v>1.86277</v>
       </c>
       <c r="D93" t="n">
-        <v>3.68526</v>
+        <v>1.82252</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.6022</v>
+        <v>1.3016</v>
       </c>
       <c r="C94" t="n">
-        <v>3.62406</v>
+        <v>1.94048</v>
       </c>
       <c r="D94" t="n">
-        <v>3.67944</v>
+        <v>1.88198</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.58759</v>
+        <v>1.3222</v>
       </c>
       <c r="C95" t="n">
-        <v>3.70753</v>
+        <v>2.01875</v>
       </c>
       <c r="D95" t="n">
-        <v>3.71701</v>
+        <v>1.94693</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.59544</v>
+        <v>1.35049</v>
       </c>
       <c r="C96" t="n">
-        <v>3.83547</v>
+        <v>2.11481</v>
       </c>
       <c r="D96" t="n">
-        <v>3.84881</v>
+        <v>2.00332</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.64137</v>
+        <v>1.36964</v>
       </c>
       <c r="C97" t="n">
-        <v>3.37423</v>
+        <v>1.96944</v>
       </c>
       <c r="D97" t="n">
-        <v>3.89728</v>
+        <v>2.15168</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.63566</v>
+        <v>1.40912</v>
       </c>
       <c r="C98" t="n">
-        <v>3.47946</v>
+        <v>2.04802</v>
       </c>
       <c r="D98" t="n">
-        <v>3.86539</v>
+        <v>2.20773</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.64851</v>
+        <v>1.43182</v>
       </c>
       <c r="C99" t="n">
-        <v>3.54187</v>
+        <v>2.09957</v>
       </c>
       <c r="D99" t="n">
-        <v>3.87972</v>
+        <v>2.26558</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.6724</v>
+        <v>1.44667</v>
       </c>
       <c r="C100" t="n">
-        <v>3.57416</v>
+        <v>2.15878</v>
       </c>
       <c r="D100" t="n">
-        <v>3.89227</v>
+        <v>2.3062</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.69865</v>
+        <v>1.46984</v>
       </c>
       <c r="C101" t="n">
-        <v>3.67778</v>
+        <v>2.21788</v>
       </c>
       <c r="D101" t="n">
-        <v>3.98811</v>
+        <v>2.34979</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.71449</v>
+        <v>1.48301</v>
       </c>
       <c r="C102" t="n">
-        <v>3.70025</v>
+        <v>2.27555</v>
       </c>
       <c r="D102" t="n">
-        <v>3.94518</v>
+        <v>2.39375</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.8801</v>
+        <v>1.70246</v>
       </c>
       <c r="C103" t="n">
-        <v>3.75228</v>
+        <v>2.33233</v>
       </c>
       <c r="D103" t="n">
-        <v>3.98773</v>
+        <v>2.43145</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.86155</v>
+        <v>1.72223</v>
       </c>
       <c r="C104" t="n">
-        <v>3.79251</v>
+        <v>2.406</v>
       </c>
       <c r="D104" t="n">
-        <v>4.01136</v>
+        <v>2.46703</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.82918</v>
+        <v>1.74602</v>
       </c>
       <c r="C105" t="n">
-        <v>3.86881</v>
+        <v>2.46507</v>
       </c>
       <c r="D105" t="n">
-        <v>4.08729</v>
+        <v>2.51143</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.91669</v>
+        <v>1.75442</v>
       </c>
       <c r="C106" t="n">
-        <v>3.97398</v>
+        <v>2.52993</v>
       </c>
       <c r="D106" t="n">
-        <v>4.09589</v>
+        <v>2.552</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.86528</v>
+        <v>1.77451</v>
       </c>
       <c r="C107" t="n">
-        <v>4.07303</v>
+        <v>2.60553</v>
       </c>
       <c r="D107" t="n">
-        <v>4.11718</v>
+        <v>2.5809</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.90396</v>
+        <v>1.78874</v>
       </c>
       <c r="C108" t="n">
-        <v>4.11417</v>
+        <v>2.67127</v>
       </c>
       <c r="D108" t="n">
-        <v>4.13245</v>
+        <v>2.60539</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.92643</v>
+        <v>1.80469</v>
       </c>
       <c r="C109" t="n">
-        <v>4.21683</v>
+        <v>2.75295</v>
       </c>
       <c r="D109" t="n">
-        <v>4.15959</v>
+        <v>2.64123</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.91632</v>
+        <v>1.82164</v>
       </c>
       <c r="C110" t="n">
-        <v>4.30678</v>
+        <v>2.82194</v>
       </c>
       <c r="D110" t="n">
-        <v>4.21422</v>
+        <v>2.68131</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.92381</v>
+        <v>1.83622</v>
       </c>
       <c r="C111" t="n">
-        <v>3.83108</v>
+        <v>2.57625</v>
       </c>
       <c r="D111" t="n">
-        <v>4.3338</v>
+        <v>2.80017</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.00496</v>
+        <v>1.84686</v>
       </c>
       <c r="C112" t="n">
-        <v>3.97047</v>
+        <v>2.61649</v>
       </c>
       <c r="D112" t="n">
-        <v>4.36581</v>
+        <v>2.82823</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.981</v>
+        <v>1.86066</v>
       </c>
       <c r="C113" t="n">
-        <v>4.02187</v>
+        <v>2.6574</v>
       </c>
       <c r="D113" t="n">
-        <v>4.36648</v>
+        <v>2.85553</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.04141</v>
+        <v>1.87199</v>
       </c>
       <c r="C114" t="n">
-        <v>4.05954</v>
+        <v>2.71823</v>
       </c>
       <c r="D114" t="n">
-        <v>4.4622</v>
+        <v>2.88434</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.0342</v>
+        <v>1.88562</v>
       </c>
       <c r="C115" t="n">
-        <v>4.08056</v>
+        <v>2.76647</v>
       </c>
       <c r="D115" t="n">
-        <v>4.49191</v>
+        <v>2.91185</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.08433</v>
+        <v>1.8995</v>
       </c>
       <c r="C116" t="n">
-        <v>4.2842</v>
+        <v>2.82523</v>
       </c>
       <c r="D116" t="n">
-        <v>4.57738</v>
+        <v>2.93586</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.30796</v>
+        <v>2.07659</v>
       </c>
       <c r="C117" t="n">
-        <v>4.40415</v>
+        <v>2.88194</v>
       </c>
       <c r="D117" t="n">
-        <v>4.68644</v>
+        <v>2.95099</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.36073</v>
+        <v>2.09499</v>
       </c>
       <c r="C118" t="n">
-        <v>4.44814</v>
+        <v>2.93917</v>
       </c>
       <c r="D118" t="n">
-        <v>4.76774</v>
+        <v>2.97563</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.38723</v>
+        <v>2.10614</v>
       </c>
       <c r="C119" t="n">
-        <v>4.58295</v>
+        <v>3.00858</v>
       </c>
       <c r="D119" t="n">
-        <v>4.80038</v>
+        <v>3.00835</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273565</v>
+        <v>0.274367</v>
       </c>
       <c r="C2" t="n">
-        <v>0.281309</v>
+        <v>0.280862</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249767</v>
+        <v>0.25148</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.278055</v>
+        <v>0.275912</v>
       </c>
       <c r="C3" t="n">
-        <v>0.282199</v>
+        <v>0.281373</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255094</v>
+        <v>0.254878</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.283812</v>
+        <v>0.281488</v>
       </c>
       <c r="C4" t="n">
-        <v>0.285416</v>
+        <v>0.283764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260976</v>
+        <v>0.261693</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.287447</v>
+        <v>0.288084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.286342</v>
+        <v>0.287494</v>
       </c>
       <c r="D5" t="n">
-        <v>0.265396</v>
+        <v>0.264848</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.292558</v>
+        <v>0.292725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.289427</v>
+        <v>0.290729</v>
       </c>
       <c r="D6" t="n">
-        <v>0.267675</v>
+        <v>0.268425</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.29699</v>
+        <v>0.298325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.28114</v>
+        <v>0.281315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.265716</v>
+        <v>0.265289</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.305817</v>
+        <v>0.302331</v>
       </c>
       <c r="C8" t="n">
-        <v>0.283238</v>
+        <v>0.283796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270267</v>
+        <v>0.270849</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.307439</v>
+        <v>0.306773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.283742</v>
+        <v>0.283802</v>
       </c>
       <c r="D9" t="n">
-        <v>0.274441</v>
+        <v>0.275225</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.312921</v>
+        <v>0.311728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.285326</v>
+        <v>0.285458</v>
       </c>
       <c r="D10" t="n">
-        <v>0.27841</v>
+        <v>0.280369</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.317567</v>
+        <v>0.317271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.286981</v>
+        <v>0.289402</v>
       </c>
       <c r="D11" t="n">
-        <v>0.283915</v>
+        <v>0.28341</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.323271</v>
+        <v>0.324157</v>
       </c>
       <c r="C12" t="n">
-        <v>0.287573</v>
+        <v>0.288374</v>
       </c>
       <c r="D12" t="n">
-        <v>0.287418</v>
+        <v>0.288785</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.308487</v>
+        <v>0.307797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.290234</v>
+        <v>0.290472</v>
       </c>
       <c r="D13" t="n">
-        <v>0.291603</v>
+        <v>0.292557</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.310468</v>
+        <v>0.309966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.290347</v>
+        <v>0.290668</v>
       </c>
       <c r="D14" t="n">
-        <v>0.294261</v>
+        <v>0.296703</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.313903</v>
+        <v>0.313886</v>
       </c>
       <c r="C15" t="n">
-        <v>0.291756</v>
+        <v>0.293439</v>
       </c>
       <c r="D15" t="n">
-        <v>0.299622</v>
+        <v>0.302094</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.319122</v>
+        <v>0.318278</v>
       </c>
       <c r="C16" t="n">
-        <v>0.294364</v>
+        <v>0.295207</v>
       </c>
       <c r="D16" t="n">
-        <v>0.305577</v>
+        <v>0.307023</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.323137</v>
+        <v>0.32245</v>
       </c>
       <c r="C17" t="n">
-        <v>0.297692</v>
+        <v>0.297574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.309502</v>
+        <v>0.312242</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.327722</v>
+        <v>0.326968</v>
       </c>
       <c r="C18" t="n">
-        <v>0.300761</v>
+        <v>0.301884</v>
       </c>
       <c r="D18" t="n">
-        <v>0.316226</v>
+        <v>0.317814</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.331413</v>
+        <v>0.331425</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30277</v>
+        <v>0.302494</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320801</v>
+        <v>0.321938</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.337202</v>
+        <v>0.336998</v>
       </c>
       <c r="C20" t="n">
-        <v>0.305883</v>
+        <v>0.305793</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3252</v>
+        <v>0.325977</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.341323</v>
+        <v>0.341059</v>
       </c>
       <c r="C21" t="n">
-        <v>0.296467</v>
+        <v>0.296958</v>
       </c>
       <c r="D21" t="n">
-        <v>0.320491</v>
+        <v>0.322038</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.345069</v>
+        <v>0.344455</v>
       </c>
       <c r="C22" t="n">
-        <v>0.297746</v>
+        <v>0.298802</v>
       </c>
       <c r="D22" t="n">
-        <v>0.324925</v>
+        <v>0.324953</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.349412</v>
+        <v>0.34885</v>
       </c>
       <c r="C23" t="n">
-        <v>0.298107</v>
+        <v>0.299746</v>
       </c>
       <c r="D23" t="n">
-        <v>0.327046</v>
+        <v>0.32835</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.354169</v>
+        <v>0.353366</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299617</v>
+        <v>0.301561</v>
       </c>
       <c r="D24" t="n">
-        <v>0.331343</v>
+        <v>0.333099</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.357897</v>
+        <v>0.357435</v>
       </c>
       <c r="C25" t="n">
-        <v>0.301788</v>
+        <v>0.303245</v>
       </c>
       <c r="D25" t="n">
-        <v>0.334514</v>
+        <v>0.336256</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.362152</v>
+        <v>0.362287</v>
       </c>
       <c r="C26" t="n">
-        <v>0.303198</v>
+        <v>0.302569</v>
       </c>
       <c r="D26" t="n">
-        <v>0.337622</v>
+        <v>0.339224</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.342087</v>
+        <v>0.33959</v>
       </c>
       <c r="C27" t="n">
-        <v>0.303935</v>
+        <v>0.305112</v>
       </c>
       <c r="D27" t="n">
-        <v>0.340604</v>
+        <v>0.341769</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.343489</v>
+        <v>0.342305</v>
       </c>
       <c r="C28" t="n">
-        <v>0.305926</v>
+        <v>0.305968</v>
       </c>
       <c r="D28" t="n">
-        <v>0.344125</v>
+        <v>0.345289</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.347876</v>
+        <v>0.3454</v>
       </c>
       <c r="C29" t="n">
-        <v>0.310054</v>
+        <v>0.310366</v>
       </c>
       <c r="D29" t="n">
-        <v>0.349046</v>
+        <v>0.350563</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.350467</v>
+        <v>0.350408</v>
       </c>
       <c r="C30" t="n">
-        <v>0.311081</v>
+        <v>0.311511</v>
       </c>
       <c r="D30" t="n">
-        <v>0.352088</v>
+        <v>0.35265</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.354412</v>
+        <v>0.35329</v>
       </c>
       <c r="C31" t="n">
-        <v>0.313757</v>
+        <v>0.31357</v>
       </c>
       <c r="D31" t="n">
-        <v>0.355666</v>
+        <v>0.356701</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.357297</v>
+        <v>0.356168</v>
       </c>
       <c r="C32" t="n">
-        <v>0.315583</v>
+        <v>0.316437</v>
       </c>
       <c r="D32" t="n">
-        <v>0.359095</v>
+        <v>0.359845</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.36165</v>
+        <v>0.359541</v>
       </c>
       <c r="C33" t="n">
-        <v>0.319919</v>
+        <v>0.32089</v>
       </c>
       <c r="D33" t="n">
-        <v>0.362934</v>
+        <v>0.363668</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.365074</v>
+        <v>0.36278</v>
       </c>
       <c r="C34" t="n">
-        <v>0.321976</v>
+        <v>0.323576</v>
       </c>
       <c r="D34" t="n">
-        <v>0.365942</v>
+        <v>0.366572</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.367955</v>
+        <v>0.365633</v>
       </c>
       <c r="C35" t="n">
-        <v>0.311732</v>
+        <v>0.311928</v>
       </c>
       <c r="D35" t="n">
-        <v>0.354841</v>
+        <v>0.356282</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.370588</v>
+        <v>0.369594</v>
       </c>
       <c r="C36" t="n">
-        <v>0.312739</v>
+        <v>0.313191</v>
       </c>
       <c r="D36" t="n">
-        <v>0.357101</v>
+        <v>0.3584</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.374296</v>
+        <v>0.373403</v>
       </c>
       <c r="C37" t="n">
-        <v>0.312578</v>
+        <v>0.314205</v>
       </c>
       <c r="D37" t="n">
-        <v>0.359525</v>
+        <v>0.361214</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.377161</v>
+        <v>0.378511</v>
       </c>
       <c r="C38" t="n">
-        <v>0.314288</v>
+        <v>0.314648</v>
       </c>
       <c r="D38" t="n">
-        <v>0.362352</v>
+        <v>0.363369</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.380757</v>
+        <v>0.380847</v>
       </c>
       <c r="C39" t="n">
-        <v>0.315271</v>
+        <v>0.316199</v>
       </c>
       <c r="D39" t="n">
-        <v>0.364558</v>
+        <v>0.364947</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.386335</v>
+        <v>0.384346</v>
       </c>
       <c r="C40" t="n">
-        <v>0.317447</v>
+        <v>0.318162</v>
       </c>
       <c r="D40" t="n">
-        <v>0.367268</v>
+        <v>0.36727</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>0.362575</v>
+        <v>0.359634</v>
       </c>
       <c r="C41" t="n">
-        <v>0.32007</v>
+        <v>0.320986</v>
       </c>
       <c r="D41" t="n">
-        <v>0.369769</v>
+        <v>0.369773</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>0.362312</v>
+        <v>0.361022</v>
       </c>
       <c r="C42" t="n">
-        <v>0.322816</v>
+        <v>0.324464</v>
       </c>
       <c r="D42" t="n">
-        <v>0.371427</v>
+        <v>0.372663</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>0.366717</v>
+        <v>0.36549</v>
       </c>
       <c r="C43" t="n">
-        <v>0.324144</v>
+        <v>0.323876</v>
       </c>
       <c r="D43" t="n">
-        <v>0.373944</v>
+        <v>0.375446</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>0.368635</v>
+        <v>0.366464</v>
       </c>
       <c r="C44" t="n">
-        <v>0.32504</v>
+        <v>0.325192</v>
       </c>
       <c r="D44" t="n">
-        <v>0.376385</v>
+        <v>0.37784</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>0.37098</v>
+        <v>0.369689</v>
       </c>
       <c r="C45" t="n">
-        <v>0.327711</v>
+        <v>0.32782</v>
       </c>
       <c r="D45" t="n">
-        <v>0.37922</v>
+        <v>0.380943</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>0.372815</v>
+        <v>0.373332</v>
       </c>
       <c r="C46" t="n">
-        <v>0.328495</v>
+        <v>0.329498</v>
       </c>
       <c r="D46" t="n">
-        <v>0.381938</v>
+        <v>0.384063</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>0.375268</v>
+        <v>0.372317</v>
       </c>
       <c r="C47" t="n">
-        <v>0.332695</v>
+        <v>0.329857</v>
       </c>
       <c r="D47" t="n">
-        <v>0.385102</v>
+        <v>0.386001</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.383181</v>
+        <v>0.376698</v>
       </c>
       <c r="C48" t="n">
-        <v>0.335297</v>
+        <v>0.334362</v>
       </c>
       <c r="D48" t="n">
-        <v>0.388938</v>
+        <v>0.38903</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>0.382175</v>
+        <v>0.379432</v>
       </c>
       <c r="C49" t="n">
-        <v>0.336859</v>
+        <v>0.336662</v>
       </c>
       <c r="D49" t="n">
-        <v>0.390882</v>
+        <v>0.391202</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>0.38263</v>
+        <v>0.383275</v>
       </c>
       <c r="C50" t="n">
-        <v>0.32645</v>
+        <v>0.327922</v>
       </c>
       <c r="D50" t="n">
-        <v>0.378135</v>
+        <v>0.377921</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>0.391574</v>
+        <v>0.384948</v>
       </c>
       <c r="C51" t="n">
-        <v>0.330363</v>
+        <v>0.328523</v>
       </c>
       <c r="D51" t="n">
-        <v>0.378804</v>
+        <v>0.381957</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>0.390536</v>
+        <v>0.388872</v>
       </c>
       <c r="C52" t="n">
-        <v>0.330769</v>
+        <v>0.330038</v>
       </c>
       <c r="D52" t="n">
-        <v>0.382544</v>
+        <v>0.386444</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>0.392844</v>
+        <v>0.394232</v>
       </c>
       <c r="C53" t="n">
-        <v>0.333446</v>
+        <v>0.331336</v>
       </c>
       <c r="D53" t="n">
-        <v>0.382333</v>
+        <v>0.385315</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>0.395665</v>
+        <v>0.39761</v>
       </c>
       <c r="C54" t="n">
-        <v>0.33382</v>
+        <v>0.334978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.38482</v>
+        <v>0.386032</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>0.399485</v>
+        <v>0.40234</v>
       </c>
       <c r="C55" t="n">
-        <v>0.337292</v>
+        <v>0.338585</v>
       </c>
       <c r="D55" t="n">
-        <v>0.387644</v>
+        <v>0.387227</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>0.376626</v>
+        <v>0.382188</v>
       </c>
       <c r="C56" t="n">
-        <v>0.338202</v>
+        <v>0.338192</v>
       </c>
       <c r="D56" t="n">
-        <v>0.389142</v>
+        <v>0.394198</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>0.38265</v>
+        <v>0.381375</v>
       </c>
       <c r="C57" t="n">
-        <v>0.340121</v>
+        <v>0.341945</v>
       </c>
       <c r="D57" t="n">
-        <v>0.393577</v>
+        <v>0.395126</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>0.385932</v>
+        <v>0.385605</v>
       </c>
       <c r="C58" t="n">
-        <v>0.343102</v>
+        <v>0.342463</v>
       </c>
       <c r="D58" t="n">
-        <v>0.397606</v>
+        <v>0.394441</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>0.387344</v>
+        <v>0.38431</v>
       </c>
       <c r="C59" t="n">
-        <v>0.349219</v>
+        <v>0.350872</v>
       </c>
       <c r="D59" t="n">
-        <v>0.399709</v>
+        <v>0.397501</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>0.395294</v>
+        <v>0.387321</v>
       </c>
       <c r="C60" t="n">
-        <v>0.350044</v>
+        <v>0.349222</v>
       </c>
       <c r="D60" t="n">
-        <v>0.404211</v>
+        <v>0.403319</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>0.399831</v>
+        <v>0.411206</v>
       </c>
       <c r="C61" t="n">
-        <v>0.354535</v>
+        <v>0.35793</v>
       </c>
       <c r="D61" t="n">
-        <v>0.406941</v>
+        <v>0.408588</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>0.402007</v>
+        <v>0.412741</v>
       </c>
       <c r="C62" t="n">
-        <v>0.358615</v>
+        <v>0.360146</v>
       </c>
       <c r="D62" t="n">
-        <v>0.413191</v>
+        <v>0.413728</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>0.414521</v>
+        <v>0.403034</v>
       </c>
       <c r="C63" t="n">
-        <v>0.365922</v>
+        <v>0.360686</v>
       </c>
       <c r="D63" t="n">
-        <v>0.421411</v>
+        <v>0.414755</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>0.419987</v>
+        <v>0.423815</v>
       </c>
       <c r="C64" t="n">
-        <v>0.376626</v>
+        <v>0.382462</v>
       </c>
       <c r="D64" t="n">
-        <v>0.41883</v>
+        <v>0.411504</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>0.431811</v>
+        <v>0.431543</v>
       </c>
       <c r="C65" t="n">
-        <v>0.383463</v>
+        <v>0.405848</v>
       </c>
       <c r="D65" t="n">
-        <v>0.421152</v>
+        <v>0.423302</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>0.439132</v>
+        <v>0.442765</v>
       </c>
       <c r="C66" t="n">
-        <v>0.457269</v>
+        <v>0.411676</v>
       </c>
       <c r="D66" t="n">
-        <v>0.440498</v>
+        <v>0.443482</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>0.463526</v>
+        <v>0.451112</v>
       </c>
       <c r="C67" t="n">
-        <v>0.436102</v>
+        <v>0.437458</v>
       </c>
       <c r="D67" t="n">
-        <v>0.454541</v>
+        <v>0.446806</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>0.47511</v>
+        <v>0.4669</v>
       </c>
       <c r="C68" t="n">
-        <v>0.457327</v>
+        <v>0.459782</v>
       </c>
       <c r="D68" t="n">
-        <v>0.459293</v>
+        <v>0.468326</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>0.483422</v>
+        <v>0.494439</v>
       </c>
       <c r="C69" t="n">
-        <v>0.481851</v>
+        <v>0.517107</v>
       </c>
       <c r="D69" t="n">
-        <v>0.479009</v>
+        <v>0.489503</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>0.67418</v>
+        <v>0.686411</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5149899999999999</v>
+        <v>0.526796</v>
       </c>
       <c r="D70" t="n">
-        <v>0.486272</v>
+        <v>0.488597</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>0.71635</v>
+        <v>0.718153</v>
       </c>
       <c r="C71" t="n">
-        <v>0.554432</v>
+        <v>0.55648</v>
       </c>
       <c r="D71" t="n">
-        <v>0.498512</v>
+        <v>0.513929</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>0.75049</v>
+        <v>0.767477</v>
       </c>
       <c r="C72" t="n">
-        <v>0.575614</v>
+        <v>0.568349</v>
       </c>
       <c r="D72" t="n">
-        <v>0.527855</v>
+        <v>0.520798</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>0.801175</v>
+        <v>0.80921</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5933850000000001</v>
+        <v>0.6093150000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.558683</v>
+        <v>0.533405</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>0.84097</v>
+        <v>0.85231</v>
       </c>
       <c r="C74" t="n">
-        <v>0.635524</v>
+        <v>0.6349939999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.599577</v>
+        <v>0.590153</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>0.882735</v>
+        <v>0.89935</v>
       </c>
       <c r="C75" t="n">
-        <v>0.658677</v>
+        <v>0.661399</v>
       </c>
       <c r="D75" t="n">
-        <v>0.610047</v>
+        <v>0.5976050000000001</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>0.933482</v>
+        <v>0.932423</v>
       </c>
       <c r="C76" t="n">
-        <v>0.683706</v>
+        <v>0.695882</v>
       </c>
       <c r="D76" t="n">
-        <v>0.632059</v>
+        <v>0.664309</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>0.973727</v>
+        <v>0.972174</v>
       </c>
       <c r="C77" t="n">
-        <v>0.715639</v>
+        <v>0.709364</v>
       </c>
       <c r="D77" t="n">
-        <v>0.679578</v>
+        <v>0.693653</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>1.01366</v>
+        <v>1.01787</v>
       </c>
       <c r="C78" t="n">
-        <v>0.870968</v>
+        <v>0.883748</v>
       </c>
       <c r="D78" t="n">
-        <v>0.958309</v>
+        <v>0.975258</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>1.05111</v>
+        <v>1.06683</v>
       </c>
       <c r="C79" t="n">
-        <v>0.899583</v>
+        <v>0.899313</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0125</v>
+        <v>1.03058</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>1.10265</v>
+        <v>1.11067</v>
       </c>
       <c r="C80" t="n">
-        <v>0.915509</v>
+        <v>0.917112</v>
       </c>
       <c r="D80" t="n">
-        <v>1.06861</v>
+        <v>1.07585</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>1.13782</v>
+        <v>1.15002</v>
       </c>
       <c r="C81" t="n">
-        <v>0.94007</v>
+        <v>0.937464</v>
       </c>
       <c r="D81" t="n">
-        <v>1.12822</v>
+        <v>1.12046</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>1.1826</v>
+        <v>1.19484</v>
       </c>
       <c r="C82" t="n">
-        <v>0.958714</v>
+        <v>0.96035</v>
       </c>
       <c r="D82" t="n">
-        <v>1.17261</v>
+        <v>1.17533</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>1.22518</v>
+        <v>1.22563</v>
       </c>
       <c r="C83" t="n">
-        <v>0.980728</v>
+        <v>0.9733270000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>1.23212</v>
+        <v>1.21673</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>1.42257</v>
+        <v>1.42383</v>
       </c>
       <c r="C84" t="n">
-        <v>0.998645</v>
+        <v>0.995837</v>
       </c>
       <c r="D84" t="n">
-        <v>1.26324</v>
+        <v>1.26705</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>1.44688</v>
+        <v>1.44528</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01306</v>
+        <v>1.01096</v>
       </c>
       <c r="D85" t="n">
-        <v>1.30652</v>
+        <v>1.30985</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>1.47577</v>
+        <v>1.48144</v>
       </c>
       <c r="C86" t="n">
-        <v>1.03211</v>
+        <v>1.02611</v>
       </c>
       <c r="D86" t="n">
-        <v>1.35386</v>
+        <v>1.35299</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>1.50515</v>
+        <v>1.50488</v>
       </c>
       <c r="C87" t="n">
-        <v>1.04754</v>
+        <v>1.04353</v>
       </c>
       <c r="D87" t="n">
-        <v>1.38693</v>
+        <v>1.39217</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>1.539</v>
+        <v>1.52969</v>
       </c>
       <c r="C88" t="n">
-        <v>1.06154</v>
+        <v>1.06627</v>
       </c>
       <c r="D88" t="n">
-        <v>1.43216</v>
+        <v>1.43308</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>1.56619</v>
+        <v>1.55849</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08191</v>
+        <v>1.07779</v>
       </c>
       <c r="D89" t="n">
-        <v>1.4659</v>
+        <v>1.46784</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>1.58434</v>
+        <v>1.5824</v>
       </c>
       <c r="C90" t="n">
-        <v>1.09819</v>
+        <v>1.09538</v>
       </c>
       <c r="D90" t="n">
-        <v>1.51355</v>
+        <v>1.51322</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>1.61614</v>
+        <v>1.61498</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1173</v>
+        <v>1.11029</v>
       </c>
       <c r="D91" t="n">
-        <v>1.55191</v>
+        <v>1.54102</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>1.64889</v>
+        <v>1.64065</v>
       </c>
       <c r="C92" t="n">
-        <v>1.20761</v>
+        <v>1.20924</v>
       </c>
       <c r="D92" t="n">
-        <v>1.72991</v>
+        <v>1.72309</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>1.6688</v>
+        <v>1.66142</v>
       </c>
       <c r="C93" t="n">
-        <v>1.2086</v>
+        <v>1.2081</v>
       </c>
       <c r="D93" t="n">
-        <v>1.75386</v>
+        <v>1.75868</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>1.69885</v>
+        <v>1.68877</v>
       </c>
       <c r="C94" t="n">
-        <v>1.22023</v>
+        <v>1.22015</v>
       </c>
       <c r="D94" t="n">
-        <v>1.78252</v>
+        <v>1.77834</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>1.71377</v>
+        <v>1.71528</v>
       </c>
       <c r="C95" t="n">
-        <v>1.23078</v>
+        <v>1.23112</v>
       </c>
       <c r="D95" t="n">
-        <v>1.80619</v>
+        <v>1.80354</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>1.74884</v>
+        <v>1.74024</v>
       </c>
       <c r="C96" t="n">
-        <v>1.24175</v>
+        <v>1.23629</v>
       </c>
       <c r="D96" t="n">
-        <v>1.8327</v>
+        <v>1.83364</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>1.76646</v>
+        <v>1.76285</v>
       </c>
       <c r="C97" t="n">
-        <v>1.25963</v>
+        <v>1.24724</v>
       </c>
       <c r="D97" t="n">
-        <v>1.8562</v>
+        <v>1.85407</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>1.88041</v>
+        <v>1.87286</v>
       </c>
       <c r="C98" t="n">
-        <v>1.29703</v>
+        <v>1.29287</v>
       </c>
       <c r="D98" t="n">
-        <v>1.89861</v>
+        <v>1.89734</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>1.88846</v>
+        <v>1.89122</v>
       </c>
       <c r="C99" t="n">
-        <v>1.30379</v>
+        <v>1.30496</v>
       </c>
       <c r="D99" t="n">
-        <v>1.92019</v>
+        <v>1.92559</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>1.91691</v>
+        <v>1.92244</v>
       </c>
       <c r="C100" t="n">
-        <v>1.31799</v>
+        <v>1.31264</v>
       </c>
       <c r="D100" t="n">
-        <v>1.95139</v>
+        <v>1.94704</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>1.93402</v>
+        <v>1.93183</v>
       </c>
       <c r="C101" t="n">
-        <v>1.32693</v>
+        <v>1.32777</v>
       </c>
       <c r="D101" t="n">
-        <v>1.96396</v>
+        <v>1.96736</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>1.95643</v>
+        <v>1.94481</v>
       </c>
       <c r="C102" t="n">
-        <v>1.34172</v>
+        <v>1.33783</v>
       </c>
       <c r="D102" t="n">
-        <v>1.98897</v>
+        <v>1.99182</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>1.97126</v>
+        <v>1.96887</v>
       </c>
       <c r="C103" t="n">
-        <v>1.35438</v>
+        <v>1.35245</v>
       </c>
       <c r="D103" t="n">
-        <v>2.00857</v>
+        <v>2.01652</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>1.98972</v>
+        <v>1.98767</v>
       </c>
       <c r="C104" t="n">
-        <v>1.35937</v>
+        <v>1.36787</v>
       </c>
       <c r="D104" t="n">
-        <v>2.03014</v>
+        <v>2.03115</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>2.01024</v>
+        <v>2.00481</v>
       </c>
       <c r="C105" t="n">
-        <v>1.385</v>
+        <v>1.37922</v>
       </c>
       <c r="D105" t="n">
-        <v>2.0483</v>
+        <v>2.05487</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>2.02353</v>
+        <v>2.02152</v>
       </c>
       <c r="C106" t="n">
-        <v>1.38889</v>
+        <v>1.38773</v>
       </c>
       <c r="D106" t="n">
-        <v>2.07133</v>
+        <v>2.07468</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>2.04542</v>
+        <v>2.04278</v>
       </c>
       <c r="C107" t="n">
-        <v>1.40117</v>
+        <v>1.39437</v>
       </c>
       <c r="D107" t="n">
-        <v>2.18796</v>
+        <v>2.18893</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>2.05602</v>
+        <v>2.06045</v>
       </c>
       <c r="C108" t="n">
-        <v>1.40319</v>
+        <v>1.4062</v>
       </c>
       <c r="D108" t="n">
-        <v>2.18613</v>
+        <v>2.18589</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>2.07697</v>
+        <v>2.07327</v>
       </c>
       <c r="C109" t="n">
-        <v>1.41318</v>
+        <v>1.41285</v>
       </c>
       <c r="D109" t="n">
-        <v>2.20445</v>
+        <v>2.20494</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>2.09348</v>
+        <v>2.09318</v>
       </c>
       <c r="C110" t="n">
-        <v>1.42912</v>
+        <v>1.42274</v>
       </c>
       <c r="D110" t="n">
-        <v>2.21187</v>
+        <v>2.21688</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>2.10072</v>
+        <v>2.10742</v>
       </c>
       <c r="C111" t="n">
-        <v>1.43188</v>
+        <v>1.43244</v>
       </c>
       <c r="D111" t="n">
-        <v>2.22567</v>
+        <v>2.22903</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>2.15063</v>
+        <v>2.14952</v>
       </c>
       <c r="C112" t="n">
-        <v>1.442</v>
+        <v>1.43855</v>
       </c>
       <c r="D112" t="n">
-        <v>2.23893</v>
+        <v>2.24191</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>2.16045</v>
+        <v>2.16096</v>
       </c>
       <c r="C113" t="n">
-        <v>1.45258</v>
+        <v>1.45627</v>
       </c>
       <c r="D113" t="n">
-        <v>2.25192</v>
+        <v>2.25625</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>2.17755</v>
+        <v>2.17613</v>
       </c>
       <c r="C114" t="n">
-        <v>1.46631</v>
+        <v>1.46548</v>
       </c>
       <c r="D114" t="n">
-        <v>2.26396</v>
+        <v>2.26465</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>2.18693</v>
+        <v>2.18559</v>
       </c>
       <c r="C115" t="n">
-        <v>1.47089</v>
+        <v>1.47278</v>
       </c>
       <c r="D115" t="n">
-        <v>2.27245</v>
+        <v>2.27318</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>2.19886</v>
+        <v>2.19678</v>
       </c>
       <c r="C116" t="n">
-        <v>1.49038</v>
+        <v>1.48054</v>
       </c>
       <c r="D116" t="n">
-        <v>2.28608</v>
+        <v>2.29048</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>2.20721</v>
+        <v>2.21223</v>
       </c>
       <c r="C117" t="n">
-        <v>1.49296</v>
+        <v>1.49488</v>
       </c>
       <c r="D117" t="n">
-        <v>2.29686</v>
+        <v>2.30299</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>2.22984</v>
+        <v>2.22867</v>
       </c>
       <c r="C118" t="n">
-        <v>1.50787</v>
+        <v>1.50917</v>
       </c>
       <c r="D118" t="n">
-        <v>2.30728</v>
+        <v>2.31488</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>2.2339</v>
+        <v>2.23657</v>
       </c>
       <c r="C119" t="n">
-        <v>1.51962</v>
+        <v>1.51974</v>
       </c>
       <c r="D119" t="n">
-        <v>2.32053</v>
+        <v>2.32784</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.312791</v>
+        <v>0.313637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.401934</v>
+        <v>0.402959</v>
       </c>
       <c r="D2" t="n">
-        <v>0.362717</v>
+        <v>0.363256</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.319389</v>
+        <v>0.317408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.406744</v>
+        <v>0.407283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.366595</v>
+        <v>0.36689</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.32008</v>
+        <v>0.320085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.410756</v>
+        <v>0.410438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.366859</v>
+        <v>0.367938</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.321324</v>
+        <v>0.323394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.418752</v>
+        <v>0.41864</v>
       </c>
       <c r="D5" t="n">
-        <v>0.372763</v>
+        <v>0.373403</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.32403</v>
+        <v>0.325231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.418575</v>
+        <v>0.418541</v>
       </c>
       <c r="D6" t="n">
-        <v>0.373542</v>
+        <v>0.373582</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.326664</v>
+        <v>0.326196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.432525</v>
+        <v>0.432398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.384155</v>
+        <v>0.383918</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.329833</v>
+        <v>0.330446</v>
       </c>
       <c r="C8" t="n">
-        <v>0.431264</v>
+        <v>0.432358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.389507</v>
+        <v>0.392404</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.332385</v>
+        <v>0.333566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.437163</v>
+        <v>0.437795</v>
       </c>
       <c r="D9" t="n">
-        <v>0.393023</v>
+        <v>0.392042</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.334242</v>
+        <v>0.334154</v>
       </c>
       <c r="C10" t="n">
-        <v>0.442203</v>
+        <v>0.441642</v>
       </c>
       <c r="D10" t="n">
-        <v>0.397328</v>
+        <v>0.397436</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.337667</v>
+        <v>0.339033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.43993</v>
+        <v>0.439832</v>
       </c>
       <c r="D11" t="n">
-        <v>0.403544</v>
+        <v>0.403162</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.34129</v>
+        <v>0.342275</v>
       </c>
       <c r="C12" t="n">
-        <v>0.44606</v>
+        <v>0.44526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.405513</v>
+        <v>0.407088</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.355122</v>
+        <v>0.356508</v>
       </c>
       <c r="C13" t="n">
-        <v>0.443969</v>
+        <v>0.443673</v>
       </c>
       <c r="D13" t="n">
-        <v>0.410906</v>
+        <v>0.411646</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.356524</v>
+        <v>0.357182</v>
       </c>
       <c r="C14" t="n">
-        <v>0.449723</v>
+        <v>0.449795</v>
       </c>
       <c r="D14" t="n">
-        <v>0.415255</v>
+        <v>0.415491</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.359858</v>
+        <v>0.36017</v>
       </c>
       <c r="C15" t="n">
-        <v>0.450261</v>
+        <v>0.450041</v>
       </c>
       <c r="D15" t="n">
-        <v>0.419809</v>
+        <v>0.420007</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.363943</v>
+        <v>0.363751</v>
       </c>
       <c r="C16" t="n">
-        <v>0.452623</v>
+        <v>0.452863</v>
       </c>
       <c r="D16" t="n">
-        <v>0.422628</v>
+        <v>0.42103</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.363862</v>
+        <v>0.363358</v>
       </c>
       <c r="C17" t="n">
-        <v>0.455649</v>
+        <v>0.454746</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4253</v>
+        <v>0.426545</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.367296</v>
+        <v>0.366816</v>
       </c>
       <c r="C18" t="n">
-        <v>0.460179</v>
+        <v>0.459372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.431167</v>
+        <v>0.42968</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.368571</v>
+        <v>0.367969</v>
       </c>
       <c r="C19" t="n">
-        <v>0.46142</v>
+        <v>0.460425</v>
       </c>
       <c r="D19" t="n">
-        <v>0.437069</v>
+        <v>0.434953</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.371776</v>
+        <v>0.37227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.466819</v>
+        <v>0.466871</v>
       </c>
       <c r="D20" t="n">
-        <v>0.440883</v>
+        <v>0.438838</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.373728</v>
+        <v>0.372326</v>
       </c>
       <c r="C21" t="n">
-        <v>0.473555</v>
+        <v>0.473922</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448705</v>
+        <v>0.449181</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.378629</v>
+        <v>0.378056</v>
       </c>
       <c r="C22" t="n">
-        <v>0.478615</v>
+        <v>0.479446</v>
       </c>
       <c r="D22" t="n">
-        <v>0.45427</v>
+        <v>0.454485</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.378516</v>
+        <v>0.379711</v>
       </c>
       <c r="C23" t="n">
-        <v>0.47866</v>
+        <v>0.478583</v>
       </c>
       <c r="D23" t="n">
-        <v>0.456516</v>
+        <v>0.457809</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.380334</v>
+        <v>0.379006</v>
       </c>
       <c r="C24" t="n">
-        <v>0.483952</v>
+        <v>0.484507</v>
       </c>
       <c r="D24" t="n">
-        <v>0.462267</v>
+        <v>0.464049</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.384018</v>
+        <v>0.383597</v>
       </c>
       <c r="C25" t="n">
-        <v>0.490906</v>
+        <v>0.49098</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4655</v>
+        <v>0.467333</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.384539</v>
+        <v>0.385061</v>
       </c>
       <c r="C26" t="n">
-        <v>0.486718</v>
+        <v>0.487406</v>
       </c>
       <c r="D26" t="n">
-        <v>0.468328</v>
+        <v>0.469425</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.397648</v>
+        <v>0.398448</v>
       </c>
       <c r="C27" t="n">
-        <v>0.494014</v>
+        <v>0.49456</v>
       </c>
       <c r="D27" t="n">
-        <v>0.473404</v>
+        <v>0.472912</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.398357</v>
+        <v>0.397396</v>
       </c>
       <c r="C28" t="n">
-        <v>0.495355</v>
+        <v>0.495371</v>
       </c>
       <c r="D28" t="n">
-        <v>0.475855</v>
+        <v>0.47702</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.398893</v>
+        <v>0.399415</v>
       </c>
       <c r="C29" t="n">
-        <v>0.496378</v>
+        <v>0.497257</v>
       </c>
       <c r="D29" t="n">
-        <v>0.478846</v>
+        <v>0.478875</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.401412</v>
+        <v>0.402878</v>
       </c>
       <c r="C30" t="n">
-        <v>0.501934</v>
+        <v>0.502873</v>
       </c>
       <c r="D30" t="n">
-        <v>0.482897</v>
+        <v>0.484459</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.402149</v>
+        <v>0.40287</v>
       </c>
       <c r="C31" t="n">
-        <v>0.502471</v>
+        <v>0.503414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485779</v>
+        <v>0.487013</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.402519</v>
+        <v>0.404614</v>
       </c>
       <c r="C32" t="n">
-        <v>0.505283</v>
+        <v>0.507308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.48854</v>
+        <v>0.490344</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.403783</v>
+        <v>0.406735</v>
       </c>
       <c r="C33" t="n">
-        <v>0.511645</v>
+        <v>0.513456</v>
       </c>
       <c r="D33" t="n">
-        <v>0.491564</v>
+        <v>0.493814</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.404964</v>
+        <v>0.406261</v>
       </c>
       <c r="C34" t="n">
-        <v>0.510293</v>
+        <v>0.514251</v>
       </c>
       <c r="D34" t="n">
-        <v>0.494272</v>
+        <v>0.496271</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.406517</v>
+        <v>0.406694</v>
       </c>
       <c r="C35" t="n">
-        <v>0.503138</v>
+        <v>0.505593</v>
       </c>
       <c r="D35" t="n">
-        <v>0.498396</v>
+        <v>0.499471</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.409079</v>
+        <v>0.410554</v>
       </c>
       <c r="C36" t="n">
-        <v>0.505567</v>
+        <v>0.507639</v>
       </c>
       <c r="D36" t="n">
-        <v>0.500822</v>
+        <v>0.501481</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.409613</v>
+        <v>0.411425</v>
       </c>
       <c r="C37" t="n">
-        <v>0.511279</v>
+        <v>0.5122719999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.503151</v>
+        <v>0.506026</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.408974</v>
+        <v>0.410517</v>
       </c>
       <c r="C38" t="n">
-        <v>0.513776</v>
+        <v>0.515248</v>
       </c>
       <c r="D38" t="n">
-        <v>0.505645</v>
+        <v>0.505988</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.410075</v>
+        <v>0.41155</v>
       </c>
       <c r="C39" t="n">
-        <v>0.513141</v>
+        <v>0.514744</v>
       </c>
       <c r="D39" t="n">
-        <v>0.507671</v>
+        <v>0.508452</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.411145</v>
+        <v>0.412368</v>
       </c>
       <c r="C40" t="n">
-        <v>0.513828</v>
+        <v>0.5152369999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.510373</v>
+        <v>0.510989</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.419238</v>
+        <v>0.420235</v>
       </c>
       <c r="C41" t="n">
-        <v>0.517651</v>
+        <v>0.517867</v>
       </c>
       <c r="D41" t="n">
-        <v>0.511647</v>
+        <v>0.51327</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.421943</v>
+        <v>0.42108</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5188390000000001</v>
+        <v>0.517222</v>
       </c>
       <c r="D42" t="n">
-        <v>0.514244</v>
+        <v>0.516043</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.423094</v>
+        <v>0.427058</v>
       </c>
       <c r="C43" t="n">
-        <v>0.519445</v>
+        <v>0.523607</v>
       </c>
       <c r="D43" t="n">
-        <v>0.514215</v>
+        <v>0.515942</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.419931</v>
+        <v>0.423031</v>
       </c>
       <c r="C44" t="n">
-        <v>0.519263</v>
+        <v>0.525563</v>
       </c>
       <c r="D44" t="n">
-        <v>0.516625</v>
+        <v>0.518872</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.423318</v>
+        <v>0.423245</v>
       </c>
       <c r="C45" t="n">
-        <v>0.521753</v>
+        <v>0.522692</v>
       </c>
       <c r="D45" t="n">
-        <v>0.51856</v>
+        <v>0.521155</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.422835</v>
+        <v>0.424043</v>
       </c>
       <c r="C46" t="n">
-        <v>0.521958</v>
+        <v>0.522387</v>
       </c>
       <c r="D46" t="n">
-        <v>0.521007</v>
+        <v>0.5214839999999999</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.422768</v>
+        <v>0.423347</v>
       </c>
       <c r="C47" t="n">
-        <v>0.524793</v>
+        <v>0.530145</v>
       </c>
       <c r="D47" t="n">
-        <v>0.522904</v>
+        <v>0.5238390000000001</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.422871</v>
+        <v>0.426621</v>
       </c>
       <c r="C48" t="n">
-        <v>0.527962</v>
+        <v>0.53334</v>
       </c>
       <c r="D48" t="n">
-        <v>0.524248</v>
+        <v>0.525345</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.429388</v>
+        <v>0.426906</v>
       </c>
       <c r="C49" t="n">
-        <v>0.532873</v>
+        <v>0.531934</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5244490000000001</v>
+        <v>0.528096</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.425783</v>
+        <v>0.430946</v>
       </c>
       <c r="C50" t="n">
-        <v>0.532502</v>
+        <v>0.5395799999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5268119999999999</v>
+        <v>0.532994</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.424477</v>
+        <v>0.431028</v>
       </c>
       <c r="C51" t="n">
-        <v>0.530968</v>
+        <v>0.53323</v>
       </c>
       <c r="D51" t="n">
-        <v>0.52788</v>
+        <v>0.53055</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.428581</v>
+        <v>0.429192</v>
       </c>
       <c r="C52" t="n">
-        <v>0.53186</v>
+        <v>0.533058</v>
       </c>
       <c r="D52" t="n">
-        <v>0.530578</v>
+        <v>0.531622</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.432379</v>
+        <v>0.431164</v>
       </c>
       <c r="C53" t="n">
-        <v>0.536386</v>
+        <v>0.543648</v>
       </c>
       <c r="D53" t="n">
-        <v>0.535849</v>
+        <v>0.535978</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.429233</v>
+        <v>0.429265</v>
       </c>
       <c r="C54" t="n">
-        <v>0.538286</v>
+        <v>0.536257</v>
       </c>
       <c r="D54" t="n">
-        <v>0.538743</v>
+        <v>0.534146</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.428493</v>
+        <v>0.430266</v>
       </c>
       <c r="C55" t="n">
-        <v>0.544255</v>
+        <v>0.542573</v>
       </c>
       <c r="D55" t="n">
-        <v>0.539838</v>
+        <v>0.539741</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.439064</v>
+        <v>0.43497</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5364370000000001</v>
+        <v>0.545909</v>
       </c>
       <c r="D56" t="n">
-        <v>0.53507</v>
+        <v>0.537826</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.43318</v>
+        <v>0.441672</v>
       </c>
       <c r="C57" t="n">
-        <v>0.539503</v>
+        <v>0.543623</v>
       </c>
       <c r="D57" t="n">
-        <v>0.538399</v>
+        <v>0.539595</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.442258</v>
+        <v>0.437389</v>
       </c>
       <c r="C58" t="n">
-        <v>0.544324</v>
+        <v>0.550567</v>
       </c>
       <c r="D58" t="n">
-        <v>0.537812</v>
+        <v>0.544565</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.444688</v>
+        <v>0.442123</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548629</v>
+        <v>0.556922</v>
       </c>
       <c r="D59" t="n">
-        <v>0.537956</v>
+        <v>0.54223</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.443068</v>
+        <v>0.443539</v>
       </c>
       <c r="C60" t="n">
-        <v>0.550427</v>
+        <v>0.556581</v>
       </c>
       <c r="D60" t="n">
-        <v>0.544862</v>
+        <v>0.55084</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.448832</v>
+        <v>0.443241</v>
       </c>
       <c r="C61" t="n">
-        <v>0.55894</v>
+        <v>0.559986</v>
       </c>
       <c r="D61" t="n">
-        <v>0.552669</v>
+        <v>0.551675</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.452343</v>
+        <v>0.453991</v>
       </c>
       <c r="C62" t="n">
-        <v>0.561978</v>
+        <v>0.573671</v>
       </c>
       <c r="D62" t="n">
-        <v>0.561514</v>
+        <v>0.560274</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.454006</v>
+        <v>0.455105</v>
       </c>
       <c r="C63" t="n">
-        <v>0.572453</v>
+        <v>0.568071</v>
       </c>
       <c r="D63" t="n">
-        <v>0.558567</v>
+        <v>0.553745</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.459843</v>
+        <v>0.455035</v>
       </c>
       <c r="C64" t="n">
-        <v>0.587117</v>
+        <v>0.587927</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5711619999999999</v>
+        <v>0.570749</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.468601</v>
+        <v>0.472624</v>
       </c>
       <c r="C65" t="n">
-        <v>0.599193</v>
+        <v>0.603476</v>
       </c>
       <c r="D65" t="n">
-        <v>0.583183</v>
+        <v>0.583223</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.480015</v>
+        <v>0.476283</v>
       </c>
       <c r="C66" t="n">
-        <v>0.608034</v>
+        <v>0.616634</v>
       </c>
       <c r="D66" t="n">
-        <v>0.587647</v>
+        <v>0.591168</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.480792</v>
+        <v>0.483894</v>
       </c>
       <c r="C67" t="n">
-        <v>0.637624</v>
+        <v>0.642848</v>
       </c>
       <c r="D67" t="n">
-        <v>0.612552</v>
+        <v>0.612859</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.490838</v>
+        <v>0.493178</v>
       </c>
       <c r="C68" t="n">
-        <v>0.662343</v>
+        <v>0.670274</v>
       </c>
       <c r="D68" t="n">
-        <v>0.621063</v>
+        <v>0.62257</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.507971</v>
+        <v>0.497726</v>
       </c>
       <c r="C69" t="n">
-        <v>0.679951</v>
+        <v>0.691801</v>
       </c>
       <c r="D69" t="n">
-        <v>0.642636</v>
+        <v>0.628923</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.578395</v>
+        <v>0.586975</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7053739999999999</v>
+        <v>0.716562</v>
       </c>
       <c r="D70" t="n">
-        <v>0.648001</v>
+        <v>0.64575</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.611578</v>
+        <v>0.61425</v>
       </c>
       <c r="C71" t="n">
-        <v>0.75022</v>
+        <v>0.7574149999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.660685</v>
+        <v>0.6652979999999999</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.620985</v>
+        <v>0.633081</v>
       </c>
       <c r="C72" t="n">
-        <v>0.765521</v>
+        <v>0.776911</v>
       </c>
       <c r="D72" t="n">
-        <v>0.691217</v>
+        <v>0.689957</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6608309999999999</v>
+        <v>0.68954</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8095059999999999</v>
+        <v>0.821159</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7028990000000001</v>
+        <v>0.7187789999999999</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.702785</v>
+        <v>0.729454</v>
       </c>
       <c r="C74" t="n">
-        <v>0.84055</v>
+        <v>0.84679</v>
       </c>
       <c r="D74" t="n">
-        <v>0.736498</v>
+        <v>0.7379289999999999</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.752055</v>
+        <v>0.759317</v>
       </c>
       <c r="C75" t="n">
-        <v>0.860823</v>
+        <v>0.881363</v>
       </c>
       <c r="D75" t="n">
-        <v>0.750607</v>
+        <v>0.763657</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7877690000000001</v>
+        <v>0.80801</v>
       </c>
       <c r="C76" t="n">
-        <v>0.900047</v>
+        <v>0.921699</v>
       </c>
       <c r="D76" t="n">
-        <v>0.803473</v>
+        <v>0.811329</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.840818</v>
+        <v>0.845491</v>
       </c>
       <c r="C77" t="n">
-        <v>0.935439</v>
+        <v>0.945885</v>
       </c>
       <c r="D77" t="n">
-        <v>0.842214</v>
+        <v>0.8369450000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.890228</v>
+        <v>0.890198</v>
       </c>
       <c r="C78" t="n">
-        <v>1.17186</v>
+        <v>1.16296</v>
       </c>
       <c r="D78" t="n">
-        <v>1.03424</v>
+        <v>1.04894</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.928342</v>
+        <v>0.936464</v>
       </c>
       <c r="C79" t="n">
-        <v>1.19112</v>
+        <v>1.20221</v>
       </c>
       <c r="D79" t="n">
-        <v>1.08883</v>
+        <v>1.11555</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.974548</v>
+        <v>0.994846</v>
       </c>
       <c r="C80" t="n">
-        <v>1.24616</v>
+        <v>1.25813</v>
       </c>
       <c r="D80" t="n">
-        <v>1.16415</v>
+        <v>1.17924</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.02034</v>
+        <v>1.02883</v>
       </c>
       <c r="C81" t="n">
-        <v>1.28745</v>
+        <v>1.29711</v>
       </c>
       <c r="D81" t="n">
-        <v>1.23779</v>
+        <v>1.25393</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06698</v>
+        <v>1.07448</v>
       </c>
       <c r="C82" t="n">
-        <v>1.32602</v>
+        <v>1.33524</v>
       </c>
       <c r="D82" t="n">
-        <v>1.30602</v>
+        <v>1.32705</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10503</v>
+        <v>1.11584</v>
       </c>
       <c r="C83" t="n">
-        <v>1.37174</v>
+        <v>1.38199</v>
       </c>
       <c r="D83" t="n">
-        <v>1.39108</v>
+        <v>1.4062</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.30359</v>
+        <v>1.3079</v>
       </c>
       <c r="C84" t="n">
-        <v>1.42884</v>
+        <v>1.42524</v>
       </c>
       <c r="D84" t="n">
-        <v>1.46813</v>
+        <v>1.46957</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.34082</v>
+        <v>1.34329</v>
       </c>
       <c r="C85" t="n">
-        <v>1.46434</v>
+        <v>1.47939</v>
       </c>
       <c r="D85" t="n">
-        <v>1.53296</v>
+        <v>1.54789</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.38164</v>
+        <v>1.39362</v>
       </c>
       <c r="C86" t="n">
-        <v>1.50594</v>
+        <v>1.51358</v>
       </c>
       <c r="D86" t="n">
-        <v>1.6105</v>
+        <v>1.62027</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.41735</v>
+        <v>1.42649</v>
       </c>
       <c r="C87" t="n">
-        <v>1.53508</v>
+        <v>1.55095</v>
       </c>
       <c r="D87" t="n">
-        <v>1.69505</v>
+        <v>1.68241</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.4597</v>
+        <v>1.45633</v>
       </c>
       <c r="C88" t="n">
-        <v>1.58804</v>
+        <v>1.59249</v>
       </c>
       <c r="D88" t="n">
-        <v>1.74611</v>
+        <v>1.75744</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.48873</v>
+        <v>1.49142</v>
       </c>
       <c r="C89" t="n">
-        <v>1.63578</v>
+        <v>1.63629</v>
       </c>
       <c r="D89" t="n">
-        <v>1.82834</v>
+        <v>1.81972</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.52307</v>
+        <v>1.52489</v>
       </c>
       <c r="C90" t="n">
-        <v>1.67028</v>
+        <v>1.68273</v>
       </c>
       <c r="D90" t="n">
-        <v>1.88591</v>
+        <v>1.87939</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.55548</v>
+        <v>1.55524</v>
       </c>
       <c r="C91" t="n">
-        <v>1.71668</v>
+        <v>1.7128</v>
       </c>
       <c r="D91" t="n">
-        <v>1.94992</v>
+        <v>1.94886</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.59048</v>
+        <v>1.58351</v>
       </c>
       <c r="C92" t="n">
-        <v>1.8906</v>
+        <v>1.89639</v>
       </c>
       <c r="D92" t="n">
-        <v>2.12258</v>
+        <v>2.12459</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.61398</v>
+        <v>1.61124</v>
       </c>
       <c r="C93" t="n">
-        <v>1.91555</v>
+        <v>1.92078</v>
       </c>
       <c r="D93" t="n">
-        <v>2.1775</v>
+        <v>2.17909</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.63677</v>
+        <v>1.64763</v>
       </c>
       <c r="C94" t="n">
-        <v>1.9442</v>
+        <v>1.95151</v>
       </c>
       <c r="D94" t="n">
-        <v>2.22209</v>
+        <v>2.23712</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.66455</v>
+        <v>1.66573</v>
       </c>
       <c r="C95" t="n">
-        <v>1.97565</v>
+        <v>1.98473</v>
       </c>
       <c r="D95" t="n">
-        <v>2.27584</v>
+        <v>2.2846</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.6986</v>
+        <v>1.69393</v>
       </c>
       <c r="C96" t="n">
-        <v>2.00537</v>
+        <v>2.00911</v>
       </c>
       <c r="D96" t="n">
-        <v>2.32233</v>
+        <v>2.33189</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.71364</v>
+        <v>1.71376</v>
       </c>
       <c r="C97" t="n">
-        <v>2.03312</v>
+        <v>2.04502</v>
       </c>
       <c r="D97" t="n">
-        <v>2.37469</v>
+        <v>2.37435</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.86705</v>
+        <v>1.86019</v>
       </c>
       <c r="C98" t="n">
-        <v>2.09973</v>
+        <v>2.08423</v>
       </c>
       <c r="D98" t="n">
-        <v>2.43599</v>
+        <v>2.43803</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.88609</v>
+        <v>1.87965</v>
       </c>
       <c r="C99" t="n">
-        <v>2.12613</v>
+        <v>2.13461</v>
       </c>
       <c r="D99" t="n">
-        <v>2.48263</v>
+        <v>2.4833</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.90813</v>
+        <v>1.90833</v>
       </c>
       <c r="C100" t="n">
-        <v>2.15962</v>
+        <v>2.14941</v>
       </c>
       <c r="D100" t="n">
-        <v>2.52167</v>
+        <v>2.52444</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.9343</v>
+        <v>1.93471</v>
       </c>
       <c r="C101" t="n">
-        <v>2.17642</v>
+        <v>2.18791</v>
       </c>
       <c r="D101" t="n">
-        <v>2.56968</v>
+        <v>2.57005</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.95243</v>
+        <v>1.95569</v>
       </c>
       <c r="C102" t="n">
-        <v>2.2121</v>
+        <v>2.21778</v>
       </c>
       <c r="D102" t="n">
-        <v>2.60907</v>
+        <v>2.6083</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.96967</v>
+        <v>1.97471</v>
       </c>
       <c r="C103" t="n">
-        <v>2.23046</v>
+        <v>2.23873</v>
       </c>
       <c r="D103" t="n">
-        <v>2.6339</v>
+        <v>2.64721</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.99153</v>
+        <v>1.99143</v>
       </c>
       <c r="C104" t="n">
-        <v>2.26372</v>
+        <v>2.28252</v>
       </c>
       <c r="D104" t="n">
-        <v>2.68128</v>
+        <v>2.68381</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.01079</v>
+        <v>2.0175</v>
       </c>
       <c r="C105" t="n">
-        <v>2.29267</v>
+        <v>2.30084</v>
       </c>
       <c r="D105" t="n">
-        <v>2.71174</v>
+        <v>2.72715</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.03105</v>
+        <v>2.03177</v>
       </c>
       <c r="C106" t="n">
-        <v>2.32121</v>
+        <v>2.32761</v>
       </c>
       <c r="D106" t="n">
-        <v>2.75501</v>
+        <v>2.76187</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.04653</v>
+        <v>2.0526</v>
       </c>
       <c r="C107" t="n">
-        <v>2.39549</v>
+        <v>2.39538</v>
       </c>
       <c r="D107" t="n">
-        <v>2.85617</v>
+        <v>2.85786</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.05866</v>
+        <v>2.06327</v>
       </c>
       <c r="C108" t="n">
-        <v>2.42866</v>
+        <v>2.41634</v>
       </c>
       <c r="D108" t="n">
-        <v>2.87997</v>
+        <v>2.88478</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.07888</v>
+        <v>2.07628</v>
       </c>
       <c r="C109" t="n">
-        <v>2.43976</v>
+        <v>2.45073</v>
       </c>
       <c r="D109" t="n">
-        <v>2.91753</v>
+        <v>2.91242</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.09815</v>
+        <v>2.10098</v>
       </c>
       <c r="C110" t="n">
-        <v>2.46104</v>
+        <v>2.46268</v>
       </c>
       <c r="D110" t="n">
-        <v>2.93355</v>
+        <v>2.94303</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.11249</v>
+        <v>2.11402</v>
       </c>
       <c r="C111" t="n">
-        <v>2.47458</v>
+        <v>2.48043</v>
       </c>
       <c r="D111" t="n">
-        <v>2.96856</v>
+        <v>2.97583</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.1911</v>
+        <v>2.19268</v>
       </c>
       <c r="C112" t="n">
-        <v>2.50357</v>
+        <v>2.50433</v>
       </c>
       <c r="D112" t="n">
-        <v>2.98618</v>
+        <v>2.9977</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.20046</v>
+        <v>2.20699</v>
       </c>
       <c r="C113" t="n">
-        <v>2.51807</v>
+        <v>2.52454</v>
       </c>
       <c r="D113" t="n">
-        <v>3.01486</v>
+        <v>3.01552</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.22152</v>
+        <v>2.22028</v>
       </c>
       <c r="C114" t="n">
-        <v>2.53925</v>
+        <v>2.54733</v>
       </c>
       <c r="D114" t="n">
-        <v>3.04027</v>
+        <v>3.04818</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.23444</v>
+        <v>2.23189</v>
       </c>
       <c r="C115" t="n">
-        <v>2.55392</v>
+        <v>2.56735</v>
       </c>
       <c r="D115" t="n">
-        <v>3.05895</v>
+        <v>3.07007</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.27043</v>
+        <v>2.24789</v>
       </c>
       <c r="C116" t="n">
-        <v>2.58752</v>
+        <v>2.59129</v>
       </c>
       <c r="D116" t="n">
-        <v>3.08627</v>
+        <v>3.0927</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.26261</v>
+        <v>2.26183</v>
       </c>
       <c r="C117" t="n">
-        <v>2.6027</v>
+        <v>2.6088</v>
       </c>
       <c r="D117" t="n">
-        <v>3.10119</v>
+        <v>3.11023</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.26783</v>
+        <v>2.27515</v>
       </c>
       <c r="C118" t="n">
-        <v>2.6344</v>
+        <v>2.63584</v>
       </c>
       <c r="D118" t="n">
-        <v>3.13338</v>
+        <v>3.13394</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.28459</v>
+        <v>2.28681</v>
       </c>
       <c r="C119" t="n">
-        <v>2.649</v>
+        <v>2.65987</v>
       </c>
       <c r="D119" t="n">
-        <v>3.15166</v>
+        <v>3.15398</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.274026</v>
+        <v>0.274963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.418902</v>
+        <v>0.421713</v>
       </c>
       <c r="D2" t="n">
-        <v>0.365509</v>
+        <v>0.366243</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289986</v>
+        <v>0.288478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.427139</v>
+        <v>0.429234</v>
       </c>
       <c r="D3" t="n">
-        <v>0.371202</v>
+        <v>0.371033</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.295415</v>
+        <v>0.292393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.428144</v>
+        <v>0.428699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.371302</v>
+        <v>0.369912</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.294961</v>
+        <v>0.294337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.430715</v>
+        <v>0.432398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.375542</v>
+        <v>0.373656</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.295018</v>
+        <v>0.295072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.431925</v>
+        <v>0.432211</v>
       </c>
       <c r="D6" t="n">
-        <v>0.376473</v>
+        <v>0.375302</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.294495</v>
+        <v>0.296856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.436509</v>
+        <v>0.438681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.379847</v>
+        <v>0.38196</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.298693</v>
+        <v>0.298678</v>
       </c>
       <c r="C8" t="n">
-        <v>0.445855</v>
+        <v>0.447643</v>
       </c>
       <c r="D8" t="n">
-        <v>0.380174</v>
+        <v>0.38106</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.297356</v>
+        <v>0.298044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.449469</v>
+        <v>0.450868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.386177</v>
+        <v>0.386164</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.298008</v>
+        <v>0.30004</v>
       </c>
       <c r="C10" t="n">
-        <v>0.459304</v>
+        <v>0.459765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.390138</v>
+        <v>0.390526</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.301364</v>
+        <v>0.302688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.449186</v>
+        <v>0.451302</v>
       </c>
       <c r="D11" t="n">
-        <v>0.395519</v>
+        <v>0.395121</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.304603</v>
+        <v>0.302838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.450433</v>
+        <v>0.451404</v>
       </c>
       <c r="D12" t="n">
-        <v>0.399093</v>
+        <v>0.399362</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.305302</v>
+        <v>0.305074</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455518</v>
+        <v>0.457345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.401953</v>
+        <v>0.403987</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.305618</v>
+        <v>0.305849</v>
       </c>
       <c r="C14" t="n">
-        <v>0.465985</v>
+        <v>0.46633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.408515</v>
+        <v>0.407403</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.305843</v>
+        <v>0.306785</v>
       </c>
       <c r="C15" t="n">
-        <v>0.46764</v>
+        <v>0.468788</v>
       </c>
       <c r="D15" t="n">
-        <v>0.412484</v>
+        <v>0.41264</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.310671</v>
+        <v>0.308384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.473696</v>
+        <v>0.473917</v>
       </c>
       <c r="D16" t="n">
-        <v>0.418356</v>
+        <v>0.417993</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.337436</v>
+        <v>0.337889</v>
       </c>
       <c r="C17" t="n">
-        <v>0.47891</v>
+        <v>0.480155</v>
       </c>
       <c r="D17" t="n">
-        <v>0.424362</v>
+        <v>0.424038</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.338772</v>
+        <v>0.340171</v>
       </c>
       <c r="C18" t="n">
-        <v>0.48458</v>
+        <v>0.485578</v>
       </c>
       <c r="D18" t="n">
-        <v>0.428313</v>
+        <v>0.427873</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.341627</v>
+        <v>0.340676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.495422</v>
+        <v>0.496239</v>
       </c>
       <c r="D19" t="n">
-        <v>0.432923</v>
+        <v>0.432142</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.344786</v>
+        <v>0.345091</v>
       </c>
       <c r="C20" t="n">
-        <v>0.499556</v>
+        <v>0.500519</v>
       </c>
       <c r="D20" t="n">
-        <v>0.439196</v>
+        <v>0.437876</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.344676</v>
+        <v>0.345467</v>
       </c>
       <c r="C21" t="n">
-        <v>0.505526</v>
+        <v>0.506751</v>
       </c>
       <c r="D21" t="n">
-        <v>0.444622</v>
+        <v>0.442844</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.346799</v>
+        <v>0.347389</v>
       </c>
       <c r="C22" t="n">
-        <v>0.513209</v>
+        <v>0.513144</v>
       </c>
       <c r="D22" t="n">
-        <v>0.447858</v>
+        <v>0.4476</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.34761</v>
+        <v>0.349632</v>
       </c>
       <c r="C23" t="n">
-        <v>0.520627</v>
+        <v>0.5229780000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.451814</v>
+        <v>0.452213</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348806</v>
+        <v>0.349919</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5293909999999999</v>
+        <v>0.52907</v>
       </c>
       <c r="D24" t="n">
-        <v>0.458457</v>
+        <v>0.457524</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.351856</v>
+        <v>0.351656</v>
       </c>
       <c r="C25" t="n">
-        <v>0.538613</v>
+        <v>0.540562</v>
       </c>
       <c r="D25" t="n">
-        <v>0.46054</v>
+        <v>0.460908</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.352512</v>
+        <v>0.352679</v>
       </c>
       <c r="C26" t="n">
-        <v>0.498958</v>
+        <v>0.499459</v>
       </c>
       <c r="D26" t="n">
-        <v>0.464835</v>
+        <v>0.464911</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.351543</v>
+        <v>0.351708</v>
       </c>
       <c r="C27" t="n">
-        <v>0.501483</v>
+        <v>0.502112</v>
       </c>
       <c r="D27" t="n">
-        <v>0.471057</v>
+        <v>0.470362</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.35455</v>
+        <v>0.355278</v>
       </c>
       <c r="C28" t="n">
-        <v>0.508655</v>
+        <v>0.510838</v>
       </c>
       <c r="D28" t="n">
-        <v>0.473496</v>
+        <v>0.474511</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.35401</v>
+        <v>0.354498</v>
       </c>
       <c r="C29" t="n">
-        <v>0.510883</v>
+        <v>0.510894</v>
       </c>
       <c r="D29" t="n">
-        <v>0.477725</v>
+        <v>0.477301</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.355396</v>
+        <v>0.356047</v>
       </c>
       <c r="C30" t="n">
-        <v>0.516432</v>
+        <v>0.517246</v>
       </c>
       <c r="D30" t="n">
-        <v>0.481887</v>
+        <v>0.48232</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.355689</v>
+        <v>0.356328</v>
       </c>
       <c r="C31" t="n">
-        <v>0.521559</v>
+        <v>0.522173</v>
       </c>
       <c r="D31" t="n">
-        <v>0.485301</v>
+        <v>0.486209</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.382122</v>
+        <v>0.38194</v>
       </c>
       <c r="C32" t="n">
-        <v>0.528901</v>
+        <v>0.529205</v>
       </c>
       <c r="D32" t="n">
-        <v>0.487436</v>
+        <v>0.48834</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.383728</v>
+        <v>0.383786</v>
       </c>
       <c r="C33" t="n">
-        <v>0.535154</v>
+        <v>0.5356610000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.491219</v>
+        <v>0.490833</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.383952</v>
+        <v>0.383887</v>
       </c>
       <c r="C34" t="n">
-        <v>0.542821</v>
+        <v>0.543973</v>
       </c>
       <c r="D34" t="n">
-        <v>0.493629</v>
+        <v>0.49395</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.383852</v>
+        <v>0.384678</v>
       </c>
       <c r="C35" t="n">
-        <v>0.546925</v>
+        <v>0.54788</v>
       </c>
       <c r="D35" t="n">
-        <v>0.498247</v>
+        <v>0.499193</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.386094</v>
+        <v>0.386054</v>
       </c>
       <c r="C36" t="n">
-        <v>0.558673</v>
+        <v>0.562307</v>
       </c>
       <c r="D36" t="n">
-        <v>0.500352</v>
+        <v>0.502349</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.386037</v>
+        <v>0.386848</v>
       </c>
       <c r="C37" t="n">
-        <v>0.565921</v>
+        <v>0.570002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.503242</v>
+        <v>0.503905</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.386172</v>
+        <v>0.387817</v>
       </c>
       <c r="C38" t="n">
-        <v>0.571983</v>
+        <v>0.574644</v>
       </c>
       <c r="D38" t="n">
-        <v>0.505842</v>
+        <v>0.505692</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.386796</v>
+        <v>0.387575</v>
       </c>
       <c r="C39" t="n">
-        <v>0.580692</v>
+        <v>0.585036</v>
       </c>
       <c r="D39" t="n">
-        <v>0.510972</v>
+        <v>0.511143</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.387448</v>
+        <v>0.387855</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545502</v>
+        <v>0.549189</v>
       </c>
       <c r="D40" t="n">
-        <v>0.511795</v>
+        <v>0.5113220000000001</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.387954</v>
+        <v>0.388903</v>
       </c>
       <c r="C41" t="n">
-        <v>0.551262</v>
+        <v>0.554752</v>
       </c>
       <c r="D41" t="n">
-        <v>0.513441</v>
+        <v>0.513153</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.389564</v>
+        <v>0.388808</v>
       </c>
       <c r="C42" t="n">
-        <v>0.556411</v>
+        <v>0.5574480000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5152099999999999</v>
+        <v>0.5161750000000001</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.38951</v>
+        <v>0.389005</v>
       </c>
       <c r="C43" t="n">
-        <v>0.562114</v>
+        <v>0.563802</v>
       </c>
       <c r="D43" t="n">
-        <v>0.51751</v>
+        <v>0.518118</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.389571</v>
+        <v>0.389116</v>
       </c>
       <c r="C44" t="n">
-        <v>0.566759</v>
+        <v>0.568025</v>
       </c>
       <c r="D44" t="n">
-        <v>0.521432</v>
+        <v>0.522102</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.388537</v>
+        <v>0.387925</v>
       </c>
       <c r="C45" t="n">
-        <v>0.572017</v>
+        <v>0.572425</v>
       </c>
       <c r="D45" t="n">
-        <v>0.521796</v>
+        <v>0.522807</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.40818</v>
+        <v>0.407583</v>
       </c>
       <c r="C46" t="n">
-        <v>0.578309</v>
+        <v>0.584529</v>
       </c>
       <c r="D46" t="n">
-        <v>0.525194</v>
+        <v>0.527083</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.408762</v>
+        <v>0.408439</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5843739999999999</v>
+        <v>0.586237</v>
       </c>
       <c r="D47" t="n">
-        <v>0.526397</v>
+        <v>0.527565</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.409549</v>
+        <v>0.408724</v>
       </c>
       <c r="C48" t="n">
-        <v>0.591442</v>
+        <v>0.594158</v>
       </c>
       <c r="D48" t="n">
-        <v>0.528694</v>
+        <v>0.528328</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.410776</v>
+        <v>0.408724</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5987209999999999</v>
+        <v>0.599197</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5314680000000001</v>
+        <v>0.531551</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.410187</v>
+        <v>0.407859</v>
       </c>
       <c r="C50" t="n">
-        <v>0.605715</v>
+        <v>0.605614</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5329739999999999</v>
+        <v>0.532342</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.410415</v>
+        <v>0.408727</v>
       </c>
       <c r="C51" t="n">
-        <v>0.61091</v>
+        <v>0.6175850000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5353560000000001</v>
+        <v>0.536317</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.411445</v>
+        <v>0.409441</v>
       </c>
       <c r="C52" t="n">
-        <v>0.61815</v>
+        <v>0.626517</v>
       </c>
       <c r="D52" t="n">
-        <v>0.53722</v>
+        <v>0.5376300000000001</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.410463</v>
+        <v>0.408836</v>
       </c>
       <c r="C53" t="n">
-        <v>0.626274</v>
+        <v>0.628831</v>
       </c>
       <c r="D53" t="n">
-        <v>0.538761</v>
+        <v>0.539431</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.411592</v>
+        <v>0.409564</v>
       </c>
       <c r="C54" t="n">
-        <v>0.584589</v>
+        <v>0.588049</v>
       </c>
       <c r="D54" t="n">
-        <v>0.539242</v>
+        <v>0.541595</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.411989</v>
+        <v>0.411002</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5854470000000001</v>
+        <v>0.589349</v>
       </c>
       <c r="D55" t="n">
-        <v>0.54087</v>
+        <v>0.543503</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.410506</v>
+        <v>0.40951</v>
       </c>
       <c r="C56" t="n">
-        <v>0.593821</v>
+        <v>0.59865</v>
       </c>
       <c r="D56" t="n">
-        <v>0.543392</v>
+        <v>0.547771</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.41218</v>
+        <v>0.413485</v>
       </c>
       <c r="C57" t="n">
-        <v>0.598128</v>
+        <v>0.604108</v>
       </c>
       <c r="D57" t="n">
-        <v>0.545696</v>
+        <v>0.547663</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.415081</v>
+        <v>0.412577</v>
       </c>
       <c r="C58" t="n">
-        <v>0.607132</v>
+        <v>0.6090410000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.553135</v>
+        <v>0.551478</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.418014</v>
+        <v>0.413031</v>
       </c>
       <c r="C59" t="n">
-        <v>0.619039</v>
+        <v>0.612455</v>
       </c>
       <c r="D59" t="n">
-        <v>0.555858</v>
+        <v>0.551037</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.432463</v>
+        <v>0.426593</v>
       </c>
       <c r="C60" t="n">
-        <v>0.619834</v>
+        <v>0.621153</v>
       </c>
       <c r="D60" t="n">
-        <v>0.56057</v>
+        <v>0.554258</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.437773</v>
+        <v>0.426844</v>
       </c>
       <c r="C61" t="n">
-        <v>0.634269</v>
+        <v>0.633406</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5652470000000001</v>
+        <v>0.559812</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.435679</v>
+        <v>0.431982</v>
       </c>
       <c r="C62" t="n">
-        <v>0.641692</v>
+        <v>0.642659</v>
       </c>
       <c r="D62" t="n">
-        <v>0.571554</v>
+        <v>0.570784</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.437704</v>
+        <v>0.43302</v>
       </c>
       <c r="C63" t="n">
-        <v>0.656191</v>
+        <v>0.658733</v>
       </c>
       <c r="D63" t="n">
-        <v>0.576608</v>
+        <v>0.57652</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.441968</v>
+        <v>0.435839</v>
       </c>
       <c r="C64" t="n">
-        <v>0.662617</v>
+        <v>0.6724560000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.581341</v>
+        <v>0.591552</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.443624</v>
+        <v>0.446142</v>
       </c>
       <c r="C65" t="n">
-        <v>0.679171</v>
+        <v>0.696228</v>
       </c>
       <c r="D65" t="n">
-        <v>0.594072</v>
+        <v>0.599234</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4459</v>
+        <v>0.44564</v>
       </c>
       <c r="C66" t="n">
-        <v>0.696167</v>
+        <v>0.712189</v>
       </c>
       <c r="D66" t="n">
-        <v>0.596343</v>
+        <v>0.6068249999999999</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.450932</v>
+        <v>0.4475</v>
       </c>
       <c r="C67" t="n">
-        <v>0.712965</v>
+        <v>0.721849</v>
       </c>
       <c r="D67" t="n">
-        <v>0.606066</v>
+        <v>0.614758</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.455101</v>
+        <v>0.453197</v>
       </c>
       <c r="C68" t="n">
-        <v>0.659369</v>
+        <v>0.672933</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6263339999999999</v>
+        <v>0.629522</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.462269</v>
+        <v>0.456937</v>
       </c>
       <c r="C69" t="n">
-        <v>0.67613</v>
+        <v>0.694222</v>
       </c>
       <c r="D69" t="n">
-        <v>0.639507</v>
+        <v>0.6425149999999999</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.46425</v>
+        <v>0.464643</v>
       </c>
       <c r="C70" t="n">
-        <v>0.704691</v>
+        <v>0.716408</v>
       </c>
       <c r="D70" t="n">
-        <v>0.651768</v>
+        <v>0.655373</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.47029</v>
+        <v>0.469876</v>
       </c>
       <c r="C71" t="n">
-        <v>0.743881</v>
+        <v>0.746478</v>
       </c>
       <c r="D71" t="n">
-        <v>0.666794</v>
+        <v>0.665382</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.478591</v>
+        <v>0.471339</v>
       </c>
       <c r="C72" t="n">
-        <v>0.772574</v>
+        <v>0.777891</v>
       </c>
       <c r="D72" t="n">
-        <v>0.675557</v>
+        <v>0.680237</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.483321</v>
+        <v>0.480752</v>
       </c>
       <c r="C73" t="n">
-        <v>0.812161</v>
+        <v>0.818417</v>
       </c>
       <c r="D73" t="n">
-        <v>0.690007</v>
+        <v>0.695153</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.524089</v>
+        <v>0.532771</v>
       </c>
       <c r="C74" t="n">
-        <v>0.848267</v>
+        <v>0.8533809999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.704257</v>
+        <v>0.710439</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.543632</v>
+        <v>0.563046</v>
       </c>
       <c r="C75" t="n">
-        <v>0.883086</v>
+        <v>0.890617</v>
       </c>
       <c r="D75" t="n">
-        <v>0.71897</v>
+        <v>0.722185</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.558824</v>
+        <v>0.557696</v>
       </c>
       <c r="C76" t="n">
-        <v>0.911487</v>
+        <v>0.9129969999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.731635</v>
+        <v>0.746135</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.574481</v>
+        <v>0.586321</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9465980000000001</v>
+        <v>0.962454</v>
       </c>
       <c r="D77" t="n">
-        <v>0.748505</v>
+        <v>0.766551</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6093460000000001</v>
+        <v>0.6178979999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.979653</v>
+        <v>0.987696</v>
       </c>
       <c r="D78" t="n">
-        <v>0.785337</v>
+        <v>0.783373</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.639314</v>
+        <v>0.635227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.02536</v>
+        <v>1.02864</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8123</v>
+        <v>0.814213</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6707</v>
+        <v>0.678106</v>
       </c>
       <c r="C80" t="n">
-        <v>1.0749</v>
+        <v>1.09349</v>
       </c>
       <c r="D80" t="n">
-        <v>0.850481</v>
+        <v>0.873658</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.706314</v>
+        <v>0.716762</v>
       </c>
       <c r="C81" t="n">
-        <v>1.13014</v>
+        <v>1.15403</v>
       </c>
       <c r="D81" t="n">
-        <v>0.892198</v>
+        <v>0.918544</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.745941</v>
+        <v>0.759585</v>
       </c>
       <c r="C82" t="n">
-        <v>1.1865</v>
+        <v>1.19989</v>
       </c>
       <c r="D82" t="n">
-        <v>0.953416</v>
+        <v>0.966067</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.78651</v>
+        <v>0.789525</v>
       </c>
       <c r="C83" t="n">
-        <v>1.18038</v>
+        <v>1.19726</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08563</v>
+        <v>1.10453</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.823726</v>
+        <v>0.831935</v>
       </c>
       <c r="C84" t="n">
-        <v>1.24416</v>
+        <v>1.25511</v>
       </c>
       <c r="D84" t="n">
-        <v>1.171</v>
+        <v>1.19397</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.861781</v>
+        <v>0.865127</v>
       </c>
       <c r="C85" t="n">
-        <v>1.29934</v>
+        <v>1.30682</v>
       </c>
       <c r="D85" t="n">
-        <v>1.24908</v>
+        <v>1.25471</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.900173</v>
+        <v>0.911323</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35774</v>
+        <v>1.38577</v>
       </c>
       <c r="D86" t="n">
-        <v>1.33196</v>
+        <v>1.34423</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.933233</v>
+        <v>0.938737</v>
       </c>
       <c r="C87" t="n">
-        <v>1.42727</v>
+        <v>1.44241</v>
       </c>
       <c r="D87" t="n">
-        <v>1.40817</v>
+        <v>1.42079</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.966581</v>
+        <v>0.9665319999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>1.50356</v>
+        <v>1.51367</v>
       </c>
       <c r="D88" t="n">
-        <v>1.48892</v>
+        <v>1.50359</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.16405</v>
+        <v>1.16384</v>
       </c>
       <c r="C89" t="n">
-        <v>1.57872</v>
+        <v>1.58646</v>
       </c>
       <c r="D89" t="n">
-        <v>1.55498</v>
+        <v>1.575</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.18783</v>
+        <v>1.1919</v>
       </c>
       <c r="C90" t="n">
-        <v>1.64685</v>
+        <v>1.65643</v>
       </c>
       <c r="D90" t="n">
-        <v>1.63352</v>
+        <v>1.6428</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.21753</v>
+        <v>1.22104</v>
       </c>
       <c r="C91" t="n">
-        <v>1.71735</v>
+        <v>1.72311</v>
       </c>
       <c r="D91" t="n">
-        <v>1.69198</v>
+        <v>1.70396</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.24635</v>
+        <v>1.24852</v>
       </c>
       <c r="C92" t="n">
-        <v>1.78913</v>
+        <v>1.80311</v>
       </c>
       <c r="D92" t="n">
-        <v>1.76244</v>
+        <v>1.76515</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.27215</v>
+        <v>1.27972</v>
       </c>
       <c r="C93" t="n">
-        <v>1.86277</v>
+        <v>1.87827</v>
       </c>
       <c r="D93" t="n">
-        <v>1.82252</v>
+        <v>1.82538</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.3016</v>
+        <v>1.30104</v>
       </c>
       <c r="C94" t="n">
-        <v>1.94048</v>
+        <v>1.9589</v>
       </c>
       <c r="D94" t="n">
-        <v>1.88198</v>
+        <v>1.88873</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.3222</v>
+        <v>1.32133</v>
       </c>
       <c r="C95" t="n">
-        <v>2.01875</v>
+        <v>2.03381</v>
       </c>
       <c r="D95" t="n">
-        <v>1.94693</v>
+        <v>1.95326</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.35049</v>
+        <v>1.34595</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11481</v>
+        <v>2.11866</v>
       </c>
       <c r="D96" t="n">
-        <v>2.00332</v>
+        <v>2.00731</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.36964</v>
+        <v>1.37172</v>
       </c>
       <c r="C97" t="n">
-        <v>1.96944</v>
+        <v>1.97056</v>
       </c>
       <c r="D97" t="n">
-        <v>2.15168</v>
+        <v>2.15824</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.40912</v>
+        <v>1.40718</v>
       </c>
       <c r="C98" t="n">
-        <v>2.04802</v>
+        <v>2.05781</v>
       </c>
       <c r="D98" t="n">
-        <v>2.20773</v>
+        <v>2.22564</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.43182</v>
+        <v>1.43078</v>
       </c>
       <c r="C99" t="n">
-        <v>2.09957</v>
+        <v>2.11414</v>
       </c>
       <c r="D99" t="n">
-        <v>2.26558</v>
+        <v>2.2717</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.44667</v>
+        <v>1.45026</v>
       </c>
       <c r="C100" t="n">
-        <v>2.15878</v>
+        <v>2.16779</v>
       </c>
       <c r="D100" t="n">
-        <v>2.3062</v>
+        <v>2.30979</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.46984</v>
+        <v>1.46909</v>
       </c>
       <c r="C101" t="n">
-        <v>2.21788</v>
+        <v>2.22292</v>
       </c>
       <c r="D101" t="n">
-        <v>2.34979</v>
+        <v>2.35871</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.48301</v>
+        <v>1.48862</v>
       </c>
       <c r="C102" t="n">
-        <v>2.27555</v>
+        <v>2.28773</v>
       </c>
       <c r="D102" t="n">
-        <v>2.39375</v>
+        <v>2.40152</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.70246</v>
+        <v>1.71143</v>
       </c>
       <c r="C103" t="n">
-        <v>2.33233</v>
+        <v>2.34746</v>
       </c>
       <c r="D103" t="n">
-        <v>2.43145</v>
+        <v>2.43363</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.72223</v>
+        <v>1.72765</v>
       </c>
       <c r="C104" t="n">
-        <v>2.406</v>
+        <v>2.42335</v>
       </c>
       <c r="D104" t="n">
-        <v>2.46703</v>
+        <v>2.47924</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.74602</v>
+        <v>1.74519</v>
       </c>
       <c r="C105" t="n">
-        <v>2.46507</v>
+        <v>2.48984</v>
       </c>
       <c r="D105" t="n">
-        <v>2.51143</v>
+        <v>2.5193</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.75442</v>
+        <v>1.76416</v>
       </c>
       <c r="C106" t="n">
-        <v>2.52993</v>
+        <v>2.53992</v>
       </c>
       <c r="D106" t="n">
-        <v>2.552</v>
+        <v>2.55466</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.77451</v>
+        <v>1.77959</v>
       </c>
       <c r="C107" t="n">
-        <v>2.60553</v>
+        <v>2.61068</v>
       </c>
       <c r="D107" t="n">
-        <v>2.5809</v>
+        <v>2.59795</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.78874</v>
+        <v>1.79778</v>
       </c>
       <c r="C108" t="n">
-        <v>2.67127</v>
+        <v>2.68423</v>
       </c>
       <c r="D108" t="n">
-        <v>2.60539</v>
+        <v>2.6222</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.80469</v>
+        <v>1.80956</v>
       </c>
       <c r="C109" t="n">
-        <v>2.75295</v>
+        <v>2.76121</v>
       </c>
       <c r="D109" t="n">
-        <v>2.64123</v>
+        <v>2.65371</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.82164</v>
+        <v>1.82636</v>
       </c>
       <c r="C110" t="n">
-        <v>2.82194</v>
+        <v>2.83103</v>
       </c>
       <c r="D110" t="n">
-        <v>2.68131</v>
+        <v>2.68546</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.83622</v>
+        <v>1.8389</v>
       </c>
       <c r="C111" t="n">
-        <v>2.57625</v>
+        <v>2.57878</v>
       </c>
       <c r="D111" t="n">
-        <v>2.80017</v>
+        <v>2.81319</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.84686</v>
+        <v>1.85264</v>
       </c>
       <c r="C112" t="n">
-        <v>2.61649</v>
+        <v>2.62919</v>
       </c>
       <c r="D112" t="n">
-        <v>2.82823</v>
+        <v>2.83704</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.86066</v>
+        <v>1.86341</v>
       </c>
       <c r="C113" t="n">
-        <v>2.6574</v>
+        <v>2.6777</v>
       </c>
       <c r="D113" t="n">
-        <v>2.85553</v>
+        <v>2.86455</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.87199</v>
+        <v>1.87594</v>
       </c>
       <c r="C114" t="n">
-        <v>2.71823</v>
+        <v>2.72549</v>
       </c>
       <c r="D114" t="n">
-        <v>2.88434</v>
+        <v>2.89265</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.88562</v>
+        <v>1.89409</v>
       </c>
       <c r="C115" t="n">
-        <v>2.76647</v>
+        <v>2.77872</v>
       </c>
       <c r="D115" t="n">
-        <v>2.91185</v>
+        <v>2.90982</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.8995</v>
+        <v>1.89916</v>
       </c>
       <c r="C116" t="n">
-        <v>2.82523</v>
+        <v>2.83312</v>
       </c>
       <c r="D116" t="n">
-        <v>2.93586</v>
+        <v>2.93978</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.07659</v>
+        <v>2.08688</v>
       </c>
       <c r="C117" t="n">
-        <v>2.88194</v>
+        <v>2.89387</v>
       </c>
       <c r="D117" t="n">
-        <v>2.95099</v>
+        <v>2.95909</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.09499</v>
+        <v>2.09533</v>
       </c>
       <c r="C118" t="n">
-        <v>2.93917</v>
+        <v>2.95601</v>
       </c>
       <c r="D118" t="n">
-        <v>2.97563</v>
+        <v>2.98507</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.10614</v>
+        <v>2.1068</v>
       </c>
       <c r="C119" t="n">
-        <v>3.00858</v>
+        <v>3.0129</v>
       </c>
       <c r="D119" t="n">
-        <v>3.00835</v>
+        <v>3.00358</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure.xlsx
+++ b/vs/scattered erasure.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>27.3635</v>
+        <v>27.2903</v>
       </c>
       <c r="C2" t="n">
-        <v>27.7274</v>
+        <v>27.8089</v>
       </c>
       <c r="D2" t="n">
-        <v>25.5839</v>
+        <v>25.2981</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>27.7705</v>
+        <v>27.6504</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0601</v>
+        <v>28.0596</v>
       </c>
       <c r="D3" t="n">
-        <v>25.6747</v>
+        <v>25.6971</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>28.2769</v>
+        <v>28.1421</v>
       </c>
       <c r="C4" t="n">
-        <v>28.2488</v>
+        <v>28.2124</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4688</v>
+        <v>26.3967</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>28.6712</v>
+        <v>28.616</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5654</v>
+        <v>28.423</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7086</v>
+        <v>26.6506</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>29.1106</v>
+        <v>29.0545</v>
       </c>
       <c r="C6" t="n">
-        <v>28.8431</v>
+        <v>28.9098</v>
       </c>
       <c r="D6" t="n">
-        <v>27.0297</v>
+        <v>27.0817</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>29.6668</v>
+        <v>29.5897</v>
       </c>
       <c r="C7" t="n">
-        <v>28.0012</v>
+        <v>27.9887</v>
       </c>
       <c r="D7" t="n">
-        <v>26.5324</v>
+        <v>26.5515</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>30.137</v>
+        <v>30.2559</v>
       </c>
       <c r="C8" t="n">
-        <v>28.1506</v>
+        <v>28.2748</v>
       </c>
       <c r="D8" t="n">
-        <v>27.1788</v>
+        <v>27.2287</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>30.9024</v>
+        <v>30.7218</v>
       </c>
       <c r="C9" t="n">
-        <v>28.2599</v>
+        <v>28.3696</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7193</v>
+        <v>27.6138</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>31.1819</v>
+        <v>31.1609</v>
       </c>
       <c r="C10" t="n">
-        <v>28.4542</v>
+        <v>28.5157</v>
       </c>
       <c r="D10" t="n">
-        <v>28.0589</v>
+        <v>28.1327</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>31.7028</v>
+        <v>31.767</v>
       </c>
       <c r="C11" t="n">
-        <v>28.5295</v>
+        <v>28.553</v>
       </c>
       <c r="D11" t="n">
-        <v>28.5283</v>
+        <v>28.6243</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>32.32</v>
+        <v>32.3059</v>
       </c>
       <c r="C12" t="n">
-        <v>28.8072</v>
+        <v>28.7826</v>
       </c>
       <c r="D12" t="n">
-        <v>28.9128</v>
+        <v>29.0849</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>30.8269</v>
+        <v>30.8546</v>
       </c>
       <c r="C13" t="n">
-        <v>29.009</v>
+        <v>29.091</v>
       </c>
       <c r="D13" t="n">
-        <v>29.3669</v>
+        <v>29.3805</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>30.9786</v>
+        <v>31.0285</v>
       </c>
       <c r="C14" t="n">
-        <v>28.9838</v>
+        <v>29.0825</v>
       </c>
       <c r="D14" t="n">
-        <v>29.7798</v>
+        <v>29.7153</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>31.5109</v>
+        <v>31.3738</v>
       </c>
       <c r="C15" t="n">
-        <v>29.16</v>
+        <v>29.2673</v>
       </c>
       <c r="D15" t="n">
-        <v>30.2681</v>
+        <v>30.3233</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>31.895</v>
+        <v>31.8614</v>
       </c>
       <c r="C16" t="n">
-        <v>29.3639</v>
+        <v>29.6457</v>
       </c>
       <c r="D16" t="n">
-        <v>30.776</v>
+        <v>30.7789</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>32.2329</v>
+        <v>32.2132</v>
       </c>
       <c r="C17" t="n">
-        <v>29.5295</v>
+        <v>29.6568</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2318</v>
+        <v>31.2462</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>32.742</v>
+        <v>32.7239</v>
       </c>
       <c r="C18" t="n">
-        <v>30.1032</v>
+        <v>30.0187</v>
       </c>
       <c r="D18" t="n">
-        <v>31.9025</v>
+        <v>31.8324</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>33.2017</v>
+        <v>33.1354</v>
       </c>
       <c r="C19" t="n">
-        <v>30.3461</v>
+        <v>30.295</v>
       </c>
       <c r="D19" t="n">
-        <v>32.3029</v>
+        <v>32.3642</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>33.5397</v>
+        <v>33.5795</v>
       </c>
       <c r="C20" t="n">
-        <v>30.6438</v>
+        <v>30.6266</v>
       </c>
       <c r="D20" t="n">
-        <v>32.7181</v>
+        <v>32.7542</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>33.9677</v>
+        <v>33.9112</v>
       </c>
       <c r="C21" t="n">
-        <v>29.754</v>
+        <v>29.6296</v>
       </c>
       <c r="D21" t="n">
-        <v>32.2339</v>
+        <v>32.133</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>34.3814</v>
+        <v>34.2975</v>
       </c>
       <c r="C22" t="n">
-        <v>29.9384</v>
+        <v>29.836</v>
       </c>
       <c r="D22" t="n">
-        <v>32.6488</v>
+        <v>32.641</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>34.8577</v>
+        <v>34.8159</v>
       </c>
       <c r="C23" t="n">
-        <v>29.9509</v>
+        <v>29.9452</v>
       </c>
       <c r="D23" t="n">
-        <v>32.819</v>
+        <v>32.8867</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>35.3422</v>
+        <v>35.3121</v>
       </c>
       <c r="C24" t="n">
-        <v>30.3721</v>
+        <v>30.1598</v>
       </c>
       <c r="D24" t="n">
-        <v>33.2706</v>
+        <v>33.3467</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>35.6778</v>
+        <v>35.7278</v>
       </c>
       <c r="C25" t="n">
-        <v>30.3137</v>
+        <v>30.2087</v>
       </c>
       <c r="D25" t="n">
-        <v>33.6156</v>
+        <v>33.6843</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0888</v>
+        <v>36.0803</v>
       </c>
       <c r="C26" t="n">
-        <v>30.4195</v>
+        <v>30.3185</v>
       </c>
       <c r="D26" t="n">
-        <v>33.84</v>
+        <v>33.9308</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>33.9997</v>
+        <v>33.9551</v>
       </c>
       <c r="C27" t="n">
-        <v>30.583</v>
+        <v>30.4598</v>
       </c>
       <c r="D27" t="n">
-        <v>34.1621</v>
+        <v>34.1832</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>34.1863</v>
+        <v>34.2549</v>
       </c>
       <c r="C28" t="n">
-        <v>30.7745</v>
+        <v>30.6063</v>
       </c>
       <c r="D28" t="n">
-        <v>34.5105</v>
+        <v>34.5307</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>34.5683</v>
+        <v>34.6562</v>
       </c>
       <c r="C29" t="n">
-        <v>31.1702</v>
+        <v>31.1715</v>
       </c>
       <c r="D29" t="n">
-        <v>35.0677</v>
+        <v>34.9999</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>34.9495</v>
+        <v>34.9638</v>
       </c>
       <c r="C30" t="n">
-        <v>31.2555</v>
+        <v>31.2095</v>
       </c>
       <c r="D30" t="n">
-        <v>35.4933</v>
+        <v>35.5201</v>
       </c>
     </row>
     <row r="31">
@@ -8079,13 +8079,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>35.4124</v>
+        <v>35.4117</v>
       </c>
       <c r="C31" t="n">
-        <v>31.5277</v>
+        <v>31.4655</v>
       </c>
       <c r="D31" t="n">
-        <v>35.7423</v>
+        <v>35.8084</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>35.7796</v>
+        <v>35.5607</v>
       </c>
       <c r="C32" t="n">
-        <v>31.7105</v>
+        <v>31.729</v>
       </c>
       <c r="D32" t="n">
-        <v>36.1247</v>
+        <v>36.1287</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>36.1237</v>
+        <v>36.0061</v>
       </c>
       <c r="C33" t="n">
-        <v>32.2268</v>
+        <v>32.2273</v>
       </c>
       <c r="D33" t="n">
-        <v>36.4597</v>
+        <v>36.5117</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>36.445</v>
+        <v>36.3744</v>
       </c>
       <c r="C34" t="n">
-        <v>32.5926</v>
+        <v>32.3468</v>
       </c>
       <c r="D34" t="n">
-        <v>36.8621</v>
+        <v>36.8059</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>36.7667</v>
+        <v>36.8216</v>
       </c>
       <c r="C35" t="n">
-        <v>31.2276</v>
+        <v>31.3379</v>
       </c>
       <c r="D35" t="n">
-        <v>35.6762</v>
+        <v>35.7572</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>37.0103</v>
+        <v>36.9666</v>
       </c>
       <c r="C36" t="n">
-        <v>31.5204</v>
+        <v>31.4502</v>
       </c>
       <c r="D36" t="n">
-        <v>35.9613</v>
+        <v>35.9494</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>37.3814</v>
+        <v>37.5444</v>
       </c>
       <c r="C37" t="n">
-        <v>31.8179</v>
+        <v>31.6138</v>
       </c>
       <c r="D37" t="n">
-        <v>36.1755</v>
+        <v>36.1543</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>37.6973</v>
+        <v>37.6439</v>
       </c>
       <c r="C38" t="n">
-        <v>31.7944</v>
+        <v>31.793</v>
       </c>
       <c r="D38" t="n">
-        <v>36.4962</v>
+        <v>36.4781</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>38.1768</v>
+        <v>37.8872</v>
       </c>
       <c r="C39" t="n">
-        <v>31.9985</v>
+        <v>31.7409</v>
       </c>
       <c r="D39" t="n">
-        <v>36.6405</v>
+        <v>36.6601</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>38.364</v>
+        <v>38.2811</v>
       </c>
       <c r="C40" t="n">
-        <v>32.0796</v>
+        <v>31.9805</v>
       </c>
       <c r="D40" t="n">
-        <v>36.8933</v>
+        <v>36.9024</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66357</v>
       </c>
       <c r="B41" t="n">
-        <v>35.9717</v>
+        <v>36.267</v>
       </c>
       <c r="C41" t="n">
-        <v>32.3677</v>
+        <v>32.3027</v>
       </c>
       <c r="D41" t="n">
-        <v>37.115</v>
+        <v>37.1481</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69656</v>
       </c>
       <c r="B42" t="n">
-        <v>36.3944</v>
+        <v>36.202</v>
       </c>
       <c r="C42" t="n">
-        <v>32.3825</v>
+        <v>32.5896</v>
       </c>
       <c r="D42" t="n">
-        <v>37.305</v>
+        <v>37.41</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73119</v>
       </c>
       <c r="B43" t="n">
-        <v>36.4001</v>
+        <v>36.592</v>
       </c>
       <c r="C43" t="n">
-        <v>32.5009</v>
+        <v>32.6217</v>
       </c>
       <c r="D43" t="n">
-        <v>37.5494</v>
+        <v>37.7156</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76755</v>
       </c>
       <c r="B44" t="n">
-        <v>36.598</v>
+        <v>36.7727</v>
       </c>
       <c r="C44" t="n">
-        <v>32.7695</v>
+        <v>32.8685</v>
       </c>
       <c r="D44" t="n">
-        <v>37.8222</v>
+        <v>37.9177</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80572</v>
       </c>
       <c r="B45" t="n">
-        <v>36.9252</v>
+        <v>37.1258</v>
       </c>
       <c r="C45" t="n">
-        <v>32.912</v>
+        <v>32.9276</v>
       </c>
       <c r="D45" t="n">
-        <v>38.0995</v>
+        <v>38.1803</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84579</v>
       </c>
       <c r="B46" t="n">
-        <v>37.3958</v>
+        <v>37.1872</v>
       </c>
       <c r="C46" t="n">
-        <v>33.2163</v>
+        <v>33.122</v>
       </c>
       <c r="D46" t="n">
-        <v>38.3595</v>
+        <v>38.3987</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88786</v>
       </c>
       <c r="B47" t="n">
-        <v>37.7543</v>
+        <v>37.6401</v>
       </c>
       <c r="C47" t="n">
-        <v>33.5512</v>
+        <v>33.5233</v>
       </c>
       <c r="D47" t="n">
-        <v>38.6853</v>
+        <v>38.662</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93203</v>
       </c>
       <c r="B48" t="n">
-        <v>37.8679</v>
+        <v>37.8836</v>
       </c>
       <c r="C48" t="n">
-        <v>33.6266</v>
+        <v>33.6425</v>
       </c>
       <c r="D48" t="n">
-        <v>39.0096</v>
+        <v>38.964</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97840</v>
       </c>
       <c r="B49" t="n">
-        <v>37.9196</v>
+        <v>38.1772</v>
       </c>
       <c r="C49" t="n">
-        <v>34.1729</v>
+        <v>33.8019</v>
       </c>
       <c r="D49" t="n">
-        <v>39.2237</v>
+        <v>39.2015</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102706</v>
       </c>
       <c r="B50" t="n">
-        <v>38.3113</v>
+        <v>38.3622</v>
       </c>
       <c r="C50" t="n">
-        <v>33.0749</v>
+        <v>32.8824</v>
       </c>
       <c r="D50" t="n">
-        <v>38.0924</v>
+        <v>37.9924</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107816</v>
       </c>
       <c r="B51" t="n">
-        <v>38.5044</v>
+        <v>39.0273</v>
       </c>
       <c r="C51" t="n">
-        <v>33.2248</v>
+        <v>33.0513</v>
       </c>
       <c r="D51" t="n">
-        <v>38.4985</v>
+        <v>38.0544</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113182</v>
       </c>
       <c r="B52" t="n">
-        <v>39.2454</v>
+        <v>39.1344</v>
       </c>
       <c r="C52" t="n">
-        <v>33.4566</v>
+        <v>33.5938</v>
       </c>
       <c r="D52" t="n">
-        <v>38.3659</v>
+        <v>38.3054</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118816</v>
       </c>
       <c r="B53" t="n">
-        <v>39.3286</v>
+        <v>39.4751</v>
       </c>
       <c r="C53" t="n">
-        <v>34.0766</v>
+        <v>33.674</v>
       </c>
       <c r="D53" t="n">
-        <v>38.5385</v>
+        <v>38.4239</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124731</v>
       </c>
       <c r="B54" t="n">
-        <v>39.9083</v>
+        <v>39.9635</v>
       </c>
       <c r="C54" t="n">
-        <v>33.698</v>
+        <v>33.5458</v>
       </c>
       <c r="D54" t="n">
-        <v>38.7196</v>
+        <v>38.8332</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130941</v>
       </c>
       <c r="B55" t="n">
-        <v>40.0531</v>
+        <v>40.369</v>
       </c>
       <c r="C55" t="n">
-        <v>33.8174</v>
+        <v>33.7718</v>
       </c>
       <c r="D55" t="n">
-        <v>38.9244</v>
+        <v>39.2004</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137461</v>
       </c>
       <c r="B56" t="n">
-        <v>37.6581</v>
+        <v>37.399</v>
       </c>
       <c r="C56" t="n">
-        <v>34.2399</v>
+        <v>33.9158</v>
       </c>
       <c r="D56" t="n">
-        <v>39.1326</v>
+        <v>39.1137</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144307</v>
       </c>
       <c r="B57" t="n">
-        <v>37.7597</v>
+        <v>37.7194</v>
       </c>
       <c r="C57" t="n">
-        <v>34.4339</v>
+        <v>34.2891</v>
       </c>
       <c r="D57" t="n">
-        <v>39.4729</v>
+        <v>39.8196</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151495</v>
       </c>
       <c r="B58" t="n">
-        <v>38.4992</v>
+        <v>38.3248</v>
       </c>
       <c r="C58" t="n">
-        <v>34.5617</v>
+        <v>34.2535</v>
       </c>
       <c r="D58" t="n">
-        <v>39.4945</v>
+        <v>39.6651</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159042</v>
       </c>
       <c r="B59" t="n">
-        <v>38.6476</v>
+        <v>38.583</v>
       </c>
       <c r="C59" t="n">
-        <v>34.75</v>
+        <v>34.529</v>
       </c>
       <c r="D59" t="n">
-        <v>39.972</v>
+        <v>40.3208</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166965</v>
       </c>
       <c r="B60" t="n">
-        <v>38.7248</v>
+        <v>38.977</v>
       </c>
       <c r="C60" t="n">
-        <v>35.2393</v>
+        <v>34.9693</v>
       </c>
       <c r="D60" t="n">
-        <v>40.1903</v>
+        <v>40.2777</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175284</v>
       </c>
       <c r="B61" t="n">
-        <v>39.4268</v>
+        <v>38.9331</v>
       </c>
       <c r="C61" t="n">
-        <v>35.7094</v>
+        <v>35.3653</v>
       </c>
       <c r="D61" t="n">
-        <v>40.797</v>
+        <v>40.6253</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184019</v>
       </c>
       <c r="B62" t="n">
-        <v>39.7276</v>
+        <v>39.5377</v>
       </c>
       <c r="C62" t="n">
-        <v>36.0643</v>
+        <v>35.7751</v>
       </c>
       <c r="D62" t="n">
-        <v>41.4028</v>
+        <v>40.9605</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193190</v>
       </c>
       <c r="B63" t="n">
-        <v>40.4915</v>
+        <v>40.383</v>
       </c>
       <c r="C63" t="n">
-        <v>36.5001</v>
+        <v>35.9139</v>
       </c>
       <c r="D63" t="n">
-        <v>42.4511</v>
+        <v>41.1756</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202820</v>
       </c>
       <c r="B64" t="n">
-        <v>41.7111</v>
+        <v>40.8484</v>
       </c>
       <c r="C64" t="n">
-        <v>37.7076</v>
+        <v>38.2984</v>
       </c>
       <c r="D64" t="n">
-        <v>40.8875</v>
+        <v>41.947</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212931</v>
       </c>
       <c r="B65" t="n">
-        <v>42.5693</v>
+        <v>42.3358</v>
       </c>
       <c r="C65" t="n">
-        <v>39.4798</v>
+        <v>38.9803</v>
       </c>
       <c r="D65" t="n">
-        <v>42.608</v>
+        <v>42.395</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223547</v>
       </c>
       <c r="B66" t="n">
-        <v>43.1996</v>
+        <v>43.1471</v>
       </c>
       <c r="C66" t="n">
-        <v>40.3817</v>
+        <v>40.5923</v>
       </c>
       <c r="D66" t="n">
-        <v>42.3725</v>
+        <v>43.1708</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234692</v>
       </c>
       <c r="B67" t="n">
-        <v>44.0096</v>
+        <v>44.3188</v>
       </c>
       <c r="C67" t="n">
-        <v>43.3205</v>
+        <v>42.7105</v>
       </c>
       <c r="D67" t="n">
-        <v>44.9273</v>
+        <v>44.5185</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246395</v>
       </c>
       <c r="B68" t="n">
-        <v>45.9284</v>
+        <v>46.17</v>
       </c>
       <c r="C68" t="n">
-        <v>46.1678</v>
+        <v>46.0897</v>
       </c>
       <c r="D68" t="n">
-        <v>44.2381</v>
+        <v>46.163</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258683</v>
       </c>
       <c r="B69" t="n">
-        <v>46.4463</v>
+        <v>46.9831</v>
       </c>
       <c r="C69" t="n">
-        <v>47.899</v>
+        <v>47.0215</v>
       </c>
       <c r="D69" t="n">
-        <v>44.8596</v>
+        <v>46.3673</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271585</v>
       </c>
       <c r="B70" t="n">
-        <v>65.917</v>
+        <v>65.673</v>
       </c>
       <c r="C70" t="n">
-        <v>50.6844</v>
+        <v>50.0669</v>
       </c>
       <c r="D70" t="n">
-        <v>47.429</v>
+        <v>47.5251</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285132</v>
       </c>
       <c r="B71" t="n">
-        <v>70.2953</v>
+        <v>69.1559</v>
       </c>
       <c r="C71" t="n">
-        <v>52.5554</v>
+        <v>51.8489</v>
       </c>
       <c r="D71" t="n">
-        <v>47.6932</v>
+        <v>49.2392</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299354</v>
       </c>
       <c r="B72" t="n">
-        <v>73.4235</v>
+        <v>74.1793</v>
       </c>
       <c r="C72" t="n">
-        <v>54.3992</v>
+        <v>54.5858</v>
       </c>
       <c r="D72" t="n">
-        <v>50.7439</v>
+        <v>51.2739</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314289</v>
       </c>
       <c r="B73" t="n">
-        <v>77.6189</v>
+        <v>78.1705</v>
       </c>
       <c r="C73" t="n">
-        <v>57.1045</v>
+        <v>58.3805</v>
       </c>
       <c r="D73" t="n">
-        <v>51.1753</v>
+        <v>54.8866</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329969</v>
       </c>
       <c r="B74" t="n">
-        <v>81.31019999999999</v>
+        <v>81.66759999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>60.1547</v>
+        <v>59.809</v>
       </c>
       <c r="D74" t="n">
-        <v>55.2782</v>
+        <v>56.1216</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346432</v>
       </c>
       <c r="B75" t="n">
-        <v>86.911</v>
+        <v>85.2529</v>
       </c>
       <c r="C75" t="n">
-        <v>62.4409</v>
+        <v>62.0145</v>
       </c>
       <c r="D75" t="n">
-        <v>57.6558</v>
+        <v>60.0538</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363719</v>
       </c>
       <c r="B76" t="n">
-        <v>89.8646</v>
+        <v>89.9569</v>
       </c>
       <c r="C76" t="n">
-        <v>64.4532</v>
+        <v>64.6062</v>
       </c>
       <c r="D76" t="n">
-        <v>61.7555</v>
+        <v>66.00879999999999</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381870</v>
       </c>
       <c r="B77" t="n">
-        <v>95.3695</v>
+        <v>94.447</v>
       </c>
       <c r="C77" t="n">
-        <v>67.2229</v>
+        <v>66.5821</v>
       </c>
       <c r="D77" t="n">
-        <v>67.73009999999999</v>
+        <v>64.62309999999999</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400928</v>
       </c>
       <c r="B78" t="n">
-        <v>100.654</v>
+        <v>99.0339</v>
       </c>
       <c r="C78" t="n">
-        <v>84.8082</v>
+        <v>84.5258</v>
       </c>
       <c r="D78" t="n">
-        <v>93.5528</v>
+        <v>94.4074</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420937</v>
       </c>
       <c r="B79" t="n">
-        <v>103.309</v>
+        <v>103.286</v>
       </c>
       <c r="C79" t="n">
-        <v>86.6576</v>
+        <v>86.8588</v>
       </c>
       <c r="D79" t="n">
-        <v>98.87860000000001</v>
+        <v>99.57680000000001</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441947</v>
       </c>
       <c r="B80" t="n">
-        <v>107.229</v>
+        <v>107.113</v>
       </c>
       <c r="C80" t="n">
-        <v>89.3279</v>
+        <v>89.5252</v>
       </c>
       <c r="D80" t="n">
-        <v>103.65</v>
+        <v>104.474</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464005</v>
       </c>
       <c r="B81" t="n">
-        <v>112.034</v>
+        <v>112.101</v>
       </c>
       <c r="C81" t="n">
-        <v>91.31010000000001</v>
+        <v>91.3503</v>
       </c>
       <c r="D81" t="n">
-        <v>108.977</v>
+        <v>108.958</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487165</v>
       </c>
       <c r="B82" t="n">
-        <v>115.928</v>
+        <v>115.679</v>
       </c>
       <c r="C82" t="n">
-        <v>93.0659</v>
+        <v>93.2291</v>
       </c>
       <c r="D82" t="n">
-        <v>113.937</v>
+        <v>114.494</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511485</v>
       </c>
       <c r="B83" t="n">
-        <v>119.654</v>
+        <v>119.725</v>
       </c>
       <c r="C83" t="n">
-        <v>95.7221</v>
+        <v>95.6344</v>
       </c>
       <c r="D83" t="n">
-        <v>119.241</v>
+        <v>119.37</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537019</v>
       </c>
       <c r="B84" t="n">
-        <v>138.738</v>
+        <v>139.066</v>
       </c>
       <c r="C84" t="n">
-        <v>97.2252</v>
+        <v>97.4478</v>
       </c>
       <c r="D84" t="n">
-        <v>123.77</v>
+        <v>123.843</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563827</v>
       </c>
       <c r="B85" t="n">
-        <v>142.173</v>
+        <v>142.355</v>
       </c>
       <c r="C85" t="n">
-        <v>98.77500000000001</v>
+        <v>99.79689999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>127.864</v>
+        <v>128.177</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>591977</v>
       </c>
       <c r="B86" t="n">
-        <v>144.65</v>
+        <v>144.169</v>
       </c>
       <c r="C86" t="n">
-        <v>100.69</v>
+        <v>101.616</v>
       </c>
       <c r="D86" t="n">
-        <v>132.177</v>
+        <v>131.851</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621532</v>
       </c>
       <c r="B87" t="n">
-        <v>147.202</v>
+        <v>147.802</v>
       </c>
       <c r="C87" t="n">
-        <v>103.036</v>
+        <v>102.696</v>
       </c>
       <c r="D87" t="n">
-        <v>137.182</v>
+        <v>136.903</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652567</v>
       </c>
       <c r="B88" t="n">
-        <v>150.507</v>
+        <v>150.737</v>
       </c>
       <c r="C88" t="n">
-        <v>104.55</v>
+        <v>105.281</v>
       </c>
       <c r="D88" t="n">
-        <v>141.154</v>
+        <v>141.221</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685151</v>
       </c>
       <c r="B89" t="n">
-        <v>153.277</v>
+        <v>153.705</v>
       </c>
       <c r="C89" t="n">
-        <v>107.118</v>
+        <v>106.351</v>
       </c>
       <c r="D89" t="n">
-        <v>145.351</v>
+        <v>145.273</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719359</v>
       </c>
       <c r="B90" t="n">
-        <v>155.419</v>
+        <v>156.972</v>
       </c>
       <c r="C90" t="n">
-        <v>108.37</v>
+        <v>108.504</v>
       </c>
       <c r="D90" t="n">
-        <v>148.69</v>
+        <v>148.647</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755280</v>
       </c>
       <c r="B91" t="n">
-        <v>158.693</v>
+        <v>159.131</v>
       </c>
       <c r="C91" t="n">
-        <v>109.838</v>
+        <v>110.274</v>
       </c>
       <c r="D91" t="n">
-        <v>152.364</v>
+        <v>153.828</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>792997</v>
       </c>
       <c r="B92" t="n">
-        <v>161.14</v>
+        <v>161.794</v>
       </c>
       <c r="C92" t="n">
-        <v>118.656</v>
+        <v>120.202</v>
       </c>
       <c r="D92" t="n">
-        <v>170.617</v>
+        <v>170.462</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832595</v>
       </c>
       <c r="B93" t="n">
-        <v>164.032</v>
+        <v>164.143</v>
       </c>
       <c r="C93" t="n">
-        <v>120.319</v>
+        <v>119.77</v>
       </c>
       <c r="D93" t="n">
-        <v>172.178</v>
+        <v>172.424</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874177</v>
       </c>
       <c r="B94" t="n">
-        <v>165.968</v>
+        <v>166.551</v>
       </c>
       <c r="C94" t="n">
-        <v>120.718</v>
+        <v>120.662</v>
       </c>
       <c r="D94" t="n">
-        <v>175.275</v>
+        <v>175.741</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917832</v>
       </c>
       <c r="B95" t="n">
-        <v>169.263</v>
+        <v>170.006</v>
       </c>
       <c r="C95" t="n">
-        <v>121.52</v>
+        <v>121.813</v>
       </c>
       <c r="D95" t="n">
-        <v>178.417</v>
+        <v>178.228</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963677</v>
       </c>
       <c r="B96" t="n">
-        <v>171.171</v>
+        <v>171.375</v>
       </c>
       <c r="C96" t="n">
-        <v>122.426</v>
+        <v>122.467</v>
       </c>
       <c r="D96" t="n">
-        <v>180.45</v>
+        <v>180.985</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011813</v>
       </c>
       <c r="B97" t="n">
-        <v>173.446</v>
+        <v>173.856</v>
       </c>
       <c r="C97" t="n">
-        <v>123.654</v>
+        <v>123.551</v>
       </c>
       <c r="D97" t="n">
-        <v>183.924</v>
+        <v>183.86</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062351</v>
       </c>
       <c r="B98" t="n">
-        <v>184.341</v>
+        <v>185.174</v>
       </c>
       <c r="C98" t="n">
-        <v>128.015</v>
+        <v>127.906</v>
       </c>
       <c r="D98" t="n">
-        <v>188.389</v>
+        <v>187.434</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115422</v>
       </c>
       <c r="B99" t="n">
-        <v>187.425</v>
+        <v>188.644</v>
       </c>
       <c r="C99" t="n">
-        <v>129.602</v>
+        <v>129.531</v>
       </c>
       <c r="D99" t="n">
-        <v>189.557</v>
+        <v>190.309</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171143</v>
       </c>
       <c r="B100" t="n">
-        <v>188.978</v>
+        <v>189.188</v>
       </c>
       <c r="C100" t="n">
-        <v>130.433</v>
+        <v>130.803</v>
       </c>
       <c r="D100" t="n">
-        <v>191.884</v>
+        <v>192.23</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229634</v>
       </c>
       <c r="B101" t="n">
-        <v>189.867</v>
+        <v>190.802</v>
       </c>
       <c r="C101" t="n">
-        <v>131.927</v>
+        <v>131.868</v>
       </c>
       <c r="D101" t="n">
-        <v>194.879</v>
+        <v>193.701</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291062</v>
       </c>
       <c r="B102" t="n">
-        <v>192.072</v>
+        <v>192.796</v>
       </c>
       <c r="C102" t="n">
-        <v>132.742</v>
+        <v>133.135</v>
       </c>
       <c r="D102" t="n">
-        <v>196.855</v>
+        <v>196.072</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355554</v>
       </c>
       <c r="B103" t="n">
-        <v>193.53</v>
+        <v>194.462</v>
       </c>
       <c r="C103" t="n">
-        <v>134.236</v>
+        <v>134.032</v>
       </c>
       <c r="D103" t="n">
-        <v>198.236</v>
+        <v>198.655</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423274</v>
       </c>
       <c r="B104" t="n">
-        <v>195.634</v>
+        <v>196.216</v>
       </c>
       <c r="C104" t="n">
-        <v>135.835</v>
+        <v>135.296</v>
       </c>
       <c r="D104" t="n">
-        <v>200.47</v>
+        <v>200.732</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494380</v>
       </c>
       <c r="B105" t="n">
-        <v>196.8</v>
+        <v>198.351</v>
       </c>
       <c r="C105" t="n">
-        <v>137.068</v>
+        <v>136.714</v>
       </c>
       <c r="D105" t="n">
-        <v>202.46</v>
+        <v>203.063</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569031</v>
       </c>
       <c r="B106" t="n">
-        <v>198.791</v>
+        <v>199.806</v>
       </c>
       <c r="C106" t="n">
-        <v>137.515</v>
+        <v>137.955</v>
       </c>
       <c r="D106" t="n">
-        <v>204.291</v>
+        <v>204.692</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647417</v>
       </c>
       <c r="B107" t="n">
-        <v>200.054</v>
+        <v>201.319</v>
       </c>
       <c r="C107" t="n">
-        <v>138.836</v>
+        <v>138.53</v>
       </c>
       <c r="D107" t="n">
-        <v>215.698</v>
+        <v>214.842</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1729734</v>
       </c>
       <c r="B108" t="n">
-        <v>202.053</v>
+        <v>203.008</v>
       </c>
       <c r="C108" t="n">
-        <v>138.919</v>
+        <v>139.626</v>
       </c>
       <c r="D108" t="n">
-        <v>215.941</v>
+        <v>216.868</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816153</v>
       </c>
       <c r="B109" t="n">
-        <v>204.216</v>
+        <v>204.784</v>
       </c>
       <c r="C109" t="n">
-        <v>139.964</v>
+        <v>140.028</v>
       </c>
       <c r="D109" t="n">
-        <v>216.444</v>
+        <v>217.215</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1906885</v>
       </c>
       <c r="B110" t="n">
-        <v>205.997</v>
+        <v>206.589</v>
       </c>
       <c r="C110" t="n">
-        <v>140.932</v>
+        <v>141.316</v>
       </c>
       <c r="D110" t="n">
-        <v>218.577</v>
+        <v>218.986</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002164</v>
       </c>
       <c r="B111" t="n">
-        <v>207.641</v>
+        <v>207.973</v>
       </c>
       <c r="C111" t="n">
-        <v>141.71</v>
+        <v>142.024</v>
       </c>
       <c r="D111" t="n">
-        <v>219.57</v>
+        <v>220.451</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102198</v>
       </c>
       <c r="B112" t="n">
-        <v>210.979</v>
+        <v>211.921</v>
       </c>
       <c r="C112" t="n">
-        <v>142.657</v>
+        <v>143.158</v>
       </c>
       <c r="D112" t="n">
-        <v>220.587</v>
+        <v>221.62</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207233</v>
       </c>
       <c r="B113" t="n">
-        <v>212.498</v>
+        <v>214.193</v>
       </c>
       <c r="C113" t="n">
-        <v>143.766</v>
+        <v>143.985</v>
       </c>
       <c r="D113" t="n">
-        <v>221.656</v>
+        <v>222.506</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2317508</v>
       </c>
       <c r="B114" t="n">
-        <v>214.103</v>
+        <v>215.016</v>
       </c>
       <c r="C114" t="n">
-        <v>144.923</v>
+        <v>145.21</v>
       </c>
       <c r="D114" t="n">
-        <v>223.179</v>
+        <v>223.733</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433290</v>
       </c>
       <c r="B115" t="n">
-        <v>215.122</v>
+        <v>216.604</v>
       </c>
       <c r="C115" t="n">
-        <v>145.311</v>
+        <v>146.136</v>
       </c>
       <c r="D115" t="n">
-        <v>224.018</v>
+        <v>224.991</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2554854</v>
       </c>
       <c r="B116" t="n">
-        <v>216.615</v>
+        <v>217.58</v>
       </c>
       <c r="C116" t="n">
-        <v>147.697</v>
+        <v>146.778</v>
       </c>
       <c r="D116" t="n">
-        <v>225.063</v>
+        <v>226.391</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2682511</v>
       </c>
       <c r="B117" t="n">
-        <v>217.378</v>
+        <v>218.13</v>
       </c>
       <c r="C117" t="n">
-        <v>147.748</v>
+        <v>148.465</v>
       </c>
       <c r="D117" t="n">
-        <v>226.261</v>
+        <v>226.891</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2816546</v>
       </c>
       <c r="B118" t="n">
-        <v>219.395</v>
+        <v>219.67</v>
       </c>
       <c r="C118" t="n">
-        <v>149.134</v>
+        <v>149.884</v>
       </c>
       <c r="D118" t="n">
-        <v>227.287</v>
+        <v>228.437</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2957287</v>
       </c>
       <c r="B119" t="n">
-        <v>220.243</v>
+        <v>220.848</v>
       </c>
       <c r="C119" t="n">
-        <v>150.89</v>
+        <v>151.306</v>
       </c>
       <c r="D119" t="n">
-        <v>228.528</v>
+        <v>229.95</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>31.5541</v>
+        <v>31.5679</v>
       </c>
       <c r="C2" t="n">
-        <v>41.2011</v>
+        <v>41.1613</v>
       </c>
       <c r="D2" t="n">
-        <v>36.0646</v>
+        <v>36.3367</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>31.8276</v>
+        <v>31.7869</v>
       </c>
       <c r="C3" t="n">
-        <v>41.6172</v>
+        <v>41.7114</v>
       </c>
       <c r="D3" t="n">
-        <v>36.4415</v>
+        <v>36.5355</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5076</v>
+        <v>32.1586</v>
       </c>
       <c r="C4" t="n">
-        <v>42.0334</v>
+        <v>42.0556</v>
       </c>
       <c r="D4" t="n">
-        <v>36.9271</v>
+        <v>37.0041</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>32.437</v>
+        <v>32.3316</v>
       </c>
       <c r="C5" t="n">
-        <v>42.8307</v>
+        <v>42.5347</v>
       </c>
       <c r="D5" t="n">
-        <v>37.4894</v>
+        <v>37.3818</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>32.515</v>
+        <v>32.3359</v>
       </c>
       <c r="C6" t="n">
-        <v>42.7829</v>
+        <v>42.8805</v>
       </c>
       <c r="D6" t="n">
-        <v>37.6056</v>
+        <v>37.4857</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>32.9163</v>
+        <v>32.9101</v>
       </c>
       <c r="C7" t="n">
-        <v>44.2046</v>
+        <v>44.2571</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5475</v>
+        <v>38.4143</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>32.9877</v>
+        <v>33.2333</v>
       </c>
       <c r="C8" t="n">
-        <v>44.124</v>
+        <v>44.1451</v>
       </c>
       <c r="D8" t="n">
-        <v>38.7535</v>
+        <v>38.9284</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>33.3614</v>
+        <v>33.3178</v>
       </c>
       <c r="C9" t="n">
-        <v>44.6007</v>
+        <v>44.6521</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2589</v>
+        <v>39.3283</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>33.612</v>
+        <v>33.5897</v>
       </c>
       <c r="C10" t="n">
-        <v>45.0415</v>
+        <v>45.1709</v>
       </c>
       <c r="D10" t="n">
-        <v>39.6442</v>
+        <v>39.8138</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0167</v>
+        <v>33.888</v>
       </c>
       <c r="C11" t="n">
-        <v>45.0057</v>
+        <v>45.0565</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1772</v>
+        <v>40.0918</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>34.2733</v>
+        <v>34.4459</v>
       </c>
       <c r="C12" t="n">
-        <v>45.6167</v>
+        <v>45.6892</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5692</v>
+        <v>40.5855</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>35.636</v>
+        <v>35.6442</v>
       </c>
       <c r="C13" t="n">
-        <v>45.3028</v>
+        <v>45.4723</v>
       </c>
       <c r="D13" t="n">
-        <v>41.1852</v>
+        <v>41.0885</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>36.0064</v>
+        <v>35.7919</v>
       </c>
       <c r="C14" t="n">
-        <v>45.8311</v>
+        <v>45.9802</v>
       </c>
       <c r="D14" t="n">
-        <v>41.6407</v>
+        <v>41.614</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>36.0924</v>
+        <v>36.1987</v>
       </c>
       <c r="C15" t="n">
-        <v>45.9301</v>
+        <v>46.1324</v>
       </c>
       <c r="D15" t="n">
-        <v>41.868</v>
+        <v>41.794</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>36.5646</v>
+        <v>36.7083</v>
       </c>
       <c r="C16" t="n">
-        <v>46.2357</v>
+        <v>46.2975</v>
       </c>
       <c r="D16" t="n">
-        <v>42.3416</v>
+        <v>41.9977</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>36.6777</v>
+        <v>36.4813</v>
       </c>
       <c r="C17" t="n">
-        <v>46.4679</v>
+        <v>46.5423</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4656</v>
+        <v>42.5367</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>36.8124</v>
+        <v>36.8823</v>
       </c>
       <c r="C18" t="n">
-        <v>46.9814</v>
+        <v>47.0312</v>
       </c>
       <c r="D18" t="n">
-        <v>42.9263</v>
+        <v>42.9988</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>37.0027</v>
+        <v>36.9376</v>
       </c>
       <c r="C19" t="n">
-        <v>47.0885</v>
+        <v>47.1123</v>
       </c>
       <c r="D19" t="n">
-        <v>43.4919</v>
+        <v>43.543</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>37.2481</v>
+        <v>37.145</v>
       </c>
       <c r="C20" t="n">
-        <v>47.5778</v>
+        <v>47.6572</v>
       </c>
       <c r="D20" t="n">
-        <v>43.7753</v>
+        <v>43.8387</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>37.5505</v>
+        <v>37.3653</v>
       </c>
       <c r="C21" t="n">
-        <v>48.334</v>
+        <v>48.4431</v>
       </c>
       <c r="D21" t="n">
-        <v>44.5763</v>
+        <v>44.7592</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>37.8977</v>
+        <v>37.897</v>
       </c>
       <c r="C22" t="n">
-        <v>48.7854</v>
+        <v>48.9221</v>
       </c>
       <c r="D22" t="n">
-        <v>45.2424</v>
+        <v>45.4731</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>37.828</v>
+        <v>37.9518</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8126</v>
+        <v>48.9737</v>
       </c>
       <c r="D23" t="n">
-        <v>45.6654</v>
+        <v>45.8143</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>38.183</v>
+        <v>38.1764</v>
       </c>
       <c r="C24" t="n">
-        <v>49.3319</v>
+        <v>49.485</v>
       </c>
       <c r="D24" t="n">
-        <v>46.0018</v>
+        <v>46.2727</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>38.4592</v>
+        <v>38.3847</v>
       </c>
       <c r="C25" t="n">
-        <v>49.9717</v>
+        <v>50.1573</v>
       </c>
       <c r="D25" t="n">
-        <v>46.362</v>
+        <v>46.8797</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>38.3571</v>
+        <v>38.4364</v>
       </c>
       <c r="C26" t="n">
-        <v>49.6495</v>
+        <v>49.7806</v>
       </c>
       <c r="D26" t="n">
-        <v>46.6422</v>
+        <v>46.9069</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>39.7922</v>
+        <v>39.7465</v>
       </c>
       <c r="C27" t="n">
-        <v>50.3841</v>
+        <v>50.5229</v>
       </c>
       <c r="D27" t="n">
-        <v>47.1796</v>
+        <v>47.3486</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>40.0272</v>
+        <v>39.9801</v>
       </c>
       <c r="C28" t="n">
-        <v>50.5585</v>
+        <v>50.6846</v>
       </c>
       <c r="D28" t="n">
-        <v>47.5035</v>
+        <v>47.6574</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>40.0018</v>
+        <v>39.9398</v>
       </c>
       <c r="C29" t="n">
-        <v>50.6468</v>
+        <v>50.7185</v>
       </c>
       <c r="D29" t="n">
-        <v>47.8321</v>
+        <v>48.1599</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>40.1611</v>
+        <v>40.2883</v>
       </c>
       <c r="C30" t="n">
-        <v>51.2015</v>
+        <v>51.3832</v>
       </c>
       <c r="D30" t="n">
-        <v>48.2166</v>
+        <v>48.5215</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>40.4538</v>
+        <v>40.4049</v>
       </c>
       <c r="C31" t="n">
-        <v>51.3091</v>
+        <v>51.4009</v>
       </c>
       <c r="D31" t="n">
-        <v>48.4483</v>
+        <v>48.8049</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>40.4684</v>
+        <v>40.213</v>
       </c>
       <c r="C32" t="n">
-        <v>51.5964</v>
+        <v>51.6587</v>
       </c>
       <c r="D32" t="n">
-        <v>48.8657</v>
+        <v>48.9755</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>40.6613</v>
+        <v>40.6121</v>
       </c>
       <c r="C33" t="n">
-        <v>52.1655</v>
+        <v>52.5638</v>
       </c>
       <c r="D33" t="n">
-        <v>49.0379</v>
+        <v>49.1462</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>40.569</v>
+        <v>40.4936</v>
       </c>
       <c r="C34" t="n">
-        <v>52.2474</v>
+        <v>52.3264</v>
       </c>
       <c r="D34" t="n">
-        <v>49.3155</v>
+        <v>49.5266</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>40.6185</v>
+        <v>41.0294</v>
       </c>
       <c r="C35" t="n">
-        <v>51.2394</v>
+        <v>51.3415</v>
       </c>
       <c r="D35" t="n">
-        <v>49.7038</v>
+        <v>49.9436</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>41.0064</v>
+        <v>41.0417</v>
       </c>
       <c r="C36" t="n">
-        <v>51.718</v>
+        <v>52.0303</v>
       </c>
       <c r="D36" t="n">
-        <v>50.0835</v>
+        <v>50.1776</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>41.0611</v>
+        <v>41.0454</v>
       </c>
       <c r="C37" t="n">
-        <v>52.0872</v>
+        <v>52.0082</v>
       </c>
       <c r="D37" t="n">
-        <v>50.1927</v>
+        <v>50.2926</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>41.124</v>
+        <v>41.1161</v>
       </c>
       <c r="C38" t="n">
-        <v>52.3094</v>
+        <v>52.5457</v>
       </c>
       <c r="D38" t="n">
-        <v>50.5538</v>
+        <v>50.5826</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>41.1326</v>
+        <v>41.3654</v>
       </c>
       <c r="C39" t="n">
-        <v>52.1826</v>
+        <v>52.4939</v>
       </c>
       <c r="D39" t="n">
-        <v>50.6028</v>
+        <v>50.8965</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>41.2439</v>
+        <v>41.2241</v>
       </c>
       <c r="C40" t="n">
-        <v>52.5675</v>
+        <v>52.8789</v>
       </c>
       <c r="D40" t="n">
-        <v>50.8282</v>
+        <v>51.0433</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>42.2632</v>
+        <v>42.4671</v>
       </c>
       <c r="C41" t="n">
-        <v>53.1045</v>
+        <v>53.0886</v>
       </c>
       <c r="D41" t="n">
-        <v>51.0917</v>
+        <v>51.2432</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>42.1537</v>
+        <v>42.1749</v>
       </c>
       <c r="C42" t="n">
-        <v>52.6276</v>
+        <v>52.7733</v>
       </c>
       <c r="D42" t="n">
-        <v>51.245</v>
+        <v>51.2724</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>42.2316</v>
+        <v>42.1922</v>
       </c>
       <c r="C43" t="n">
-        <v>53.1864</v>
+        <v>53.3605</v>
       </c>
       <c r="D43" t="n">
-        <v>51.4752</v>
+        <v>51.545</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>42.4534</v>
+        <v>42.1322</v>
       </c>
       <c r="C44" t="n">
-        <v>53.0878</v>
+        <v>53.1355</v>
       </c>
       <c r="D44" t="n">
-        <v>51.6423</v>
+        <v>51.8605</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>42.3267</v>
+        <v>42.2423</v>
       </c>
       <c r="C45" t="n">
-        <v>53.5234</v>
+        <v>53.5936</v>
       </c>
       <c r="D45" t="n">
-        <v>51.8679</v>
+        <v>51.9113</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>42.6986</v>
+        <v>42.4964</v>
       </c>
       <c r="C46" t="n">
-        <v>53.9048</v>
+        <v>53.7868</v>
       </c>
       <c r="D46" t="n">
-        <v>52.0306</v>
+        <v>52.1107</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>42.3942</v>
+        <v>42.5681</v>
       </c>
       <c r="C47" t="n">
-        <v>53.6645</v>
+        <v>53.6595</v>
       </c>
       <c r="D47" t="n">
-        <v>52.2655</v>
+        <v>52.4797</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>42.66</v>
+        <v>42.5154</v>
       </c>
       <c r="C48" t="n">
-        <v>53.6196</v>
+        <v>54.114</v>
       </c>
       <c r="D48" t="n">
-        <v>52.195</v>
+        <v>52.5013</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>42.6546</v>
+        <v>42.6796</v>
       </c>
       <c r="C49" t="n">
-        <v>53.9766</v>
+        <v>53.7782</v>
       </c>
       <c r="D49" t="n">
-        <v>52.3155</v>
+        <v>52.711</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>42.7265</v>
+        <v>42.7203</v>
       </c>
       <c r="C50" t="n">
-        <v>54.0963</v>
+        <v>54.4409</v>
       </c>
       <c r="D50" t="n">
-        <v>53.0221</v>
+        <v>52.7026</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>42.5393</v>
+        <v>42.5631</v>
       </c>
       <c r="C51" t="n">
-        <v>54.345</v>
+        <v>54.2622</v>
       </c>
       <c r="D51" t="n">
-        <v>53.0535</v>
+        <v>53.2232</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>42.818</v>
+        <v>42.5985</v>
       </c>
       <c r="C52" t="n">
-        <v>54.3471</v>
+        <v>54.5975</v>
       </c>
       <c r="D52" t="n">
-        <v>53.1566</v>
+        <v>53.4834</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>42.9086</v>
+        <v>42.7804</v>
       </c>
       <c r="C53" t="n">
-        <v>54.8354</v>
+        <v>54.5719</v>
       </c>
       <c r="D53" t="n">
-        <v>53.4942</v>
+        <v>53.4319</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>42.8412</v>
+        <v>42.9177</v>
       </c>
       <c r="C54" t="n">
-        <v>54.6581</v>
+        <v>54.6602</v>
       </c>
       <c r="D54" t="n">
-        <v>53.3796</v>
+        <v>53.4512</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>43.1106</v>
+        <v>42.8274</v>
       </c>
       <c r="C55" t="n">
-        <v>54.833</v>
+        <v>55.0548</v>
       </c>
       <c r="D55" t="n">
-        <v>53.4889</v>
+        <v>54.0893</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>44.0056</v>
+        <v>43.8424</v>
       </c>
       <c r="C56" t="n">
-        <v>54.7345</v>
+        <v>55.4592</v>
       </c>
       <c r="D56" t="n">
-        <v>53.8955</v>
+        <v>53.9055</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>43.7111</v>
+        <v>44.754</v>
       </c>
       <c r="C57" t="n">
-        <v>55.3404</v>
+        <v>55.7873</v>
       </c>
       <c r="D57" t="n">
-        <v>54.0782</v>
+        <v>54.0291</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>44.0347</v>
+        <v>44.9506</v>
       </c>
       <c r="C58" t="n">
-        <v>55.6327</v>
+        <v>56.2508</v>
       </c>
       <c r="D58" t="n">
-        <v>54.1483</v>
+        <v>54.7284</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>44.651</v>
+        <v>44.5997</v>
       </c>
       <c r="C59" t="n">
-        <v>56.6838</v>
+        <v>55.8837</v>
       </c>
       <c r="D59" t="n">
-        <v>54.0542</v>
+        <v>55.0759</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>44.7385</v>
+        <v>44.2617</v>
       </c>
       <c r="C60" t="n">
-        <v>56.2261</v>
+        <v>56.5239</v>
       </c>
       <c r="D60" t="n">
-        <v>54.3333</v>
+        <v>54.5467</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>44.7145</v>
+        <v>44.6165</v>
       </c>
       <c r="C61" t="n">
-        <v>56.6985</v>
+        <v>57.0467</v>
       </c>
       <c r="D61" t="n">
-        <v>54.4548</v>
+        <v>55.0105</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>44.4621</v>
+        <v>45.174</v>
       </c>
       <c r="C62" t="n">
-        <v>56.8535</v>
+        <v>57.1965</v>
       </c>
       <c r="D62" t="n">
-        <v>54.8261</v>
+        <v>55.1695</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>44.8407</v>
+        <v>46.0313</v>
       </c>
       <c r="C63" t="n">
-        <v>58.6863</v>
+        <v>58.9722</v>
       </c>
       <c r="D63" t="n">
-        <v>56.0955</v>
+        <v>56.9969</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>45.7835</v>
+        <v>46.5827</v>
       </c>
       <c r="C64" t="n">
-        <v>59.4976</v>
+        <v>58.7789</v>
       </c>
       <c r="D64" t="n">
-        <v>56.5817</v>
+        <v>56.9697</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>46.2006</v>
+        <v>46.2418</v>
       </c>
       <c r="C65" t="n">
-        <v>61.3776</v>
+        <v>60.0779</v>
       </c>
       <c r="D65" t="n">
-        <v>57.1912</v>
+        <v>58.4877</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>46.5993</v>
+        <v>48.0083</v>
       </c>
       <c r="C66" t="n">
-        <v>61.2538</v>
+        <v>62.2934</v>
       </c>
       <c r="D66" t="n">
-        <v>57.4953</v>
+        <v>59.386</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>47.2978</v>
+        <v>48.5687</v>
       </c>
       <c r="C67" t="n">
-        <v>63.4568</v>
+        <v>64.7187</v>
       </c>
       <c r="D67" t="n">
-        <v>58.9316</v>
+        <v>60.8444</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>48.2184</v>
+        <v>48.6632</v>
       </c>
       <c r="C68" t="n">
-        <v>64.7161</v>
+        <v>65.9693</v>
       </c>
       <c r="D68" t="n">
-        <v>59.6612</v>
+        <v>62.1657</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>48.8674</v>
+        <v>49.3842</v>
       </c>
       <c r="C69" t="n">
-        <v>67.8488</v>
+        <v>69.6279</v>
       </c>
       <c r="D69" t="n">
-        <v>60.8822</v>
+        <v>63.4915</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>56.0584</v>
+        <v>55.897</v>
       </c>
       <c r="C70" t="n">
-        <v>71.76009999999999</v>
+        <v>72.065</v>
       </c>
       <c r="D70" t="n">
-        <v>62.4931</v>
+        <v>63.5965</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>59.1137</v>
+        <v>59.0046</v>
       </c>
       <c r="C71" t="n">
-        <v>74.4192</v>
+        <v>74.0333</v>
       </c>
       <c r="D71" t="n">
-        <v>64.7407</v>
+        <v>65.7741</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>61.7438</v>
+        <v>62.0335</v>
       </c>
       <c r="C72" t="n">
-        <v>75.9486</v>
+        <v>78.5686</v>
       </c>
       <c r="D72" t="n">
-        <v>65.3887</v>
+        <v>66.9502</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>64.3854</v>
+        <v>66.4639</v>
       </c>
       <c r="C73" t="n">
-        <v>79.6183</v>
+        <v>80.7786</v>
       </c>
       <c r="D73" t="n">
-        <v>67.79259999999999</v>
+        <v>68.9631</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>69.6074</v>
+        <v>70.5692</v>
       </c>
       <c r="C74" t="n">
-        <v>83.52249999999999</v>
+        <v>83.5882</v>
       </c>
       <c r="D74" t="n">
-        <v>71.42019999999999</v>
+        <v>71.8103</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>73.3492</v>
+        <v>74.6707</v>
       </c>
       <c r="C75" t="n">
-        <v>86.8689</v>
+        <v>86.2163</v>
       </c>
       <c r="D75" t="n">
-        <v>72.8771</v>
+        <v>73.5723</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>78.6142</v>
+        <v>77.14060000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>90.67400000000001</v>
+        <v>91.1262</v>
       </c>
       <c r="D76" t="n">
-        <v>78.676</v>
+        <v>80.4418</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>82.05289999999999</v>
+        <v>82.9846</v>
       </c>
       <c r="C77" t="n">
-        <v>92.9633</v>
+        <v>92.68380000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>80.2978</v>
+        <v>81.7839</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>87.1229</v>
+        <v>86.4109</v>
       </c>
       <c r="C78" t="n">
-        <v>113.833</v>
+        <v>115.21</v>
       </c>
       <c r="D78" t="n">
-        <v>100.529</v>
+        <v>104.984</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>92.2043</v>
+        <v>92.2251</v>
       </c>
       <c r="C79" t="n">
-        <v>119.47</v>
+        <v>119.496</v>
       </c>
       <c r="D79" t="n">
-        <v>107.779</v>
+        <v>107.987</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>96.4516</v>
+        <v>96.85299999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>124.523</v>
+        <v>124.589</v>
       </c>
       <c r="D80" t="n">
-        <v>116.266</v>
+        <v>117.196</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>101.175</v>
+        <v>100.592</v>
       </c>
       <c r="C81" t="n">
-        <v>128.139</v>
+        <v>128.169</v>
       </c>
       <c r="D81" t="n">
-        <v>122.205</v>
+        <v>122.541</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>105.56</v>
+        <v>105.614</v>
       </c>
       <c r="C82" t="n">
-        <v>131.721</v>
+        <v>132.551</v>
       </c>
       <c r="D82" t="n">
-        <v>129.742</v>
+        <v>130.382</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>108.931</v>
+        <v>109.422</v>
       </c>
       <c r="C83" t="n">
-        <v>136.85</v>
+        <v>137.321</v>
       </c>
       <c r="D83" t="n">
-        <v>136.855</v>
+        <v>138.199</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>128.654</v>
+        <v>128.792</v>
       </c>
       <c r="C84" t="n">
-        <v>141.409</v>
+        <v>141.522</v>
       </c>
       <c r="D84" t="n">
-        <v>146.259</v>
+        <v>145.317</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>132.129</v>
+        <v>131.961</v>
       </c>
       <c r="C85" t="n">
-        <v>145.505</v>
+        <v>145.93</v>
       </c>
       <c r="D85" t="n">
-        <v>153.055</v>
+        <v>152.204</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>135.851</v>
+        <v>136.24</v>
       </c>
       <c r="C86" t="n">
-        <v>149.162</v>
+        <v>149.734</v>
       </c>
       <c r="D86" t="n">
-        <v>158.063</v>
+        <v>159.795</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>139.57</v>
+        <v>139.701</v>
       </c>
       <c r="C87" t="n">
-        <v>153.913</v>
+        <v>153.26</v>
       </c>
       <c r="D87" t="n">
-        <v>167.608</v>
+        <v>167.413</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>143.493</v>
+        <v>142.778</v>
       </c>
       <c r="C88" t="n">
-        <v>157.593</v>
+        <v>157.586</v>
       </c>
       <c r="D88" t="n">
-        <v>172.373</v>
+        <v>173.579</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>146.604</v>
+        <v>146.302</v>
       </c>
       <c r="C89" t="n">
-        <v>162.154</v>
+        <v>161.853</v>
       </c>
       <c r="D89" t="n">
-        <v>179.692</v>
+        <v>179.886</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>149.522</v>
+        <v>149.236</v>
       </c>
       <c r="C90" t="n">
-        <v>165.044</v>
+        <v>165.956</v>
       </c>
       <c r="D90" t="n">
-        <v>185.839</v>
+        <v>185.953</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>152.22</v>
+        <v>153.162</v>
       </c>
       <c r="C91" t="n">
-        <v>169.593</v>
+        <v>170.722</v>
       </c>
       <c r="D91" t="n">
-        <v>191.306</v>
+        <v>191.912</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>155.584</v>
+        <v>156.381</v>
       </c>
       <c r="C92" t="n">
-        <v>186.808</v>
+        <v>188.417</v>
       </c>
       <c r="D92" t="n">
-        <v>208.564</v>
+        <v>209.836</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>158.852</v>
+        <v>159.278</v>
       </c>
       <c r="C93" t="n">
-        <v>190.117</v>
+        <v>191.077</v>
       </c>
       <c r="D93" t="n">
-        <v>213.852</v>
+        <v>215.312</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>161.299</v>
+        <v>161.334</v>
       </c>
       <c r="C94" t="n">
-        <v>193.02</v>
+        <v>193.594</v>
       </c>
       <c r="D94" t="n">
-        <v>218.701</v>
+        <v>219.875</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>163.687</v>
+        <v>163.7</v>
       </c>
       <c r="C95" t="n">
-        <v>196.536</v>
+        <v>196.849</v>
       </c>
       <c r="D95" t="n">
-        <v>224.561</v>
+        <v>226.039</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>166.415</v>
+        <v>166.901</v>
       </c>
       <c r="C96" t="n">
-        <v>198.99</v>
+        <v>198.914</v>
       </c>
       <c r="D96" t="n">
-        <v>229.208</v>
+        <v>230.377</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>168.789</v>
+        <v>169.211</v>
       </c>
       <c r="C97" t="n">
-        <v>202.934</v>
+        <v>203.596</v>
       </c>
       <c r="D97" t="n">
-        <v>234.844</v>
+        <v>236.696</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>183.26</v>
+        <v>185.206</v>
       </c>
       <c r="C98" t="n">
-        <v>206.704</v>
+        <v>209.43</v>
       </c>
       <c r="D98" t="n">
-        <v>240.496</v>
+        <v>243.643</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>184.942</v>
+        <v>187.534</v>
       </c>
       <c r="C99" t="n">
-        <v>212.144</v>
+        <v>212.915</v>
       </c>
       <c r="D99" t="n">
-        <v>245.339</v>
+        <v>247.1</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>187.711</v>
+        <v>189.97</v>
       </c>
       <c r="C100" t="n">
-        <v>212.085</v>
+        <v>215.741</v>
       </c>
       <c r="D100" t="n">
-        <v>249.003</v>
+        <v>250.209</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>189.417</v>
+        <v>191.289</v>
       </c>
       <c r="C101" t="n">
-        <v>215.326</v>
+        <v>217.021</v>
       </c>
       <c r="D101" t="n">
-        <v>253.104</v>
+        <v>254.302</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>192.144</v>
+        <v>192.436</v>
       </c>
       <c r="C102" t="n">
-        <v>218.733</v>
+        <v>220.575</v>
       </c>
       <c r="D102" t="n">
-        <v>256.991</v>
+        <v>258.134</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>193.769</v>
+        <v>195.19</v>
       </c>
       <c r="C103" t="n">
-        <v>221.212</v>
+        <v>223.034</v>
       </c>
       <c r="D103" t="n">
-        <v>260.832</v>
+        <v>262.154</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>195.966</v>
+        <v>196.829</v>
       </c>
       <c r="C104" t="n">
-        <v>224.764</v>
+        <v>225.331</v>
       </c>
       <c r="D104" t="n">
-        <v>265.044</v>
+        <v>265.637</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>197.641</v>
+        <v>198.805</v>
       </c>
       <c r="C105" t="n">
-        <v>227.308</v>
+        <v>228.573</v>
       </c>
       <c r="D105" t="n">
-        <v>267.896</v>
+        <v>269.66</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>199.522</v>
+        <v>200.41</v>
       </c>
       <c r="C106" t="n">
-        <v>229.946</v>
+        <v>231.397</v>
       </c>
       <c r="D106" t="n">
-        <v>271.55</v>
+        <v>272.968</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>200.72</v>
+        <v>202.259</v>
       </c>
       <c r="C107" t="n">
-        <v>237.675</v>
+        <v>238.933</v>
       </c>
       <c r="D107" t="n">
-        <v>281.502</v>
+        <v>282.619</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>202.721</v>
+        <v>203.989</v>
       </c>
       <c r="C108" t="n">
-        <v>239.82</v>
+        <v>239.237</v>
       </c>
       <c r="D108" t="n">
-        <v>284.082</v>
+        <v>285.908</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>205.382</v>
+        <v>205.271</v>
       </c>
       <c r="C109" t="n">
-        <v>241.01</v>
+        <v>242.885</v>
       </c>
       <c r="D109" t="n">
-        <v>287.685</v>
+        <v>288.805</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>206.153</v>
+        <v>206.782</v>
       </c>
       <c r="C110" t="n">
-        <v>243.36</v>
+        <v>244.369</v>
       </c>
       <c r="D110" t="n">
-        <v>289.862</v>
+        <v>291.557</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>207.393</v>
+        <v>208.865</v>
       </c>
       <c r="C111" t="n">
-        <v>244.829</v>
+        <v>245.898</v>
       </c>
       <c r="D111" t="n">
-        <v>292.506</v>
+        <v>294.321</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>214.785</v>
+        <v>217.127</v>
       </c>
       <c r="C112" t="n">
-        <v>247.219</v>
+        <v>249.195</v>
       </c>
       <c r="D112" t="n">
-        <v>295.673</v>
+        <v>296.7</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>216.818</v>
+        <v>218.382</v>
       </c>
       <c r="C113" t="n">
-        <v>249.272</v>
+        <v>250.809</v>
       </c>
       <c r="D113" t="n">
-        <v>297.992</v>
+        <v>299.813</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>218.625</v>
+        <v>219.454</v>
       </c>
       <c r="C114" t="n">
-        <v>251.935</v>
+        <v>252.123</v>
       </c>
       <c r="D114" t="n">
-        <v>299.966</v>
+        <v>302.04</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>219.554</v>
+        <v>220.944</v>
       </c>
       <c r="C115" t="n">
-        <v>254.006</v>
+        <v>254.677</v>
       </c>
       <c r="D115" t="n">
-        <v>302.504</v>
+        <v>304.311</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>220.899</v>
+        <v>222.017</v>
       </c>
       <c r="C116" t="n">
-        <v>255.862</v>
+        <v>256.926</v>
       </c>
       <c r="D116" t="n">
-        <v>304.961</v>
+        <v>306.317</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>222.414</v>
+        <v>223.139</v>
       </c>
       <c r="C117" t="n">
-        <v>257.752</v>
+        <v>259.18</v>
       </c>
       <c r="D117" t="n">
-        <v>306.444</v>
+        <v>307.828</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>223.463</v>
+        <v>224.759</v>
       </c>
       <c r="C118" t="n">
-        <v>260.667</v>
+        <v>261.447</v>
       </c>
       <c r="D118" t="n">
-        <v>308.714</v>
+        <v>310.788</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>224.533</v>
+        <v>225.816</v>
       </c>
       <c r="C119" t="n">
-        <v>262.796</v>
+        <v>263.229</v>
       </c>
       <c r="D119" t="n">
-        <v>311.238</v>
+        <v>312.358</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>27.5066</v>
+        <v>27.7147</v>
       </c>
       <c r="C2" t="n">
-        <v>42.8221</v>
+        <v>42.8957</v>
       </c>
       <c r="D2" t="n">
-        <v>36.3946</v>
+        <v>36.5797</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>29.2142</v>
+        <v>29.1836</v>
       </c>
       <c r="C3" t="n">
-        <v>43.5293</v>
+        <v>43.8033</v>
       </c>
       <c r="D3" t="n">
-        <v>36.9746</v>
+        <v>37.1659</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>29.7487</v>
+        <v>29.5749</v>
       </c>
       <c r="C4" t="n">
-        <v>43.8482</v>
+        <v>44.0002</v>
       </c>
       <c r="D4" t="n">
-        <v>36.9837</v>
+        <v>37.4246</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>29.6393</v>
+        <v>29.4576</v>
       </c>
       <c r="C5" t="n">
-        <v>44.1621</v>
+        <v>44.21</v>
       </c>
       <c r="D5" t="n">
-        <v>37.6953</v>
+        <v>37.4503</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3219</v>
+        <v>29.4151</v>
       </c>
       <c r="C6" t="n">
-        <v>44.2442</v>
+        <v>44.3877</v>
       </c>
       <c r="D6" t="n">
-        <v>37.5169</v>
+        <v>37.8366</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>29.5102</v>
+        <v>29.6455</v>
       </c>
       <c r="C7" t="n">
-        <v>44.7185</v>
+        <v>44.966</v>
       </c>
       <c r="D7" t="n">
-        <v>37.81</v>
+        <v>38.0901</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>29.9535</v>
+        <v>30.1091</v>
       </c>
       <c r="C8" t="n">
-        <v>45.8007</v>
+        <v>45.8378</v>
       </c>
       <c r="D8" t="n">
-        <v>38.1512</v>
+        <v>38.5076</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0528</v>
+        <v>29.8597</v>
       </c>
       <c r="C9" t="n">
-        <v>46.0687</v>
+        <v>46.231</v>
       </c>
       <c r="D9" t="n">
-        <v>38.4961</v>
+        <v>38.8889</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>30.1404</v>
+        <v>30.1482</v>
       </c>
       <c r="C10" t="n">
-        <v>47.0645</v>
+        <v>47.3935</v>
       </c>
       <c r="D10" t="n">
-        <v>38.7777</v>
+        <v>38.8302</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>30.3789</v>
+        <v>30.2138</v>
       </c>
       <c r="C11" t="n">
-        <v>45.9073</v>
+        <v>46.1553</v>
       </c>
       <c r="D11" t="n">
-        <v>39.3913</v>
+        <v>39.501</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>30.2487</v>
+        <v>30.4239</v>
       </c>
       <c r="C12" t="n">
-        <v>46.1912</v>
+        <v>46.2035</v>
       </c>
       <c r="D12" t="n">
-        <v>40.4737</v>
+        <v>40.1779</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>30.9809</v>
+        <v>30.5746</v>
       </c>
       <c r="C13" t="n">
-        <v>46.7892</v>
+        <v>46.7837</v>
       </c>
       <c r="D13" t="n">
-        <v>40.1682</v>
+        <v>40.2977</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>30.902</v>
+        <v>30.6349</v>
       </c>
       <c r="C14" t="n">
-        <v>47.6361</v>
+        <v>47.6453</v>
       </c>
       <c r="D14" t="n">
-        <v>40.9108</v>
+        <v>40.7047</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>30.7874</v>
+        <v>30.7113</v>
       </c>
       <c r="C15" t="n">
-        <v>48.0462</v>
+        <v>47.9658</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3266</v>
+        <v>41.3983</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>30.841</v>
+        <v>30.8709</v>
       </c>
       <c r="C16" t="n">
-        <v>48.3747</v>
+        <v>48.4672</v>
       </c>
       <c r="D16" t="n">
-        <v>41.7084</v>
+        <v>41.8931</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>33.7673</v>
+        <v>33.8659</v>
       </c>
       <c r="C17" t="n">
-        <v>49.0111</v>
+        <v>48.9221</v>
       </c>
       <c r="D17" t="n">
-        <v>42.1493</v>
+        <v>42.2635</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>33.9295</v>
+        <v>33.8688</v>
       </c>
       <c r="C18" t="n">
-        <v>49.4208</v>
+        <v>49.6146</v>
       </c>
       <c r="D18" t="n">
-        <v>42.4845</v>
+        <v>42.8684</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>34.0415</v>
+        <v>34.1636</v>
       </c>
       <c r="C19" t="n">
-        <v>50.492</v>
+        <v>50.5398</v>
       </c>
       <c r="D19" t="n">
-        <v>43.0909</v>
+        <v>43.2869</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>34.4659</v>
+        <v>34.7268</v>
       </c>
       <c r="C20" t="n">
-        <v>51.1346</v>
+        <v>51.1967</v>
       </c>
       <c r="D20" t="n">
-        <v>43.6872</v>
+        <v>43.8897</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>34.4985</v>
+        <v>34.5632</v>
       </c>
       <c r="C21" t="n">
-        <v>51.7615</v>
+        <v>51.7676</v>
       </c>
       <c r="D21" t="n">
-        <v>44.0988</v>
+        <v>44.4059</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>34.711</v>
+        <v>34.7275</v>
       </c>
       <c r="C22" t="n">
-        <v>52.5211</v>
+        <v>52.5166</v>
       </c>
       <c r="D22" t="n">
-        <v>44.5401</v>
+        <v>44.7688</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>34.7607</v>
+        <v>34.8205</v>
       </c>
       <c r="C23" t="n">
-        <v>53.3531</v>
+        <v>53.3232</v>
       </c>
       <c r="D23" t="n">
-        <v>45.1272</v>
+        <v>45.1932</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>35.0555</v>
+        <v>34.9977</v>
       </c>
       <c r="C24" t="n">
-        <v>54.1621</v>
+        <v>54.1858</v>
       </c>
       <c r="D24" t="n">
-        <v>45.6022</v>
+        <v>45.7571</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>35.1558</v>
+        <v>35.2207</v>
       </c>
       <c r="C25" t="n">
-        <v>55.128</v>
+        <v>55.144</v>
       </c>
       <c r="D25" t="n">
-        <v>45.9109</v>
+        <v>46.0323</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>35.3702</v>
+        <v>35.2984</v>
       </c>
       <c r="C26" t="n">
-        <v>51.0494</v>
+        <v>51.0787</v>
       </c>
       <c r="D26" t="n">
-        <v>46.5266</v>
+        <v>46.6724</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>35.1909</v>
+        <v>35.2495</v>
       </c>
       <c r="C27" t="n">
-        <v>51.2747</v>
+        <v>51.3004</v>
       </c>
       <c r="D27" t="n">
-        <v>46.7496</v>
+        <v>47.0426</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>35.4661</v>
+        <v>35.5918</v>
       </c>
       <c r="C28" t="n">
-        <v>51.874</v>
+        <v>51.8807</v>
       </c>
       <c r="D28" t="n">
-        <v>47.2808</v>
+        <v>47.3379</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>35.4065</v>
+        <v>35.5089</v>
       </c>
       <c r="C29" t="n">
-        <v>52.1286</v>
+        <v>52.1296</v>
       </c>
       <c r="D29" t="n">
-        <v>47.5474</v>
+        <v>47.5358</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>35.6632</v>
+        <v>35.5702</v>
       </c>
       <c r="C30" t="n">
-        <v>52.8016</v>
+        <v>52.7227</v>
       </c>
       <c r="D30" t="n">
-        <v>48.1232</v>
+        <v>48.1717</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>35.6565</v>
+        <v>35.6561</v>
       </c>
       <c r="C31" t="n">
-        <v>53.1495</v>
+        <v>53.2666</v>
       </c>
       <c r="D31" t="n">
-        <v>48.4063</v>
+        <v>48.6795</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>38.2524</v>
+        <v>38.243</v>
       </c>
       <c r="C32" t="n">
-        <v>54.0706</v>
+        <v>54.1734</v>
       </c>
       <c r="D32" t="n">
-        <v>48.6239</v>
+        <v>48.7282</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>38.3923</v>
+        <v>38.3317</v>
       </c>
       <c r="C33" t="n">
-        <v>54.6143</v>
+        <v>54.8937</v>
       </c>
       <c r="D33" t="n">
-        <v>48.8918</v>
+        <v>49.2309</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>38.4638</v>
+        <v>38.4136</v>
       </c>
       <c r="C34" t="n">
-        <v>55.334</v>
+        <v>55.5647</v>
       </c>
       <c r="D34" t="n">
-        <v>49.2682</v>
+        <v>49.4446</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>38.4034</v>
+        <v>38.3485</v>
       </c>
       <c r="C35" t="n">
-        <v>55.9045</v>
+        <v>56.0603</v>
       </c>
       <c r="D35" t="n">
-        <v>49.6247</v>
+        <v>49.7674</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>38.6308</v>
+        <v>38.5582</v>
       </c>
       <c r="C36" t="n">
-        <v>57.2426</v>
+        <v>57.0355</v>
       </c>
       <c r="D36" t="n">
-        <v>49.8335</v>
+        <v>50.0962</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>38.6415</v>
+        <v>38.6049</v>
       </c>
       <c r="C37" t="n">
-        <v>58.0571</v>
+        <v>57.7659</v>
       </c>
       <c r="D37" t="n">
-        <v>50.3132</v>
+        <v>50.3002</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>38.6294</v>
+        <v>38.6183</v>
       </c>
       <c r="C38" t="n">
-        <v>58.3969</v>
+        <v>58.5583</v>
       </c>
       <c r="D38" t="n">
-        <v>50.5354</v>
+        <v>50.6193</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>38.7224</v>
+        <v>38.7219</v>
       </c>
       <c r="C39" t="n">
-        <v>59.5876</v>
+        <v>59.568</v>
       </c>
       <c r="D39" t="n">
-        <v>50.8654</v>
+        <v>50.9329</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>38.8252</v>
+        <v>38.7315</v>
       </c>
       <c r="C40" t="n">
-        <v>56.0108</v>
+        <v>55.8103</v>
       </c>
       <c r="D40" t="n">
-        <v>51.1303</v>
+        <v>51.2074</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>38.8737</v>
+        <v>38.7883</v>
       </c>
       <c r="C41" t="n">
-        <v>56.2072</v>
+        <v>56.0982</v>
       </c>
       <c r="D41" t="n">
-        <v>51.3471</v>
+        <v>51.4073</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>38.9055</v>
+        <v>38.8917</v>
       </c>
       <c r="C42" t="n">
-        <v>56.983</v>
+        <v>56.7559</v>
       </c>
       <c r="D42" t="n">
-        <v>51.61</v>
+        <v>51.7549</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>38.8453</v>
+        <v>38.8255</v>
       </c>
       <c r="C43" t="n">
-        <v>57.4726</v>
+        <v>57.1537</v>
       </c>
       <c r="D43" t="n">
-        <v>51.7504</v>
+        <v>51.972</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>38.8925</v>
+        <v>38.9448</v>
       </c>
       <c r="C44" t="n">
-        <v>58.028</v>
+        <v>57.9793</v>
       </c>
       <c r="D44" t="n">
-        <v>52.0267</v>
+        <v>52.4003</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>38.8485</v>
+        <v>38.9369</v>
       </c>
       <c r="C45" t="n">
-        <v>58.4991</v>
+        <v>58.7484</v>
       </c>
       <c r="D45" t="n">
-        <v>52.0819</v>
+        <v>52.4765</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>40.9327</v>
+        <v>40.8592</v>
       </c>
       <c r="C46" t="n">
-        <v>59.3907</v>
+        <v>59.5718</v>
       </c>
       <c r="D46" t="n">
-        <v>52.5763</v>
+        <v>52.8077</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>40.8439</v>
+        <v>40.9146</v>
       </c>
       <c r="C47" t="n">
-        <v>60.172</v>
+        <v>59.6215</v>
       </c>
       <c r="D47" t="n">
-        <v>52.8061</v>
+        <v>53.0357</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>41.0199</v>
+        <v>40.8491</v>
       </c>
       <c r="C48" t="n">
-        <v>60.3649</v>
+        <v>60.3789</v>
       </c>
       <c r="D48" t="n">
-        <v>52.7775</v>
+        <v>53.0974</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>41.0815</v>
+        <v>40.991</v>
       </c>
       <c r="C49" t="n">
-        <v>61.4541</v>
+        <v>61.2382</v>
       </c>
       <c r="D49" t="n">
-        <v>53.1664</v>
+        <v>53.4621</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>41.2602</v>
+        <v>40.9013</v>
       </c>
       <c r="C50" t="n">
-        <v>62.1415</v>
+        <v>62.148</v>
       </c>
       <c r="D50" t="n">
-        <v>53.4846</v>
+        <v>53.5923</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>41.1022</v>
+        <v>41.0084</v>
       </c>
       <c r="C51" t="n">
-        <v>62.3805</v>
+        <v>62.6206</v>
       </c>
       <c r="D51" t="n">
-        <v>53.5502</v>
+        <v>53.8746</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>41.2238</v>
+        <v>41.0952</v>
       </c>
       <c r="C52" t="n">
-        <v>63.3694</v>
+        <v>63.8782</v>
       </c>
       <c r="D52" t="n">
-        <v>53.7048</v>
+        <v>54.1766</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>41.1791</v>
+        <v>41.1608</v>
       </c>
       <c r="C53" t="n">
-        <v>64.06789999999999</v>
+        <v>64.3034</v>
       </c>
       <c r="D53" t="n">
-        <v>53.844</v>
+        <v>54.5001</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>41.1057</v>
+        <v>41.2466</v>
       </c>
       <c r="C54" t="n">
-        <v>59.8002</v>
+        <v>60.6147</v>
       </c>
       <c r="D54" t="n">
-        <v>53.8224</v>
+        <v>55.0719</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>41.2529</v>
+        <v>41.339</v>
       </c>
       <c r="C55" t="n">
-        <v>59.6826</v>
+        <v>60.9703</v>
       </c>
       <c r="D55" t="n">
-        <v>54.0459</v>
+        <v>55.3566</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>41.3001</v>
+        <v>41.5223</v>
       </c>
       <c r="C56" t="n">
-        <v>60.9391</v>
+        <v>61.5307</v>
       </c>
       <c r="D56" t="n">
-        <v>54.0507</v>
+        <v>55.5353</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>41.3129</v>
+        <v>41.6199</v>
       </c>
       <c r="C57" t="n">
-        <v>60.9721</v>
+        <v>62.1316</v>
       </c>
       <c r="D57" t="n">
-        <v>54.4612</v>
+        <v>56.1938</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>41.3874</v>
+        <v>41.7259</v>
       </c>
       <c r="C58" t="n">
-        <v>61.9444</v>
+        <v>62.9566</v>
       </c>
       <c r="D58" t="n">
-        <v>54.7173</v>
+        <v>56.5021</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>41.3956</v>
+        <v>41.6905</v>
       </c>
       <c r="C59" t="n">
-        <v>61.9874</v>
+        <v>63.6171</v>
       </c>
       <c r="D59" t="n">
-        <v>54.9406</v>
+        <v>56.7159</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>42.7314</v>
+        <v>43.0166</v>
       </c>
       <c r="C60" t="n">
-        <v>63.389</v>
+        <v>64.24890000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>55.4196</v>
+        <v>57.7941</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>42.7377</v>
+        <v>43.5494</v>
       </c>
       <c r="C61" t="n">
-        <v>63.9685</v>
+        <v>65.6066</v>
       </c>
       <c r="D61" t="n">
-        <v>55.7341</v>
+        <v>57.788</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>43.3164</v>
+        <v>43.6202</v>
       </c>
       <c r="C62" t="n">
-        <v>64.892</v>
+        <v>66.7561</v>
       </c>
       <c r="D62" t="n">
-        <v>56.2722</v>
+        <v>58.8543</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>43.1663</v>
+        <v>43.6404</v>
       </c>
       <c r="C63" t="n">
-        <v>66.41240000000001</v>
+        <v>67.495</v>
       </c>
       <c r="D63" t="n">
-        <v>56.5574</v>
+        <v>58.9908</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>43.6153</v>
+        <v>44.1622</v>
       </c>
       <c r="C64" t="n">
-        <v>66.8278</v>
+        <v>68.72709999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>57.1366</v>
+        <v>59.4238</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>43.7364</v>
+        <v>44.437</v>
       </c>
       <c r="C65" t="n">
-        <v>68.5936</v>
+        <v>70.8074</v>
       </c>
       <c r="D65" t="n">
-        <v>57.6517</v>
+        <v>60.4893</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>43.9108</v>
+        <v>45.3812</v>
       </c>
       <c r="C66" t="n">
-        <v>69.4675</v>
+        <v>72.6606</v>
       </c>
       <c r="D66" t="n">
-        <v>58.4531</v>
+        <v>61.9348</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>44.4279</v>
+        <v>45.6111</v>
       </c>
       <c r="C67" t="n">
-        <v>71.3449</v>
+        <v>74.7518</v>
       </c>
       <c r="D67" t="n">
-        <v>59.2174</v>
+        <v>62.533</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>44.8859</v>
+        <v>45.8717</v>
       </c>
       <c r="C68" t="n">
-        <v>66.1593</v>
+        <v>68.825</v>
       </c>
       <c r="D68" t="n">
-        <v>60.7422</v>
+        <v>64.01690000000001</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>45.4031</v>
+        <v>46.228</v>
       </c>
       <c r="C69" t="n">
-        <v>67.7949</v>
+        <v>69.6738</v>
       </c>
       <c r="D69" t="n">
-        <v>62.108</v>
+        <v>64.6039</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>45.9086</v>
+        <v>46.5277</v>
       </c>
       <c r="C70" t="n">
-        <v>70.3813</v>
+        <v>71.56019999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>63.6637</v>
+        <v>65.2758</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>45.9939</v>
+        <v>47.3873</v>
       </c>
       <c r="C71" t="n">
-        <v>73.3908</v>
+        <v>76.1463</v>
       </c>
       <c r="D71" t="n">
-        <v>64.24939999999999</v>
+        <v>66.22110000000001</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>47.1616</v>
+        <v>47.7281</v>
       </c>
       <c r="C72" t="n">
-        <v>76.5998</v>
+        <v>78.9452</v>
       </c>
       <c r="D72" t="n">
-        <v>65.4773</v>
+        <v>67.4722</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>47.8277</v>
+        <v>48.297</v>
       </c>
       <c r="C73" t="n">
-        <v>80.6964</v>
+        <v>81.815</v>
       </c>
       <c r="D73" t="n">
-        <v>66.624</v>
+        <v>68.1447</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>51.1802</v>
+        <v>52.5492</v>
       </c>
       <c r="C74" t="n">
-        <v>84.89490000000001</v>
+        <v>84.9408</v>
       </c>
       <c r="D74" t="n">
-        <v>68.1815</v>
+        <v>69.2897</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>52.456</v>
+        <v>54.0112</v>
       </c>
       <c r="C75" t="n">
-        <v>87.7308</v>
+        <v>88.2741</v>
       </c>
       <c r="D75" t="n">
-        <v>68.883</v>
+        <v>71.1756</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>54.4735</v>
+        <v>56.0714</v>
       </c>
       <c r="C76" t="n">
-        <v>91.49469999999999</v>
+        <v>91.83329999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>71.4696</v>
+        <v>73.49509999999999</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>56.629</v>
+        <v>58.3222</v>
       </c>
       <c r="C77" t="n">
-        <v>94.13460000000001</v>
+        <v>95.1983</v>
       </c>
       <c r="D77" t="n">
-        <v>72.5976</v>
+        <v>74.8775</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>59.6349</v>
+        <v>60.2381</v>
       </c>
       <c r="C78" t="n">
-        <v>97.2632</v>
+        <v>98.5793</v>
       </c>
       <c r="D78" t="n">
-        <v>74.7657</v>
+        <v>75.9264</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>62.6254</v>
+        <v>62.6505</v>
       </c>
       <c r="C79" t="n">
-        <v>101.237</v>
+        <v>102.104</v>
       </c>
       <c r="D79" t="n">
-        <v>78.7075</v>
+        <v>79.4355</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>67.5097</v>
+        <v>67.1939</v>
       </c>
       <c r="C80" t="n">
-        <v>108.856</v>
+        <v>107.055</v>
       </c>
       <c r="D80" t="n">
-        <v>82.0936</v>
+        <v>82.425</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>69.60209999999999</v>
+        <v>69.7064</v>
       </c>
       <c r="C81" t="n">
-        <v>111.409</v>
+        <v>112.477</v>
       </c>
       <c r="D81" t="n">
-        <v>88.77419999999999</v>
+        <v>86.9756</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>73.3347</v>
+        <v>73.5159</v>
       </c>
       <c r="C82" t="n">
-        <v>117.939</v>
+        <v>117.298</v>
       </c>
       <c r="D82" t="n">
-        <v>92.771</v>
+        <v>93.256</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>77.2176</v>
+        <v>78.26649999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>116.998</v>
+        <v>118.46</v>
       </c>
       <c r="D83" t="n">
-        <v>107.205</v>
+        <v>107.501</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>81.2889</v>
+        <v>81.3359</v>
       </c>
       <c r="C84" t="n">
-        <v>122.881</v>
+        <v>124.561</v>
       </c>
       <c r="D84" t="n">
-        <v>115.154</v>
+        <v>115.353</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>84.58199999999999</v>
+        <v>85.2984</v>
       </c>
       <c r="C85" t="n">
-        <v>129.129</v>
+        <v>130.164</v>
       </c>
       <c r="D85" t="n">
-        <v>123.237</v>
+        <v>123.816</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>87.89360000000001</v>
+        <v>88.6862</v>
       </c>
       <c r="C86" t="n">
-        <v>135.848</v>
+        <v>136.2</v>
       </c>
       <c r="D86" t="n">
-        <v>130.701</v>
+        <v>132.196</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>91.5376</v>
+        <v>92.5701</v>
       </c>
       <c r="C87" t="n">
-        <v>141.499</v>
+        <v>141.812</v>
       </c>
       <c r="D87" t="n">
-        <v>137.93</v>
+        <v>138.94</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>94.9413</v>
+        <v>95.51430000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>148.547</v>
+        <v>149.443</v>
       </c>
       <c r="D88" t="n">
-        <v>145.612</v>
+        <v>147.226</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>113.459</v>
+        <v>114.181</v>
       </c>
       <c r="C89" t="n">
-        <v>155.517</v>
+        <v>156.627</v>
       </c>
       <c r="D89" t="n">
-        <v>152.423</v>
+        <v>153.751</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>117.326</v>
+        <v>117.103</v>
       </c>
       <c r="C90" t="n">
-        <v>162.911</v>
+        <v>164.095</v>
       </c>
       <c r="D90" t="n">
-        <v>159.904</v>
+        <v>161.032</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>119.78</v>
+        <v>120.073</v>
       </c>
       <c r="C91" t="n">
-        <v>170.12</v>
+        <v>170.985</v>
       </c>
       <c r="D91" t="n">
-        <v>166.994</v>
+        <v>167.809</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>122.554</v>
+        <v>122.616</v>
       </c>
       <c r="C92" t="n">
-        <v>177.249</v>
+        <v>178.576</v>
       </c>
       <c r="D92" t="n">
-        <v>173.655</v>
+        <v>174.458</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>125.167</v>
+        <v>125.937</v>
       </c>
       <c r="C93" t="n">
-        <v>185.365</v>
+        <v>185.536</v>
       </c>
       <c r="D93" t="n">
-        <v>179.481</v>
+        <v>180.413</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>127.436</v>
+        <v>127.772</v>
       </c>
       <c r="C94" t="n">
-        <v>193.847</v>
+        <v>193.751</v>
       </c>
       <c r="D94" t="n">
-        <v>185.151</v>
+        <v>186.808</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>130.28</v>
+        <v>130.425</v>
       </c>
       <c r="C95" t="n">
-        <v>201.023</v>
+        <v>201.38</v>
       </c>
       <c r="D95" t="n">
-        <v>191.056</v>
+        <v>192.22</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>132.206</v>
+        <v>132.878</v>
       </c>
       <c r="C96" t="n">
-        <v>208.424</v>
+        <v>210.386</v>
       </c>
       <c r="D96" t="n">
-        <v>196.736</v>
+        <v>198.261</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>134.469</v>
+        <v>134.752</v>
       </c>
       <c r="C97" t="n">
-        <v>193.929</v>
+        <v>196.319</v>
       </c>
       <c r="D97" t="n">
-        <v>212.786</v>
+        <v>212.912</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>138.593</v>
+        <v>139.085</v>
       </c>
       <c r="C98" t="n">
-        <v>203.321</v>
+        <v>204.885</v>
       </c>
       <c r="D98" t="n">
-        <v>218.502</v>
+        <v>220.449</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>140.092</v>
+        <v>140.916</v>
       </c>
       <c r="C99" t="n">
-        <v>208.613</v>
+        <v>209.54</v>
       </c>
       <c r="D99" t="n">
-        <v>222.817</v>
+        <v>224.75</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>142.314</v>
+        <v>143.297</v>
       </c>
       <c r="C100" t="n">
-        <v>213.591</v>
+        <v>215.037</v>
       </c>
       <c r="D100" t="n">
-        <v>227.698</v>
+        <v>229.054</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>144.2</v>
+        <v>144.869</v>
       </c>
       <c r="C101" t="n">
-        <v>219.135</v>
+        <v>220.685</v>
       </c>
       <c r="D101" t="n">
-        <v>231.688</v>
+        <v>232.631</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>146.114</v>
+        <v>146.417</v>
       </c>
       <c r="C102" t="n">
-        <v>225.651</v>
+        <v>226.835</v>
       </c>
       <c r="D102" t="n">
-        <v>236.452</v>
+        <v>237.887</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>168.093</v>
+        <v>168.546</v>
       </c>
       <c r="C103" t="n">
-        <v>232.741</v>
+        <v>232.935</v>
       </c>
       <c r="D103" t="n">
-        <v>240.487</v>
+        <v>241.359</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>169.764</v>
+        <v>170.085</v>
       </c>
       <c r="C104" t="n">
-        <v>237.609</v>
+        <v>238.894</v>
       </c>
       <c r="D104" t="n">
-        <v>244.058</v>
+        <v>245.287</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>171.69</v>
+        <v>171.788</v>
       </c>
       <c r="C105" t="n">
-        <v>244.929</v>
+        <v>245.819</v>
       </c>
       <c r="D105" t="n">
-        <v>247.314</v>
+        <v>248.879</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>173.459</v>
+        <v>173.662</v>
       </c>
       <c r="C106" t="n">
-        <v>251.726</v>
+        <v>251.326</v>
       </c>
       <c r="D106" t="n">
-        <v>251.965</v>
+        <v>251.975</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>174.729</v>
+        <v>175.717</v>
       </c>
       <c r="C107" t="n">
-        <v>257.411</v>
+        <v>258.219</v>
       </c>
       <c r="D107" t="n">
-        <v>254.899</v>
+        <v>255.619</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>176.235</v>
+        <v>176.909</v>
       </c>
       <c r="C108" t="n">
-        <v>265.809</v>
+        <v>266.51</v>
       </c>
       <c r="D108" t="n">
-        <v>258.168</v>
+        <v>258.722</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>177.896</v>
+        <v>178.5</v>
       </c>
       <c r="C109" t="n">
-        <v>272.867</v>
+        <v>272.503</v>
       </c>
       <c r="D109" t="n">
-        <v>261.306</v>
+        <v>262.15</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>179.414</v>
+        <v>179.884</v>
       </c>
       <c r="C110" t="n">
-        <v>279.609</v>
+        <v>280.326</v>
       </c>
       <c r="D110" t="n">
-        <v>263.871</v>
+        <v>265.154</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>180.628</v>
+        <v>181.512</v>
       </c>
       <c r="C111" t="n">
-        <v>255.049</v>
+        <v>256.055</v>
       </c>
       <c r="D111" t="n">
-        <v>277.153</v>
+        <v>278.401</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>182.123</v>
+        <v>182.939</v>
       </c>
       <c r="C112" t="n">
-        <v>259.773</v>
+        <v>260.295</v>
       </c>
       <c r="D112" t="n">
-        <v>279.993</v>
+        <v>280.565</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>183.11</v>
+        <v>183.843</v>
       </c>
       <c r="C113" t="n">
-        <v>264.602</v>
+        <v>265.241</v>
       </c>
       <c r="D113" t="n">
-        <v>282.411</v>
+        <v>283.313</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>184.528</v>
+        <v>185.425</v>
       </c>
       <c r="C114" t="n">
-        <v>269.439</v>
+        <v>270.325</v>
       </c>
       <c r="D114" t="n">
-        <v>285.158</v>
+        <v>285.882</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>185.559</v>
+        <v>185.942</v>
       </c>
       <c r="C115" t="n">
-        <v>274.402</v>
+        <v>274.698</v>
       </c>
       <c r="D115" t="n">
-        <v>287.429</v>
+        <v>288.681</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>186.97</v>
+        <v>187.289</v>
       </c>
       <c r="C116" t="n">
-        <v>279.903</v>
+        <v>281.381</v>
       </c>
       <c r="D116" t="n">
-        <v>290.047</v>
+        <v>291.21</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>205.262</v>
+        <v>205.982</v>
       </c>
       <c r="C117" t="n">
-        <v>286.36</v>
+        <v>286.827</v>
       </c>
       <c r="D117" t="n">
-        <v>292.267</v>
+        <v>293.11</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>206.213</v>
+        <v>207.157</v>
       </c>
       <c r="C118" t="n">
-        <v>292.601</v>
+        <v>292.645</v>
       </c>
       <c r="D118" t="n">
-        <v>294.461</v>
+        <v>295.79</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>207.229</v>
+        <v>207.834</v>
       </c>
       <c r="C119" t="n">
-        <v>298.669</v>
+        <v>298.504</v>
       </c>
       <c r="D119" t="n">
-        <v>296.186</v>
+        <v>297.387</v>
       </c>
     </row>
   </sheetData>
